--- a/Docs/Source to target mapping.xlsx
+++ b/Docs/Source to target mapping.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zinyk\source\repos\Northwind_BI_Solution\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC25CA28-D3F3-4189-840D-DEB8256BF6B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78BD0115-F890-45A7-B3DC-33A18B6129E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{4088A55A-653F-450D-AAB8-4D657457B3B6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{4088A55A-653F-450D-AAB8-4D657457B3B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Customer" sheetId="2" r:id="rId1"/>
     <sheet name="Date" sheetId="3" r:id="rId2"/>
+    <sheet name="Employee" sheetId="4" r:id="rId3"/>
+    <sheet name="Product" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="279">
   <si>
     <t>Source</t>
   </si>
@@ -391,9 +393,6 @@
   </si>
   <si>
     <t>Northwind (упрощённая)</t>
-  </si>
-  <si>
-    <t>NULL</t>
   </si>
   <si>
     <t>Date</t>
@@ -617,6 +616,270 @@
   </si>
   <si>
     <t>(DT_DATE)(SUBSTRING(@[User::xmlPath],FINDSTRING(@[User::xmlPath],"\\calendar.xml",1) - 4,4) + "." + d)</t>
+  </si>
+  <si>
+    <t>EmployeeKey</t>
+  </si>
+  <si>
+    <t>EmployeeAlterKey</t>
+  </si>
+  <si>
+    <t>Employee</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>TitleOfCourtesy</t>
+  </si>
+  <si>
+    <t>NVARCHAR(35)</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>MasterEmployee</t>
+  </si>
+  <si>
+    <t>NVARCHAR(20)</t>
+  </si>
+  <si>
+    <t>NW_Employee</t>
+  </si>
+  <si>
+    <t>EmployeeID_Source</t>
+  </si>
+  <si>
+    <t>EmployeeID_Output</t>
+  </si>
+  <si>
+    <t>EmployeeID_Reason</t>
+  </si>
+  <si>
+    <t>EmployeeID_Confidence</t>
+  </si>
+  <si>
+    <t>EmployeeID_Status</t>
+  </si>
+  <si>
+    <t>LastName_Source</t>
+  </si>
+  <si>
+    <t>LastName_Output</t>
+  </si>
+  <si>
+    <t>LastName_Reason</t>
+  </si>
+  <si>
+    <t>LastName_Confidence</t>
+  </si>
+  <si>
+    <t>LastName_Status</t>
+  </si>
+  <si>
+    <t>FirstName_Source</t>
+  </si>
+  <si>
+    <t>FirstName_Output</t>
+  </si>
+  <si>
+    <t>FirstName_Reason</t>
+  </si>
+  <si>
+    <t>FirstName_Confidence</t>
+  </si>
+  <si>
+    <t>FirstName_Status</t>
+  </si>
+  <si>
+    <t>Title_Source</t>
+  </si>
+  <si>
+    <t>Title_Output</t>
+  </si>
+  <si>
+    <t>Title_Reason</t>
+  </si>
+  <si>
+    <t>Title_Confidence</t>
+  </si>
+  <si>
+    <t>Title_Status</t>
+  </si>
+  <si>
+    <t>TitleOfCourtesy_Source</t>
+  </si>
+  <si>
+    <t>TitleOfCourtesy_Output</t>
+  </si>
+  <si>
+    <t>TitleOfCourtesy_Reason</t>
+  </si>
+  <si>
+    <t>TitleOfCourtesy_Confidence</t>
+  </si>
+  <si>
+    <t>TitleOfCourtesy_Status</t>
+  </si>
+  <si>
+    <t>TitleOfCourtesy + " " + FirstName + " " + LastName</t>
+  </si>
+  <si>
+    <t>Employees</t>
+  </si>
+  <si>
+    <t>EmployeeID</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>ProductKey</t>
+  </si>
+  <si>
+    <t>ProductAlterKey</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Category_Name</t>
+  </si>
+  <si>
+    <t>Category_Code</t>
+  </si>
+  <si>
+    <t>Category_ID</t>
+  </si>
+  <si>
+    <t>MasterProduct</t>
+  </si>
+  <si>
+    <t>NW_Product</t>
+  </si>
+  <si>
+    <t>NW_Category</t>
+  </si>
+  <si>
+    <t>ProductID_Source</t>
+  </si>
+  <si>
+    <t>CategoryID_Source</t>
+  </si>
+  <si>
+    <t>ProductID_Output</t>
+  </si>
+  <si>
+    <t>ProductID_Reason</t>
+  </si>
+  <si>
+    <t>ProductID_Confidence</t>
+  </si>
+  <si>
+    <t>ProductID_Status</t>
+  </si>
+  <si>
+    <t>ProductName_Source</t>
+  </si>
+  <si>
+    <t>ProductName_Output</t>
+  </si>
+  <si>
+    <t>ProductName_Reason</t>
+  </si>
+  <si>
+    <t>ProductName_Confidence</t>
+  </si>
+  <si>
+    <t>ProductName_Status</t>
+  </si>
+  <si>
+    <t>SupplierID_Output</t>
+  </si>
+  <si>
+    <t>CategoryID_Output</t>
+  </si>
+  <si>
+    <t>CategoryID_Reason</t>
+  </si>
+  <si>
+    <t>CategoryID_Confidence</t>
+  </si>
+  <si>
+    <t>CategoryID_Status</t>
+  </si>
+  <si>
+    <t>UnitPrice_Output</t>
+  </si>
+  <si>
+    <t>CategoryName_Source</t>
+  </si>
+  <si>
+    <t>CategoryName_Output</t>
+  </si>
+  <si>
+    <t>CategoryName_Reason</t>
+  </si>
+  <si>
+    <t>CategoryName_Confidence</t>
+  </si>
+  <si>
+    <t>CategoryName_Status</t>
+  </si>
+  <si>
+    <t>Description_Output</t>
+  </si>
+  <si>
+    <t>MONEY</t>
+  </si>
+  <si>
+    <t>Lookup Code in Category model</t>
+  </si>
+  <si>
+    <t>Products</t>
+  </si>
+  <si>
+    <t>ProductID</t>
+  </si>
+  <si>
+    <t>ProductName</t>
+  </si>
+  <si>
+    <t>CategoryName</t>
+  </si>
+  <si>
+    <t>Categories</t>
+  </si>
+  <si>
+    <t>CategoryID</t>
+  </si>
+  <si>
+    <t>SupplierID</t>
+  </si>
+  <si>
+    <t>UnitPrice</t>
+  </si>
+  <si>
+    <t>NTEXT</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>(DT_WSTR,50) &amp; rename to CategoryName</t>
+  </si>
+  <si>
+    <t>rename to CategoryID</t>
+  </si>
+  <si>
+    <t>rename to ProductID</t>
+  </si>
+  <si>
+    <t>(DT_WSTR,50) &amp; rename to ProductName</t>
   </si>
 </sst>
 </file>
@@ -1064,9 +1327,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{438DCF2F-B5A9-4CE2-9803-6BD6F67BD7E5}">
   <dimension ref="A1:X62"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1081,11 +1344,11 @@
     <col min="8" max="8" width="13.77734375" style="7" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.109375" style="7" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.109375" style="7" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.21875" style="7" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.77734375" style="7" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="36.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.77734375" style="7" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="20.21875" style="7" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="17.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="22.33203125" style="7" bestFit="1" customWidth="1"/>
@@ -1795,9 +2058,7 @@
       <c r="V13" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="W13" s="5" t="s">
-        <v>118</v>
-      </c>
+      <c r="W13" s="5"/>
       <c r="X13" s="5" t="s">
         <v>17</v>
       </c>
@@ -1893,15 +2154,9 @@
       </c>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
-      <c r="O16" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="P16" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q16" s="6" t="s">
-        <v>29</v>
-      </c>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
       <c r="R16" s="6"/>
       <c r="S16" s="6"/>
       <c r="T16" s="5"/>
@@ -1931,15 +2186,9 @@
       </c>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
-      <c r="O17" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="P17" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q17" s="6" t="s">
-        <v>54</v>
-      </c>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
       <c r="R17" s="6"/>
       <c r="S17" s="6"/>
       <c r="T17" s="5"/>
@@ -1969,15 +2218,9 @@
       </c>
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
-      <c r="O18" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="P18" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q18" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
       <c r="R18" s="6"/>
       <c r="S18" s="6"/>
       <c r="T18" s="5"/>
@@ -2007,15 +2250,9 @@
       </c>
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
-      <c r="O19" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="P19" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q19" s="6" t="s">
-        <v>29</v>
-      </c>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
       <c r="R19" s="6"/>
       <c r="S19" s="6"/>
       <c r="T19" s="5"/>
@@ -2045,15 +2282,9 @@
       </c>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
-      <c r="O20" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="P20" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q20" s="6" t="s">
-        <v>29</v>
-      </c>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
       <c r="R20" s="6"/>
       <c r="S20" s="6"/>
       <c r="T20" s="5"/>
@@ -2083,15 +2314,9 @@
       </c>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
-      <c r="O21" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="P21" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q21" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
       <c r="R21" s="6"/>
       <c r="S21" s="6"/>
       <c r="T21" s="5"/>
@@ -2121,15 +2346,9 @@
       </c>
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
-      <c r="O22" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="P22" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q22" s="6" t="s">
-        <v>29</v>
-      </c>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
       <c r="R22" s="6"/>
       <c r="S22" s="6"/>
       <c r="T22" s="5"/>
@@ -2159,15 +2378,9 @@
       </c>
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
-      <c r="O23" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="P23" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q23" s="6" t="s">
-        <v>34</v>
-      </c>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
       <c r="R23" s="6"/>
       <c r="S23" s="6"/>
       <c r="T23" s="5"/>
@@ -2197,15 +2410,9 @@
       </c>
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
-      <c r="O24" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="P24" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q24" s="6" t="s">
-        <v>55</v>
-      </c>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
       <c r="R24" s="6"/>
       <c r="S24" s="6"/>
       <c r="T24" s="5"/>
@@ -2235,15 +2442,9 @@
       </c>
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
-      <c r="O25" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="P25" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q25" s="6" t="s">
-        <v>29</v>
-      </c>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
       <c r="R25" s="6"/>
       <c r="S25" s="6"/>
       <c r="T25" s="5"/>
@@ -2273,18 +2474,10 @@
       </c>
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
-      <c r="O26" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="P26" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q26" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="R26" s="6" t="s">
-        <v>56</v>
-      </c>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
       <c r="S26" s="6"/>
       <c r="T26" s="5"/>
       <c r="U26" s="5"/>
@@ -2313,15 +2506,9 @@
       </c>
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
-      <c r="O27" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="P27" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q27" s="6" t="s">
-        <v>55</v>
-      </c>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
       <c r="R27" s="6"/>
       <c r="S27" s="6"/>
       <c r="T27" s="5"/>
@@ -2351,15 +2538,9 @@
       </c>
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
-      <c r="O28" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="P28" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q28" s="6" t="s">
-        <v>29</v>
-      </c>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
       <c r="R28" s="6"/>
       <c r="S28" s="6"/>
       <c r="T28" s="5"/>
@@ -2389,18 +2570,10 @@
       </c>
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
-      <c r="O29" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="P29" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q29" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="R29" s="6" t="s">
-        <v>58</v>
-      </c>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
       <c r="S29" s="6"/>
       <c r="T29" s="5"/>
       <c r="U29" s="5"/>
@@ -3031,6 +3204,17 @@
       <c r="L49" s="5"/>
       <c r="M49" s="5"/>
       <c r="N49" s="5"/>
+      <c r="O49" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="P49" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q49" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="R49" s="6"/>
+      <c r="S49" s="6"/>
       <c r="T49" s="5"/>
       <c r="U49" s="5"/>
       <c r="V49" s="5"/>
@@ -3052,6 +3236,17 @@
       <c r="L50" s="5"/>
       <c r="M50" s="5"/>
       <c r="N50" s="5"/>
+      <c r="O50" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="P50" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q50" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="R50" s="6"/>
+      <c r="S50" s="6"/>
       <c r="T50" s="5"/>
       <c r="U50" s="5"/>
       <c r="V50" s="5"/>
@@ -3073,6 +3268,17 @@
       <c r="L51" s="5"/>
       <c r="M51" s="5"/>
       <c r="N51" s="5"/>
+      <c r="O51" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="P51" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q51" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="R51" s="6"/>
+      <c r="S51" s="6"/>
       <c r="T51" s="5"/>
       <c r="U51" s="5"/>
       <c r="V51" s="5"/>
@@ -3094,6 +3300,17 @@
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
+      <c r="O52" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="P52" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q52" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="R52" s="6"/>
+      <c r="S52" s="6"/>
       <c r="T52" s="5"/>
       <c r="U52" s="5"/>
       <c r="V52" s="5"/>
@@ -3115,6 +3332,17 @@
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
+      <c r="O53" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="P53" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q53" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="R53" s="6"/>
+      <c r="S53" s="6"/>
       <c r="T53" s="5"/>
       <c r="U53" s="5"/>
       <c r="V53" s="5"/>
@@ -3136,6 +3364,17 @@
       <c r="L54" s="5"/>
       <c r="M54" s="5"/>
       <c r="N54" s="5"/>
+      <c r="O54" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="P54" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q54" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="R54" s="6"/>
+      <c r="S54" s="6"/>
       <c r="T54" s="5"/>
       <c r="U54" s="5"/>
       <c r="V54" s="5"/>
@@ -3157,6 +3396,17 @@
       <c r="L55" s="5"/>
       <c r="M55" s="5"/>
       <c r="N55" s="5"/>
+      <c r="O55" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="P55" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q55" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="R55" s="6"/>
+      <c r="S55" s="6"/>
       <c r="T55" s="5"/>
       <c r="U55" s="5"/>
       <c r="V55" s="5"/>
@@ -3178,6 +3428,17 @@
       <c r="L56" s="5"/>
       <c r="M56" s="5"/>
       <c r="N56" s="5"/>
+      <c r="O56" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="P56" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q56" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="R56" s="6"/>
+      <c r="S56" s="6"/>
       <c r="T56" s="5"/>
       <c r="U56" s="5"/>
       <c r="V56" s="5"/>
@@ -3199,6 +3460,17 @@
       <c r="L57" s="5"/>
       <c r="M57" s="5"/>
       <c r="N57" s="5"/>
+      <c r="O57" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="P57" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q57" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="R57" s="6"/>
+      <c r="S57" s="6"/>
       <c r="T57" s="5"/>
       <c r="U57" s="5"/>
       <c r="V57" s="5"/>
@@ -3220,6 +3492,17 @@
       <c r="L58" s="5"/>
       <c r="M58" s="5"/>
       <c r="N58" s="5"/>
+      <c r="O58" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="P58" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q58" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="R58" s="6"/>
+      <c r="S58" s="6"/>
       <c r="T58" s="5"/>
       <c r="U58" s="5"/>
       <c r="V58" s="5"/>
@@ -3241,6 +3524,19 @@
       <c r="L59" s="5"/>
       <c r="M59" s="5"/>
       <c r="N59" s="5"/>
+      <c r="O59" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="P59" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q59" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="R59" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="S59" s="6"/>
       <c r="T59" s="5"/>
       <c r="U59" s="5"/>
       <c r="V59" s="5"/>
@@ -3262,6 +3558,17 @@
       <c r="L60" s="5"/>
       <c r="M60" s="5"/>
       <c r="N60" s="5"/>
+      <c r="O60" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="P60" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q60" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="R60" s="6"/>
+      <c r="S60" s="6"/>
       <c r="T60" s="5"/>
       <c r="U60" s="5"/>
       <c r="V60" s="5"/>
@@ -3283,6 +3590,17 @@
       <c r="L61" s="5"/>
       <c r="M61" s="5"/>
       <c r="N61" s="5"/>
+      <c r="O61" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="P61" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q61" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="R61" s="6"/>
+      <c r="S61" s="6"/>
       <c r="T61" s="5"/>
       <c r="U61" s="5"/>
       <c r="V61" s="5"/>
@@ -3304,6 +3622,19 @@
       <c r="L62" s="5"/>
       <c r="M62" s="5"/>
       <c r="N62" s="5"/>
+      <c r="O62" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="P62" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q62" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="R62" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="S62" s="6"/>
       <c r="T62" s="5"/>
       <c r="U62" s="5"/>
       <c r="V62" s="5"/>
@@ -3327,9 +3658,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B97E252-2820-4653-A176-D819DD464AFE}">
   <dimension ref="A1:X61"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:D1"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3491,10 +3822,10 @@
       <c r="R3" s="13"/>
       <c r="S3" s="13"/>
       <c r="T3" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="U3" s="12" t="s">
         <v>119</v>
-      </c>
-      <c r="U3" s="12" t="s">
-        <v>120</v>
       </c>
       <c r="V3" s="12" t="s">
         <v>29</v>
@@ -3525,13 +3856,13 @@
       <c r="R4" s="13"/>
       <c r="S4" s="13"/>
       <c r="T4" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="U4" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="V4" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="W4" s="12" t="s">
         <v>12</v>
@@ -3559,13 +3890,13 @@
       <c r="R5" s="13"/>
       <c r="S5" s="13"/>
       <c r="T5" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="U5" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="V5" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="W5" s="12" t="s">
         <v>12</v>
@@ -3593,10 +3924,10 @@
       <c r="R6" s="13"/>
       <c r="S6" s="13"/>
       <c r="T6" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="U6" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="V6" s="12" t="s">
         <v>30</v>
@@ -3627,13 +3958,13 @@
       <c r="R7" s="13"/>
       <c r="S7" s="13"/>
       <c r="T7" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="U7" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="V7" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="W7" s="12" t="s">
         <v>12</v>
@@ -3661,13 +3992,13 @@
       <c r="R8" s="13"/>
       <c r="S8" s="13"/>
       <c r="T8" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="U8" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="V8" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="W8" s="12" t="s">
         <v>12</v>
@@ -3695,13 +4026,13 @@
       <c r="R9" s="13"/>
       <c r="S9" s="13"/>
       <c r="T9" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="U9" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="V9" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="W9" s="12" t="s">
         <v>12</v>
@@ -3729,13 +4060,13 @@
       <c r="R10" s="13"/>
       <c r="S10" s="13"/>
       <c r="T10" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="U10" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V10" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="W10" s="12" t="s">
         <v>12</v>
@@ -3763,13 +4094,13 @@
       <c r="R11" s="13"/>
       <c r="S11" s="13"/>
       <c r="T11" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="U11" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="V11" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="W11" s="12" t="s">
         <v>12</v>
@@ -3797,13 +4128,13 @@
       <c r="R12" s="13"/>
       <c r="S12" s="13"/>
       <c r="T12" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="U12" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="V12" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="W12" s="12" t="s">
         <v>12</v>
@@ -3831,10 +4162,10 @@
       <c r="R13" s="13"/>
       <c r="S13" s="13"/>
       <c r="T13" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="U13" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="V13" s="12" t="s">
         <v>30</v>
@@ -3865,13 +4196,13 @@
       <c r="R14" s="13"/>
       <c r="S14" s="13"/>
       <c r="T14" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="U14" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="V14" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="W14" s="12" t="s">
         <v>12</v>
@@ -3899,10 +4230,10 @@
       <c r="R15" s="13"/>
       <c r="S15" s="13"/>
       <c r="T15" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="U15" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="V15" s="12" t="s">
         <v>29</v>
@@ -3933,13 +4264,13 @@
       <c r="R16" s="13"/>
       <c r="S16" s="13"/>
       <c r="T16" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="U16" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="V16" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="W16" s="12" t="s">
         <v>12</v>
@@ -3967,13 +4298,13 @@
       <c r="R17" s="13"/>
       <c r="S17" s="13"/>
       <c r="T17" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="U17" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="V17" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="W17" s="12" t="s">
         <v>12</v>
@@ -4001,13 +4332,13 @@
       <c r="R18" s="13"/>
       <c r="S18" s="13"/>
       <c r="T18" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="U18" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="V18" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="W18" s="12" t="s">
         <v>12</v>
@@ -4035,10 +4366,10 @@
       <c r="R19" s="13"/>
       <c r="S19" s="13"/>
       <c r="T19" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="U19" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="V19" s="12" t="s">
         <v>30</v>
@@ -4069,13 +4400,13 @@
       <c r="R20" s="13"/>
       <c r="S20" s="13"/>
       <c r="T20" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="U20" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="V20" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="W20" s="12" t="s">
         <v>12</v>
@@ -4103,13 +4434,13 @@
       <c r="R21" s="13"/>
       <c r="S21" s="13"/>
       <c r="T21" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="U21" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="V21" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="W21" s="12" t="s">
         <v>12</v>
@@ -4137,13 +4468,13 @@
       <c r="R22" s="13"/>
       <c r="S22" s="13"/>
       <c r="T22" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="U22" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="V22" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="W22" s="12" t="s">
         <v>12</v>
@@ -4171,13 +4502,13 @@
       <c r="R23" s="13"/>
       <c r="S23" s="13"/>
       <c r="T23" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="U23" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="V23" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="W23" s="12" t="s">
         <v>12</v>
@@ -4205,10 +4536,10 @@
       <c r="R24" s="13"/>
       <c r="S24" s="13"/>
       <c r="T24" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="U24" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="V24" s="12" t="s">
         <v>31</v>
@@ -4239,13 +4570,13 @@
       <c r="R25" s="13"/>
       <c r="S25" s="13"/>
       <c r="T25" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="U25" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="V25" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="W25" s="12" t="s">
         <v>12</v>
@@ -4273,13 +4604,13 @@
       <c r="R26" s="13"/>
       <c r="S26" s="13"/>
       <c r="T26" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="U26" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="V26" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="W26" s="12" t="s">
         <v>12</v>
@@ -4307,13 +4638,13 @@
       <c r="R27" s="13"/>
       <c r="S27" s="13"/>
       <c r="T27" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="U27" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="V27" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="W27" s="12" t="s">
         <v>12</v>
@@ -4322,42 +4653,42 @@
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="B28" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="C28" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="D28" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="C28" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>185</v>
-      </c>
       <c r="E28" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H28" s="13"/>
       <c r="J28" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K28" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L28" s="12" t="s">
         <v>61</v>
       </c>
       <c r="M28" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N28" s="12"/>
       <c r="O28" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P28" s="13" t="s">
         <v>13</v>
@@ -4368,65 +4699,65 @@
       <c r="R28" s="13"/>
       <c r="S28" s="13"/>
       <c r="T28" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="U28" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="V28" s="12" t="s">
         <v>55</v>
       </c>
       <c r="W28" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="X28" s="12"/>
     </row>
     <row r="29" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H29" s="13" t="s">
         <v>12</v>
       </c>
       <c r="I29" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J29" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K29" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L29" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M29" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N29" s="12"/>
       <c r="O29" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P29" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Q29" s="13" t="s">
         <v>39</v>
@@ -4434,19 +4765,19 @@
       <c r="R29" s="13"/>
       <c r="S29" s="13"/>
       <c r="T29" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="U29" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="V29" s="12" t="s">
         <v>32</v>
       </c>
       <c r="W29" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="X29" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
@@ -4465,30 +4796,30 @@
       <c r="M30" s="12"/>
       <c r="N30" s="12"/>
       <c r="O30" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P30" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Q30" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="R30" s="13"/>
       <c r="S30" s="13"/>
       <c r="T30" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="U30" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="V30" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="W30" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="X30" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.3">
@@ -4507,7 +4838,7 @@
       <c r="M31" s="12"/>
       <c r="N31" s="12"/>
       <c r="O31" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P31" s="13" t="s">
         <v>40</v>
@@ -4539,7 +4870,7 @@
       <c r="M32" s="12"/>
       <c r="N32" s="12"/>
       <c r="O32" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P32" s="13" t="s">
         <v>41</v>
@@ -4571,7 +4902,7 @@
       <c r="M33" s="12"/>
       <c r="N33" s="12"/>
       <c r="O33" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P33" s="13" t="s">
         <v>42</v>
@@ -4603,7 +4934,7 @@
       <c r="M34" s="12"/>
       <c r="N34" s="12"/>
       <c r="O34" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P34" s="13" t="s">
         <v>43</v>
@@ -4635,7 +4966,7 @@
       <c r="M35" s="12"/>
       <c r="N35" s="12"/>
       <c r="O35" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P35" s="13" t="s">
         <v>44</v>
@@ -4667,7 +4998,7 @@
       <c r="M36" s="12"/>
       <c r="N36" s="12"/>
       <c r="O36" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P36" s="13" t="s">
         <v>45</v>
@@ -4685,47 +5016,47 @@
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H37" s="13" t="s">
         <v>12</v>
       </c>
       <c r="I37" s="13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J37" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K37" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L37" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M37" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="N37" s="12"/>
       <c r="O37" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P37" s="13" t="s">
         <v>37</v>
@@ -4757,7 +5088,7 @@
       <c r="M38" s="12"/>
       <c r="N38" s="12"/>
       <c r="O38" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P38" s="13" t="s">
         <v>46</v>
@@ -4775,50 +5106,50 @@
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A39" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H39" s="13" t="s">
         <v>12</v>
       </c>
       <c r="I39" s="13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J39" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K39" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L39" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M39" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N39" s="12"/>
       <c r="O39" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P39" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q39" s="13" t="s">
         <v>34</v>
@@ -4847,10 +5178,10 @@
       <c r="M40" s="12"/>
       <c r="N40" s="12"/>
       <c r="O40" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="P40" s="13" t="s">
         <v>154</v>
-      </c>
-      <c r="P40" s="13" t="s">
-        <v>155</v>
       </c>
       <c r="Q40" s="13" t="s">
         <v>39</v>
@@ -4879,10 +5210,10 @@
       <c r="M41" s="12"/>
       <c r="N41" s="12"/>
       <c r="O41" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P41" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Q41" s="13" t="s">
         <v>29</v>
@@ -4911,7 +5242,7 @@
       <c r="M42" s="12"/>
       <c r="N42" s="12"/>
       <c r="O42" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P42" s="13" t="s">
         <v>47</v>
@@ -4943,7 +5274,7 @@
       <c r="M43" s="12"/>
       <c r="N43" s="12"/>
       <c r="O43" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P43" s="13" t="s">
         <v>48</v>
@@ -4975,7 +5306,7 @@
       <c r="M44" s="12"/>
       <c r="N44" s="12"/>
       <c r="O44" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P44" s="13" t="s">
         <v>49</v>
@@ -5007,7 +5338,7 @@
       <c r="M45" s="12"/>
       <c r="N45" s="12"/>
       <c r="O45" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P45" s="13" t="s">
         <v>50</v>
@@ -5039,7 +5370,7 @@
       <c r="M46" s="12"/>
       <c r="N46" s="12"/>
       <c r="O46" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P46" s="13" t="s">
         <v>51</v>
@@ -5071,7 +5402,7 @@
       <c r="M47" s="12"/>
       <c r="N47" s="12"/>
       <c r="O47" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P47" s="13" t="s">
         <v>52</v>
@@ -5103,7 +5434,7 @@
       <c r="M48" s="12"/>
       <c r="N48" s="12"/>
       <c r="O48" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P48" s="13" t="s">
         <v>53</v>
@@ -5130,13 +5461,13 @@
       <c r="H49" s="13"/>
       <c r="I49" s="13"/>
       <c r="J49" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="K49" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="K49" s="12" t="s">
-        <v>161</v>
-      </c>
       <c r="L49" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M49" s="12"/>
       <c r="N49" s="12"/>
@@ -5162,10 +5493,10 @@
       <c r="H50" s="13"/>
       <c r="I50" s="13"/>
       <c r="J50" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K50" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L50" s="12" t="s">
         <v>61</v>
@@ -5194,10 +5525,10 @@
       <c r="H51" s="13"/>
       <c r="I51" s="13"/>
       <c r="J51" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K51" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L51" s="12" t="s">
         <v>61</v>
@@ -5226,10 +5557,10 @@
       <c r="H52" s="13"/>
       <c r="I52" s="13"/>
       <c r="J52" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K52" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L52" s="12" t="s">
         <v>61</v>
@@ -5258,13 +5589,13 @@
       <c r="H53" s="13"/>
       <c r="I53" s="13"/>
       <c r="J53" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K53" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L53" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M53" s="12"/>
       <c r="N53" s="12"/>
@@ -5290,10 +5621,10 @@
       <c r="H54" s="13"/>
       <c r="I54" s="13"/>
       <c r="J54" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K54" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L54" s="12" t="s">
         <v>61</v>
@@ -5322,10 +5653,10 @@
       <c r="H55" s="13"/>
       <c r="I55" s="13"/>
       <c r="J55" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K55" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L55" s="12" t="s">
         <v>61</v>
@@ -5354,10 +5685,10 @@
       <c r="H56" s="13"/>
       <c r="I56" s="13"/>
       <c r="J56" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K56" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L56" s="12" t="s">
         <v>61</v>
@@ -5386,13 +5717,13 @@
       <c r="H57" s="13"/>
       <c r="I57" s="13"/>
       <c r="J57" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K57" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L57" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M57" s="12"/>
       <c r="N57" s="12"/>
@@ -5418,10 +5749,10 @@
       <c r="H58" s="13"/>
       <c r="I58" s="13"/>
       <c r="J58" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K58" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L58" s="12" t="s">
         <v>61</v>
@@ -5450,10 +5781,10 @@
       <c r="H59" s="13"/>
       <c r="I59" s="13"/>
       <c r="J59" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K59" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L59" s="12" t="s">
         <v>61</v>
@@ -5482,10 +5813,10 @@
       <c r="H60" s="13"/>
       <c r="I60" s="13"/>
       <c r="J60" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K60" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L60" s="12" t="s">
         <v>61</v>
@@ -5514,7 +5845,7 @@
       <c r="H61" s="13"/>
       <c r="I61" s="13"/>
       <c r="J61" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K61" s="12" t="s">
         <v>101</v>
@@ -5546,4 +5877,4132 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A737B06D-3CA5-4C46-8E57-2C9FAE17A6AF}">
+  <dimension ref="A1:X58"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.21875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.21875" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="36.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.21875" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="44.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.21875" style="7" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="40.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19.21875" style="7" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.109375" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+    </row>
+    <row r="2" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="X3" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="6"/>
+      <c r="J4" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="V4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="W4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="X4" s="5"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="S5" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="T5" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="U5" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="V5" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="W5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="X5" s="5"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="U6" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="V6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="U7" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="V7" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="U8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="V8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="U9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="V9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="U10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="V10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="W10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="X10" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="U11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="V11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="U12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="W12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="X12" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="U13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="V13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="W13" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="X13" s="5"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="6"/>
+      <c r="J14" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="P14" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q14" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="6"/>
+      <c r="J15" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="P15" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q15" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="5"/>
+      <c r="X23" s="5"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5"/>
+      <c r="X24" s="5"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="5"/>
+      <c r="X25" s="5"/>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="L26" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="5"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="5"/>
+      <c r="X26" s="5"/>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="L27" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="5"/>
+      <c r="X27" s="5"/>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="L28" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
+      <c r="S28" s="6"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="5"/>
+      <c r="X28" s="5"/>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="L29" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="5"/>
+      <c r="X29" s="5"/>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="L30" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="6"/>
+      <c r="S30" s="6"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="5"/>
+      <c r="V30" s="5"/>
+      <c r="W30" s="5"/>
+      <c r="X30" s="5"/>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="L31" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
+      <c r="S31" s="6"/>
+      <c r="T31" s="5"/>
+      <c r="U31" s="5"/>
+      <c r="V31" s="5"/>
+      <c r="W31" s="5"/>
+      <c r="X31" s="5"/>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="L32" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="6"/>
+      <c r="S32" s="6"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="5"/>
+      <c r="V32" s="5"/>
+      <c r="W32" s="5"/>
+      <c r="X32" s="5"/>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="L33" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="6"/>
+      <c r="R33" s="6"/>
+      <c r="S33" s="6"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="5"/>
+      <c r="W33" s="5"/>
+      <c r="X33" s="5"/>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="L34" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="6"/>
+      <c r="R34" s="6"/>
+      <c r="S34" s="6"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="5"/>
+      <c r="V34" s="5"/>
+      <c r="W34" s="5"/>
+      <c r="X34" s="5"/>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="L35" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="6"/>
+      <c r="S35" s="6"/>
+      <c r="T35" s="5"/>
+      <c r="U35" s="5"/>
+      <c r="V35" s="5"/>
+      <c r="W35" s="5"/>
+      <c r="X35" s="5"/>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="K36" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="L36" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="6"/>
+      <c r="R36" s="6"/>
+      <c r="S36" s="6"/>
+      <c r="T36" s="5"/>
+      <c r="U36" s="5"/>
+      <c r="V36" s="5"/>
+      <c r="W36" s="5"/>
+      <c r="X36" s="5"/>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="L37" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="6"/>
+      <c r="Q37" s="6"/>
+      <c r="R37" s="6"/>
+      <c r="S37" s="6"/>
+      <c r="T37" s="5"/>
+      <c r="U37" s="5"/>
+      <c r="V37" s="5"/>
+      <c r="W37" s="5"/>
+      <c r="X37" s="5"/>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="K38" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="L38" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="6"/>
+      <c r="R38" s="6"/>
+      <c r="S38" s="6"/>
+      <c r="T38" s="5"/>
+      <c r="U38" s="5"/>
+      <c r="V38" s="5"/>
+      <c r="W38" s="5"/>
+      <c r="X38" s="5"/>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="K39" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="L39" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="6"/>
+      <c r="R39" s="6"/>
+      <c r="S39" s="6"/>
+      <c r="T39" s="5"/>
+      <c r="U39" s="5"/>
+      <c r="V39" s="5"/>
+      <c r="W39" s="5"/>
+      <c r="X39" s="5"/>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="K40" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="L40" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="6"/>
+      <c r="R40" s="6"/>
+      <c r="S40" s="6"/>
+      <c r="T40" s="5"/>
+      <c r="U40" s="5"/>
+      <c r="V40" s="5"/>
+      <c r="W40" s="5"/>
+      <c r="X40" s="5"/>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="K41" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="L41" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="6"/>
+      <c r="P41" s="6"/>
+      <c r="Q41" s="6"/>
+      <c r="R41" s="6"/>
+      <c r="S41" s="6"/>
+      <c r="T41" s="5"/>
+      <c r="U41" s="5"/>
+      <c r="V41" s="5"/>
+      <c r="W41" s="5"/>
+      <c r="X41" s="5"/>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="K42" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="L42" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="6"/>
+      <c r="P42" s="6"/>
+      <c r="Q42" s="6"/>
+      <c r="R42" s="6"/>
+      <c r="S42" s="6"/>
+      <c r="T42" s="5"/>
+      <c r="U42" s="5"/>
+      <c r="V42" s="5"/>
+      <c r="W42" s="5"/>
+      <c r="X42" s="5"/>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="K43" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="L43" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="6"/>
+      <c r="P43" s="6"/>
+      <c r="Q43" s="6"/>
+      <c r="R43" s="6"/>
+      <c r="S43" s="6"/>
+      <c r="T43" s="5"/>
+      <c r="U43" s="5"/>
+      <c r="V43" s="5"/>
+      <c r="W43" s="5"/>
+      <c r="X43" s="5"/>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="K44" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="L44" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="6"/>
+      <c r="P44" s="6"/>
+      <c r="Q44" s="6"/>
+      <c r="R44" s="6"/>
+      <c r="S44" s="6"/>
+      <c r="T44" s="5"/>
+      <c r="U44" s="5"/>
+      <c r="V44" s="5"/>
+      <c r="W44" s="5"/>
+      <c r="X44" s="5"/>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="5"/>
+      <c r="O45" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="P45" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q45" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="R45" s="6"/>
+      <c r="S45" s="6"/>
+      <c r="T45" s="5"/>
+      <c r="U45" s="5"/>
+      <c r="V45" s="5"/>
+      <c r="W45" s="5"/>
+      <c r="X45" s="5"/>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
+      <c r="N46" s="5"/>
+      <c r="O46" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="P46" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q46" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="R46" s="6"/>
+      <c r="S46" s="6"/>
+      <c r="T46" s="5"/>
+      <c r="U46" s="5"/>
+      <c r="V46" s="5"/>
+      <c r="W46" s="5"/>
+      <c r="X46" s="5"/>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="5"/>
+      <c r="O47" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="P47" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q47" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="R47" s="6"/>
+      <c r="S47" s="6"/>
+      <c r="T47" s="5"/>
+      <c r="U47" s="5"/>
+      <c r="V47" s="5"/>
+      <c r="W47" s="5"/>
+      <c r="X47" s="5"/>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="5"/>
+      <c r="N48" s="5"/>
+      <c r="O48" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="P48" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q48" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="R48" s="6"/>
+      <c r="S48" s="6"/>
+      <c r="T48" s="5"/>
+      <c r="U48" s="5"/>
+      <c r="V48" s="5"/>
+      <c r="W48" s="5"/>
+      <c r="X48" s="5"/>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
+      <c r="M49" s="5"/>
+      <c r="N49" s="5"/>
+      <c r="O49" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="P49" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q49" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="R49" s="6"/>
+      <c r="S49" s="6"/>
+      <c r="T49" s="5"/>
+      <c r="U49" s="5"/>
+      <c r="V49" s="5"/>
+      <c r="W49" s="5"/>
+      <c r="X49" s="5"/>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5"/>
+      <c r="M50" s="5"/>
+      <c r="N50" s="5"/>
+      <c r="O50" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="P50" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q50" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="R50" s="6"/>
+      <c r="S50" s="6"/>
+      <c r="T50" s="5"/>
+      <c r="U50" s="5"/>
+      <c r="V50" s="5"/>
+      <c r="W50" s="5"/>
+      <c r="X50" s="5"/>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A51" s="5"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5"/>
+      <c r="M51" s="5"/>
+      <c r="N51" s="5"/>
+      <c r="O51" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="P51" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q51" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="R51" s="6"/>
+      <c r="S51" s="6"/>
+      <c r="T51" s="5"/>
+      <c r="U51" s="5"/>
+      <c r="V51" s="5"/>
+      <c r="W51" s="5"/>
+      <c r="X51" s="5"/>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A52" s="5"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="P52" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q52" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="R52" s="6"/>
+      <c r="S52" s="6"/>
+      <c r="T52" s="5"/>
+      <c r="U52" s="5"/>
+      <c r="V52" s="5"/>
+      <c r="W52" s="5"/>
+      <c r="X52" s="5"/>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A53" s="5"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="P53" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q53" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="R53" s="6"/>
+      <c r="S53" s="6"/>
+      <c r="T53" s="5"/>
+      <c r="U53" s="5"/>
+      <c r="V53" s="5"/>
+      <c r="W53" s="5"/>
+      <c r="X53" s="5"/>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A54" s="5"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="5"/>
+      <c r="M54" s="5"/>
+      <c r="N54" s="5"/>
+      <c r="O54" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="P54" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q54" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="R54" s="6"/>
+      <c r="S54" s="6"/>
+      <c r="T54" s="5"/>
+      <c r="U54" s="5"/>
+      <c r="V54" s="5"/>
+      <c r="W54" s="5"/>
+      <c r="X54" s="5"/>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A55" s="5"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5"/>
+      <c r="L55" s="5"/>
+      <c r="M55" s="5"/>
+      <c r="N55" s="5"/>
+      <c r="O55" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="P55" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q55" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="R55" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="S55" s="6"/>
+      <c r="T55" s="5"/>
+      <c r="U55" s="5"/>
+      <c r="V55" s="5"/>
+      <c r="W55" s="5"/>
+      <c r="X55" s="5"/>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A56" s="5"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
+      <c r="L56" s="5"/>
+      <c r="M56" s="5"/>
+      <c r="N56" s="5"/>
+      <c r="O56" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="P56" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q56" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="R56" s="6"/>
+      <c r="S56" s="6"/>
+      <c r="T56" s="5"/>
+      <c r="U56" s="5"/>
+      <c r="V56" s="5"/>
+      <c r="W56" s="5"/>
+      <c r="X56" s="5"/>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A57" s="5"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="5"/>
+      <c r="L57" s="5"/>
+      <c r="M57" s="5"/>
+      <c r="N57" s="5"/>
+      <c r="O57" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="P57" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q57" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="R57" s="6"/>
+      <c r="S57" s="6"/>
+      <c r="T57" s="5"/>
+      <c r="U57" s="5"/>
+      <c r="V57" s="5"/>
+      <c r="W57" s="5"/>
+      <c r="X57" s="5"/>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A58" s="5"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="5"/>
+      <c r="L58" s="5"/>
+      <c r="M58" s="5"/>
+      <c r="N58" s="5"/>
+      <c r="O58" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="P58" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q58" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="R58" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="S58" s="6"/>
+      <c r="T58" s="5"/>
+      <c r="U58" s="5"/>
+      <c r="V58" s="5"/>
+      <c r="W58" s="5"/>
+      <c r="X58" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="J1:N1"/>
+    <mergeCell ref="O1:S1"/>
+    <mergeCell ref="T1:X1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A4499F-EBCA-4E9B-AE48-94E9136B2D31}">
+  <dimension ref="A1:X53"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.21875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.21875" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="36.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.21875" style="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="27.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="37.21875" style="7" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.109375" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+    </row>
+    <row r="2" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="X3" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="6"/>
+      <c r="J4" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="V4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="W4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="X4" s="5"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="6"/>
+      <c r="J5" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="S5" s="6"/>
+      <c r="T5" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="U5" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="V5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="W5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="X5" s="5"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="6"/>
+      <c r="J6" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="R6" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="S6" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="T6" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="U6" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="V6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="W6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="X6" s="5"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="U7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="V7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="W7" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="X7" s="5"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="J8" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="5"/>
+      <c r="X23" s="5"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5"/>
+      <c r="X24" s="5"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="5"/>
+      <c r="X25" s="5"/>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="L26" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="5"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="5"/>
+      <c r="X26" s="5"/>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="L27" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="5"/>
+      <c r="X27" s="5"/>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="L28" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
+      <c r="S28" s="6"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="5"/>
+      <c r="X28" s="5"/>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="L29" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="5"/>
+      <c r="X29" s="5"/>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="L30" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="6"/>
+      <c r="S30" s="6"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="5"/>
+      <c r="V30" s="5"/>
+      <c r="W30" s="5"/>
+      <c r="X30" s="5"/>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="L31" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
+      <c r="S31" s="6"/>
+      <c r="T31" s="5"/>
+      <c r="U31" s="5"/>
+      <c r="V31" s="5"/>
+      <c r="W31" s="5"/>
+      <c r="X31" s="5"/>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="L32" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="6"/>
+      <c r="S32" s="6"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="5"/>
+      <c r="V32" s="5"/>
+      <c r="W32" s="5"/>
+      <c r="X32" s="5"/>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="L33" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="6"/>
+      <c r="R33" s="6"/>
+      <c r="S33" s="6"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="5"/>
+      <c r="W33" s="5"/>
+      <c r="X33" s="5"/>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="L34" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="6"/>
+      <c r="R34" s="6"/>
+      <c r="S34" s="6"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="5"/>
+      <c r="V34" s="5"/>
+      <c r="W34" s="5"/>
+      <c r="X34" s="5"/>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="P35" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q35" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="R35" s="6"/>
+      <c r="S35" s="6"/>
+      <c r="T35" s="5"/>
+      <c r="U35" s="5"/>
+      <c r="V35" s="5"/>
+      <c r="W35" s="5"/>
+      <c r="X35" s="5"/>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="P36" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q36" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="R36" s="6"/>
+      <c r="S36" s="6"/>
+      <c r="T36" s="5"/>
+      <c r="U36" s="5"/>
+      <c r="V36" s="5"/>
+      <c r="W36" s="5"/>
+      <c r="X36" s="5"/>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="P37" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q37" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="R37" s="6"/>
+      <c r="S37" s="6"/>
+      <c r="T37" s="5"/>
+      <c r="U37" s="5"/>
+      <c r="V37" s="5"/>
+      <c r="W37" s="5"/>
+      <c r="X37" s="5"/>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="P38" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q38" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="R38" s="6"/>
+      <c r="S38" s="6"/>
+      <c r="T38" s="5"/>
+      <c r="U38" s="5"/>
+      <c r="V38" s="5"/>
+      <c r="W38" s="5"/>
+      <c r="X38" s="5"/>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="P39" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q39" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="R39" s="6"/>
+      <c r="S39" s="6"/>
+      <c r="T39" s="5"/>
+      <c r="U39" s="5"/>
+      <c r="V39" s="5"/>
+      <c r="W39" s="5"/>
+      <c r="X39" s="5"/>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="P40" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q40" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="R40" s="6"/>
+      <c r="S40" s="6"/>
+      <c r="T40" s="5"/>
+      <c r="U40" s="5"/>
+      <c r="V40" s="5"/>
+      <c r="W40" s="5"/>
+      <c r="X40" s="5"/>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="P41" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q41" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="R41" s="6"/>
+      <c r="S41" s="6"/>
+      <c r="T41" s="5"/>
+      <c r="U41" s="5"/>
+      <c r="V41" s="5"/>
+      <c r="W41" s="5"/>
+      <c r="X41" s="5"/>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="P42" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q42" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="R42" s="6"/>
+      <c r="S42" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="T42" s="5"/>
+      <c r="U42" s="5"/>
+      <c r="V42" s="5"/>
+      <c r="W42" s="5"/>
+      <c r="X42" s="5"/>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="P43" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q43" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="R43" s="6"/>
+      <c r="S43" s="6"/>
+      <c r="T43" s="5"/>
+      <c r="U43" s="5"/>
+      <c r="V43" s="5"/>
+      <c r="W43" s="5"/>
+      <c r="X43" s="5"/>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="P44" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q44" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="R44" s="6"/>
+      <c r="S44" s="6"/>
+      <c r="T44" s="5"/>
+      <c r="U44" s="5"/>
+      <c r="V44" s="5"/>
+      <c r="W44" s="5"/>
+      <c r="X44" s="5"/>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="5"/>
+      <c r="O45" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="P45" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q45" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="R45" s="6"/>
+      <c r="S45" s="6"/>
+      <c r="T45" s="5"/>
+      <c r="U45" s="5"/>
+      <c r="V45" s="5"/>
+      <c r="W45" s="5"/>
+      <c r="X45" s="5"/>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
+      <c r="N46" s="5"/>
+      <c r="O46" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="P46" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q46" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="R46" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="S46" s="6"/>
+      <c r="T46" s="5"/>
+      <c r="U46" s="5"/>
+      <c r="V46" s="5"/>
+      <c r="W46" s="5"/>
+      <c r="X46" s="5"/>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="5"/>
+      <c r="O47" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="P47" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q47" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="R47" s="6"/>
+      <c r="S47" s="6"/>
+      <c r="T47" s="5"/>
+      <c r="U47" s="5"/>
+      <c r="V47" s="5"/>
+      <c r="W47" s="5"/>
+      <c r="X47" s="5"/>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="5"/>
+      <c r="N48" s="5"/>
+      <c r="O48" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="P48" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q48" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="R48" s="6"/>
+      <c r="S48" s="6"/>
+      <c r="T48" s="5"/>
+      <c r="U48" s="5"/>
+      <c r="V48" s="5"/>
+      <c r="W48" s="5"/>
+      <c r="X48" s="5"/>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
+      <c r="M49" s="5"/>
+      <c r="N49" s="5"/>
+      <c r="O49" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="P49" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q49" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="R49" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="S49" s="6"/>
+      <c r="T49" s="5"/>
+      <c r="U49" s="5"/>
+      <c r="V49" s="5"/>
+      <c r="W49" s="5"/>
+      <c r="X49" s="5"/>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A50" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5"/>
+      <c r="M50" s="5"/>
+      <c r="N50" s="5"/>
+      <c r="O50" s="6"/>
+      <c r="P50" s="6"/>
+      <c r="Q50" s="6"/>
+      <c r="R50" s="6"/>
+      <c r="S50" s="6"/>
+      <c r="T50" s="5"/>
+      <c r="U50" s="5"/>
+      <c r="V50" s="5"/>
+      <c r="W50" s="5"/>
+      <c r="X50" s="5"/>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A51" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5"/>
+      <c r="M51" s="5"/>
+      <c r="N51" s="5"/>
+      <c r="O51" s="6"/>
+      <c r="P51" s="6"/>
+      <c r="Q51" s="6"/>
+      <c r="R51" s="6"/>
+      <c r="S51" s="6"/>
+      <c r="T51" s="5"/>
+      <c r="U51" s="5"/>
+      <c r="V51" s="5"/>
+      <c r="W51" s="5"/>
+      <c r="X51" s="5"/>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A52" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="6"/>
+      <c r="P52" s="6"/>
+      <c r="Q52" s="6"/>
+      <c r="R52" s="6"/>
+      <c r="S52" s="6"/>
+      <c r="T52" s="5"/>
+      <c r="U52" s="5"/>
+      <c r="V52" s="5"/>
+      <c r="W52" s="5"/>
+      <c r="X52" s="5"/>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A53" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="6"/>
+      <c r="P53" s="6"/>
+      <c r="Q53" s="6"/>
+      <c r="R53" s="6"/>
+      <c r="S53" s="6"/>
+      <c r="T53" s="5"/>
+      <c r="U53" s="5"/>
+      <c r="V53" s="5"/>
+      <c r="W53" s="5"/>
+      <c r="X53" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="J1:N1"/>
+    <mergeCell ref="O1:S1"/>
+    <mergeCell ref="T1:X1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Docs/Source to target mapping.xlsx
+++ b/Docs/Source to target mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zinyk\source\repos\Northwind_BI_Solution\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F66BA0-428A-4602-AA00-992B0DD5A95D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF87B80-089E-4B99-83B0-BE0667663E98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="558" xr2:uid="{4088A55A-653F-450D-AAB8-4D657457B3B6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="558" activeTab="4" xr2:uid="{4088A55A-653F-450D-AAB8-4D657457B3B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Customer" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1467" uniqueCount="331">
   <si>
     <t>Source</t>
   </si>
@@ -929,13 +929,121 @@
   </si>
   <si>
     <t>(DT_WSTR,10) &amp; rename to TitleOfCourtesy</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>OrderKey</t>
+  </si>
+  <si>
+    <t>OrderDateKey</t>
+  </si>
+  <si>
+    <t>RequiredDateKey</t>
+  </si>
+  <si>
+    <t>ShippedDateKey</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>SalesAmount</t>
+  </si>
+  <si>
+    <t>SalesAmountWithDiscount</t>
+  </si>
+  <si>
+    <t>OrderID</t>
+  </si>
+  <si>
+    <t>OrderDate</t>
+  </si>
+  <si>
+    <t>RequiredDate</t>
+  </si>
+  <si>
+    <t>ShippedDate</t>
+  </si>
+  <si>
+    <t>ShipCity</t>
+  </si>
+  <si>
+    <t>ShipCountry</t>
+  </si>
+  <si>
+    <t>Orders</t>
+  </si>
+  <si>
+    <t>Order Details</t>
+  </si>
+  <si>
+    <t>exists in Integration.Lineage</t>
+  </si>
+  <si>
+    <t>YEAR ( OrderDate ) * 10000 + MONTH ( OrderDate ) * 100 + DAY ( OrderDate )</t>
+  </si>
+  <si>
+    <t>YEAR ( RequiredDate ) * 10000 + MONTH ( RequiredDate ) * 100 + DAY ( RequiredDate )</t>
+  </si>
+  <si>
+    <t>YEAR ( ShippedDate ) * 10000 + MONTH ( ShippedDate ) * 100 + DAY ( ShippedDate )</t>
+  </si>
+  <si>
+    <t>JOIN OrderID in Order Details</t>
+  </si>
+  <si>
+    <t>JOIN OrderID in Order Details &amp; JOIN ProductKey in Dimension.Product</t>
+  </si>
+  <si>
+    <t>JOIN CustomerKey in Dimension.Customer</t>
+  </si>
+  <si>
+    <t>JOIN EmployeeKey in Dimension.Employee</t>
+  </si>
+  <si>
+    <t>ISNULL 0  &amp; OrderID in Order Details</t>
+  </si>
+  <si>
+    <t>ISNULL -1 &amp; OrderID in Order Details</t>
+  </si>
+  <si>
+    <t>ISNULL -1 &amp; exists in Dimension.Customer</t>
+  </si>
+  <si>
+    <t>ISNULL -1 &amp; exists in Dimension.Employee</t>
+  </si>
+  <si>
+    <t>ISNULL 19951231 &amp; exists in Dimension.Date</t>
+  </si>
+  <si>
+    <t>ISNULL 19951231&amp; exists in Dimension.Date</t>
+  </si>
+  <si>
+    <t>JOIN OrderID in Order Details &amp; UnitPrice * Discount</t>
+  </si>
+  <si>
+    <t>JOIN OrderID in Order Details &amp; UnitPrice * Quantity</t>
+  </si>
+  <si>
+    <t>JOIN OrderID in Order Details &amp; UnitPrice * ( Quantity - Discount )</t>
+  </si>
+  <si>
+    <t>DATETIME</t>
+  </si>
+  <si>
+    <t>REAL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1008,6 +1116,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -1100,7 +1215,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
@@ -1110,12 +1225,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
@@ -1127,23 +1236,31 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1153,18 +1270,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" quotePrefix="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% — акцент1" xfId="3" builtinId="30"/>
@@ -1484,7 +1589,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{438DCF2F-B5A9-4CE2-9803-6BD6F67BD7E5}">
   <dimension ref="A1:X62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:D1"/>
     </sheetView>
@@ -1519,112 +1624,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="8" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="7" t="s">
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="8" t="s">
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="7" t="s">
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
+      <c r="X1" s="20"/>
     </row>
     <row r="2" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="O2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="P2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="Q2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="R2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="S2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="T2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="U2" s="9" t="s">
+      <c r="U2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="V2" s="9" t="s">
+      <c r="V2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="W2" s="9" t="s">
+      <c r="W2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="X2" s="9" t="s">
+      <c r="X2" s="7" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3849,976 +3954,976 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="13" t="s">
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="14" t="s">
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="13" t="s">
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
-      <c r="X1" s="13"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="22"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="L2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="M2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="N2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="16" t="s">
+      <c r="O2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="16" t="s">
+      <c r="P2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="16" t="s">
+      <c r="Q2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="R2" s="16" t="s">
+      <c r="R2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="S2" s="16" t="s">
+      <c r="S2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="T2" s="15" t="s">
+      <c r="T2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="U2" s="15" t="s">
+      <c r="U2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="V2" s="15" t="s">
+      <c r="V2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="W2" s="15" t="s">
+      <c r="W2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="X2" s="15" t="s">
+      <c r="X2" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
       <c r="R3" s="5"/>
       <c r="S3" s="5"/>
-      <c r="T3" s="11" t="s">
+      <c r="T3" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="U3" s="11" t="s">
+      <c r="U3" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="V3" s="11" t="s">
+      <c r="V3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="W3" s="11" t="s">
+      <c r="W3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="X3" s="11"/>
+      <c r="X3" s="9"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
       <c r="R4" s="5"/>
       <c r="S4" s="5"/>
-      <c r="T4" s="11" t="s">
+      <c r="T4" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="U4" s="11" t="s">
+      <c r="U4" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="V4" s="11" t="s">
+      <c r="V4" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="W4" s="11" t="s">
+      <c r="W4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="X4" s="11"/>
+      <c r="X4" s="9"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
       <c r="S5" s="5"/>
-      <c r="T5" s="11" t="s">
+      <c r="T5" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="U5" s="11" t="s">
+      <c r="U5" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="V5" s="11" t="s">
+      <c r="V5" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="W5" s="11" t="s">
+      <c r="W5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="X5" s="11"/>
+      <c r="X5" s="9"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
       <c r="R6" s="5"/>
       <c r="S6" s="5"/>
-      <c r="T6" s="11" t="s">
+      <c r="T6" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="U6" s="11" t="s">
+      <c r="U6" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="V6" s="11" t="s">
+      <c r="V6" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="W6" s="11" t="s">
+      <c r="W6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="X6" s="11"/>
+      <c r="X6" s="9"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
       <c r="S7" s="5"/>
-      <c r="T7" s="11" t="s">
+      <c r="T7" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="U7" s="11" t="s">
+      <c r="U7" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="V7" s="11" t="s">
+      <c r="V7" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="W7" s="11" t="s">
+      <c r="W7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="X7" s="11"/>
+      <c r="X7" s="9"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
       <c r="S8" s="5"/>
-      <c r="T8" s="11" t="s">
+      <c r="T8" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="U8" s="11" t="s">
+      <c r="U8" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="V8" s="11" t="s">
+      <c r="V8" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="W8" s="11" t="s">
+      <c r="W8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="X8" s="11"/>
+      <c r="X8" s="9"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
       <c r="R9" s="5"/>
       <c r="S9" s="5"/>
-      <c r="T9" s="11" t="s">
+      <c r="T9" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="U9" s="11" t="s">
+      <c r="U9" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="V9" s="11" t="s">
+      <c r="V9" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="W9" s="11" t="s">
+      <c r="W9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="X9" s="11"/>
+      <c r="X9" s="9"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
       <c r="S10" s="5"/>
-      <c r="T10" s="11" t="s">
+      <c r="T10" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="U10" s="11" t="s">
+      <c r="U10" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="V10" s="11" t="s">
+      <c r="V10" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="W10" s="11" t="s">
+      <c r="W10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="X10" s="11"/>
+      <c r="X10" s="9"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
       <c r="S11" s="5"/>
-      <c r="T11" s="11" t="s">
+      <c r="T11" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="U11" s="11" t="s">
+      <c r="U11" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="V11" s="11" t="s">
+      <c r="V11" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="W11" s="11" t="s">
+      <c r="W11" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="X11" s="11"/>
+      <c r="X11" s="9"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
       <c r="S12" s="5"/>
-      <c r="T12" s="11" t="s">
+      <c r="T12" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="U12" s="11" t="s">
+      <c r="U12" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="V12" s="11" t="s">
+      <c r="V12" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="W12" s="11" t="s">
+      <c r="W12" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="X12" s="11"/>
+      <c r="X12" s="9"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
       <c r="S13" s="5"/>
-      <c r="T13" s="11" t="s">
+      <c r="T13" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="U13" s="11" t="s">
+      <c r="U13" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="V13" s="11" t="s">
+      <c r="V13" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="W13" s="11" t="s">
+      <c r="W13" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="X13" s="11"/>
+      <c r="X13" s="9"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
       <c r="S14" s="5"/>
-      <c r="T14" s="11" t="s">
+      <c r="T14" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="U14" s="11" t="s">
+      <c r="U14" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="V14" s="11" t="s">
+      <c r="V14" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="W14" s="11" t="s">
+      <c r="W14" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="X14" s="11"/>
+      <c r="X14" s="9"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
-      <c r="T15" s="11" t="s">
+      <c r="T15" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="U15" s="11" t="s">
+      <c r="U15" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="V15" s="11" t="s">
+      <c r="V15" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="W15" s="11" t="s">
+      <c r="W15" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="X15" s="11"/>
+      <c r="X15" s="9"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
-      <c r="T16" s="11" t="s">
+      <c r="T16" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="U16" s="11" t="s">
+      <c r="U16" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="V16" s="11" t="s">
+      <c r="V16" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="W16" s="11" t="s">
+      <c r="W16" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="X16" s="11"/>
+      <c r="X16" s="9"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
-      <c r="T17" s="11" t="s">
+      <c r="T17" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="U17" s="11" t="s">
+      <c r="U17" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="V17" s="11" t="s">
+      <c r="V17" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="W17" s="11" t="s">
+      <c r="W17" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="X17" s="11"/>
+      <c r="X17" s="9"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
-      <c r="T18" s="11" t="s">
+      <c r="T18" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="U18" s="11" t="s">
+      <c r="U18" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="V18" s="11" t="s">
+      <c r="V18" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="W18" s="11" t="s">
+      <c r="W18" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="X18" s="11"/>
+      <c r="X18" s="9"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
       <c r="O19" s="5"/>
       <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
-      <c r="T19" s="11" t="s">
+      <c r="T19" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="U19" s="11" t="s">
+      <c r="U19" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="V19" s="11" t="s">
+      <c r="V19" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="W19" s="11" t="s">
+      <c r="W19" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="X19" s="11"/>
+      <c r="X19" s="9"/>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
       <c r="S20" s="5"/>
-      <c r="T20" s="11" t="s">
+      <c r="T20" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="U20" s="11" t="s">
+      <c r="U20" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="V20" s="11" t="s">
+      <c r="V20" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="W20" s="11" t="s">
+      <c r="W20" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="X20" s="11"/>
+      <c r="X20" s="9"/>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
       <c r="O21" s="5"/>
       <c r="P21" s="5"/>
       <c r="Q21" s="5"/>
       <c r="R21" s="5"/>
       <c r="S21" s="5"/>
-      <c r="T21" s="11" t="s">
+      <c r="T21" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="U21" s="11" t="s">
+      <c r="U21" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="V21" s="11" t="s">
+      <c r="V21" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="W21" s="11" t="s">
+      <c r="W21" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="X21" s="11"/>
+      <c r="X21" s="9"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
       <c r="O22" s="5"/>
       <c r="P22" s="5"/>
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
       <c r="S22" s="5"/>
-      <c r="T22" s="11" t="s">
+      <c r="T22" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="U22" s="11" t="s">
+      <c r="U22" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="V22" s="11" t="s">
+      <c r="V22" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="W22" s="11" t="s">
+      <c r="W22" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="X22" s="11"/>
+      <c r="X22" s="9"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
       <c r="O23" s="5"/>
       <c r="P23" s="5"/>
       <c r="Q23" s="5"/>
       <c r="R23" s="5"/>
       <c r="S23" s="5"/>
-      <c r="T23" s="11" t="s">
+      <c r="T23" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="U23" s="11" t="s">
+      <c r="U23" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="V23" s="11" t="s">
+      <c r="V23" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="W23" s="11" t="s">
+      <c r="W23" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="X23" s="11"/>
+      <c r="X23" s="9"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
       <c r="O24" s="5"/>
       <c r="P24" s="5"/>
       <c r="Q24" s="5"/>
       <c r="R24" s="5"/>
       <c r="S24" s="5"/>
-      <c r="T24" s="11" t="s">
+      <c r="T24" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="U24" s="11" t="s">
+      <c r="U24" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="V24" s="11" t="s">
+      <c r="V24" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="W24" s="11" t="s">
+      <c r="W24" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="X24" s="11"/>
+      <c r="X24" s="9"/>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
       <c r="O25" s="5"/>
       <c r="P25" s="5"/>
       <c r="Q25" s="5"/>
       <c r="R25" s="5"/>
       <c r="S25" s="5"/>
-      <c r="T25" s="11" t="s">
+      <c r="T25" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="U25" s="11" t="s">
+      <c r="U25" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="V25" s="11" t="s">
+      <c r="V25" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="W25" s="11" t="s">
+      <c r="W25" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="X25" s="11"/>
+      <c r="X25" s="9"/>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
       <c r="O26" s="5"/>
       <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
       <c r="R26" s="5"/>
       <c r="S26" s="5"/>
-      <c r="T26" s="11" t="s">
+      <c r="T26" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="U26" s="11" t="s">
+      <c r="U26" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="V26" s="11" t="s">
+      <c r="V26" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="W26" s="11" t="s">
+      <c r="W26" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="X26" s="11"/>
+      <c r="X26" s="9"/>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
       <c r="O27" s="5"/>
       <c r="P27" s="5"/>
       <c r="Q27" s="5"/>
       <c r="R27" s="5"/>
       <c r="S27" s="5"/>
-      <c r="T27" s="11" t="s">
+      <c r="T27" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="U27" s="11" t="s">
+      <c r="U27" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="V27" s="11" t="s">
+      <c r="V27" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="W27" s="11" t="s">
+      <c r="W27" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="X27" s="11"/>
+      <c r="X27" s="9"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="9" t="s">
         <v>184</v>
       </c>
       <c r="E28" s="5" t="s">
@@ -4831,19 +4936,19 @@
         <v>175</v>
       </c>
       <c r="H28" s="5"/>
-      <c r="J28" s="11" t="s">
+      <c r="J28" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="K28" s="11" t="s">
+      <c r="K28" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="L28" s="11" t="s">
+      <c r="L28" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="M28" s="11" t="s">
+      <c r="M28" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="N28" s="11"/>
+      <c r="N28" s="9"/>
       <c r="O28" s="5" t="s">
         <v>153</v>
       </c>
@@ -4855,31 +4960,31 @@
       </c>
       <c r="R28" s="5"/>
       <c r="S28" s="5"/>
-      <c r="T28" s="11" t="s">
+      <c r="T28" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="U28" s="11" t="s">
+      <c r="U28" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="V28" s="11" t="s">
+      <c r="V28" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="W28" s="11" t="s">
+      <c r="W28" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="X28" s="11"/>
+      <c r="X28" s="9"/>
     </row>
     <row r="29" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="9" t="s">
         <v>184</v>
       </c>
       <c r="E29" s="5" t="s">
@@ -4897,19 +5002,19 @@
       <c r="I29" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="J29" s="11" t="s">
+      <c r="J29" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="K29" s="11" t="s">
+      <c r="K29" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="L29" s="11" t="s">
+      <c r="L29" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="M29" s="11" t="s">
+      <c r="M29" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="N29" s="11"/>
+      <c r="N29" s="9"/>
       <c r="O29" s="5" t="s">
         <v>153</v>
       </c>
@@ -4921,37 +5026,37 @@
       </c>
       <c r="R29" s="5"/>
       <c r="S29" s="5"/>
-      <c r="T29" s="11" t="s">
+      <c r="T29" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="U29" s="11" t="s">
+      <c r="U29" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="V29" s="11" t="s">
+      <c r="V29" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="W29" s="11" t="s">
+      <c r="W29" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="X29" s="12" t="s">
+      <c r="X29" s="10" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
       <c r="O30" s="5" t="s">
         <v>153</v>
       </c>
@@ -4963,37 +5068,37 @@
       </c>
       <c r="R30" s="5"/>
       <c r="S30" s="5"/>
-      <c r="T30" s="11" t="s">
+      <c r="T30" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="U30" s="11" t="s">
+      <c r="U30" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="V30" s="11" t="s">
+      <c r="V30" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="W30" s="11" t="s">
+      <c r="W30" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="X30" s="12" t="s">
+      <c r="X30" s="10" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="11"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
       <c r="O31" s="5" t="s">
         <v>153</v>
       </c>
@@ -5005,27 +5110,27 @@
       </c>
       <c r="R31" s="5"/>
       <c r="S31" s="5"/>
-      <c r="T31" s="11"/>
-      <c r="U31" s="11"/>
-      <c r="V31" s="11"/>
-      <c r="W31" s="11"/>
-      <c r="X31" s="11"/>
+      <c r="T31" s="9"/>
+      <c r="U31" s="9"/>
+      <c r="V31" s="9"/>
+      <c r="W31" s="9"/>
+      <c r="X31" s="9"/>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="11"/>
-      <c r="N32" s="11"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
       <c r="O32" s="5" t="s">
         <v>153</v>
       </c>
@@ -5037,27 +5142,27 @@
       </c>
       <c r="R32" s="5"/>
       <c r="S32" s="5"/>
-      <c r="T32" s="11"/>
-      <c r="U32" s="11"/>
-      <c r="V32" s="11"/>
-      <c r="W32" s="11"/>
-      <c r="X32" s="11"/>
+      <c r="T32" s="9"/>
+      <c r="U32" s="9"/>
+      <c r="V32" s="9"/>
+      <c r="W32" s="9"/>
+      <c r="X32" s="9"/>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="11"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
       <c r="O33" s="5" t="s">
         <v>153</v>
       </c>
@@ -5069,27 +5174,27 @@
       </c>
       <c r="R33" s="5"/>
       <c r="S33" s="5"/>
-      <c r="T33" s="11"/>
-      <c r="U33" s="11"/>
-      <c r="V33" s="11"/>
-      <c r="W33" s="11"/>
-      <c r="X33" s="11"/>
+      <c r="T33" s="9"/>
+      <c r="U33" s="9"/>
+      <c r="V33" s="9"/>
+      <c r="W33" s="9"/>
+      <c r="X33" s="9"/>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="11"/>
-      <c r="N34" s="11"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
       <c r="O34" s="5" t="s">
         <v>153</v>
       </c>
@@ -5101,27 +5206,27 @@
       </c>
       <c r="R34" s="5"/>
       <c r="S34" s="5"/>
-      <c r="T34" s="11"/>
-      <c r="U34" s="11"/>
-      <c r="V34" s="11"/>
-      <c r="W34" s="11"/>
-      <c r="X34" s="11"/>
+      <c r="T34" s="9"/>
+      <c r="U34" s="9"/>
+      <c r="V34" s="9"/>
+      <c r="W34" s="9"/>
+      <c r="X34" s="9"/>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="11"/>
-      <c r="M35" s="11"/>
-      <c r="N35" s="11"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
       <c r="O35" s="5" t="s">
         <v>153</v>
       </c>
@@ -5133,27 +5238,27 @@
       </c>
       <c r="R35" s="5"/>
       <c r="S35" s="5"/>
-      <c r="T35" s="11"/>
-      <c r="U35" s="11"/>
-      <c r="V35" s="11"/>
-      <c r="W35" s="11"/>
-      <c r="X35" s="11"/>
+      <c r="T35" s="9"/>
+      <c r="U35" s="9"/>
+      <c r="V35" s="9"/>
+      <c r="W35" s="9"/>
+      <c r="X35" s="9"/>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="11"/>
-      <c r="M36" s="11"/>
-      <c r="N36" s="11"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
       <c r="O36" s="5" t="s">
         <v>153</v>
       </c>
@@ -5165,23 +5270,23 @@
       </c>
       <c r="R36" s="5"/>
       <c r="S36" s="5"/>
-      <c r="T36" s="11"/>
-      <c r="U36" s="11"/>
-      <c r="V36" s="11"/>
-      <c r="W36" s="11"/>
-      <c r="X36" s="11"/>
+      <c r="T36" s="9"/>
+      <c r="U36" s="9"/>
+      <c r="V36" s="9"/>
+      <c r="W36" s="9"/>
+      <c r="X36" s="9"/>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C37" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="D37" s="11" t="s">
+      <c r="D37" s="9" t="s">
         <v>184</v>
       </c>
       <c r="E37" s="5" t="s">
@@ -5199,19 +5304,19 @@
       <c r="I37" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="J37" s="11" t="s">
+      <c r="J37" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="K37" s="11" t="s">
+      <c r="K37" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="L37" s="11" t="s">
+      <c r="L37" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="M37" s="11" t="s">
+      <c r="M37" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="N37" s="11"/>
+      <c r="N37" s="9"/>
       <c r="O37" s="5" t="s">
         <v>153</v>
       </c>
@@ -5223,27 +5328,27 @@
       </c>
       <c r="R37" s="5"/>
       <c r="S37" s="5"/>
-      <c r="T37" s="11"/>
-      <c r="U37" s="11"/>
-      <c r="V37" s="11"/>
-      <c r="W37" s="11"/>
-      <c r="X37" s="11"/>
+      <c r="T37" s="9"/>
+      <c r="U37" s="9"/>
+      <c r="V37" s="9"/>
+      <c r="W37" s="9"/>
+      <c r="X37" s="9"/>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
-      <c r="J38" s="11"/>
-      <c r="K38" s="11"/>
-      <c r="L38" s="11"/>
-      <c r="M38" s="11"/>
-      <c r="N38" s="11"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
       <c r="O38" s="5" t="s">
         <v>153</v>
       </c>
@@ -5255,23 +5360,23 @@
       </c>
       <c r="R38" s="5"/>
       <c r="S38" s="5"/>
-      <c r="T38" s="11"/>
-      <c r="U38" s="11"/>
-      <c r="V38" s="11"/>
-      <c r="W38" s="11"/>
-      <c r="X38" s="11"/>
+      <c r="T38" s="9"/>
+      <c r="U38" s="9"/>
+      <c r="V38" s="9"/>
+      <c r="W38" s="9"/>
+      <c r="X38" s="9"/>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A39" s="11" t="s">
+      <c r="A39" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="D39" s="11" t="s">
+      <c r="D39" s="9" t="s">
         <v>184</v>
       </c>
       <c r="E39" s="5" t="s">
@@ -5289,19 +5394,19 @@
       <c r="I39" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="J39" s="11" t="s">
+      <c r="J39" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="K39" s="11" t="s">
+      <c r="K39" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="L39" s="11" t="s">
+      <c r="L39" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="M39" s="11" t="s">
+      <c r="M39" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="N39" s="11"/>
+      <c r="N39" s="9"/>
       <c r="O39" s="5" t="s">
         <v>153</v>
       </c>
@@ -5313,27 +5418,27 @@
       </c>
       <c r="R39" s="5"/>
       <c r="S39" s="5"/>
-      <c r="T39" s="11"/>
-      <c r="U39" s="11"/>
-      <c r="V39" s="11"/>
-      <c r="W39" s="11"/>
-      <c r="X39" s="11"/>
+      <c r="T39" s="9"/>
+      <c r="U39" s="9"/>
+      <c r="V39" s="9"/>
+      <c r="W39" s="9"/>
+      <c r="X39" s="9"/>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A40" s="11"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
-      <c r="J40" s="11"/>
-      <c r="K40" s="11"/>
-      <c r="L40" s="11"/>
-      <c r="M40" s="11"/>
-      <c r="N40" s="11"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
       <c r="O40" s="5" t="s">
         <v>153</v>
       </c>
@@ -5345,27 +5450,27 @@
       </c>
       <c r="R40" s="5"/>
       <c r="S40" s="5"/>
-      <c r="T40" s="11"/>
-      <c r="U40" s="11"/>
-      <c r="V40" s="11"/>
-      <c r="W40" s="11"/>
-      <c r="X40" s="11"/>
+      <c r="T40" s="9"/>
+      <c r="U40" s="9"/>
+      <c r="V40" s="9"/>
+      <c r="W40" s="9"/>
+      <c r="X40" s="9"/>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A41" s="11"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
-      <c r="J41" s="11"/>
-      <c r="K41" s="11"/>
-      <c r="L41" s="11"/>
-      <c r="M41" s="11"/>
-      <c r="N41" s="11"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="9"/>
       <c r="O41" s="5" t="s">
         <v>153</v>
       </c>
@@ -5377,27 +5482,27 @@
       </c>
       <c r="R41" s="5"/>
       <c r="S41" s="5"/>
-      <c r="T41" s="11"/>
-      <c r="U41" s="11"/>
-      <c r="V41" s="11"/>
-      <c r="W41" s="11"/>
-      <c r="X41" s="11"/>
+      <c r="T41" s="9"/>
+      <c r="U41" s="9"/>
+      <c r="V41" s="9"/>
+      <c r="W41" s="9"/>
+      <c r="X41" s="9"/>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A42" s="11"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
-      <c r="J42" s="11"/>
-      <c r="K42" s="11"/>
-      <c r="L42" s="11"/>
-      <c r="M42" s="11"/>
-      <c r="N42" s="11"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="9"/>
       <c r="O42" s="5" t="s">
         <v>153</v>
       </c>
@@ -5409,27 +5514,27 @@
       </c>
       <c r="R42" s="5"/>
       <c r="S42" s="5"/>
-      <c r="T42" s="11"/>
-      <c r="U42" s="11"/>
-      <c r="V42" s="11"/>
-      <c r="W42" s="11"/>
-      <c r="X42" s="11"/>
+      <c r="T42" s="9"/>
+      <c r="U42" s="9"/>
+      <c r="V42" s="9"/>
+      <c r="W42" s="9"/>
+      <c r="X42" s="9"/>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A43" s="11"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
+      <c r="A43" s="9"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
-      <c r="J43" s="11"/>
-      <c r="K43" s="11"/>
-      <c r="L43" s="11"/>
-      <c r="M43" s="11"/>
-      <c r="N43" s="11"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="9"/>
       <c r="O43" s="5" t="s">
         <v>153</v>
       </c>
@@ -5441,27 +5546,27 @@
       </c>
       <c r="R43" s="5"/>
       <c r="S43" s="5"/>
-      <c r="T43" s="11"/>
-      <c r="U43" s="11"/>
-      <c r="V43" s="11"/>
-      <c r="W43" s="11"/>
-      <c r="X43" s="11"/>
+      <c r="T43" s="9"/>
+      <c r="U43" s="9"/>
+      <c r="V43" s="9"/>
+      <c r="W43" s="9"/>
+      <c r="X43" s="9"/>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A44" s="11"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
+      <c r="A44" s="9"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
-      <c r="J44" s="11"/>
-      <c r="K44" s="11"/>
-      <c r="L44" s="11"/>
-      <c r="M44" s="11"/>
-      <c r="N44" s="11"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="9"/>
       <c r="O44" s="5" t="s">
         <v>153</v>
       </c>
@@ -5473,27 +5578,27 @@
       </c>
       <c r="R44" s="5"/>
       <c r="S44" s="5"/>
-      <c r="T44" s="11"/>
-      <c r="U44" s="11"/>
-      <c r="V44" s="11"/>
-      <c r="W44" s="11"/>
-      <c r="X44" s="11"/>
+      <c r="T44" s="9"/>
+      <c r="U44" s="9"/>
+      <c r="V44" s="9"/>
+      <c r="W44" s="9"/>
+      <c r="X44" s="9"/>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A45" s="11"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
+      <c r="A45" s="9"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
-      <c r="J45" s="11"/>
-      <c r="K45" s="11"/>
-      <c r="L45" s="11"/>
-      <c r="M45" s="11"/>
-      <c r="N45" s="11"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="9"/>
       <c r="O45" s="5" t="s">
         <v>153</v>
       </c>
@@ -5505,27 +5610,27 @@
       </c>
       <c r="R45" s="5"/>
       <c r="S45" s="5"/>
-      <c r="T45" s="11"/>
-      <c r="U45" s="11"/>
-      <c r="V45" s="11"/>
-      <c r="W45" s="11"/>
-      <c r="X45" s="11"/>
+      <c r="T45" s="9"/>
+      <c r="U45" s="9"/>
+      <c r="V45" s="9"/>
+      <c r="W45" s="9"/>
+      <c r="X45" s="9"/>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A46" s="11"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
+      <c r="A46" s="9"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
-      <c r="J46" s="11"/>
-      <c r="K46" s="11"/>
-      <c r="L46" s="11"/>
-      <c r="M46" s="11"/>
-      <c r="N46" s="11"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
+      <c r="N46" s="9"/>
       <c r="O46" s="5" t="s">
         <v>153</v>
       </c>
@@ -5537,27 +5642,27 @@
       </c>
       <c r="R46" s="5"/>
       <c r="S46" s="5"/>
-      <c r="T46" s="11"/>
-      <c r="U46" s="11"/>
-      <c r="V46" s="11"/>
-      <c r="W46" s="11"/>
-      <c r="X46" s="11"/>
+      <c r="T46" s="9"/>
+      <c r="U46" s="9"/>
+      <c r="V46" s="9"/>
+      <c r="W46" s="9"/>
+      <c r="X46" s="9"/>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A47" s="11"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
+      <c r="A47" s="9"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
-      <c r="J47" s="11"/>
-      <c r="K47" s="11"/>
-      <c r="L47" s="11"/>
-      <c r="M47" s="11"/>
-      <c r="N47" s="11"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="9"/>
       <c r="O47" s="5" t="s">
         <v>153</v>
       </c>
@@ -5569,27 +5674,27 @@
       </c>
       <c r="R47" s="5"/>
       <c r="S47" s="5"/>
-      <c r="T47" s="11"/>
-      <c r="U47" s="11"/>
-      <c r="V47" s="11"/>
-      <c r="W47" s="11"/>
-      <c r="X47" s="11"/>
+      <c r="T47" s="9"/>
+      <c r="U47" s="9"/>
+      <c r="V47" s="9"/>
+      <c r="W47" s="9"/>
+      <c r="X47" s="9"/>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A48" s="11"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
+      <c r="A48" s="9"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
-      <c r="J48" s="11"/>
-      <c r="K48" s="11"/>
-      <c r="L48" s="11"/>
-      <c r="M48" s="11"/>
-      <c r="N48" s="11"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="9"/>
       <c r="O48" s="5" t="s">
         <v>153</v>
       </c>
@@ -5601,427 +5706,427 @@
       </c>
       <c r="R48" s="5"/>
       <c r="S48" s="5"/>
-      <c r="T48" s="11"/>
-      <c r="U48" s="11"/>
-      <c r="V48" s="11"/>
-      <c r="W48" s="11"/>
-      <c r="X48" s="11"/>
+      <c r="T48" s="9"/>
+      <c r="U48" s="9"/>
+      <c r="V48" s="9"/>
+      <c r="W48" s="9"/>
+      <c r="X48" s="9"/>
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A49" s="11"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
+      <c r="A49" s="9"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
-      <c r="J49" s="11" t="s">
+      <c r="J49" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="K49" s="11" t="s">
+      <c r="K49" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="L49" s="11" t="s">
+      <c r="L49" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="M49" s="11"/>
-      <c r="N49" s="11"/>
+      <c r="M49" s="9"/>
+      <c r="N49" s="9"/>
       <c r="O49" s="5"/>
       <c r="P49" s="5"/>
       <c r="Q49" s="5"/>
       <c r="R49" s="5"/>
       <c r="S49" s="5"/>
-      <c r="T49" s="11"/>
-      <c r="U49" s="11"/>
-      <c r="V49" s="11"/>
-      <c r="W49" s="11"/>
-      <c r="X49" s="11"/>
+      <c r="T49" s="9"/>
+      <c r="U49" s="9"/>
+      <c r="V49" s="9"/>
+      <c r="W49" s="9"/>
+      <c r="X49" s="9"/>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A50" s="11"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
+      <c r="A50" s="9"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
-      <c r="J50" s="11" t="s">
+      <c r="J50" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="K50" s="11" t="s">
+      <c r="K50" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="L50" s="11" t="s">
+      <c r="L50" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="M50" s="11"/>
-      <c r="N50" s="11"/>
+      <c r="M50" s="9"/>
+      <c r="N50" s="9"/>
       <c r="O50" s="5"/>
       <c r="P50" s="5"/>
       <c r="Q50" s="5"/>
       <c r="R50" s="5"/>
       <c r="S50" s="5"/>
-      <c r="T50" s="11"/>
-      <c r="U50" s="11"/>
-      <c r="V50" s="11"/>
-      <c r="W50" s="11"/>
-      <c r="X50" s="11"/>
+      <c r="T50" s="9"/>
+      <c r="U50" s="9"/>
+      <c r="V50" s="9"/>
+      <c r="W50" s="9"/>
+      <c r="X50" s="9"/>
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A51" s="11"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
+      <c r="A51" s="9"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
-      <c r="J51" s="11" t="s">
+      <c r="J51" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="K51" s="11" t="s">
+      <c r="K51" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="L51" s="11" t="s">
+      <c r="L51" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="M51" s="11"/>
-      <c r="N51" s="11"/>
+      <c r="M51" s="9"/>
+      <c r="N51" s="9"/>
       <c r="O51" s="5"/>
       <c r="P51" s="5"/>
       <c r="Q51" s="5"/>
       <c r="R51" s="5"/>
       <c r="S51" s="5"/>
-      <c r="T51" s="11"/>
-      <c r="U51" s="11"/>
-      <c r="V51" s="11"/>
-      <c r="W51" s="11"/>
-      <c r="X51" s="11"/>
+      <c r="T51" s="9"/>
+      <c r="U51" s="9"/>
+      <c r="V51" s="9"/>
+      <c r="W51" s="9"/>
+      <c r="X51" s="9"/>
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A52" s="11"/>
-      <c r="B52" s="11"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
+      <c r="A52" s="9"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
-      <c r="J52" s="11" t="s">
+      <c r="J52" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="K52" s="11" t="s">
+      <c r="K52" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="L52" s="11" t="s">
+      <c r="L52" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="M52" s="11"/>
-      <c r="N52" s="11"/>
+      <c r="M52" s="9"/>
+      <c r="N52" s="9"/>
       <c r="O52" s="5"/>
       <c r="P52" s="5"/>
       <c r="Q52" s="5"/>
       <c r="R52" s="5"/>
       <c r="S52" s="5"/>
-      <c r="T52" s="11"/>
-      <c r="U52" s="11"/>
-      <c r="V52" s="11"/>
-      <c r="W52" s="11"/>
-      <c r="X52" s="11"/>
+      <c r="T52" s="9"/>
+      <c r="U52" s="9"/>
+      <c r="V52" s="9"/>
+      <c r="W52" s="9"/>
+      <c r="X52" s="9"/>
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A53" s="11"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
+      <c r="A53" s="9"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
-      <c r="J53" s="11" t="s">
+      <c r="J53" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="K53" s="11" t="s">
+      <c r="K53" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="L53" s="11" t="s">
+      <c r="L53" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="M53" s="11"/>
-      <c r="N53" s="11"/>
+      <c r="M53" s="9"/>
+      <c r="N53" s="9"/>
       <c r="O53" s="5"/>
       <c r="P53" s="5"/>
       <c r="Q53" s="5"/>
       <c r="R53" s="5"/>
       <c r="S53" s="5"/>
-      <c r="T53" s="11"/>
-      <c r="U53" s="11"/>
-      <c r="V53" s="11"/>
-      <c r="W53" s="11"/>
-      <c r="X53" s="11"/>
+      <c r="T53" s="9"/>
+      <c r="U53" s="9"/>
+      <c r="V53" s="9"/>
+      <c r="W53" s="9"/>
+      <c r="X53" s="9"/>
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A54" s="11"/>
-      <c r="B54" s="11"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
+      <c r="A54" s="9"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
-      <c r="J54" s="11" t="s">
+      <c r="J54" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="K54" s="11" t="s">
+      <c r="K54" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="L54" s="11" t="s">
+      <c r="L54" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="M54" s="11"/>
-      <c r="N54" s="11"/>
+      <c r="M54" s="9"/>
+      <c r="N54" s="9"/>
       <c r="O54" s="5"/>
       <c r="P54" s="5"/>
       <c r="Q54" s="5"/>
       <c r="R54" s="5"/>
       <c r="S54" s="5"/>
-      <c r="T54" s="11"/>
-      <c r="U54" s="11"/>
-      <c r="V54" s="11"/>
-      <c r="W54" s="11"/>
-      <c r="X54" s="11"/>
+      <c r="T54" s="9"/>
+      <c r="U54" s="9"/>
+      <c r="V54" s="9"/>
+      <c r="W54" s="9"/>
+      <c r="X54" s="9"/>
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A55" s="11"/>
-      <c r="B55" s="11"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
+      <c r="A55" s="9"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
-      <c r="J55" s="11" t="s">
+      <c r="J55" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="K55" s="11" t="s">
+      <c r="K55" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="L55" s="11" t="s">
+      <c r="L55" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="M55" s="11"/>
-      <c r="N55" s="11"/>
+      <c r="M55" s="9"/>
+      <c r="N55" s="9"/>
       <c r="O55" s="5"/>
       <c r="P55" s="5"/>
       <c r="Q55" s="5"/>
       <c r="R55" s="5"/>
       <c r="S55" s="5"/>
-      <c r="T55" s="11"/>
-      <c r="U55" s="11"/>
-      <c r="V55" s="11"/>
-      <c r="W55" s="11"/>
-      <c r="X55" s="11"/>
+      <c r="T55" s="9"/>
+      <c r="U55" s="9"/>
+      <c r="V55" s="9"/>
+      <c r="W55" s="9"/>
+      <c r="X55" s="9"/>
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A56" s="11"/>
-      <c r="B56" s="11"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="11"/>
+      <c r="A56" s="9"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
       <c r="I56" s="5"/>
-      <c r="J56" s="11" t="s">
+      <c r="J56" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="K56" s="11" t="s">
+      <c r="K56" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="L56" s="11" t="s">
+      <c r="L56" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="M56" s="11"/>
-      <c r="N56" s="11"/>
+      <c r="M56" s="9"/>
+      <c r="N56" s="9"/>
       <c r="O56" s="5"/>
       <c r="P56" s="5"/>
       <c r="Q56" s="5"/>
       <c r="R56" s="5"/>
       <c r="S56" s="5"/>
-      <c r="T56" s="11"/>
-      <c r="U56" s="11"/>
-      <c r="V56" s="11"/>
-      <c r="W56" s="11"/>
-      <c r="X56" s="11"/>
+      <c r="T56" s="9"/>
+      <c r="U56" s="9"/>
+      <c r="V56" s="9"/>
+      <c r="W56" s="9"/>
+      <c r="X56" s="9"/>
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A57" s="11"/>
-      <c r="B57" s="11"/>
-      <c r="C57" s="11"/>
-      <c r="D57" s="11"/>
+      <c r="A57" s="9"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
-      <c r="J57" s="11" t="s">
+      <c r="J57" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="K57" s="11" t="s">
+      <c r="K57" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="L57" s="11" t="s">
+      <c r="L57" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="M57" s="11"/>
-      <c r="N57" s="11"/>
+      <c r="M57" s="9"/>
+      <c r="N57" s="9"/>
       <c r="O57" s="5"/>
       <c r="P57" s="5"/>
       <c r="Q57" s="5"/>
       <c r="R57" s="5"/>
       <c r="S57" s="5"/>
-      <c r="T57" s="11"/>
-      <c r="U57" s="11"/>
-      <c r="V57" s="11"/>
-      <c r="W57" s="11"/>
-      <c r="X57" s="11"/>
+      <c r="T57" s="9"/>
+      <c r="U57" s="9"/>
+      <c r="V57" s="9"/>
+      <c r="W57" s="9"/>
+      <c r="X57" s="9"/>
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A58" s="11"/>
-      <c r="B58" s="11"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
+      <c r="A58" s="9"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
-      <c r="J58" s="11" t="s">
+      <c r="J58" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="K58" s="11" t="s">
+      <c r="K58" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="L58" s="11" t="s">
+      <c r="L58" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="M58" s="11"/>
-      <c r="N58" s="11"/>
+      <c r="M58" s="9"/>
+      <c r="N58" s="9"/>
       <c r="O58" s="5"/>
       <c r="P58" s="5"/>
       <c r="Q58" s="5"/>
       <c r="R58" s="5"/>
       <c r="S58" s="5"/>
-      <c r="T58" s="11"/>
-      <c r="U58" s="11"/>
-      <c r="V58" s="11"/>
-      <c r="W58" s="11"/>
-      <c r="X58" s="11"/>
+      <c r="T58" s="9"/>
+      <c r="U58" s="9"/>
+      <c r="V58" s="9"/>
+      <c r="W58" s="9"/>
+      <c r="X58" s="9"/>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A59" s="11"/>
-      <c r="B59" s="11"/>
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
+      <c r="A59" s="9"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
-      <c r="J59" s="11" t="s">
+      <c r="J59" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="K59" s="11" t="s">
+      <c r="K59" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="L59" s="11" t="s">
+      <c r="L59" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="M59" s="11"/>
-      <c r="N59" s="11"/>
+      <c r="M59" s="9"/>
+      <c r="N59" s="9"/>
       <c r="O59" s="5"/>
       <c r="P59" s="5"/>
       <c r="Q59" s="5"/>
       <c r="R59" s="5"/>
       <c r="S59" s="5"/>
-      <c r="T59" s="11"/>
-      <c r="U59" s="11"/>
-      <c r="V59" s="11"/>
-      <c r="W59" s="11"/>
-      <c r="X59" s="11"/>
+      <c r="T59" s="9"/>
+      <c r="U59" s="9"/>
+      <c r="V59" s="9"/>
+      <c r="W59" s="9"/>
+      <c r="X59" s="9"/>
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A60" s="11"/>
-      <c r="B60" s="11"/>
-      <c r="C60" s="11"/>
-      <c r="D60" s="11"/>
+      <c r="A60" s="9"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
       <c r="I60" s="5"/>
-      <c r="J60" s="11" t="s">
+      <c r="J60" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="K60" s="11" t="s">
+      <c r="K60" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="L60" s="11" t="s">
+      <c r="L60" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="M60" s="11"/>
-      <c r="N60" s="11"/>
+      <c r="M60" s="9"/>
+      <c r="N60" s="9"/>
       <c r="O60" s="5"/>
       <c r="P60" s="5"/>
       <c r="Q60" s="5"/>
       <c r="R60" s="5"/>
       <c r="S60" s="5"/>
-      <c r="T60" s="11"/>
-      <c r="U60" s="11"/>
-      <c r="V60" s="11"/>
-      <c r="W60" s="11"/>
-      <c r="X60" s="11"/>
+      <c r="T60" s="9"/>
+      <c r="U60" s="9"/>
+      <c r="V60" s="9"/>
+      <c r="W60" s="9"/>
+      <c r="X60" s="9"/>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A61" s="11"/>
-      <c r="B61" s="11"/>
-      <c r="C61" s="11"/>
-      <c r="D61" s="11"/>
+      <c r="A61" s="9"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
       <c r="I61" s="5"/>
-      <c r="J61" s="11" t="s">
+      <c r="J61" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="K61" s="11" t="s">
+      <c r="K61" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="L61" s="11" t="s">
+      <c r="L61" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="M61" s="11"/>
-      <c r="N61" s="11"/>
+      <c r="M61" s="9"/>
+      <c r="N61" s="9"/>
       <c r="O61" s="5"/>
       <c r="P61" s="5"/>
       <c r="Q61" s="5"/>
       <c r="R61" s="5"/>
       <c r="S61" s="5"/>
-      <c r="T61" s="11"/>
-      <c r="U61" s="11"/>
-      <c r="V61" s="11"/>
-      <c r="W61" s="11"/>
-      <c r="X61" s="11"/>
+      <c r="T61" s="9"/>
+      <c r="U61" s="9"/>
+      <c r="V61" s="9"/>
+      <c r="W61" s="9"/>
+      <c r="X61" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -6079,134 +6184,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="8" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="7" t="s">
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="26" t="s">
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="7" t="s">
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="18" t="s">
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
+      <c r="X1" s="20"/>
+      <c r="Y1" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="Z1" s="18"/>
-      <c r="AA1" s="18"/>
-      <c r="AB1" s="18"/>
-      <c r="AC1" s="18"/>
+      <c r="Z1" s="24"/>
+      <c r="AA1" s="24"/>
+      <c r="AB1" s="24"/>
+      <c r="AC1" s="24"/>
     </row>
     <row r="2" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="O2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="P2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="Q2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="R2" s="19" t="s">
+      <c r="R2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="S2" s="19" t="s">
+      <c r="S2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="T2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="U2" s="9" t="s">
+      <c r="U2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="V2" s="9" t="s">
+      <c r="V2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="W2" s="9" t="s">
+      <c r="W2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="X2" s="9" t="s">
+      <c r="X2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="Y2" s="19" t="s">
+      <c r="Y2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="Z2" s="19" t="s">
+      <c r="Z2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="AA2" s="19" t="s">
+      <c r="AA2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="AB2" s="19" t="s">
+      <c r="AB2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="AC2" s="19" t="s">
+      <c r="AC2" s="14" t="s">
         <v>7</v>
       </c>
     </row>
@@ -6225,29 +6330,29 @@
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
       <c r="T3" s="6"/>
       <c r="U3" s="6"/>
       <c r="V3" s="6"/>
       <c r="W3" s="6"/>
       <c r="X3" s="6"/>
-      <c r="Y3" s="20" t="s">
+      <c r="Y3" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="Z3" s="20" t="s">
+      <c r="Z3" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="AA3" s="20" t="s">
+      <c r="AA3" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="AB3" s="20" t="s">
+      <c r="AB3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="AC3" s="20" t="s">
+      <c r="AC3" s="15" t="s">
         <v>36</v>
       </c>
     </row>
@@ -6290,17 +6395,17 @@
       <c r="N4" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="O4" s="29" t="s">
+      <c r="O4" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="P4" s="29" t="s">
+      <c r="P4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Q4" s="29" t="s">
+      <c r="Q4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
       <c r="T4" s="6" t="s">
         <v>199</v>
       </c>
@@ -6312,19 +6417,19 @@
       </c>
       <c r="W4" s="6"/>
       <c r="X4" s="6"/>
-      <c r="Y4" s="20" t="s">
+      <c r="Y4" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="Z4" s="20" t="s">
+      <c r="Z4" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="AA4" s="20" t="s">
+      <c r="AA4" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="AB4" s="20" t="s">
+      <c r="AB4" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="AC4" s="20"/>
+      <c r="AC4" s="15"/>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
@@ -6341,11 +6446,11 @@
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
-      <c r="O5" s="29"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="29"/>
-      <c r="R5" s="30"/>
-      <c r="S5" s="20"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="15"/>
       <c r="T5" s="6" t="s">
         <v>199</v>
       </c>
@@ -6355,25 +6460,25 @@
       <c r="V5" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="W5" s="22" t="s">
+      <c r="W5" s="17" t="s">
         <v>57</v>
       </c>
       <c r="X5" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="Y5" s="20" t="s">
+      <c r="Y5" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="Z5" s="20" t="s">
+      <c r="Z5" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="AA5" s="20" t="s">
+      <c r="AA5" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="AB5" s="20" t="s">
+      <c r="AB5" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="AC5" s="20"/>
+      <c r="AC5" s="15"/>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -6412,17 +6517,17 @@
       <c r="N6" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="O6" s="29" t="s">
+      <c r="O6" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="P6" s="29" t="s">
+      <c r="P6" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="Q6" s="29" t="s">
+      <c r="Q6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
       <c r="T6" s="6" t="s">
         <v>199</v>
       </c>
@@ -6434,17 +6539,17 @@
       </c>
       <c r="W6" s="6"/>
       <c r="X6" s="6"/>
-      <c r="Y6" s="20" t="s">
+      <c r="Y6" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="Z6" s="20" t="s">
+      <c r="Z6" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="AA6" s="20" t="s">
+      <c r="AA6" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="AB6" s="20"/>
-      <c r="AC6" s="20"/>
+      <c r="AB6" s="15"/>
+      <c r="AC6" s="15"/>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
@@ -6483,17 +6588,17 @@
       <c r="N7" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="O7" s="29" t="s">
+      <c r="O7" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="P7" s="29" t="s">
+      <c r="P7" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="Q7" s="29" t="s">
+      <c r="Q7" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
       <c r="T7" s="6" t="s">
         <v>199</v>
       </c>
@@ -6505,17 +6610,17 @@
       </c>
       <c r="W7" s="6"/>
       <c r="X7" s="6"/>
-      <c r="Y7" s="20" t="s">
+      <c r="Y7" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="Z7" s="20" t="s">
+      <c r="Z7" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="AA7" s="20" t="s">
+      <c r="AA7" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="AB7" s="20"/>
-      <c r="AC7" s="20"/>
+      <c r="AB7" s="15"/>
+      <c r="AC7" s="15"/>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
@@ -6554,17 +6659,17 @@
       <c r="N8" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="O8" s="29" t="s">
+      <c r="O8" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="P8" s="29" t="s">
+      <c r="P8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Q8" s="29" t="s">
+      <c r="Q8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
       <c r="T8" s="6" t="s">
         <v>199</v>
       </c>
@@ -6576,17 +6681,17 @@
       </c>
       <c r="W8" s="6"/>
       <c r="X8" s="6"/>
-      <c r="Y8" s="20" t="s">
+      <c r="Y8" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="Z8" s="20" t="s">
+      <c r="Z8" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="AA8" s="20" t="s">
+      <c r="AA8" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="AB8" s="20"/>
-      <c r="AC8" s="20"/>
+      <c r="AB8" s="15"/>
+      <c r="AC8" s="15"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
@@ -6625,17 +6730,17 @@
       <c r="N9" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="O9" s="29" t="s">
+      <c r="O9" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="P9" s="29" t="s">
+      <c r="P9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q9" s="29" t="s">
+      <c r="Q9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="R9" s="20"/>
-      <c r="S9" s="20"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
       <c r="T9" s="6" t="s">
         <v>199</v>
       </c>
@@ -6647,17 +6752,17 @@
       </c>
       <c r="W9" s="6"/>
       <c r="X9" s="6"/>
-      <c r="Y9" s="20" t="s">
+      <c r="Y9" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="Z9" s="20" t="s">
+      <c r="Z9" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="AA9" s="20" t="s">
+      <c r="AA9" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="AB9" s="20"/>
-      <c r="AC9" s="20"/>
+      <c r="AB9" s="15"/>
+      <c r="AC9" s="15"/>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
@@ -6674,29 +6779,29 @@
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="29"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
       <c r="T10" s="6"/>
       <c r="U10" s="6"/>
       <c r="V10" s="6"/>
       <c r="W10" s="6"/>
       <c r="X10" s="6"/>
-      <c r="Y10" s="20" t="s">
+      <c r="Y10" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="Z10" s="20" t="s">
+      <c r="Z10" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="AA10" s="20" t="s">
+      <c r="AA10" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="AB10" s="20" t="s">
+      <c r="AB10" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="AC10" s="20" t="s">
+      <c r="AC10" s="15" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6715,27 +6820,27 @@
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="29"/>
-      <c r="Q11" s="29"/>
-      <c r="R11" s="20"/>
-      <c r="S11" s="20"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
       <c r="T11" s="6"/>
       <c r="U11" s="6"/>
       <c r="V11" s="6"/>
       <c r="W11" s="6"/>
       <c r="X11" s="6"/>
-      <c r="Y11" s="20" t="s">
+      <c r="Y11" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="Z11" s="20" t="s">
+      <c r="Z11" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="AA11" s="20" t="s">
+      <c r="AA11" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="AB11" s="20"/>
-      <c r="AC11" s="20" t="s">
+      <c r="AB11" s="15"/>
+      <c r="AC11" s="15" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6754,29 +6859,29 @@
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="29"/>
-      <c r="R12" s="20"/>
-      <c r="S12" s="20"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
       <c r="T12" s="6"/>
       <c r="U12" s="6"/>
       <c r="V12" s="6"/>
       <c r="W12" s="6"/>
       <c r="X12" s="6"/>
-      <c r="Y12" s="20" t="s">
+      <c r="Y12" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="Z12" s="20" t="s">
+      <c r="Z12" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="AA12" s="20" t="s">
+      <c r="AA12" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="AB12" s="20" t="s">
+      <c r="AB12" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="AC12" s="20" t="s">
+      <c r="AC12" s="15" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6795,29 +6900,29 @@
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="29"/>
-      <c r="R13" s="20"/>
-      <c r="S13" s="20"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
       <c r="T13" s="6"/>
       <c r="U13" s="6"/>
       <c r="V13" s="6"/>
       <c r="W13" s="6"/>
       <c r="X13" s="6"/>
-      <c r="Y13" s="20" t="s">
+      <c r="Y13" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="Z13" s="20" t="s">
+      <c r="Z13" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="AA13" s="20" t="s">
+      <c r="AA13" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="AB13" s="20" t="s">
+      <c r="AB13" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="AC13" s="20"/>
+      <c r="AC13" s="15"/>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
@@ -6858,17 +6963,17 @@
       <c r="N14" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="O14" s="29" t="s">
+      <c r="O14" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="P14" s="29" t="s">
+      <c r="P14" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="Q14" s="29" t="s">
+      <c r="Q14" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="R14" s="20"/>
-      <c r="S14" s="20"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
       <c r="T14" s="6" t="s">
         <v>199</v>
       </c>
@@ -6880,11 +6985,11 @@
       </c>
       <c r="W14" s="6"/>
       <c r="X14" s="6"/>
-      <c r="Y14" s="20"/>
-      <c r="Z14" s="20"/>
-      <c r="AA14" s="20"/>
-      <c r="AB14" s="20"/>
-      <c r="AC14" s="20"/>
+      <c r="Y14" s="15"/>
+      <c r="Z14" s="15"/>
+      <c r="AA14" s="15"/>
+      <c r="AB14" s="15"/>
+      <c r="AC14" s="15"/>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
@@ -6925,17 +7030,17 @@
       <c r="N15" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="O15" s="29" t="s">
+      <c r="O15" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="P15" s="29" t="s">
+      <c r="P15" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="Q15" s="29" t="s">
+      <c r="Q15" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="R15" s="20"/>
-      <c r="S15" s="20"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="15"/>
       <c r="T15" s="6" t="s">
         <v>199</v>
       </c>
@@ -6947,11 +7052,11 @@
       </c>
       <c r="W15" s="6"/>
       <c r="X15" s="6"/>
-      <c r="Y15" s="20"/>
-      <c r="Z15" s="20"/>
-      <c r="AA15" s="20"/>
-      <c r="AB15" s="20"/>
-      <c r="AC15" s="20"/>
+      <c r="Y15" s="15"/>
+      <c r="Z15" s="15"/>
+      <c r="AA15" s="15"/>
+      <c r="AB15" s="15"/>
+      <c r="AC15" s="15"/>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
@@ -6963,32 +7068,32 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
-      <c r="J16" s="17" t="s">
+      <c r="J16" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="K16" s="17" t="s">
+      <c r="K16" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="L16" s="17" t="s">
+      <c r="L16" s="13" t="s">
         <v>29</v>
       </c>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
-      <c r="O16" s="29"/>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="29"/>
-      <c r="R16" s="20"/>
-      <c r="S16" s="20"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="15"/>
       <c r="T16" s="6"/>
       <c r="U16" s="6"/>
       <c r="V16" s="6"/>
       <c r="W16" s="6"/>
       <c r="X16" s="6"/>
-      <c r="Y16" s="20"/>
-      <c r="Z16" s="20"/>
-      <c r="AA16" s="20"/>
-      <c r="AB16" s="20"/>
-      <c r="AC16" s="20"/>
+      <c r="Y16" s="15"/>
+      <c r="Z16" s="15"/>
+      <c r="AA16" s="15"/>
+      <c r="AB16" s="15"/>
+      <c r="AC16" s="15"/>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
@@ -7000,32 +7105,32 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
-      <c r="J17" s="17" t="s">
+      <c r="J17" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="K17" s="17" t="s">
+      <c r="K17" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="L17" s="17" t="s">
+      <c r="L17" s="13" t="s">
         <v>61</v>
       </c>
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
-      <c r="O17" s="29"/>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="29"/>
-      <c r="R17" s="20"/>
-      <c r="S17" s="20"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="15"/>
       <c r="T17" s="6"/>
       <c r="U17" s="6"/>
       <c r="V17" s="6"/>
       <c r="W17" s="6"/>
       <c r="X17" s="6"/>
-      <c r="Y17" s="20"/>
-      <c r="Z17" s="20"/>
-      <c r="AA17" s="20"/>
-      <c r="AB17" s="20"/>
-      <c r="AC17" s="20"/>
+      <c r="Y17" s="15"/>
+      <c r="Z17" s="15"/>
+      <c r="AA17" s="15"/>
+      <c r="AB17" s="15"/>
+      <c r="AC17" s="15"/>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
@@ -7037,32 +7142,32 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
-      <c r="J18" s="17" t="s">
+      <c r="J18" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="K18" s="17" t="s">
+      <c r="K18" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="L18" s="17" t="s">
+      <c r="L18" s="13" t="s">
         <v>61</v>
       </c>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="29"/>
-      <c r="R18" s="20"/>
-      <c r="S18" s="20"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="15"/>
       <c r="T18" s="6"/>
       <c r="U18" s="6"/>
       <c r="V18" s="6"/>
       <c r="W18" s="6"/>
       <c r="X18" s="6"/>
-      <c r="Y18" s="20"/>
-      <c r="Z18" s="20"/>
-      <c r="AA18" s="20"/>
-      <c r="AB18" s="20"/>
-      <c r="AC18" s="20"/>
+      <c r="Y18" s="15"/>
+      <c r="Z18" s="15"/>
+      <c r="AA18" s="15"/>
+      <c r="AB18" s="15"/>
+      <c r="AC18" s="15"/>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
@@ -7074,32 +7179,32 @@
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
-      <c r="J19" s="17" t="s">
+      <c r="J19" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="K19" s="17" t="s">
+      <c r="K19" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="L19" s="17" t="s">
+      <c r="L19" s="13" t="s">
         <v>61</v>
       </c>
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="29"/>
-      <c r="Q19" s="29"/>
-      <c r="R19" s="20"/>
-      <c r="S19" s="20"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="15"/>
+      <c r="S19" s="15"/>
       <c r="T19" s="6"/>
       <c r="U19" s="6"/>
       <c r="V19" s="6"/>
       <c r="W19" s="6"/>
       <c r="X19" s="6"/>
-      <c r="Y19" s="20"/>
-      <c r="Z19" s="20"/>
-      <c r="AA19" s="20"/>
-      <c r="AB19" s="20"/>
-      <c r="AC19" s="20"/>
+      <c r="Y19" s="15"/>
+      <c r="Z19" s="15"/>
+      <c r="AA19" s="15"/>
+      <c r="AB19" s="15"/>
+      <c r="AC19" s="15"/>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
@@ -7111,32 +7216,32 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
-      <c r="J20" s="17" t="s">
+      <c r="J20" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="K20" s="17" t="s">
+      <c r="K20" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="L20" s="17" t="s">
+      <c r="L20" s="13" t="s">
         <v>200</v>
       </c>
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="29"/>
-      <c r="Q20" s="29"/>
-      <c r="R20" s="20"/>
-      <c r="S20" s="20"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="15"/>
+      <c r="S20" s="15"/>
       <c r="T20" s="6"/>
       <c r="U20" s="6"/>
       <c r="V20" s="6"/>
       <c r="W20" s="6"/>
       <c r="X20" s="6"/>
-      <c r="Y20" s="20"/>
-      <c r="Z20" s="20"/>
-      <c r="AA20" s="20"/>
-      <c r="AB20" s="20"/>
-      <c r="AC20" s="20"/>
+      <c r="Y20" s="15"/>
+      <c r="Z20" s="15"/>
+      <c r="AA20" s="15"/>
+      <c r="AB20" s="15"/>
+      <c r="AC20" s="15"/>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
@@ -7148,32 +7253,32 @@
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
-      <c r="J21" s="17" t="s">
+      <c r="J21" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="K21" s="17" t="s">
+      <c r="K21" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="L21" s="17" t="s">
+      <c r="L21" s="13" t="s">
         <v>61</v>
       </c>
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
-      <c r="O21" s="29"/>
-      <c r="P21" s="29"/>
-      <c r="Q21" s="29"/>
-      <c r="R21" s="20"/>
-      <c r="S21" s="20"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="15"/>
+      <c r="S21" s="15"/>
       <c r="T21" s="6"/>
       <c r="U21" s="6"/>
       <c r="V21" s="6"/>
       <c r="W21" s="6"/>
       <c r="X21" s="6"/>
-      <c r="Y21" s="20"/>
-      <c r="Z21" s="20"/>
-      <c r="AA21" s="20"/>
-      <c r="AB21" s="20"/>
-      <c r="AC21" s="20"/>
+      <c r="Y21" s="15"/>
+      <c r="Z21" s="15"/>
+      <c r="AA21" s="15"/>
+      <c r="AB21" s="15"/>
+      <c r="AC21" s="15"/>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
@@ -7185,32 +7290,32 @@
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
-      <c r="J22" s="17" t="s">
+      <c r="J22" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="K22" s="17" t="s">
+      <c r="K22" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="L22" s="17" t="s">
+      <c r="L22" s="13" t="s">
         <v>61</v>
       </c>
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
-      <c r="O22" s="29"/>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="29"/>
-      <c r="R22" s="20"/>
-      <c r="S22" s="20"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="15"/>
       <c r="T22" s="6"/>
       <c r="U22" s="6"/>
       <c r="V22" s="6"/>
       <c r="W22" s="6"/>
       <c r="X22" s="6"/>
-      <c r="Y22" s="20"/>
-      <c r="Z22" s="20"/>
-      <c r="AA22" s="20"/>
-      <c r="AB22" s="20"/>
-      <c r="AC22" s="20"/>
+      <c r="Y22" s="15"/>
+      <c r="Z22" s="15"/>
+      <c r="AA22" s="15"/>
+      <c r="AB22" s="15"/>
+      <c r="AC22" s="15"/>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
@@ -7222,32 +7327,32 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
-      <c r="J23" s="17" t="s">
+      <c r="J23" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="K23" s="17" t="s">
+      <c r="K23" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="L23" s="17" t="s">
+      <c r="L23" s="13" t="s">
         <v>61</v>
       </c>
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
-      <c r="O23" s="29"/>
-      <c r="P23" s="29"/>
-      <c r="Q23" s="29"/>
-      <c r="R23" s="20"/>
-      <c r="S23" s="20"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="15"/>
+      <c r="S23" s="15"/>
       <c r="T23" s="6"/>
       <c r="U23" s="6"/>
       <c r="V23" s="6"/>
       <c r="W23" s="6"/>
       <c r="X23" s="6"/>
-      <c r="Y23" s="20"/>
-      <c r="Z23" s="20"/>
-      <c r="AA23" s="20"/>
-      <c r="AB23" s="20"/>
-      <c r="AC23" s="20"/>
+      <c r="Y23" s="15"/>
+      <c r="Z23" s="15"/>
+      <c r="AA23" s="15"/>
+      <c r="AB23" s="15"/>
+      <c r="AC23" s="15"/>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
@@ -7259,32 +7364,32 @@
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
-      <c r="J24" s="17" t="s">
+      <c r="J24" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="K24" s="17" t="s">
+      <c r="K24" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="L24" s="17" t="s">
+      <c r="L24" s="13" t="s">
         <v>200</v>
       </c>
       <c r="M24" s="6"/>
       <c r="N24" s="6"/>
-      <c r="O24" s="29"/>
-      <c r="P24" s="29"/>
-      <c r="Q24" s="29"/>
-      <c r="R24" s="20"/>
-      <c r="S24" s="20"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="15"/>
+      <c r="S24" s="15"/>
       <c r="T24" s="6"/>
       <c r="U24" s="6"/>
       <c r="V24" s="6"/>
       <c r="W24" s="6"/>
       <c r="X24" s="6"/>
-      <c r="Y24" s="20"/>
-      <c r="Z24" s="20"/>
-      <c r="AA24" s="20"/>
-      <c r="AB24" s="20"/>
-      <c r="AC24" s="20"/>
+      <c r="Y24" s="15"/>
+      <c r="Z24" s="15"/>
+      <c r="AA24" s="15"/>
+      <c r="AB24" s="15"/>
+      <c r="AC24" s="15"/>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A25" s="6"/>
@@ -7296,32 +7401,32 @@
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
-      <c r="J25" s="17" t="s">
+      <c r="J25" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="K25" s="17" t="s">
+      <c r="K25" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="L25" s="17" t="s">
+      <c r="L25" s="13" t="s">
         <v>61</v>
       </c>
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
-      <c r="O25" s="29"/>
-      <c r="P25" s="29"/>
-      <c r="Q25" s="29"/>
-      <c r="R25" s="20"/>
-      <c r="S25" s="20"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="15"/>
+      <c r="S25" s="15"/>
       <c r="T25" s="6"/>
       <c r="U25" s="6"/>
       <c r="V25" s="6"/>
       <c r="W25" s="6"/>
       <c r="X25" s="6"/>
-      <c r="Y25" s="20"/>
-      <c r="Z25" s="20"/>
-      <c r="AA25" s="20"/>
-      <c r="AB25" s="20"/>
-      <c r="AC25" s="20"/>
+      <c r="Y25" s="15"/>
+      <c r="Z25" s="15"/>
+      <c r="AA25" s="15"/>
+      <c r="AB25" s="15"/>
+      <c r="AC25" s="15"/>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A26" s="6"/>
@@ -7333,32 +7438,32 @@
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
-      <c r="J26" s="17" t="s">
+      <c r="J26" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="K26" s="17" t="s">
+      <c r="K26" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="L26" s="17" t="s">
+      <c r="L26" s="13" t="s">
         <v>61</v>
       </c>
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
-      <c r="O26" s="29"/>
-      <c r="P26" s="29"/>
-      <c r="Q26" s="29"/>
-      <c r="R26" s="20"/>
-      <c r="S26" s="20"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="15"/>
+      <c r="S26" s="15"/>
       <c r="T26" s="6"/>
       <c r="U26" s="6"/>
       <c r="V26" s="6"/>
       <c r="W26" s="6"/>
       <c r="X26" s="6"/>
-      <c r="Y26" s="20"/>
-      <c r="Z26" s="20"/>
-      <c r="AA26" s="20"/>
-      <c r="AB26" s="20"/>
-      <c r="AC26" s="20"/>
+      <c r="Y26" s="15"/>
+      <c r="Z26" s="15"/>
+      <c r="AA26" s="15"/>
+      <c r="AB26" s="15"/>
+      <c r="AC26" s="15"/>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
@@ -7370,32 +7475,32 @@
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
-      <c r="J27" s="17" t="s">
+      <c r="J27" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="K27" s="17" t="s">
+      <c r="K27" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="L27" s="17" t="s">
+      <c r="L27" s="13" t="s">
         <v>61</v>
       </c>
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
-      <c r="O27" s="29"/>
-      <c r="P27" s="29"/>
-      <c r="Q27" s="29"/>
-      <c r="R27" s="20"/>
-      <c r="S27" s="20"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="15"/>
+      <c r="S27" s="15"/>
       <c r="T27" s="6"/>
       <c r="U27" s="6"/>
       <c r="V27" s="6"/>
       <c r="W27" s="6"/>
       <c r="X27" s="6"/>
-      <c r="Y27" s="20"/>
-      <c r="Z27" s="20"/>
-      <c r="AA27" s="20"/>
-      <c r="AB27" s="20"/>
-      <c r="AC27" s="20"/>
+      <c r="Y27" s="15"/>
+      <c r="Z27" s="15"/>
+      <c r="AA27" s="15"/>
+      <c r="AB27" s="15"/>
+      <c r="AC27" s="15"/>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A28" s="6"/>
@@ -7407,32 +7512,32 @@
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
-      <c r="J28" s="17" t="s">
+      <c r="J28" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="K28" s="17" t="s">
+      <c r="K28" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="L28" s="17" t="s">
+      <c r="L28" s="13" t="s">
         <v>33</v>
       </c>
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
-      <c r="O28" s="29"/>
-      <c r="P28" s="29"/>
-      <c r="Q28" s="29"/>
-      <c r="R28" s="20"/>
-      <c r="S28" s="20"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="15"/>
+      <c r="S28" s="15"/>
       <c r="T28" s="6"/>
       <c r="U28" s="6"/>
       <c r="V28" s="6"/>
       <c r="W28" s="6"/>
       <c r="X28" s="6"/>
-      <c r="Y28" s="20"/>
-      <c r="Z28" s="20"/>
-      <c r="AA28" s="20"/>
-      <c r="AB28" s="20"/>
-      <c r="AC28" s="20"/>
+      <c r="Y28" s="15"/>
+      <c r="Z28" s="15"/>
+      <c r="AA28" s="15"/>
+      <c r="AB28" s="15"/>
+      <c r="AC28" s="15"/>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
@@ -7444,32 +7549,32 @@
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
-      <c r="J29" s="17" t="s">
+      <c r="J29" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="K29" s="17" t="s">
+      <c r="K29" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="L29" s="17" t="s">
+      <c r="L29" s="13" t="s">
         <v>61</v>
       </c>
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
-      <c r="O29" s="29"/>
-      <c r="P29" s="29"/>
-      <c r="Q29" s="29"/>
-      <c r="R29" s="20"/>
-      <c r="S29" s="20"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="15"/>
+      <c r="S29" s="15"/>
       <c r="T29" s="6"/>
       <c r="U29" s="6"/>
       <c r="V29" s="6"/>
       <c r="W29" s="6"/>
       <c r="X29" s="6"/>
-      <c r="Y29" s="20"/>
-      <c r="Z29" s="20"/>
-      <c r="AA29" s="20"/>
-      <c r="AB29" s="20"/>
-      <c r="AC29" s="20"/>
+      <c r="Y29" s="15"/>
+      <c r="Z29" s="15"/>
+      <c r="AA29" s="15"/>
+      <c r="AB29" s="15"/>
+      <c r="AC29" s="15"/>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
@@ -7481,32 +7586,32 @@
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
-      <c r="J30" s="17" t="s">
+      <c r="J30" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="K30" s="17" t="s">
+      <c r="K30" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="L30" s="17" t="s">
+      <c r="L30" s="13" t="s">
         <v>61</v>
       </c>
       <c r="M30" s="6"/>
       <c r="N30" s="6"/>
-      <c r="O30" s="29"/>
-      <c r="P30" s="29"/>
-      <c r="Q30" s="29"/>
-      <c r="R30" s="20"/>
-      <c r="S30" s="20"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="15"/>
+      <c r="S30" s="15"/>
       <c r="T30" s="6"/>
       <c r="U30" s="6"/>
       <c r="V30" s="6"/>
       <c r="W30" s="6"/>
       <c r="X30" s="6"/>
-      <c r="Y30" s="20"/>
-      <c r="Z30" s="20"/>
-      <c r="AA30" s="20"/>
-      <c r="AB30" s="20"/>
-      <c r="AC30" s="20"/>
+      <c r="Y30" s="15"/>
+      <c r="Z30" s="15"/>
+      <c r="AA30" s="15"/>
+      <c r="AB30" s="15"/>
+      <c r="AC30" s="15"/>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
@@ -7518,32 +7623,32 @@
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
-      <c r="J31" s="17" t="s">
+      <c r="J31" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="K31" s="17" t="s">
+      <c r="K31" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="L31" s="17" t="s">
+      <c r="L31" s="13" t="s">
         <v>61</v>
       </c>
       <c r="M31" s="6"/>
       <c r="N31" s="6"/>
-      <c r="O31" s="29"/>
-      <c r="P31" s="29"/>
-      <c r="Q31" s="29"/>
-      <c r="R31" s="20"/>
-      <c r="S31" s="20"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="15"/>
+      <c r="S31" s="15"/>
       <c r="T31" s="6"/>
       <c r="U31" s="6"/>
       <c r="V31" s="6"/>
       <c r="W31" s="6"/>
       <c r="X31" s="6"/>
-      <c r="Y31" s="20"/>
-      <c r="Z31" s="20"/>
-      <c r="AA31" s="20"/>
-      <c r="AB31" s="20"/>
-      <c r="AC31" s="20"/>
+      <c r="Y31" s="15"/>
+      <c r="Z31" s="15"/>
+      <c r="AA31" s="15"/>
+      <c r="AB31" s="15"/>
+      <c r="AC31" s="15"/>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A32" s="6"/>
@@ -7555,32 +7660,32 @@
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
-      <c r="J32" s="17" t="s">
+      <c r="J32" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="K32" s="17" t="s">
+      <c r="K32" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="L32" s="17" t="s">
+      <c r="L32" s="13" t="s">
         <v>150</v>
       </c>
       <c r="M32" s="6"/>
       <c r="N32" s="6"/>
-      <c r="O32" s="29"/>
-      <c r="P32" s="29"/>
-      <c r="Q32" s="29"/>
-      <c r="R32" s="20"/>
-      <c r="S32" s="20"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="15"/>
+      <c r="S32" s="15"/>
       <c r="T32" s="6"/>
       <c r="U32" s="6"/>
       <c r="V32" s="6"/>
       <c r="W32" s="6"/>
       <c r="X32" s="6"/>
-      <c r="Y32" s="20"/>
-      <c r="Z32" s="20"/>
-      <c r="AA32" s="20"/>
-      <c r="AB32" s="20"/>
-      <c r="AC32" s="20"/>
+      <c r="Y32" s="15"/>
+      <c r="Z32" s="15"/>
+      <c r="AA32" s="15"/>
+      <c r="AB32" s="15"/>
+      <c r="AC32" s="15"/>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A33" s="6"/>
@@ -7592,32 +7697,32 @@
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
-      <c r="J33" s="17" t="s">
+      <c r="J33" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="K33" s="17" t="s">
+      <c r="K33" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="L33" s="17" t="s">
+      <c r="L33" s="13" t="s">
         <v>61</v>
       </c>
       <c r="M33" s="6"/>
       <c r="N33" s="6"/>
-      <c r="O33" s="29"/>
-      <c r="P33" s="29"/>
-      <c r="Q33" s="29"/>
-      <c r="R33" s="20"/>
-      <c r="S33" s="20"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="15"/>
+      <c r="S33" s="15"/>
       <c r="T33" s="6"/>
       <c r="U33" s="6"/>
       <c r="V33" s="6"/>
       <c r="W33" s="6"/>
       <c r="X33" s="6"/>
-      <c r="Y33" s="20"/>
-      <c r="Z33" s="20"/>
-      <c r="AA33" s="20"/>
-      <c r="AB33" s="20"/>
-      <c r="AC33" s="20"/>
+      <c r="Y33" s="15"/>
+      <c r="Z33" s="15"/>
+      <c r="AA33" s="15"/>
+      <c r="AB33" s="15"/>
+      <c r="AC33" s="15"/>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A34" s="6"/>
@@ -7629,32 +7734,32 @@
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
-      <c r="J34" s="17" t="s">
+      <c r="J34" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="K34" s="17" t="s">
+      <c r="K34" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="L34" s="17" t="s">
+      <c r="L34" s="13" t="s">
         <v>61</v>
       </c>
       <c r="M34" s="6"/>
       <c r="N34" s="6"/>
-      <c r="O34" s="29"/>
-      <c r="P34" s="29"/>
-      <c r="Q34" s="29"/>
-      <c r="R34" s="20"/>
-      <c r="S34" s="20"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="15"/>
+      <c r="S34" s="15"/>
       <c r="T34" s="6"/>
       <c r="U34" s="6"/>
       <c r="V34" s="6"/>
       <c r="W34" s="6"/>
       <c r="X34" s="6"/>
-      <c r="Y34" s="20"/>
-      <c r="Z34" s="20"/>
-      <c r="AA34" s="20"/>
-      <c r="AB34" s="20"/>
-      <c r="AC34" s="20"/>
+      <c r="Y34" s="15"/>
+      <c r="Z34" s="15"/>
+      <c r="AA34" s="15"/>
+      <c r="AB34" s="15"/>
+      <c r="AC34" s="15"/>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A35" s="6"/>
@@ -7666,32 +7771,32 @@
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
-      <c r="J35" s="17" t="s">
+      <c r="J35" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="K35" s="17" t="s">
+      <c r="K35" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="L35" s="17" t="s">
+      <c r="L35" s="13" t="s">
         <v>61</v>
       </c>
       <c r="M35" s="6"/>
       <c r="N35" s="6"/>
-      <c r="O35" s="29"/>
-      <c r="P35" s="29"/>
-      <c r="Q35" s="29"/>
-      <c r="R35" s="20"/>
-      <c r="S35" s="20"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="15"/>
+      <c r="S35" s="15"/>
       <c r="T35" s="6"/>
       <c r="U35" s="6"/>
       <c r="V35" s="6"/>
       <c r="W35" s="6"/>
       <c r="X35" s="6"/>
-      <c r="Y35" s="20"/>
-      <c r="Z35" s="20"/>
-      <c r="AA35" s="20"/>
-      <c r="AB35" s="20"/>
-      <c r="AC35" s="20"/>
+      <c r="Y35" s="15"/>
+      <c r="Z35" s="15"/>
+      <c r="AA35" s="15"/>
+      <c r="AB35" s="15"/>
+      <c r="AC35" s="15"/>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A36" s="6"/>
@@ -7703,32 +7808,32 @@
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
-      <c r="J36" s="17" t="s">
+      <c r="J36" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="K36" s="17" t="s">
+      <c r="K36" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="L36" s="17" t="s">
+      <c r="L36" s="13" t="s">
         <v>32</v>
       </c>
       <c r="M36" s="6"/>
       <c r="N36" s="6"/>
-      <c r="O36" s="29"/>
-      <c r="P36" s="29"/>
-      <c r="Q36" s="29"/>
-      <c r="R36" s="20"/>
-      <c r="S36" s="20"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="15"/>
+      <c r="S36" s="15"/>
       <c r="T36" s="6"/>
       <c r="U36" s="6"/>
       <c r="V36" s="6"/>
       <c r="W36" s="6"/>
       <c r="X36" s="6"/>
-      <c r="Y36" s="20"/>
-      <c r="Z36" s="20"/>
-      <c r="AA36" s="20"/>
-      <c r="AB36" s="20"/>
-      <c r="AC36" s="20"/>
+      <c r="Y36" s="15"/>
+      <c r="Z36" s="15"/>
+      <c r="AA36" s="15"/>
+      <c r="AB36" s="15"/>
+      <c r="AC36" s="15"/>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A37" s="6"/>
@@ -7740,32 +7845,32 @@
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
-      <c r="J37" s="17" t="s">
+      <c r="J37" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="K37" s="17" t="s">
+      <c r="K37" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="L37" s="17" t="s">
+      <c r="L37" s="13" t="s">
         <v>61</v>
       </c>
       <c r="M37" s="6"/>
       <c r="N37" s="6"/>
-      <c r="O37" s="29"/>
-      <c r="P37" s="29"/>
-      <c r="Q37" s="29"/>
-      <c r="R37" s="20"/>
-      <c r="S37" s="20"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="15"/>
+      <c r="S37" s="15"/>
       <c r="T37" s="6"/>
       <c r="U37" s="6"/>
       <c r="V37" s="6"/>
       <c r="W37" s="6"/>
       <c r="X37" s="6"/>
-      <c r="Y37" s="20"/>
-      <c r="Z37" s="20"/>
-      <c r="AA37" s="20"/>
-      <c r="AB37" s="20"/>
-      <c r="AC37" s="20"/>
+      <c r="Y37" s="15"/>
+      <c r="Z37" s="15"/>
+      <c r="AA37" s="15"/>
+      <c r="AB37" s="15"/>
+      <c r="AC37" s="15"/>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A38" s="6"/>
@@ -7777,32 +7882,32 @@
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
-      <c r="J38" s="17" t="s">
+      <c r="J38" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="K38" s="17" t="s">
+      <c r="K38" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="L38" s="17" t="s">
+      <c r="L38" s="13" t="s">
         <v>61</v>
       </c>
       <c r="M38" s="6"/>
       <c r="N38" s="6"/>
-      <c r="O38" s="29"/>
-      <c r="P38" s="29"/>
-      <c r="Q38" s="29"/>
-      <c r="R38" s="20"/>
-      <c r="S38" s="20"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="15"/>
+      <c r="S38" s="15"/>
       <c r="T38" s="6"/>
       <c r="U38" s="6"/>
       <c r="V38" s="6"/>
       <c r="W38" s="6"/>
       <c r="X38" s="6"/>
-      <c r="Y38" s="20"/>
-      <c r="Z38" s="20"/>
-      <c r="AA38" s="20"/>
-      <c r="AB38" s="20"/>
-      <c r="AC38" s="20"/>
+      <c r="Y38" s="15"/>
+      <c r="Z38" s="15"/>
+      <c r="AA38" s="15"/>
+      <c r="AB38" s="15"/>
+      <c r="AC38" s="15"/>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A39" s="6"/>
@@ -7814,32 +7919,32 @@
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
-      <c r="J39" s="17" t="s">
+      <c r="J39" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="K39" s="17" t="s">
+      <c r="K39" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="L39" s="17" t="s">
+      <c r="L39" s="13" t="s">
         <v>61</v>
       </c>
       <c r="M39" s="6"/>
       <c r="N39" s="6"/>
-      <c r="O39" s="29"/>
-      <c r="P39" s="29"/>
-      <c r="Q39" s="29"/>
-      <c r="R39" s="20"/>
-      <c r="S39" s="20"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="15"/>
+      <c r="S39" s="15"/>
       <c r="T39" s="6"/>
       <c r="U39" s="6"/>
       <c r="V39" s="6"/>
       <c r="W39" s="6"/>
       <c r="X39" s="6"/>
-      <c r="Y39" s="20"/>
-      <c r="Z39" s="20"/>
-      <c r="AA39" s="20"/>
-      <c r="AB39" s="20"/>
-      <c r="AC39" s="20"/>
+      <c r="Y39" s="15"/>
+      <c r="Z39" s="15"/>
+      <c r="AA39" s="15"/>
+      <c r="AB39" s="15"/>
+      <c r="AC39" s="15"/>
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A40" s="6"/>
@@ -7851,32 +7956,32 @@
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
-      <c r="J40" s="17" t="s">
+      <c r="J40" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="K40" s="17" t="s">
+      <c r="K40" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="L40" s="17" t="s">
+      <c r="L40" s="13" t="s">
         <v>32</v>
       </c>
       <c r="M40" s="6"/>
       <c r="N40" s="6"/>
-      <c r="O40" s="29"/>
-      <c r="P40" s="29"/>
-      <c r="Q40" s="29"/>
-      <c r="R40" s="20"/>
-      <c r="S40" s="20"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="15"/>
+      <c r="S40" s="15"/>
       <c r="T40" s="6"/>
       <c r="U40" s="6"/>
       <c r="V40" s="6"/>
       <c r="W40" s="6"/>
       <c r="X40" s="6"/>
-      <c r="Y40" s="20"/>
-      <c r="Z40" s="20"/>
-      <c r="AA40" s="20"/>
-      <c r="AB40" s="20"/>
-      <c r="AC40" s="20"/>
+      <c r="Y40" s="15"/>
+      <c r="Z40" s="15"/>
+      <c r="AA40" s="15"/>
+      <c r="AB40" s="15"/>
+      <c r="AC40" s="15"/>
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A41" s="6"/>
@@ -7888,32 +7993,32 @@
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
-      <c r="J41" s="17" t="s">
+      <c r="J41" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="K41" s="17" t="s">
+      <c r="K41" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="L41" s="17" t="s">
+      <c r="L41" s="13" t="s">
         <v>61</v>
       </c>
       <c r="M41" s="6"/>
       <c r="N41" s="6"/>
-      <c r="O41" s="29"/>
-      <c r="P41" s="29"/>
-      <c r="Q41" s="29"/>
-      <c r="R41" s="20"/>
-      <c r="S41" s="20"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="15"/>
+      <c r="S41" s="15"/>
       <c r="T41" s="6"/>
       <c r="U41" s="6"/>
       <c r="V41" s="6"/>
       <c r="W41" s="6"/>
       <c r="X41" s="6"/>
-      <c r="Y41" s="20"/>
-      <c r="Z41" s="20"/>
-      <c r="AA41" s="20"/>
-      <c r="AB41" s="20"/>
-      <c r="AC41" s="20"/>
+      <c r="Y41" s="15"/>
+      <c r="Z41" s="15"/>
+      <c r="AA41" s="15"/>
+      <c r="AB41" s="15"/>
+      <c r="AC41" s="15"/>
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A42" s="6"/>
@@ -7925,32 +8030,32 @@
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
-      <c r="J42" s="17" t="s">
+      <c r="J42" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="K42" s="17" t="s">
+      <c r="K42" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="L42" s="17" t="s">
+      <c r="L42" s="13" t="s">
         <v>61</v>
       </c>
       <c r="M42" s="6"/>
       <c r="N42" s="6"/>
-      <c r="O42" s="29"/>
-      <c r="P42" s="29"/>
-      <c r="Q42" s="29"/>
-      <c r="R42" s="20"/>
-      <c r="S42" s="20"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="15"/>
+      <c r="S42" s="15"/>
       <c r="T42" s="6"/>
       <c r="U42" s="6"/>
       <c r="V42" s="6"/>
       <c r="W42" s="6"/>
       <c r="X42" s="6"/>
-      <c r="Y42" s="20"/>
-      <c r="Z42" s="20"/>
-      <c r="AA42" s="20"/>
-      <c r="AB42" s="20"/>
-      <c r="AC42" s="20"/>
+      <c r="Y42" s="15"/>
+      <c r="Z42" s="15"/>
+      <c r="AA42" s="15"/>
+      <c r="AB42" s="15"/>
+      <c r="AC42" s="15"/>
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A43" s="6"/>
@@ -7962,32 +8067,32 @@
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
-      <c r="J43" s="17" t="s">
+      <c r="J43" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="K43" s="17" t="s">
+      <c r="K43" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="L43" s="17" t="s">
+      <c r="L43" s="13" t="s">
         <v>61</v>
       </c>
       <c r="M43" s="6"/>
       <c r="N43" s="6"/>
-      <c r="O43" s="29"/>
-      <c r="P43" s="29"/>
-      <c r="Q43" s="29"/>
-      <c r="R43" s="20"/>
-      <c r="S43" s="20"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="15"/>
+      <c r="S43" s="15"/>
       <c r="T43" s="6"/>
       <c r="U43" s="6"/>
       <c r="V43" s="6"/>
       <c r="W43" s="6"/>
       <c r="X43" s="6"/>
-      <c r="Y43" s="20"/>
-      <c r="Z43" s="20"/>
-      <c r="AA43" s="20"/>
-      <c r="AB43" s="20"/>
-      <c r="AC43" s="20"/>
+      <c r="Y43" s="15"/>
+      <c r="Z43" s="15"/>
+      <c r="AA43" s="15"/>
+      <c r="AB43" s="15"/>
+      <c r="AC43" s="15"/>
     </row>
     <row r="44" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A44" s="6"/>
@@ -7999,32 +8104,32 @@
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
-      <c r="J44" s="17" t="s">
+      <c r="J44" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="K44" s="17" t="s">
+      <c r="K44" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="L44" s="17" t="s">
+      <c r="L44" s="13" t="s">
         <v>61</v>
       </c>
       <c r="M44" s="6"/>
       <c r="N44" s="6"/>
-      <c r="O44" s="29"/>
-      <c r="P44" s="29"/>
-      <c r="Q44" s="29"/>
-      <c r="R44" s="20"/>
-      <c r="S44" s="20"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="15"/>
+      <c r="S44" s="15"/>
       <c r="T44" s="6"/>
       <c r="U44" s="6"/>
       <c r="V44" s="6"/>
       <c r="W44" s="6"/>
       <c r="X44" s="6"/>
-      <c r="Y44" s="20"/>
-      <c r="Z44" s="20"/>
-      <c r="AA44" s="20"/>
-      <c r="AB44" s="20"/>
-      <c r="AC44" s="20"/>
+      <c r="Y44" s="15"/>
+      <c r="Z44" s="15"/>
+      <c r="AA44" s="15"/>
+      <c r="AB44" s="15"/>
+      <c r="AC44" s="15"/>
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A45" s="6"/>
@@ -8036,22 +8141,22 @@
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
-      <c r="J45" s="17"/>
-      <c r="K45" s="17"/>
-      <c r="L45" s="17"/>
+      <c r="J45" s="13"/>
+      <c r="K45" s="13"/>
+      <c r="L45" s="13"/>
       <c r="M45" s="6"/>
       <c r="N45" s="6"/>
-      <c r="O45" s="29" t="s">
+      <c r="O45" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="P45" s="29" t="s">
+      <c r="P45" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="Q45" s="29" t="s">
+      <c r="Q45" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="R45" s="20"/>
-      <c r="S45" s="31" t="s">
+      <c r="R45" s="15"/>
+      <c r="S45" s="19" t="s">
         <v>288</v>
       </c>
       <c r="T45" s="6"/>
@@ -8059,11 +8164,11 @@
       <c r="V45" s="6"/>
       <c r="W45" s="6"/>
       <c r="X45" s="6"/>
-      <c r="Y45" s="20"/>
-      <c r="Z45" s="20"/>
-      <c r="AA45" s="20"/>
-      <c r="AB45" s="20"/>
-      <c r="AC45" s="20"/>
+      <c r="Y45" s="15"/>
+      <c r="Z45" s="15"/>
+      <c r="AA45" s="15"/>
+      <c r="AB45" s="15"/>
+      <c r="AC45" s="15"/>
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A46" s="6"/>
@@ -8075,22 +8180,22 @@
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
-      <c r="J46" s="17"/>
-      <c r="K46" s="17"/>
-      <c r="L46" s="17"/>
+      <c r="J46" s="13"/>
+      <c r="K46" s="13"/>
+      <c r="L46" s="13"/>
       <c r="M46" s="6"/>
       <c r="N46" s="6"/>
-      <c r="O46" s="29" t="s">
+      <c r="O46" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="P46" s="29" t="s">
+      <c r="P46" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="Q46" s="29" t="s">
+      <c r="Q46" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="R46" s="20"/>
-      <c r="S46" s="31" t="s">
+      <c r="R46" s="15"/>
+      <c r="S46" s="19" t="s">
         <v>288</v>
       </c>
       <c r="T46" s="6"/>
@@ -8098,11 +8203,11 @@
       <c r="V46" s="6"/>
       <c r="W46" s="6"/>
       <c r="X46" s="6"/>
-      <c r="Y46" s="20"/>
-      <c r="Z46" s="20"/>
-      <c r="AA46" s="20"/>
-      <c r="AB46" s="20"/>
-      <c r="AC46" s="20"/>
+      <c r="Y46" s="15"/>
+      <c r="Z46" s="15"/>
+      <c r="AA46" s="15"/>
+      <c r="AB46" s="15"/>
+      <c r="AC46" s="15"/>
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A47" s="6"/>
@@ -8114,22 +8219,22 @@
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
-      <c r="J47" s="17"/>
-      <c r="K47" s="17"/>
-      <c r="L47" s="17"/>
+      <c r="J47" s="13"/>
+      <c r="K47" s="13"/>
+      <c r="L47" s="13"/>
       <c r="M47" s="6"/>
       <c r="N47" s="6"/>
-      <c r="O47" s="29" t="s">
+      <c r="O47" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="P47" s="29" t="s">
+      <c r="P47" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="Q47" s="29" t="s">
+      <c r="Q47" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="R47" s="20"/>
-      <c r="S47" s="20" t="s">
+      <c r="R47" s="15"/>
+      <c r="S47" s="15" t="s">
         <v>289</v>
       </c>
       <c r="T47" s="6"/>
@@ -8137,11 +8242,11 @@
       <c r="V47" s="6"/>
       <c r="W47" s="6"/>
       <c r="X47" s="6"/>
-      <c r="Y47" s="20"/>
-      <c r="Z47" s="20"/>
-      <c r="AA47" s="20"/>
-      <c r="AB47" s="20"/>
-      <c r="AC47" s="20"/>
+      <c r="Y47" s="15"/>
+      <c r="Z47" s="15"/>
+      <c r="AA47" s="15"/>
+      <c r="AB47" s="15"/>
+      <c r="AC47" s="15"/>
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A48" s="6"/>
@@ -8158,27 +8263,27 @@
       <c r="L48" s="6"/>
       <c r="M48" s="6"/>
       <c r="N48" s="6"/>
-      <c r="O48" s="29"/>
-      <c r="P48" s="29"/>
-      <c r="Q48" s="29"/>
-      <c r="R48" s="20"/>
-      <c r="S48" s="20"/>
-      <c r="T48" s="17" t="s">
+      <c r="O48" s="3"/>
+      <c r="P48" s="3"/>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="15"/>
+      <c r="S48" s="15"/>
+      <c r="T48" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="U48" s="17" t="s">
+      <c r="U48" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="V48" s="17" t="s">
+      <c r="V48" s="13" t="s">
         <v>29</v>
       </c>
       <c r="W48" s="6"/>
       <c r="X48" s="6"/>
-      <c r="Y48" s="20"/>
-      <c r="Z48" s="20"/>
-      <c r="AA48" s="20"/>
-      <c r="AB48" s="20"/>
-      <c r="AC48" s="20"/>
+      <c r="Y48" s="15"/>
+      <c r="Z48" s="15"/>
+      <c r="AA48" s="15"/>
+      <c r="AB48" s="15"/>
+      <c r="AC48" s="15"/>
     </row>
     <row r="49" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A49" s="6"/>
@@ -8195,27 +8300,27 @@
       <c r="L49" s="6"/>
       <c r="M49" s="6"/>
       <c r="N49" s="6"/>
-      <c r="O49" s="29"/>
-      <c r="P49" s="29"/>
-      <c r="Q49" s="29"/>
-      <c r="R49" s="20"/>
-      <c r="S49" s="20"/>
-      <c r="T49" s="17" t="s">
+      <c r="O49" s="3"/>
+      <c r="P49" s="3"/>
+      <c r="Q49" s="3"/>
+      <c r="R49" s="15"/>
+      <c r="S49" s="15"/>
+      <c r="T49" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="U49" s="17" t="s">
+      <c r="U49" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="V49" s="17" t="s">
+      <c r="V49" s="13" t="s">
         <v>54</v>
       </c>
       <c r="W49" s="6"/>
       <c r="X49" s="6"/>
-      <c r="Y49" s="20"/>
-      <c r="Z49" s="20"/>
-      <c r="AA49" s="20"/>
-      <c r="AB49" s="20"/>
-      <c r="AC49" s="20"/>
+      <c r="Y49" s="15"/>
+      <c r="Z49" s="15"/>
+      <c r="AA49" s="15"/>
+      <c r="AB49" s="15"/>
+      <c r="AC49" s="15"/>
     </row>
     <row r="50" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A50" s="6"/>
@@ -8232,27 +8337,27 @@
       <c r="L50" s="6"/>
       <c r="M50" s="6"/>
       <c r="N50" s="6"/>
-      <c r="O50" s="29"/>
-      <c r="P50" s="29"/>
-      <c r="Q50" s="29"/>
-      <c r="R50" s="20"/>
-      <c r="S50" s="20"/>
-      <c r="T50" s="17" t="s">
+      <c r="O50" s="3"/>
+      <c r="P50" s="3"/>
+      <c r="Q50" s="3"/>
+      <c r="R50" s="15"/>
+      <c r="S50" s="15"/>
+      <c r="T50" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="U50" s="17" t="s">
+      <c r="U50" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="V50" s="17" t="s">
+      <c r="V50" s="13" t="s">
         <v>31</v>
       </c>
       <c r="W50" s="6"/>
       <c r="X50" s="6"/>
-      <c r="Y50" s="20"/>
-      <c r="Z50" s="20"/>
-      <c r="AA50" s="20"/>
-      <c r="AB50" s="20"/>
-      <c r="AC50" s="20"/>
+      <c r="Y50" s="15"/>
+      <c r="Z50" s="15"/>
+      <c r="AA50" s="15"/>
+      <c r="AB50" s="15"/>
+      <c r="AC50" s="15"/>
     </row>
     <row r="51" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A51" s="6"/>
@@ -8269,27 +8374,27 @@
       <c r="L51" s="6"/>
       <c r="M51" s="6"/>
       <c r="N51" s="6"/>
-      <c r="O51" s="29"/>
-      <c r="P51" s="29"/>
-      <c r="Q51" s="29"/>
-      <c r="R51" s="20"/>
-      <c r="S51" s="20"/>
-      <c r="T51" s="17" t="s">
+      <c r="O51" s="3"/>
+      <c r="P51" s="3"/>
+      <c r="Q51" s="3"/>
+      <c r="R51" s="15"/>
+      <c r="S51" s="15"/>
+      <c r="T51" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="U51" s="17" t="s">
+      <c r="U51" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="V51" s="17" t="s">
+      <c r="V51" s="13" t="s">
         <v>29</v>
       </c>
       <c r="W51" s="6"/>
       <c r="X51" s="6"/>
-      <c r="Y51" s="20"/>
-      <c r="Z51" s="20"/>
-      <c r="AA51" s="20"/>
-      <c r="AB51" s="20"/>
-      <c r="AC51" s="20"/>
+      <c r="Y51" s="15"/>
+      <c r="Z51" s="15"/>
+      <c r="AA51" s="15"/>
+      <c r="AB51" s="15"/>
+      <c r="AC51" s="15"/>
     </row>
     <row r="52" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A52" s="6"/>
@@ -8306,27 +8411,27 @@
       <c r="L52" s="6"/>
       <c r="M52" s="6"/>
       <c r="N52" s="6"/>
-      <c r="O52" s="29"/>
-      <c r="P52" s="29"/>
-      <c r="Q52" s="29"/>
-      <c r="R52" s="20"/>
-      <c r="S52" s="20"/>
-      <c r="T52" s="17" t="s">
+      <c r="O52" s="3"/>
+      <c r="P52" s="3"/>
+      <c r="Q52" s="3"/>
+      <c r="R52" s="15"/>
+      <c r="S52" s="15"/>
+      <c r="T52" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="U52" s="17" t="s">
+      <c r="U52" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="V52" s="17" t="s">
+      <c r="V52" s="13" t="s">
         <v>29</v>
       </c>
       <c r="W52" s="6"/>
       <c r="X52" s="6"/>
-      <c r="Y52" s="20"/>
-      <c r="Z52" s="20"/>
-      <c r="AA52" s="20"/>
-      <c r="AB52" s="20"/>
-      <c r="AC52" s="20"/>
+      <c r="Y52" s="15"/>
+      <c r="Z52" s="15"/>
+      <c r="AA52" s="15"/>
+      <c r="AB52" s="15"/>
+      <c r="AC52" s="15"/>
     </row>
     <row r="53" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A53" s="6"/>
@@ -8343,27 +8448,27 @@
       <c r="L53" s="6"/>
       <c r="M53" s="6"/>
       <c r="N53" s="6"/>
-      <c r="O53" s="29"/>
-      <c r="P53" s="29"/>
-      <c r="Q53" s="29"/>
-      <c r="R53" s="20"/>
-      <c r="S53" s="20"/>
-      <c r="T53" s="17" t="s">
+      <c r="O53" s="3"/>
+      <c r="P53" s="3"/>
+      <c r="Q53" s="3"/>
+      <c r="R53" s="15"/>
+      <c r="S53" s="15"/>
+      <c r="T53" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="U53" s="17" t="s">
+      <c r="U53" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="V53" s="17" t="s">
+      <c r="V53" s="13" t="s">
         <v>31</v>
       </c>
       <c r="W53" s="6"/>
       <c r="X53" s="6"/>
-      <c r="Y53" s="20"/>
-      <c r="Z53" s="20"/>
-      <c r="AA53" s="20"/>
-      <c r="AB53" s="20"/>
-      <c r="AC53" s="20"/>
+      <c r="Y53" s="15"/>
+      <c r="Z53" s="15"/>
+      <c r="AA53" s="15"/>
+      <c r="AB53" s="15"/>
+      <c r="AC53" s="15"/>
     </row>
     <row r="54" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A54" s="6"/>
@@ -8380,27 +8485,27 @@
       <c r="L54" s="6"/>
       <c r="M54" s="6"/>
       <c r="N54" s="6"/>
-      <c r="O54" s="29"/>
-      <c r="P54" s="29"/>
-      <c r="Q54" s="29"/>
-      <c r="R54" s="20"/>
-      <c r="S54" s="20"/>
-      <c r="T54" s="17" t="s">
+      <c r="O54" s="3"/>
+      <c r="P54" s="3"/>
+      <c r="Q54" s="3"/>
+      <c r="R54" s="15"/>
+      <c r="S54" s="15"/>
+      <c r="T54" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="U54" s="17" t="s">
+      <c r="U54" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="V54" s="17" t="s">
+      <c r="V54" s="13" t="s">
         <v>29</v>
       </c>
       <c r="W54" s="6"/>
       <c r="X54" s="6"/>
-      <c r="Y54" s="20"/>
-      <c r="Z54" s="20"/>
-      <c r="AA54" s="20"/>
-      <c r="AB54" s="20"/>
-      <c r="AC54" s="20"/>
+      <c r="Y54" s="15"/>
+      <c r="Z54" s="15"/>
+      <c r="AA54" s="15"/>
+      <c r="AB54" s="15"/>
+      <c r="AC54" s="15"/>
     </row>
     <row r="55" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A55" s="6"/>
@@ -8417,27 +8522,27 @@
       <c r="L55" s="6"/>
       <c r="M55" s="6"/>
       <c r="N55" s="6"/>
-      <c r="O55" s="29"/>
-      <c r="P55" s="29"/>
-      <c r="Q55" s="29"/>
-      <c r="R55" s="20"/>
-      <c r="S55" s="20"/>
-      <c r="T55" s="17" t="s">
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+      <c r="R55" s="15"/>
+      <c r="S55" s="15"/>
+      <c r="T55" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="U55" s="17" t="s">
+      <c r="U55" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="V55" s="17" t="s">
+      <c r="V55" s="13" t="s">
         <v>34</v>
       </c>
       <c r="W55" s="6"/>
       <c r="X55" s="6"/>
-      <c r="Y55" s="20"/>
-      <c r="Z55" s="20"/>
-      <c r="AA55" s="20"/>
-      <c r="AB55" s="20"/>
-      <c r="AC55" s="20"/>
+      <c r="Y55" s="15"/>
+      <c r="Z55" s="15"/>
+      <c r="AA55" s="15"/>
+      <c r="AB55" s="15"/>
+      <c r="AC55" s="15"/>
     </row>
     <row r="56" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A56" s="6"/>
@@ -8454,27 +8559,27 @@
       <c r="L56" s="6"/>
       <c r="M56" s="6"/>
       <c r="N56" s="6"/>
-      <c r="O56" s="29"/>
-      <c r="P56" s="29"/>
-      <c r="Q56" s="29"/>
-      <c r="R56" s="20"/>
-      <c r="S56" s="20"/>
-      <c r="T56" s="17" t="s">
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+      <c r="R56" s="15"/>
+      <c r="S56" s="15"/>
+      <c r="T56" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="U56" s="17" t="s">
+      <c r="U56" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="V56" s="17" t="s">
+      <c r="V56" s="13" t="s">
         <v>55</v>
       </c>
       <c r="W56" s="6"/>
       <c r="X56" s="6"/>
-      <c r="Y56" s="20"/>
-      <c r="Z56" s="20"/>
-      <c r="AA56" s="20"/>
-      <c r="AB56" s="20"/>
-      <c r="AC56" s="20"/>
+      <c r="Y56" s="15"/>
+      <c r="Z56" s="15"/>
+      <c r="AA56" s="15"/>
+      <c r="AB56" s="15"/>
+      <c r="AC56" s="15"/>
     </row>
     <row r="57" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A57" s="6"/>
@@ -8491,27 +8596,27 @@
       <c r="L57" s="6"/>
       <c r="M57" s="6"/>
       <c r="N57" s="6"/>
-      <c r="O57" s="29"/>
-      <c r="P57" s="29"/>
-      <c r="Q57" s="29"/>
-      <c r="R57" s="20"/>
-      <c r="S57" s="20"/>
-      <c r="T57" s="17" t="s">
+      <c r="O57" s="3"/>
+      <c r="P57" s="3"/>
+      <c r="Q57" s="3"/>
+      <c r="R57" s="15"/>
+      <c r="S57" s="15"/>
+      <c r="T57" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="U57" s="17" t="s">
+      <c r="U57" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="V57" s="17" t="s">
+      <c r="V57" s="13" t="s">
         <v>29</v>
       </c>
       <c r="W57" s="6"/>
       <c r="X57" s="6"/>
-      <c r="Y57" s="20"/>
-      <c r="Z57" s="20"/>
-      <c r="AA57" s="20"/>
-      <c r="AB57" s="20"/>
-      <c r="AC57" s="20"/>
+      <c r="Y57" s="15"/>
+      <c r="Z57" s="15"/>
+      <c r="AA57" s="15"/>
+      <c r="AB57" s="15"/>
+      <c r="AC57" s="15"/>
     </row>
     <row r="58" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A58" s="6"/>
@@ -8528,11 +8633,11 @@
       <c r="L58" s="6"/>
       <c r="M58" s="6"/>
       <c r="N58" s="6"/>
-      <c r="O58" s="29"/>
-      <c r="P58" s="29"/>
-      <c r="Q58" s="29"/>
-      <c r="R58" s="20"/>
-      <c r="S58" s="20"/>
+      <c r="O58" s="3"/>
+      <c r="P58" s="3"/>
+      <c r="Q58" s="3"/>
+      <c r="R58" s="15"/>
+      <c r="S58" s="15"/>
       <c r="T58" s="6" t="s">
         <v>199</v>
       </c>
@@ -8546,11 +8651,11 @@
         <v>56</v>
       </c>
       <c r="X58" s="6"/>
-      <c r="Y58" s="20"/>
-      <c r="Z58" s="20"/>
-      <c r="AA58" s="20"/>
-      <c r="AB58" s="20"/>
-      <c r="AC58" s="20"/>
+      <c r="Y58" s="15"/>
+      <c r="Z58" s="15"/>
+      <c r="AA58" s="15"/>
+      <c r="AB58" s="15"/>
+      <c r="AC58" s="15"/>
     </row>
     <row r="59" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A59" s="6"/>
@@ -8567,27 +8672,27 @@
       <c r="L59" s="6"/>
       <c r="M59" s="6"/>
       <c r="N59" s="6"/>
-      <c r="O59" s="29"/>
-      <c r="P59" s="29"/>
-      <c r="Q59" s="29"/>
-      <c r="R59" s="20"/>
-      <c r="S59" s="20"/>
-      <c r="T59" s="17" t="s">
+      <c r="O59" s="3"/>
+      <c r="P59" s="3"/>
+      <c r="Q59" s="3"/>
+      <c r="R59" s="15"/>
+      <c r="S59" s="15"/>
+      <c r="T59" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="U59" s="17" t="s">
+      <c r="U59" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="V59" s="17" t="s">
+      <c r="V59" s="13" t="s">
         <v>55</v>
       </c>
       <c r="W59" s="6"/>
       <c r="X59" s="6"/>
-      <c r="Y59" s="20"/>
-      <c r="Z59" s="20"/>
-      <c r="AA59" s="20"/>
-      <c r="AB59" s="20"/>
-      <c r="AC59" s="20"/>
+      <c r="Y59" s="15"/>
+      <c r="Z59" s="15"/>
+      <c r="AA59" s="15"/>
+      <c r="AB59" s="15"/>
+      <c r="AC59" s="15"/>
     </row>
     <row r="60" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A60" s="6"/>
@@ -8604,27 +8709,27 @@
       <c r="L60" s="6"/>
       <c r="M60" s="6"/>
       <c r="N60" s="6"/>
-      <c r="O60" s="29"/>
-      <c r="P60" s="29"/>
-      <c r="Q60" s="29"/>
-      <c r="R60" s="20"/>
-      <c r="S60" s="20"/>
-      <c r="T60" s="17" t="s">
+      <c r="O60" s="3"/>
+      <c r="P60" s="3"/>
+      <c r="Q60" s="3"/>
+      <c r="R60" s="15"/>
+      <c r="S60" s="15"/>
+      <c r="T60" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="U60" s="17" t="s">
+      <c r="U60" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="V60" s="17" t="s">
+      <c r="V60" s="13" t="s">
         <v>29</v>
       </c>
       <c r="W60" s="6"/>
       <c r="X60" s="6"/>
-      <c r="Y60" s="20"/>
-      <c r="Z60" s="20"/>
-      <c r="AA60" s="20"/>
-      <c r="AB60" s="20"/>
-      <c r="AC60" s="20"/>
+      <c r="Y60" s="15"/>
+      <c r="Z60" s="15"/>
+      <c r="AA60" s="15"/>
+      <c r="AB60" s="15"/>
+      <c r="AC60" s="15"/>
     </row>
     <row r="61" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A61" s="6"/>
@@ -8641,11 +8746,11 @@
       <c r="L61" s="6"/>
       <c r="M61" s="6"/>
       <c r="N61" s="6"/>
-      <c r="O61" s="29"/>
-      <c r="P61" s="29"/>
-      <c r="Q61" s="29"/>
-      <c r="R61" s="20"/>
-      <c r="S61" s="20"/>
+      <c r="O61" s="3"/>
+      <c r="P61" s="3"/>
+      <c r="Q61" s="3"/>
+      <c r="R61" s="15"/>
+      <c r="S61" s="15"/>
       <c r="T61" s="6" t="s">
         <v>199</v>
       </c>
@@ -8659,11 +8764,11 @@
         <v>58</v>
       </c>
       <c r="X61" s="6"/>
-      <c r="Y61" s="20"/>
-      <c r="Z61" s="20"/>
-      <c r="AA61" s="20"/>
-      <c r="AB61" s="20"/>
-      <c r="AC61" s="20"/>
+      <c r="Y61" s="15"/>
+      <c r="Z61" s="15"/>
+      <c r="AA61" s="15"/>
+      <c r="AB61" s="15"/>
+      <c r="AC61" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -8683,9 +8788,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A4499F-EBCA-4E9B-AE48-94E9136B2D31}">
   <dimension ref="A1:AC58"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="S1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:D1"/>
+      <selection pane="bottomLeft" activeCell="AB7" sqref="AB7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8723,134 +8828,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="8" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="7" t="s">
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="23" t="s">
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="7" t="s">
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="18" t="s">
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
+      <c r="X1" s="20"/>
+      <c r="Y1" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="Z1" s="18"/>
-      <c r="AA1" s="18"/>
-      <c r="AB1" s="18"/>
-      <c r="AC1" s="18"/>
+      <c r="Z1" s="24"/>
+      <c r="AA1" s="24"/>
+      <c r="AB1" s="24"/>
+      <c r="AC1" s="24"/>
     </row>
     <row r="2" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="O2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="P2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="Q2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="R2" s="19" t="s">
+      <c r="R2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="S2" s="19" t="s">
+      <c r="S2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="T2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="U2" s="9" t="s">
+      <c r="U2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="V2" s="9" t="s">
+      <c r="V2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="W2" s="9" t="s">
+      <c r="W2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="X2" s="9" t="s">
+      <c r="X2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="Y2" s="19" t="s">
+      <c r="Y2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="Z2" s="19" t="s">
+      <c r="Z2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="AA2" s="19" t="s">
+      <c r="AA2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="AB2" s="19" t="s">
+      <c r="AB2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="AC2" s="19" t="s">
+      <c r="AC2" s="14" t="s">
         <v>7</v>
       </c>
     </row>
@@ -8872,26 +8977,26 @@
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
       <c r="T3" s="6"/>
       <c r="U3" s="6"/>
       <c r="V3" s="6"/>
       <c r="W3" s="6"/>
       <c r="X3" s="6"/>
-      <c r="Y3" s="20" t="s">
+      <c r="Y3" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="Z3" s="20" t="s">
+      <c r="Z3" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="AA3" s="20" t="s">
+      <c r="AA3" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="AB3" s="20" t="s">
+      <c r="AB3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="AC3" s="20" t="s">
+      <c r="AC3" s="15" t="s">
         <v>36</v>
       </c>
     </row>
@@ -8943,8 +9048,8 @@
       <c r="Q4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
       <c r="T4" s="6" t="s">
         <v>236</v>
       </c>
@@ -8956,19 +9061,19 @@
       </c>
       <c r="W4" s="6"/>
       <c r="X4" s="6"/>
-      <c r="Y4" s="20" t="s">
+      <c r="Y4" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="Z4" s="20" t="s">
+      <c r="Z4" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="AA4" s="20" t="s">
+      <c r="AA4" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="AB4" s="20" t="s">
+      <c r="AB4" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="AC4" s="20"/>
+      <c r="AC4" s="15"/>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
@@ -9018,8 +9123,8 @@
       <c r="Q5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="R5" s="30"/>
-      <c r="S5" s="20"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="15"/>
       <c r="T5" s="6" t="s">
         <v>236</v>
       </c>
@@ -9033,19 +9138,19 @@
         <v>57</v>
       </c>
       <c r="X5" s="6"/>
-      <c r="Y5" s="20" t="s">
+      <c r="Y5" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="Z5" s="20" t="s">
+      <c r="Z5" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="AA5" s="20" t="s">
+      <c r="AA5" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="AB5" s="20" t="s">
+      <c r="AB5" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="AC5" s="20"/>
+      <c r="AC5" s="15"/>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
@@ -9065,8 +9170,8 @@
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
       <c r="T6" s="6" t="s">
         <v>236</v>
       </c>
@@ -9082,19 +9187,19 @@
       <c r="X6" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="Y6" s="20" t="s">
+      <c r="Y6" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="Z6" s="20" t="s">
+      <c r="Z6" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="AA6" s="20" t="s">
+      <c r="AA6" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="AB6" s="20" t="s">
+      <c r="AB6" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="AC6" s="20"/>
+      <c r="AC6" s="15"/>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
@@ -9114,26 +9219,26 @@
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
       <c r="T7" s="6"/>
       <c r="U7" s="6"/>
       <c r="V7" s="6"/>
       <c r="W7" s="6"/>
       <c r="X7" s="6"/>
-      <c r="Y7" s="20" t="s">
+      <c r="Y7" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="Z7" s="20" t="s">
+      <c r="Z7" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="AA7" s="20" t="s">
+      <c r="AA7" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="AB7" s="20" t="s">
+      <c r="AB7" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="AC7" s="20"/>
+      <c r="AC7" s="15"/>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
@@ -9159,13 +9264,13 @@
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
-      <c r="J8" s="17" t="s">
+      <c r="J8" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="K8" s="17" t="s">
+      <c r="K8" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="L8" s="17" t="s">
+      <c r="L8" s="13" t="s">
         <v>29</v>
       </c>
       <c r="M8" s="6"/>
@@ -9173,18 +9278,18 @@
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
       <c r="T8" s="6"/>
       <c r="U8" s="6"/>
       <c r="V8" s="6"/>
       <c r="W8" s="6"/>
       <c r="X8" s="6"/>
-      <c r="Y8" s="20"/>
-      <c r="Z8" s="20"/>
-      <c r="AA8" s="20"/>
-      <c r="AB8" s="20"/>
-      <c r="AC8" s="20"/>
+      <c r="Y8" s="15"/>
+      <c r="Z8" s="15"/>
+      <c r="AA8" s="15"/>
+      <c r="AB8" s="15"/>
+      <c r="AC8" s="15"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
@@ -9210,17 +9315,17 @@
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
-      <c r="J9" s="21" t="s">
+      <c r="J9" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="K9" s="21" t="s">
+      <c r="K9" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="L9" s="21" t="s">
+      <c r="L9" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21" t="s">
+      <c r="M9" s="16"/>
+      <c r="N9" s="16" t="s">
         <v>280</v>
       </c>
       <c r="O9" s="3" t="s">
@@ -9232,8 +9337,8 @@
       <c r="Q9" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="R9" s="20"/>
-      <c r="S9" s="20"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
       <c r="T9" s="6" t="s">
         <v>236</v>
       </c>
@@ -9247,11 +9352,11 @@
       <c r="X9" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="Y9" s="20"/>
-      <c r="Z9" s="20"/>
-      <c r="AA9" s="20"/>
-      <c r="AB9" s="20"/>
-      <c r="AC9" s="20"/>
+      <c r="Y9" s="15"/>
+      <c r="Z9" s="15"/>
+      <c r="AA9" s="15"/>
+      <c r="AB9" s="15"/>
+      <c r="AC9" s="15"/>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
@@ -9277,13 +9382,13 @@
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
-      <c r="J10" s="17" t="s">
+      <c r="J10" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="K10" s="17" t="s">
+      <c r="K10" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="L10" s="17" t="s">
+      <c r="L10" s="13" t="s">
         <v>262</v>
       </c>
       <c r="M10" s="6"/>
@@ -9291,18 +9396,18 @@
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
       <c r="T10" s="6"/>
       <c r="U10" s="6"/>
       <c r="V10" s="6"/>
       <c r="W10" s="6"/>
       <c r="X10" s="6"/>
-      <c r="Y10" s="20"/>
-      <c r="Z10" s="20"/>
-      <c r="AA10" s="20"/>
-      <c r="AB10" s="20"/>
-      <c r="AC10" s="20"/>
+      <c r="Y10" s="15"/>
+      <c r="Z10" s="15"/>
+      <c r="AA10" s="15"/>
+      <c r="AB10" s="15"/>
+      <c r="AC10" s="15"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
@@ -9322,18 +9427,18 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-      <c r="R11" s="20"/>
-      <c r="S11" s="20"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
       <c r="T11" s="6"/>
       <c r="U11" s="6"/>
       <c r="V11" s="6"/>
       <c r="W11" s="6"/>
       <c r="X11" s="6"/>
-      <c r="Y11" s="20"/>
-      <c r="Z11" s="20"/>
-      <c r="AA11" s="20"/>
-      <c r="AB11" s="20"/>
-      <c r="AC11" s="20"/>
+      <c r="Y11" s="15"/>
+      <c r="Z11" s="15"/>
+      <c r="AA11" s="15"/>
+      <c r="AB11" s="15"/>
+      <c r="AC11" s="15"/>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
@@ -9345,13 +9450,13 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
-      <c r="J12" s="17" t="s">
+      <c r="J12" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="K12" s="17" t="s">
+      <c r="K12" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="L12" s="17" t="s">
+      <c r="L12" s="13" t="s">
         <v>29</v>
       </c>
       <c r="M12" s="6"/>
@@ -9359,18 +9464,18 @@
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
-      <c r="R12" s="20"/>
-      <c r="S12" s="20"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
       <c r="T12" s="6"/>
       <c r="U12" s="6"/>
       <c r="V12" s="6"/>
       <c r="W12" s="6"/>
       <c r="X12" s="6"/>
-      <c r="Y12" s="20"/>
-      <c r="Z12" s="20"/>
-      <c r="AA12" s="20"/>
-      <c r="AB12" s="20"/>
-      <c r="AC12" s="20"/>
+      <c r="Y12" s="15"/>
+      <c r="Z12" s="15"/>
+      <c r="AA12" s="15"/>
+      <c r="AB12" s="15"/>
+      <c r="AC12" s="15"/>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
@@ -9382,13 +9487,13 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="17" t="s">
+      <c r="J13" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="K13" s="17" t="s">
+      <c r="K13" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="L13" s="17" t="s">
+      <c r="L13" s="13" t="s">
         <v>61</v>
       </c>
       <c r="M13" s="6"/>
@@ -9396,18 +9501,18 @@
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
-      <c r="R13" s="20"/>
-      <c r="S13" s="20"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
       <c r="T13" s="6"/>
       <c r="U13" s="6"/>
       <c r="V13" s="6"/>
       <c r="W13" s="6"/>
       <c r="X13" s="6"/>
-      <c r="Y13" s="20"/>
-      <c r="Z13" s="20"/>
-      <c r="AA13" s="20"/>
-      <c r="AB13" s="20"/>
-      <c r="AC13" s="20"/>
+      <c r="Y13" s="15"/>
+      <c r="Z13" s="15"/>
+      <c r="AA13" s="15"/>
+      <c r="AB13" s="15"/>
+      <c r="AC13" s="15"/>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
@@ -9419,13 +9524,13 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="17" t="s">
+      <c r="J14" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="K14" s="17" t="s">
+      <c r="K14" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="L14" s="17" t="s">
+      <c r="L14" s="13" t="s">
         <v>61</v>
       </c>
       <c r="M14" s="6"/>
@@ -9433,18 +9538,18 @@
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
-      <c r="R14" s="20"/>
-      <c r="S14" s="20"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
       <c r="T14" s="6"/>
       <c r="U14" s="6"/>
       <c r="V14" s="6"/>
       <c r="W14" s="6"/>
       <c r="X14" s="6"/>
-      <c r="Y14" s="20"/>
-      <c r="Z14" s="20"/>
-      <c r="AA14" s="20"/>
-      <c r="AB14" s="20"/>
-      <c r="AC14" s="20"/>
+      <c r="Y14" s="15"/>
+      <c r="Z14" s="15"/>
+      <c r="AA14" s="15"/>
+      <c r="AB14" s="15"/>
+      <c r="AC14" s="15"/>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
@@ -9456,13 +9561,13 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
-      <c r="J15" s="17" t="s">
+      <c r="J15" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="K15" s="17" t="s">
+      <c r="K15" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="L15" s="17" t="s">
+      <c r="L15" s="13" t="s">
         <v>61</v>
       </c>
       <c r="M15" s="6"/>
@@ -9470,18 +9575,18 @@
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
-      <c r="R15" s="20"/>
-      <c r="S15" s="20"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="15"/>
       <c r="T15" s="6"/>
       <c r="U15" s="6"/>
       <c r="V15" s="6"/>
       <c r="W15" s="6"/>
       <c r="X15" s="6"/>
-      <c r="Y15" s="20"/>
-      <c r="Z15" s="20"/>
-      <c r="AA15" s="20"/>
-      <c r="AB15" s="20"/>
-      <c r="AC15" s="20"/>
+      <c r="Y15" s="15"/>
+      <c r="Z15" s="15"/>
+      <c r="AA15" s="15"/>
+      <c r="AB15" s="15"/>
+      <c r="AC15" s="15"/>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
@@ -9493,13 +9598,13 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
-      <c r="J16" s="17" t="s">
+      <c r="J16" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="K16" s="17" t="s">
+      <c r="K16" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="L16" s="17" t="s">
+      <c r="L16" s="13" t="s">
         <v>103</v>
       </c>
       <c r="M16" s="6"/>
@@ -9507,18 +9612,18 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-      <c r="R16" s="20"/>
-      <c r="S16" s="20"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="15"/>
       <c r="T16" s="6"/>
       <c r="U16" s="6"/>
       <c r="V16" s="6"/>
       <c r="W16" s="6"/>
       <c r="X16" s="6"/>
-      <c r="Y16" s="20"/>
-      <c r="Z16" s="20"/>
-      <c r="AA16" s="20"/>
-      <c r="AB16" s="20"/>
-      <c r="AC16" s="20"/>
+      <c r="Y16" s="15"/>
+      <c r="Z16" s="15"/>
+      <c r="AA16" s="15"/>
+      <c r="AB16" s="15"/>
+      <c r="AC16" s="15"/>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
@@ -9530,13 +9635,13 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
-      <c r="J17" s="17" t="s">
+      <c r="J17" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="K17" s="17" t="s">
+      <c r="K17" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="L17" s="17" t="s">
+      <c r="L17" s="13" t="s">
         <v>61</v>
       </c>
       <c r="M17" s="6"/>
@@ -9544,18 +9649,18 @@
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
-      <c r="R17" s="20"/>
-      <c r="S17" s="20"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="15"/>
       <c r="T17" s="6"/>
       <c r="U17" s="6"/>
       <c r="V17" s="6"/>
       <c r="W17" s="6"/>
       <c r="X17" s="6"/>
-      <c r="Y17" s="20"/>
-      <c r="Z17" s="20"/>
-      <c r="AA17" s="20"/>
-      <c r="AB17" s="20"/>
-      <c r="AC17" s="20"/>
+      <c r="Y17" s="15"/>
+      <c r="Z17" s="15"/>
+      <c r="AA17" s="15"/>
+      <c r="AB17" s="15"/>
+      <c r="AC17" s="15"/>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
@@ -9567,13 +9672,13 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
-      <c r="J18" s="17" t="s">
+      <c r="J18" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="K18" s="17" t="s">
+      <c r="K18" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="L18" s="17" t="s">
+      <c r="L18" s="13" t="s">
         <v>61</v>
       </c>
       <c r="M18" s="6"/>
@@ -9581,18 +9686,18 @@
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
-      <c r="R18" s="20"/>
-      <c r="S18" s="20"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="15"/>
       <c r="T18" s="6"/>
       <c r="U18" s="6"/>
       <c r="V18" s="6"/>
       <c r="W18" s="6"/>
       <c r="X18" s="6"/>
-      <c r="Y18" s="20"/>
-      <c r="Z18" s="20"/>
-      <c r="AA18" s="20"/>
-      <c r="AB18" s="20"/>
-      <c r="AC18" s="20"/>
+      <c r="Y18" s="15"/>
+      <c r="Z18" s="15"/>
+      <c r="AA18" s="15"/>
+      <c r="AB18" s="15"/>
+      <c r="AC18" s="15"/>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
@@ -9604,13 +9709,13 @@
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
-      <c r="J19" s="17" t="s">
+      <c r="J19" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="K19" s="17" t="s">
+      <c r="K19" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="L19" s="17" t="s">
+      <c r="L19" s="13" t="s">
         <v>61</v>
       </c>
       <c r="M19" s="6"/>
@@ -9618,18 +9723,18 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-      <c r="R19" s="20"/>
-      <c r="S19" s="20"/>
+      <c r="R19" s="15"/>
+      <c r="S19" s="15"/>
       <c r="T19" s="6"/>
       <c r="U19" s="6"/>
       <c r="V19" s="6"/>
       <c r="W19" s="6"/>
       <c r="X19" s="6"/>
-      <c r="Y19" s="20"/>
-      <c r="Z19" s="20"/>
-      <c r="AA19" s="20"/>
-      <c r="AB19" s="20"/>
-      <c r="AC19" s="20"/>
+      <c r="Y19" s="15"/>
+      <c r="Z19" s="15"/>
+      <c r="AA19" s="15"/>
+      <c r="AB19" s="15"/>
+      <c r="AC19" s="15"/>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
@@ -9641,13 +9746,13 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
-      <c r="J20" s="17" t="s">
+      <c r="J20" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="K20" s="17" t="s">
+      <c r="K20" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="L20" s="17" t="s">
+      <c r="L20" s="13" t="s">
         <v>29</v>
       </c>
       <c r="M20" s="6"/>
@@ -9655,18 +9760,18 @@
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
-      <c r="R20" s="20"/>
-      <c r="S20" s="20"/>
+      <c r="R20" s="15"/>
+      <c r="S20" s="15"/>
       <c r="T20" s="6"/>
       <c r="U20" s="6"/>
       <c r="V20" s="6"/>
       <c r="W20" s="6"/>
       <c r="X20" s="6"/>
-      <c r="Y20" s="20"/>
-      <c r="Z20" s="20"/>
-      <c r="AA20" s="20"/>
-      <c r="AB20" s="20"/>
-      <c r="AC20" s="20"/>
+      <c r="Y20" s="15"/>
+      <c r="Z20" s="15"/>
+      <c r="AA20" s="15"/>
+      <c r="AB20" s="15"/>
+      <c r="AC20" s="15"/>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
@@ -9678,13 +9783,13 @@
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
-      <c r="J21" s="17" t="s">
+      <c r="J21" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="K21" s="17" t="s">
+      <c r="K21" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="L21" s="17" t="s">
+      <c r="L21" s="13" t="s">
         <v>61</v>
       </c>
       <c r="M21" s="6"/>
@@ -9692,18 +9797,18 @@
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
-      <c r="R21" s="20"/>
-      <c r="S21" s="20"/>
+      <c r="R21" s="15"/>
+      <c r="S21" s="15"/>
       <c r="T21" s="6"/>
       <c r="U21" s="6"/>
       <c r="V21" s="6"/>
       <c r="W21" s="6"/>
       <c r="X21" s="6"/>
-      <c r="Y21" s="20"/>
-      <c r="Z21" s="20"/>
-      <c r="AA21" s="20"/>
-      <c r="AB21" s="20"/>
-      <c r="AC21" s="20"/>
+      <c r="Y21" s="15"/>
+      <c r="Z21" s="15"/>
+      <c r="AA21" s="15"/>
+      <c r="AB21" s="15"/>
+      <c r="AC21" s="15"/>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
@@ -9715,13 +9820,13 @@
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
-      <c r="J22" s="17" t="s">
+      <c r="J22" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="K22" s="17" t="s">
+      <c r="K22" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="L22" s="17" t="s">
+      <c r="L22" s="13" t="s">
         <v>61</v>
       </c>
       <c r="M22" s="6"/>
@@ -9729,18 +9834,18 @@
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
-      <c r="R22" s="20"/>
-      <c r="S22" s="20"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="15"/>
       <c r="T22" s="6"/>
       <c r="U22" s="6"/>
       <c r="V22" s="6"/>
       <c r="W22" s="6"/>
       <c r="X22" s="6"/>
-      <c r="Y22" s="20"/>
-      <c r="Z22" s="20"/>
-      <c r="AA22" s="20"/>
-      <c r="AB22" s="20"/>
-      <c r="AC22" s="20"/>
+      <c r="Y22" s="15"/>
+      <c r="Z22" s="15"/>
+      <c r="AA22" s="15"/>
+      <c r="AB22" s="15"/>
+      <c r="AC22" s="15"/>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
@@ -9752,13 +9857,13 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
-      <c r="J23" s="17" t="s">
+      <c r="J23" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="K23" s="17" t="s">
+      <c r="K23" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="L23" s="17" t="s">
+      <c r="L23" s="13" t="s">
         <v>61</v>
       </c>
       <c r="M23" s="6"/>
@@ -9766,18 +9871,18 @@
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
-      <c r="R23" s="20"/>
-      <c r="S23" s="20"/>
+      <c r="R23" s="15"/>
+      <c r="S23" s="15"/>
       <c r="T23" s="6"/>
       <c r="U23" s="6"/>
       <c r="V23" s="6"/>
       <c r="W23" s="6"/>
       <c r="X23" s="6"/>
-      <c r="Y23" s="20"/>
-      <c r="Z23" s="20"/>
-      <c r="AA23" s="20"/>
-      <c r="AB23" s="20"/>
-      <c r="AC23" s="20"/>
+      <c r="Y23" s="15"/>
+      <c r="Z23" s="15"/>
+      <c r="AA23" s="15"/>
+      <c r="AB23" s="15"/>
+      <c r="AC23" s="15"/>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
@@ -9789,13 +9894,13 @@
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
-      <c r="J24" s="17" t="s">
+      <c r="J24" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="K24" s="17" t="s">
+      <c r="K24" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="L24" s="17" t="s">
+      <c r="L24" s="13" t="s">
         <v>61</v>
       </c>
       <c r="M24" s="6"/>
@@ -9803,18 +9908,18 @@
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
-      <c r="R24" s="20"/>
-      <c r="S24" s="20"/>
+      <c r="R24" s="15"/>
+      <c r="S24" s="15"/>
       <c r="T24" s="6"/>
       <c r="U24" s="6"/>
       <c r="V24" s="6"/>
       <c r="W24" s="6"/>
       <c r="X24" s="6"/>
-      <c r="Y24" s="20"/>
-      <c r="Z24" s="20"/>
-      <c r="AA24" s="20"/>
-      <c r="AB24" s="20"/>
-      <c r="AC24" s="20"/>
+      <c r="Y24" s="15"/>
+      <c r="Z24" s="15"/>
+      <c r="AA24" s="15"/>
+      <c r="AB24" s="15"/>
+      <c r="AC24" s="15"/>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A25" s="6"/>
@@ -9834,18 +9939,18 @@
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
-      <c r="R25" s="20"/>
-      <c r="S25" s="20"/>
+      <c r="R25" s="15"/>
+      <c r="S25" s="15"/>
       <c r="T25" s="6"/>
       <c r="U25" s="6"/>
       <c r="V25" s="6"/>
       <c r="W25" s="6"/>
       <c r="X25" s="6"/>
-      <c r="Y25" s="20"/>
-      <c r="Z25" s="20"/>
-      <c r="AA25" s="20"/>
-      <c r="AB25" s="20"/>
-      <c r="AC25" s="20"/>
+      <c r="Y25" s="15"/>
+      <c r="Z25" s="15"/>
+      <c r="AA25" s="15"/>
+      <c r="AB25" s="15"/>
+      <c r="AC25" s="15"/>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
@@ -9895,18 +10000,18 @@
       <c r="Q26" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="R26" s="20"/>
-      <c r="S26" s="20"/>
+      <c r="R26" s="15"/>
+      <c r="S26" s="15"/>
       <c r="T26" s="6"/>
       <c r="U26" s="6"/>
       <c r="V26" s="6"/>
       <c r="W26" s="6"/>
       <c r="X26" s="6"/>
-      <c r="Y26" s="20"/>
-      <c r="Z26" s="20"/>
-      <c r="AA26" s="20"/>
-      <c r="AB26" s="20"/>
-      <c r="AC26" s="20"/>
+      <c r="Y26" s="15"/>
+      <c r="Z26" s="15"/>
+      <c r="AA26" s="15"/>
+      <c r="AB26" s="15"/>
+      <c r="AC26" s="15"/>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
@@ -9956,18 +10061,18 @@
       <c r="Q27" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="R27" s="20"/>
-      <c r="S27" s="20"/>
+      <c r="R27" s="15"/>
+      <c r="S27" s="15"/>
       <c r="T27" s="6"/>
       <c r="U27" s="6"/>
       <c r="V27" s="6"/>
       <c r="W27" s="6"/>
       <c r="X27" s="6"/>
-      <c r="Y27" s="20"/>
-      <c r="Z27" s="20"/>
-      <c r="AA27" s="20"/>
-      <c r="AB27" s="20"/>
-      <c r="AC27" s="20"/>
+      <c r="Y27" s="15"/>
+      <c r="Z27" s="15"/>
+      <c r="AA27" s="15"/>
+      <c r="AB27" s="15"/>
+      <c r="AC27" s="15"/>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
@@ -10007,18 +10112,18 @@
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
-      <c r="R28" s="20"/>
-      <c r="S28" s="20"/>
+      <c r="R28" s="15"/>
+      <c r="S28" s="15"/>
       <c r="T28" s="6"/>
       <c r="U28" s="6"/>
       <c r="V28" s="6"/>
       <c r="W28" s="6"/>
       <c r="X28" s="6"/>
-      <c r="Y28" s="20"/>
-      <c r="Z28" s="20"/>
-      <c r="AA28" s="20"/>
-      <c r="AB28" s="20"/>
-      <c r="AC28" s="20"/>
+      <c r="Y28" s="15"/>
+      <c r="Z28" s="15"/>
+      <c r="AA28" s="15"/>
+      <c r="AB28" s="15"/>
+      <c r="AC28" s="15"/>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
@@ -10030,13 +10135,13 @@
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
-      <c r="J29" s="17" t="s">
+      <c r="J29" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="K29" s="17" t="s">
+      <c r="K29" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="L29" s="17" t="s">
+      <c r="L29" s="13" t="s">
         <v>29</v>
       </c>
       <c r="M29" s="6"/>
@@ -10044,18 +10149,18 @@
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
-      <c r="R29" s="20"/>
-      <c r="S29" s="20"/>
+      <c r="R29" s="15"/>
+      <c r="S29" s="15"/>
       <c r="T29" s="6"/>
       <c r="U29" s="6"/>
       <c r="V29" s="6"/>
       <c r="W29" s="6"/>
       <c r="X29" s="6"/>
-      <c r="Y29" s="20"/>
-      <c r="Z29" s="20"/>
-      <c r="AA29" s="20"/>
-      <c r="AB29" s="20"/>
-      <c r="AC29" s="20"/>
+      <c r="Y29" s="15"/>
+      <c r="Z29" s="15"/>
+      <c r="AA29" s="15"/>
+      <c r="AB29" s="15"/>
+      <c r="AC29" s="15"/>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
@@ -10067,13 +10172,13 @@
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
-      <c r="J30" s="17" t="s">
+      <c r="J30" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="K30" s="17" t="s">
+      <c r="K30" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="L30" s="17" t="s">
+      <c r="L30" s="13" t="s">
         <v>61</v>
       </c>
       <c r="M30" s="6"/>
@@ -10081,18 +10186,18 @@
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
-      <c r="R30" s="20"/>
-      <c r="S30" s="20"/>
+      <c r="R30" s="15"/>
+      <c r="S30" s="15"/>
       <c r="T30" s="6"/>
       <c r="U30" s="6"/>
       <c r="V30" s="6"/>
       <c r="W30" s="6"/>
       <c r="X30" s="6"/>
-      <c r="Y30" s="20"/>
-      <c r="Z30" s="20"/>
-      <c r="AA30" s="20"/>
-      <c r="AB30" s="20"/>
-      <c r="AC30" s="20"/>
+      <c r="Y30" s="15"/>
+      <c r="Z30" s="15"/>
+      <c r="AA30" s="15"/>
+      <c r="AB30" s="15"/>
+      <c r="AC30" s="15"/>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
@@ -10104,13 +10209,13 @@
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
-      <c r="J31" s="17" t="s">
+      <c r="J31" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="K31" s="17" t="s">
+      <c r="K31" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="L31" s="17" t="s">
+      <c r="L31" s="13" t="s">
         <v>61</v>
       </c>
       <c r="M31" s="6"/>
@@ -10118,18 +10223,18 @@
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
-      <c r="R31" s="20"/>
-      <c r="S31" s="20"/>
+      <c r="R31" s="15"/>
+      <c r="S31" s="15"/>
       <c r="T31" s="6"/>
       <c r="U31" s="6"/>
       <c r="V31" s="6"/>
       <c r="W31" s="6"/>
       <c r="X31" s="6"/>
-      <c r="Y31" s="20"/>
-      <c r="Z31" s="20"/>
-      <c r="AA31" s="20"/>
-      <c r="AB31" s="20"/>
-      <c r="AC31" s="20"/>
+      <c r="Y31" s="15"/>
+      <c r="Z31" s="15"/>
+      <c r="AA31" s="15"/>
+      <c r="AB31" s="15"/>
+      <c r="AC31" s="15"/>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A32" s="6"/>
@@ -10141,13 +10246,13 @@
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
-      <c r="J32" s="17" t="s">
+      <c r="J32" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="K32" s="17" t="s">
+      <c r="K32" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="L32" s="17" t="s">
+      <c r="L32" s="13" t="s">
         <v>61</v>
       </c>
       <c r="M32" s="6"/>
@@ -10155,18 +10260,18 @@
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
-      <c r="R32" s="20"/>
-      <c r="S32" s="20"/>
+      <c r="R32" s="15"/>
+      <c r="S32" s="15"/>
       <c r="T32" s="6"/>
       <c r="U32" s="6"/>
       <c r="V32" s="6"/>
       <c r="W32" s="6"/>
       <c r="X32" s="6"/>
-      <c r="Y32" s="20"/>
-      <c r="Z32" s="20"/>
-      <c r="AA32" s="20"/>
-      <c r="AB32" s="20"/>
-      <c r="AC32" s="20"/>
+      <c r="Y32" s="15"/>
+      <c r="Z32" s="15"/>
+      <c r="AA32" s="15"/>
+      <c r="AB32" s="15"/>
+      <c r="AC32" s="15"/>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A33" s="6"/>
@@ -10178,13 +10283,13 @@
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
-      <c r="J33" s="17" t="s">
+      <c r="J33" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="K33" s="17" t="s">
+      <c r="K33" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="L33" s="17" t="s">
+      <c r="L33" s="13" t="s">
         <v>104</v>
       </c>
       <c r="M33" s="6"/>
@@ -10192,18 +10297,18 @@
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
-      <c r="R33" s="20"/>
-      <c r="S33" s="20"/>
+      <c r="R33" s="15"/>
+      <c r="S33" s="15"/>
       <c r="T33" s="6"/>
       <c r="U33" s="6"/>
       <c r="V33" s="6"/>
       <c r="W33" s="6"/>
       <c r="X33" s="6"/>
-      <c r="Y33" s="20"/>
-      <c r="Z33" s="20"/>
-      <c r="AA33" s="20"/>
-      <c r="AB33" s="20"/>
-      <c r="AC33" s="20"/>
+      <c r="Y33" s="15"/>
+      <c r="Z33" s="15"/>
+      <c r="AA33" s="15"/>
+      <c r="AB33" s="15"/>
+      <c r="AC33" s="15"/>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A34" s="6"/>
@@ -10215,13 +10320,13 @@
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
-      <c r="J34" s="17" t="s">
+      <c r="J34" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="K34" s="17" t="s">
+      <c r="K34" s="13" t="s">
         <v>258</v>
       </c>
-      <c r="L34" s="17" t="s">
+      <c r="L34" s="13" t="s">
         <v>61</v>
       </c>
       <c r="M34" s="6"/>
@@ -10229,18 +10334,18 @@
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
-      <c r="R34" s="20"/>
-      <c r="S34" s="20"/>
+      <c r="R34" s="15"/>
+      <c r="S34" s="15"/>
       <c r="T34" s="6"/>
       <c r="U34" s="6"/>
       <c r="V34" s="6"/>
       <c r="W34" s="6"/>
       <c r="X34" s="6"/>
-      <c r="Y34" s="20"/>
-      <c r="Z34" s="20"/>
-      <c r="AA34" s="20"/>
-      <c r="AB34" s="20"/>
-      <c r="AC34" s="20"/>
+      <c r="Y34" s="15"/>
+      <c r="Z34" s="15"/>
+      <c r="AA34" s="15"/>
+      <c r="AB34" s="15"/>
+      <c r="AC34" s="15"/>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A35" s="6"/>
@@ -10252,13 +10357,13 @@
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
-      <c r="J35" s="17" t="s">
+      <c r="J35" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="K35" s="17" t="s">
+      <c r="K35" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="L35" s="17" t="s">
+      <c r="L35" s="13" t="s">
         <v>61</v>
       </c>
       <c r="M35" s="6"/>
@@ -10266,18 +10371,18 @@
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
       <c r="Q35" s="3"/>
-      <c r="R35" s="20"/>
-      <c r="S35" s="20"/>
+      <c r="R35" s="15"/>
+      <c r="S35" s="15"/>
       <c r="T35" s="6"/>
       <c r="U35" s="6"/>
       <c r="V35" s="6"/>
       <c r="W35" s="6"/>
       <c r="X35" s="6"/>
-      <c r="Y35" s="20"/>
-      <c r="Z35" s="20"/>
-      <c r="AA35" s="20"/>
-      <c r="AB35" s="20"/>
-      <c r="AC35" s="20"/>
+      <c r="Y35" s="15"/>
+      <c r="Z35" s="15"/>
+      <c r="AA35" s="15"/>
+      <c r="AB35" s="15"/>
+      <c r="AC35" s="15"/>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A36" s="6"/>
@@ -10289,13 +10394,13 @@
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
-      <c r="J36" s="17" t="s">
+      <c r="J36" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="K36" s="17" t="s">
+      <c r="K36" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="L36" s="17" t="s">
+      <c r="L36" s="13" t="s">
         <v>61</v>
       </c>
       <c r="M36" s="6"/>
@@ -10303,18 +10408,18 @@
       <c r="O36" s="3"/>
       <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
-      <c r="R36" s="20"/>
-      <c r="S36" s="20"/>
+      <c r="R36" s="15"/>
+      <c r="S36" s="15"/>
       <c r="T36" s="6"/>
       <c r="U36" s="6"/>
       <c r="V36" s="6"/>
       <c r="W36" s="6"/>
       <c r="X36" s="6"/>
-      <c r="Y36" s="20"/>
-      <c r="Z36" s="20"/>
-      <c r="AA36" s="20"/>
-      <c r="AB36" s="20"/>
-      <c r="AC36" s="20"/>
+      <c r="Y36" s="15"/>
+      <c r="Z36" s="15"/>
+      <c r="AA36" s="15"/>
+      <c r="AB36" s="15"/>
+      <c r="AC36" s="15"/>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A37" s="6"/>
@@ -10326,13 +10431,13 @@
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
-      <c r="J37" s="17" t="s">
+      <c r="J37" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="K37" s="17" t="s">
+      <c r="K37" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="L37" s="17" t="s">
+      <c r="L37" s="13" t="s">
         <v>61</v>
       </c>
       <c r="M37" s="6"/>
@@ -10340,18 +10445,18 @@
       <c r="O37" s="3"/>
       <c r="P37" s="3"/>
       <c r="Q37" s="3"/>
-      <c r="R37" s="20"/>
-      <c r="S37" s="20"/>
+      <c r="R37" s="15"/>
+      <c r="S37" s="15"/>
       <c r="T37" s="6"/>
       <c r="U37" s="6"/>
       <c r="V37" s="6"/>
       <c r="W37" s="6"/>
       <c r="X37" s="6"/>
-      <c r="Y37" s="20"/>
-      <c r="Z37" s="20"/>
-      <c r="AA37" s="20"/>
-      <c r="AB37" s="20"/>
-      <c r="AC37" s="20"/>
+      <c r="Y37" s="15"/>
+      <c r="Z37" s="15"/>
+      <c r="AA37" s="15"/>
+      <c r="AB37" s="15"/>
+      <c r="AC37" s="15"/>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A38" s="6"/>
@@ -10363,9 +10468,9 @@
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="17"/>
-      <c r="L38" s="17"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="13"/>
       <c r="M38" s="6"/>
       <c r="N38" s="6"/>
       <c r="O38" s="3" t="s">
@@ -10377,8 +10482,8 @@
       <c r="Q38" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="R38" s="20"/>
-      <c r="S38" s="31" t="s">
+      <c r="R38" s="15"/>
+      <c r="S38" s="19" t="s">
         <v>288</v>
       </c>
       <c r="T38" s="6"/>
@@ -10386,11 +10491,11 @@
       <c r="V38" s="6"/>
       <c r="W38" s="6"/>
       <c r="X38" s="6"/>
-      <c r="Y38" s="20"/>
-      <c r="Z38" s="20"/>
-      <c r="AA38" s="20"/>
-      <c r="AB38" s="20"/>
-      <c r="AC38" s="20"/>
+      <c r="Y38" s="15"/>
+      <c r="Z38" s="15"/>
+      <c r="AA38" s="15"/>
+      <c r="AB38" s="15"/>
+      <c r="AC38" s="15"/>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A39" s="6"/>
@@ -10402,9 +10507,9 @@
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="17"/>
-      <c r="L39" s="17"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="13"/>
       <c r="M39" s="6"/>
       <c r="N39" s="6"/>
       <c r="O39" s="3" t="s">
@@ -10416,8 +10521,8 @@
       <c r="Q39" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="R39" s="20"/>
-      <c r="S39" s="31" t="s">
+      <c r="R39" s="15"/>
+      <c r="S39" s="19" t="s">
         <v>288</v>
       </c>
       <c r="T39" s="6"/>
@@ -10425,11 +10530,11 @@
       <c r="V39" s="6"/>
       <c r="W39" s="6"/>
       <c r="X39" s="6"/>
-      <c r="Y39" s="20"/>
-      <c r="Z39" s="20"/>
-      <c r="AA39" s="20"/>
-      <c r="AB39" s="20"/>
-      <c r="AC39" s="20"/>
+      <c r="Y39" s="15"/>
+      <c r="Z39" s="15"/>
+      <c r="AA39" s="15"/>
+      <c r="AB39" s="15"/>
+      <c r="AC39" s="15"/>
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A40" s="6"/>
@@ -10441,9 +10546,9 @@
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="17"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="13"/>
       <c r="M40" s="6"/>
       <c r="N40" s="6"/>
       <c r="O40" s="3" t="s">
@@ -10455,8 +10560,8 @@
       <c r="Q40" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="R40" s="20"/>
-      <c r="S40" s="20" t="s">
+      <c r="R40" s="15"/>
+      <c r="S40" s="15" t="s">
         <v>289</v>
       </c>
       <c r="T40" s="6"/>
@@ -10464,11 +10569,11 @@
       <c r="V40" s="6"/>
       <c r="W40" s="6"/>
       <c r="X40" s="6"/>
-      <c r="Y40" s="20"/>
-      <c r="Z40" s="20"/>
-      <c r="AA40" s="20"/>
-      <c r="AB40" s="20"/>
-      <c r="AC40" s="20"/>
+      <c r="Y40" s="15"/>
+      <c r="Z40" s="15"/>
+      <c r="AA40" s="15"/>
+      <c r="AB40" s="15"/>
+      <c r="AC40" s="15"/>
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A41" s="6"/>
@@ -10480,9 +10585,9 @@
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="17"/>
-      <c r="L41" s="17"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="13"/>
       <c r="M41" s="6"/>
       <c r="N41" s="6"/>
       <c r="O41" s="3" t="s">
@@ -10494,8 +10599,8 @@
       <c r="Q41" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="R41" s="20"/>
-      <c r="S41" s="31" t="s">
+      <c r="R41" s="15"/>
+      <c r="S41" s="19" t="s">
         <v>288</v>
       </c>
       <c r="T41" s="6"/>
@@ -10503,11 +10608,11 @@
       <c r="V41" s="6"/>
       <c r="W41" s="6"/>
       <c r="X41" s="6"/>
-      <c r="Y41" s="20"/>
-      <c r="Z41" s="20"/>
-      <c r="AA41" s="20"/>
-      <c r="AB41" s="20"/>
-      <c r="AC41" s="20"/>
+      <c r="Y41" s="15"/>
+      <c r="Z41" s="15"/>
+      <c r="AA41" s="15"/>
+      <c r="AB41" s="15"/>
+      <c r="AC41" s="15"/>
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A42" s="6"/>
@@ -10519,9 +10624,9 @@
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
-      <c r="J42" s="17"/>
-      <c r="K42" s="17"/>
-      <c r="L42" s="17"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="13"/>
+      <c r="L42" s="13"/>
       <c r="M42" s="6"/>
       <c r="N42" s="6"/>
       <c r="O42" s="3" t="s">
@@ -10533,8 +10638,8 @@
       <c r="Q42" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="R42" s="20"/>
-      <c r="S42" s="31" t="s">
+      <c r="R42" s="15"/>
+      <c r="S42" s="19" t="s">
         <v>288</v>
       </c>
       <c r="T42" s="6"/>
@@ -10542,11 +10647,11 @@
       <c r="V42" s="6"/>
       <c r="W42" s="6"/>
       <c r="X42" s="6"/>
-      <c r="Y42" s="20"/>
-      <c r="Z42" s="20"/>
-      <c r="AA42" s="20"/>
-      <c r="AB42" s="20"/>
-      <c r="AC42" s="20"/>
+      <c r="Y42" s="15"/>
+      <c r="Z42" s="15"/>
+      <c r="AA42" s="15"/>
+      <c r="AB42" s="15"/>
+      <c r="AC42" s="15"/>
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A43" s="6"/>
@@ -10558,9 +10663,9 @@
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
-      <c r="J43" s="17"/>
-      <c r="K43" s="17"/>
-      <c r="L43" s="17"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="13"/>
+      <c r="L43" s="13"/>
       <c r="M43" s="6"/>
       <c r="N43" s="6"/>
       <c r="O43" s="3" t="s">
@@ -10572,8 +10677,8 @@
       <c r="Q43" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="R43" s="20"/>
-      <c r="S43" s="20" t="s">
+      <c r="R43" s="15"/>
+      <c r="S43" s="15" t="s">
         <v>289</v>
       </c>
       <c r="T43" s="6"/>
@@ -10581,11 +10686,11 @@
       <c r="V43" s="6"/>
       <c r="W43" s="6"/>
       <c r="X43" s="6"/>
-      <c r="Y43" s="20"/>
-      <c r="Z43" s="20"/>
-      <c r="AA43" s="20"/>
-      <c r="AB43" s="20"/>
-      <c r="AC43" s="20"/>
+      <c r="Y43" s="15"/>
+      <c r="Z43" s="15"/>
+      <c r="AA43" s="15"/>
+      <c r="AB43" s="15"/>
+      <c r="AC43" s="15"/>
     </row>
     <row r="44" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A44" s="6"/>
@@ -10605,24 +10710,24 @@
       <c r="O44" s="3"/>
       <c r="P44" s="3"/>
       <c r="Q44" s="3"/>
-      <c r="R44" s="20"/>
-      <c r="S44" s="20"/>
-      <c r="T44" s="17" t="s">
+      <c r="R44" s="15"/>
+      <c r="S44" s="15"/>
+      <c r="T44" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="U44" s="17" t="s">
+      <c r="U44" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="V44" s="17" t="s">
+      <c r="V44" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="W44" s="17"/>
-      <c r="X44" s="17"/>
-      <c r="Y44" s="20"/>
-      <c r="Z44" s="20"/>
-      <c r="AA44" s="20"/>
-      <c r="AB44" s="20"/>
-      <c r="AC44" s="20"/>
+      <c r="W44" s="13"/>
+      <c r="X44" s="13"/>
+      <c r="Y44" s="15"/>
+      <c r="Z44" s="15"/>
+      <c r="AA44" s="15"/>
+      <c r="AB44" s="15"/>
+      <c r="AC44" s="15"/>
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A45" s="6"/>
@@ -10642,24 +10747,24 @@
       <c r="O45" s="3"/>
       <c r="P45" s="3"/>
       <c r="Q45" s="3"/>
-      <c r="R45" s="20"/>
-      <c r="S45" s="20"/>
-      <c r="T45" s="17" t="s">
+      <c r="R45" s="15"/>
+      <c r="S45" s="15"/>
+      <c r="T45" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="U45" s="17" t="s">
+      <c r="U45" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="V45" s="17" t="s">
+      <c r="V45" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="W45" s="17"/>
-      <c r="X45" s="17"/>
-      <c r="Y45" s="20"/>
-      <c r="Z45" s="20"/>
-      <c r="AA45" s="20"/>
-      <c r="AB45" s="20"/>
-      <c r="AC45" s="20"/>
+      <c r="W45" s="13"/>
+      <c r="X45" s="13"/>
+      <c r="Y45" s="15"/>
+      <c r="Z45" s="15"/>
+      <c r="AA45" s="15"/>
+      <c r="AB45" s="15"/>
+      <c r="AC45" s="15"/>
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A46" s="6"/>
@@ -10679,24 +10784,24 @@
       <c r="O46" s="3"/>
       <c r="P46" s="3"/>
       <c r="Q46" s="3"/>
-      <c r="R46" s="20"/>
-      <c r="S46" s="20"/>
-      <c r="T46" s="17" t="s">
+      <c r="R46" s="15"/>
+      <c r="S46" s="15"/>
+      <c r="T46" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="U46" s="17" t="s">
+      <c r="U46" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="V46" s="17" t="s">
+      <c r="V46" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="W46" s="17"/>
-      <c r="X46" s="17"/>
-      <c r="Y46" s="20"/>
-      <c r="Z46" s="20"/>
-      <c r="AA46" s="20"/>
-      <c r="AB46" s="20"/>
-      <c r="AC46" s="20"/>
+      <c r="W46" s="13"/>
+      <c r="X46" s="13"/>
+      <c r="Y46" s="15"/>
+      <c r="Z46" s="15"/>
+      <c r="AA46" s="15"/>
+      <c r="AB46" s="15"/>
+      <c r="AC46" s="15"/>
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A47" s="6"/>
@@ -10716,24 +10821,24 @@
       <c r="O47" s="3"/>
       <c r="P47" s="3"/>
       <c r="Q47" s="3"/>
-      <c r="R47" s="20"/>
-      <c r="S47" s="20"/>
-      <c r="T47" s="17" t="s">
+      <c r="R47" s="15"/>
+      <c r="S47" s="15"/>
+      <c r="T47" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="U47" s="17" t="s">
+      <c r="U47" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="V47" s="17" t="s">
+      <c r="V47" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="W47" s="17"/>
-      <c r="X47" s="17"/>
-      <c r="Y47" s="20"/>
-      <c r="Z47" s="20"/>
-      <c r="AA47" s="20"/>
-      <c r="AB47" s="20"/>
-      <c r="AC47" s="20"/>
+      <c r="W47" s="13"/>
+      <c r="X47" s="13"/>
+      <c r="Y47" s="15"/>
+      <c r="Z47" s="15"/>
+      <c r="AA47" s="15"/>
+      <c r="AB47" s="15"/>
+      <c r="AC47" s="15"/>
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A48" s="6"/>
@@ -10753,24 +10858,24 @@
       <c r="O48" s="3"/>
       <c r="P48" s="3"/>
       <c r="Q48" s="3"/>
-      <c r="R48" s="20"/>
-      <c r="S48" s="20"/>
-      <c r="T48" s="17" t="s">
+      <c r="R48" s="15"/>
+      <c r="S48" s="15"/>
+      <c r="T48" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="U48" s="17" t="s">
+      <c r="U48" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="V48" s="17" t="s">
+      <c r="V48" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="W48" s="17"/>
-      <c r="X48" s="17"/>
-      <c r="Y48" s="20"/>
-      <c r="Z48" s="20"/>
-      <c r="AA48" s="20"/>
-      <c r="AB48" s="20"/>
-      <c r="AC48" s="20"/>
+      <c r="W48" s="13"/>
+      <c r="X48" s="13"/>
+      <c r="Y48" s="15"/>
+      <c r="Z48" s="15"/>
+      <c r="AA48" s="15"/>
+      <c r="AB48" s="15"/>
+      <c r="AC48" s="15"/>
     </row>
     <row r="49" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A49" s="6"/>
@@ -10790,24 +10895,24 @@
       <c r="O49" s="3"/>
       <c r="P49" s="3"/>
       <c r="Q49" s="3"/>
-      <c r="R49" s="20"/>
-      <c r="S49" s="20"/>
-      <c r="T49" s="17" t="s">
+      <c r="R49" s="15"/>
+      <c r="S49" s="15"/>
+      <c r="T49" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="U49" s="17" t="s">
+      <c r="U49" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="V49" s="17" t="s">
+      <c r="V49" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="W49" s="17"/>
-      <c r="X49" s="17"/>
-      <c r="Y49" s="20"/>
-      <c r="Z49" s="20"/>
-      <c r="AA49" s="20"/>
-      <c r="AB49" s="20"/>
-      <c r="AC49" s="20"/>
+      <c r="W49" s="13"/>
+      <c r="X49" s="13"/>
+      <c r="Y49" s="15"/>
+      <c r="Z49" s="15"/>
+      <c r="AA49" s="15"/>
+      <c r="AB49" s="15"/>
+      <c r="AC49" s="15"/>
     </row>
     <row r="50" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A50" s="6"/>
@@ -10827,24 +10932,24 @@
       <c r="O50" s="3"/>
       <c r="P50" s="3"/>
       <c r="Q50" s="3"/>
-      <c r="R50" s="20"/>
-      <c r="S50" s="20"/>
-      <c r="T50" s="17" t="s">
+      <c r="R50" s="15"/>
+      <c r="S50" s="15"/>
+      <c r="T50" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="U50" s="17" t="s">
+      <c r="U50" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="V50" s="17" t="s">
+      <c r="V50" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="W50" s="17"/>
-      <c r="X50" s="17"/>
-      <c r="Y50" s="20"/>
-      <c r="Z50" s="20"/>
-      <c r="AA50" s="20"/>
-      <c r="AB50" s="20"/>
-      <c r="AC50" s="20"/>
+      <c r="W50" s="13"/>
+      <c r="X50" s="13"/>
+      <c r="Y50" s="15"/>
+      <c r="Z50" s="15"/>
+      <c r="AA50" s="15"/>
+      <c r="AB50" s="15"/>
+      <c r="AC50" s="15"/>
     </row>
     <row r="51" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A51" s="6"/>
@@ -10864,24 +10969,24 @@
       <c r="O51" s="3"/>
       <c r="P51" s="3"/>
       <c r="Q51" s="3"/>
-      <c r="R51" s="20"/>
-      <c r="S51" s="20"/>
-      <c r="T51" s="17" t="s">
+      <c r="R51" s="15"/>
+      <c r="S51" s="15"/>
+      <c r="T51" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="U51" s="17" t="s">
+      <c r="U51" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="V51" s="17" t="s">
+      <c r="V51" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="W51" s="17"/>
-      <c r="X51" s="17"/>
-      <c r="Y51" s="20"/>
-      <c r="Z51" s="20"/>
-      <c r="AA51" s="20"/>
-      <c r="AB51" s="20"/>
-      <c r="AC51" s="20"/>
+      <c r="W51" s="13"/>
+      <c r="X51" s="13"/>
+      <c r="Y51" s="15"/>
+      <c r="Z51" s="15"/>
+      <c r="AA51" s="15"/>
+      <c r="AB51" s="15"/>
+      <c r="AC51" s="15"/>
     </row>
     <row r="52" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A52" s="6"/>
@@ -10901,24 +11006,24 @@
       <c r="O52" s="3"/>
       <c r="P52" s="3"/>
       <c r="Q52" s="3"/>
-      <c r="R52" s="20"/>
-      <c r="S52" s="20"/>
-      <c r="T52" s="17" t="s">
+      <c r="R52" s="15"/>
+      <c r="S52" s="15"/>
+      <c r="T52" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="U52" s="17" t="s">
+      <c r="U52" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="V52" s="17" t="s">
+      <c r="V52" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="W52" s="17"/>
-      <c r="X52" s="17"/>
-      <c r="Y52" s="20"/>
-      <c r="Z52" s="20"/>
-      <c r="AA52" s="20"/>
-      <c r="AB52" s="20"/>
-      <c r="AC52" s="20"/>
+      <c r="W52" s="13"/>
+      <c r="X52" s="13"/>
+      <c r="Y52" s="15"/>
+      <c r="Z52" s="15"/>
+      <c r="AA52" s="15"/>
+      <c r="AB52" s="15"/>
+      <c r="AC52" s="15"/>
     </row>
     <row r="53" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A53" s="6"/>
@@ -10938,24 +11043,24 @@
       <c r="O53" s="3"/>
       <c r="P53" s="3"/>
       <c r="Q53" s="3"/>
-      <c r="R53" s="20"/>
-      <c r="S53" s="20"/>
-      <c r="T53" s="17" t="s">
+      <c r="R53" s="15"/>
+      <c r="S53" s="15"/>
+      <c r="T53" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="U53" s="17" t="s">
+      <c r="U53" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="V53" s="17" t="s">
+      <c r="V53" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="W53" s="17"/>
-      <c r="X53" s="17"/>
-      <c r="Y53" s="20"/>
-      <c r="Z53" s="20"/>
-      <c r="AA53" s="20"/>
-      <c r="AB53" s="20"/>
-      <c r="AC53" s="20"/>
+      <c r="W53" s="13"/>
+      <c r="X53" s="13"/>
+      <c r="Y53" s="15"/>
+      <c r="Z53" s="15"/>
+      <c r="AA53" s="15"/>
+      <c r="AB53" s="15"/>
+      <c r="AC53" s="15"/>
     </row>
     <row r="54" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A54" s="6"/>
@@ -10975,24 +11080,24 @@
       <c r="O54" s="3"/>
       <c r="P54" s="3"/>
       <c r="Q54" s="3"/>
-      <c r="R54" s="20"/>
-      <c r="S54" s="20"/>
-      <c r="T54" s="17" t="s">
+      <c r="R54" s="15"/>
+      <c r="S54" s="15"/>
+      <c r="T54" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="U54" s="17" t="s">
+      <c r="U54" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="V54" s="17" t="s">
+      <c r="V54" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="W54" s="17"/>
-      <c r="X54" s="17"/>
-      <c r="Y54" s="20"/>
-      <c r="Z54" s="20"/>
-      <c r="AA54" s="20"/>
-      <c r="AB54" s="20"/>
-      <c r="AC54" s="20"/>
+      <c r="W54" s="13"/>
+      <c r="X54" s="13"/>
+      <c r="Y54" s="15"/>
+      <c r="Z54" s="15"/>
+      <c r="AA54" s="15"/>
+      <c r="AB54" s="15"/>
+      <c r="AC54" s="15"/>
     </row>
     <row r="55" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A55" s="6"/>
@@ -11012,8 +11117,8 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-      <c r="R55" s="20"/>
-      <c r="S55" s="20"/>
+      <c r="R55" s="15"/>
+      <c r="S55" s="15"/>
       <c r="T55" s="6" t="s">
         <v>236</v>
       </c>
@@ -11027,11 +11132,11 @@
         <v>56</v>
       </c>
       <c r="X55" s="6"/>
-      <c r="Y55" s="20"/>
-      <c r="Z55" s="20"/>
-      <c r="AA55" s="20"/>
-      <c r="AB55" s="20"/>
-      <c r="AC55" s="20"/>
+      <c r="Y55" s="15"/>
+      <c r="Z55" s="15"/>
+      <c r="AA55" s="15"/>
+      <c r="AB55" s="15"/>
+      <c r="AC55" s="15"/>
     </row>
     <row r="56" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A56" s="6"/>
@@ -11051,24 +11156,24 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-      <c r="R56" s="20"/>
-      <c r="S56" s="20"/>
-      <c r="T56" s="17" t="s">
+      <c r="R56" s="15"/>
+      <c r="S56" s="15"/>
+      <c r="T56" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="U56" s="17" t="s">
+      <c r="U56" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="V56" s="17" t="s">
+      <c r="V56" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="W56" s="17"/>
-      <c r="X56" s="17"/>
-      <c r="Y56" s="20"/>
-      <c r="Z56" s="20"/>
-      <c r="AA56" s="20"/>
-      <c r="AB56" s="20"/>
-      <c r="AC56" s="20"/>
+      <c r="W56" s="13"/>
+      <c r="X56" s="13"/>
+      <c r="Y56" s="15"/>
+      <c r="Z56" s="15"/>
+      <c r="AA56" s="15"/>
+      <c r="AB56" s="15"/>
+      <c r="AC56" s="15"/>
     </row>
     <row r="57" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A57" s="6"/>
@@ -11088,24 +11193,24 @@
       <c r="O57" s="3"/>
       <c r="P57" s="3"/>
       <c r="Q57" s="3"/>
-      <c r="R57" s="20"/>
-      <c r="S57" s="20"/>
-      <c r="T57" s="17" t="s">
+      <c r="R57" s="15"/>
+      <c r="S57" s="15"/>
+      <c r="T57" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="U57" s="17" t="s">
+      <c r="U57" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="V57" s="17" t="s">
+      <c r="V57" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="W57" s="17"/>
-      <c r="X57" s="17"/>
-      <c r="Y57" s="20"/>
-      <c r="Z57" s="20"/>
-      <c r="AA57" s="20"/>
-      <c r="AB57" s="20"/>
-      <c r="AC57" s="20"/>
+      <c r="W57" s="13"/>
+      <c r="X57" s="13"/>
+      <c r="Y57" s="15"/>
+      <c r="Z57" s="15"/>
+      <c r="AA57" s="15"/>
+      <c r="AB57" s="15"/>
+      <c r="AC57" s="15"/>
     </row>
     <row r="58" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A58" s="6"/>
@@ -11125,8 +11230,8 @@
       <c r="O58" s="3"/>
       <c r="P58" s="3"/>
       <c r="Q58" s="3"/>
-      <c r="R58" s="20"/>
-      <c r="S58" s="20"/>
+      <c r="R58" s="15"/>
+      <c r="S58" s="15"/>
       <c r="T58" s="6" t="s">
         <v>236</v>
       </c>
@@ -11140,11 +11245,11 @@
         <v>58</v>
       </c>
       <c r="X58" s="6"/>
-      <c r="Y58" s="20"/>
-      <c r="Z58" s="20"/>
-      <c r="AA58" s="20"/>
-      <c r="AB58" s="20"/>
-      <c r="AC58" s="20"/>
+      <c r="Y58" s="15"/>
+      <c r="Z58" s="15"/>
+      <c r="AA58" s="15"/>
+      <c r="AB58" s="15"/>
+      <c r="AC58" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -11162,12 +11267,744 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE506E6D-FDB6-42A6-8384-1E788212D2E3}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="38.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="73" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="6"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="N15" s="6"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" s="3"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" s="3"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" s="3"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="3"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I22" s="3"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="J1:N1"/>
+  </mergeCells>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Docs/Source to target mapping.xlsx
+++ b/Docs/Source to target mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zinyk\source\repos\Northwind_BI_Solution\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCF87B80-089E-4B99-83B0-BE0667663E98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A4CBFD-4A6D-4A48-8060-AF3C996B23CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="558" activeTab="4" xr2:uid="{4088A55A-653F-450D-AAB8-4D657457B3B6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="558" activeTab="2" xr2:uid="{4088A55A-653F-450D-AAB8-4D657457B3B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Customer" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1467" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1509" uniqueCount="332">
   <si>
     <t>Source</t>
   </si>
@@ -1037,13 +1037,16 @@
   </si>
   <si>
     <t>REAL</t>
+  </si>
+  <si>
+    <t>stg.NW_Customer_Leaf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1126,6 +1129,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1215,7 +1225,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
@@ -1270,6 +1280,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% — акцент1" xfId="3" builtinId="30"/>
@@ -1587,11 +1598,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{438DCF2F-B5A9-4CE2-9803-6BD6F67BD7E5}">
-  <dimension ref="A1:X62"/>
+  <dimension ref="A1:AC65"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:D1"/>
+      <pane ySplit="2" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T52" sqref="T52:X61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1610,20 +1621,24 @@
     <col min="12" max="12" width="15.21875" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.77734375" style="4" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="36.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.77734375" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.21875" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="22.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.77734375" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="37.21875" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.109375" style="4"/>
+    <col min="15" max="15" width="20.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="30.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="37.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="17.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -1651,15 +1666,22 @@
       <c r="Q1" s="21"/>
       <c r="R1" s="21"/>
       <c r="S1" s="21"/>
-      <c r="T1" s="20" t="s">
+      <c r="T1" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
-    </row>
-    <row r="2" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Z1" s="20"/>
+      <c r="AA1" s="20"/>
+      <c r="AB1" s="20"/>
+      <c r="AC1" s="20"/>
+    </row>
+    <row r="2" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
@@ -1717,23 +1739,38 @@
       <c r="S2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="T2" s="7" t="s">
+      <c r="T2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="U2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="V2" s="7" t="s">
+      <c r="V2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="W2" s="7" t="s">
+      <c r="W2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="X2" s="7" t="s">
+      <c r="X2" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Y2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC2" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -1753,23 +1790,28 @@
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
       <c r="S3" s="3"/>
-      <c r="T3" s="6" t="s">
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="U3" s="6" t="s">
+      <c r="Z3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="V3" s="6" t="s">
+      <c r="AA3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="W3" s="6" t="s">
+      <c r="AB3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="X3" s="6" t="s">
+      <c r="AC3" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>117</v>
       </c>
@@ -1807,7 +1849,7 @@
         <v>106</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>38</v>
+        <v>331</v>
       </c>
       <c r="P4" s="3" t="s">
         <v>37</v>
@@ -1817,21 +1859,32 @@
       </c>
       <c r="R4" s="3"/>
       <c r="S4" s="3"/>
-      <c r="T4" s="6" t="s">
+      <c r="T4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="U4" s="6" t="s">
+      <c r="Z4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="V4" s="6" t="s">
+      <c r="AA4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="W4" s="6" t="s">
+      <c r="AB4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="X4" s="6"/>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AC4" s="6"/>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>117</v>
       </c>
@@ -1869,7 +1922,7 @@
         <v>107</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>38</v>
+        <v>331</v>
       </c>
       <c r="P5" s="3" t="s">
         <v>13</v>
@@ -1877,25 +1930,36 @@
       <c r="Q5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="R5" s="3" t="s">
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="W5" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="S5" s="3"/>
-      <c r="T5" s="6" t="s">
+      <c r="X5" s="3"/>
+      <c r="Y5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="U5" s="6" t="s">
+      <c r="Z5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="V5" s="6" t="s">
+      <c r="AA5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="W5" s="6" t="s">
+      <c r="AB5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="X5" s="6"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AC5" s="6"/>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>117</v>
       </c>
@@ -1933,7 +1997,7 @@
         <v>108</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>38</v>
+        <v>331</v>
       </c>
       <c r="P6" s="3" t="s">
         <v>24</v>
@@ -1943,19 +2007,30 @@
       </c>
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
-      <c r="T6" s="6" t="s">
+      <c r="T6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="U6" s="6" t="s">
+      <c r="Z6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="V6" s="6" t="s">
+      <c r="AA6" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="W6" s="6"/>
-      <c r="X6" s="6"/>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB6" s="6"/>
+      <c r="AC6" s="6"/>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>117</v>
       </c>
@@ -1993,7 +2068,7 @@
         <v>109</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>38</v>
+        <v>331</v>
       </c>
       <c r="P7" s="3" t="s">
         <v>25</v>
@@ -2003,19 +2078,30 @@
       </c>
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
-      <c r="T7" s="6" t="s">
+      <c r="T7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="U7" s="6" t="s">
+      <c r="Z7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="V7" s="6" t="s">
+      <c r="AA7" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="6"/>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>117</v>
       </c>
@@ -2053,29 +2139,40 @@
         <v>110</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>38</v>
+        <v>331</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q8" s="3" t="s">
         <v>32</v>
       </c>
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
-      <c r="T8" s="6" t="s">
+      <c r="T8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="U8" s="6" t="s">
+      <c r="Z8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="V8" s="6" t="s">
+      <c r="AA8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6"/>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="6"/>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>117</v>
       </c>
@@ -2113,29 +2210,40 @@
         <v>111</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>38</v>
+        <v>331</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q9" s="3" t="s">
         <v>32</v>
       </c>
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
-      <c r="T9" s="6" t="s">
+      <c r="T9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="U9" s="6" t="s">
+      <c r="Z9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="V9" s="6" t="s">
+      <c r="AA9" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="W9" s="6"/>
-      <c r="X9" s="6"/>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB9" s="6"/>
+      <c r="AC9" s="6"/>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>117</v>
       </c>
@@ -2173,7 +2281,7 @@
         <v>112</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>38</v>
+        <v>331</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>16</v>
@@ -2183,19 +2291,30 @@
       </c>
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
-      <c r="T10" s="6" t="s">
+      <c r="T10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="U10" s="6" t="s">
+      <c r="Z10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="V10" s="6" t="s">
+      <c r="AA10" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="W10" s="6"/>
-      <c r="X10" s="6"/>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB10" s="6"/>
+      <c r="AC10" s="6"/>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>117</v>
       </c>
@@ -2233,7 +2352,7 @@
         <v>113</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>38</v>
+        <v>331</v>
       </c>
       <c r="P11" s="3" t="s">
         <v>26</v>
@@ -2243,19 +2362,30 @@
       </c>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-      <c r="T11" s="6" t="s">
+      <c r="T11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="V11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="U11" s="6" t="s">
+      <c r="Z11" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="V11" s="6" t="s">
+      <c r="AA11" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="W11" s="6"/>
-      <c r="X11" s="6"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AB11" s="6"/>
+      <c r="AC11" s="6"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -2275,23 +2405,28 @@
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
-      <c r="T12" s="6" t="s">
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="U12" s="6" t="s">
+      <c r="Z12" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="V12" s="6" t="s">
+      <c r="AA12" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="W12" s="6" t="s">
+      <c r="AB12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="X12" s="6" t="s">
+      <c r="AC12" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -2311,21 +2446,26 @@
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
-      <c r="T13" s="6" t="s">
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="6" t="s">
+      <c r="Z13" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="V13" s="6" t="s">
+      <c r="AA13" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="W13" s="6"/>
-      <c r="X13" s="6" t="s">
+      <c r="AB13" s="6"/>
+      <c r="AC13" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -2345,23 +2485,28 @@
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
-      <c r="T14" s="6" t="s">
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="6" t="s">
+      <c r="Z14" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="V14" s="6" t="s">
+      <c r="AA14" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="W14" s="6" t="s">
+      <c r="AB14" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="X14" s="6" t="s">
+      <c r="AC14" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -2381,21 +2526,26 @@
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
-      <c r="T15" s="6" t="s">
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="U15" s="6" t="s">
+      <c r="Z15" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="V15" s="6" t="s">
+      <c r="AA15" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="W15" s="6" t="s">
+      <c r="AB15" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="X15" s="6"/>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AC15" s="6"/>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -2405,13 +2555,13 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
-      <c r="J16" s="6" t="s">
+      <c r="J16" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="K16" s="6" t="s">
+      <c r="K16" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="L16" s="6" t="s">
+      <c r="L16" s="13" t="s">
         <v>102</v>
       </c>
       <c r="M16" s="6"/>
@@ -2421,13 +2571,18 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-      <c r="T16" s="6"/>
-      <c r="U16" s="6"/>
-      <c r="V16" s="6"/>
-      <c r="W16" s="6"/>
-      <c r="X16" s="6"/>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="6"/>
+      <c r="AA16" s="6"/>
+      <c r="AB16" s="6"/>
+      <c r="AC16" s="6"/>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -2437,13 +2592,13 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
-      <c r="J17" s="6" t="s">
+      <c r="J17" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="K17" s="6" t="s">
+      <c r="K17" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="L17" s="6" t="s">
+      <c r="L17" s="13" t="s">
         <v>61</v>
       </c>
       <c r="M17" s="6"/>
@@ -2453,13 +2608,18 @@
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
-      <c r="T17" s="6"/>
-      <c r="U17" s="6"/>
-      <c r="V17" s="6"/>
-      <c r="W17" s="6"/>
-      <c r="X17" s="6"/>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="6"/>
+      <c r="AA17" s="6"/>
+      <c r="AB17" s="6"/>
+      <c r="AC17" s="6"/>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -2469,13 +2629,13 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
-      <c r="J18" s="6" t="s">
+      <c r="J18" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="K18" s="6" t="s">
+      <c r="K18" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="L18" s="6" t="s">
+      <c r="L18" s="13" t="s">
         <v>61</v>
       </c>
       <c r="M18" s="6"/>
@@ -2485,13 +2645,18 @@
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
-      <c r="T18" s="6"/>
-      <c r="U18" s="6"/>
-      <c r="V18" s="6"/>
-      <c r="W18" s="6"/>
-      <c r="X18" s="6"/>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="6"/>
+      <c r="AA18" s="6"/>
+      <c r="AB18" s="6"/>
+      <c r="AC18" s="6"/>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -2501,13 +2666,13 @@
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
-      <c r="J19" s="6" t="s">
+      <c r="J19" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="K19" s="6" t="s">
+      <c r="K19" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="L19" s="6" t="s">
+      <c r="L19" s="13" t="s">
         <v>61</v>
       </c>
       <c r="M19" s="6"/>
@@ -2517,13 +2682,18 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-      <c r="T19" s="6"/>
-      <c r="U19" s="6"/>
-      <c r="V19" s="6"/>
-      <c r="W19" s="6"/>
-      <c r="X19" s="6"/>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="6"/>
+      <c r="AA19" s="6"/>
+      <c r="AB19" s="6"/>
+      <c r="AC19" s="6"/>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -2533,13 +2703,13 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
-      <c r="J20" s="6" t="s">
+      <c r="J20" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="K20" s="6" t="s">
+      <c r="K20" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="L20" s="6" t="s">
+      <c r="L20" s="13" t="s">
         <v>103</v>
       </c>
       <c r="M20" s="6"/>
@@ -2549,13 +2719,18 @@
       <c r="Q20" s="3"/>
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
-      <c r="T20" s="6"/>
-      <c r="U20" s="6"/>
-      <c r="V20" s="6"/>
-      <c r="W20" s="6"/>
-      <c r="X20" s="6"/>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="6"/>
+      <c r="Z20" s="6"/>
+      <c r="AA20" s="6"/>
+      <c r="AB20" s="6"/>
+      <c r="AC20" s="6"/>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -2565,13 +2740,13 @@
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
-      <c r="J21" s="6" t="s">
+      <c r="J21" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="K21" s="6" t="s">
+      <c r="K21" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="L21" s="6" t="s">
+      <c r="L21" s="13" t="s">
         <v>61</v>
       </c>
       <c r="M21" s="6"/>
@@ -2581,13 +2756,18 @@
       <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
-      <c r="T21" s="6"/>
-      <c r="U21" s="6"/>
-      <c r="V21" s="6"/>
-      <c r="W21" s="6"/>
-      <c r="X21" s="6"/>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="6"/>
+      <c r="Z21" s="6"/>
+      <c r="AA21" s="6"/>
+      <c r="AB21" s="6"/>
+      <c r="AC21" s="6"/>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -2597,13 +2777,13 @@
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
-      <c r="J22" s="6" t="s">
+      <c r="J22" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="K22" s="6" t="s">
+      <c r="K22" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="L22" s="6" t="s">
+      <c r="L22" s="13" t="s">
         <v>61</v>
       </c>
       <c r="M22" s="6"/>
@@ -2613,13 +2793,18 @@
       <c r="Q22" s="3"/>
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
-      <c r="T22" s="6"/>
-      <c r="U22" s="6"/>
-      <c r="V22" s="6"/>
-      <c r="W22" s="6"/>
-      <c r="X22" s="6"/>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="6"/>
+      <c r="Z22" s="6"/>
+      <c r="AA22" s="6"/>
+      <c r="AB22" s="6"/>
+      <c r="AC22" s="6"/>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -2629,13 +2814,13 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
-      <c r="J23" s="6" t="s">
+      <c r="J23" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="K23" s="6" t="s">
+      <c r="K23" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="L23" s="6" t="s">
+      <c r="L23" s="13" t="s">
         <v>61</v>
       </c>
       <c r="M23" s="6"/>
@@ -2645,13 +2830,18 @@
       <c r="Q23" s="3"/>
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
-      <c r="T23" s="6"/>
-      <c r="U23" s="6"/>
-      <c r="V23" s="6"/>
-      <c r="W23" s="6"/>
-      <c r="X23" s="6"/>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="6"/>
+      <c r="Z23" s="6"/>
+      <c r="AA23" s="6"/>
+      <c r="AB23" s="6"/>
+      <c r="AC23" s="6"/>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -2661,13 +2851,13 @@
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
-      <c r="J24" s="6" t="s">
+      <c r="J24" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="K24" s="6" t="s">
+      <c r="K24" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="L24" s="6" t="s">
+      <c r="L24" s="13" t="s">
         <v>33</v>
       </c>
       <c r="M24" s="6"/>
@@ -2677,13 +2867,18 @@
       <c r="Q24" s="3"/>
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
-      <c r="T24" s="6"/>
-      <c r="U24" s="6"/>
-      <c r="V24" s="6"/>
-      <c r="W24" s="6"/>
-      <c r="X24" s="6"/>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="6"/>
+      <c r="Z24" s="6"/>
+      <c r="AA24" s="6"/>
+      <c r="AB24" s="6"/>
+      <c r="AC24" s="6"/>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -2693,13 +2888,13 @@
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
-      <c r="J25" s="6" t="s">
+      <c r="J25" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="K25" s="6" t="s">
+      <c r="K25" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="L25" s="6" t="s">
+      <c r="L25" s="13" t="s">
         <v>61</v>
       </c>
       <c r="M25" s="6"/>
@@ -2709,13 +2904,18 @@
       <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
-      <c r="T25" s="6"/>
-      <c r="U25" s="6"/>
-      <c r="V25" s="6"/>
-      <c r="W25" s="6"/>
-      <c r="X25" s="6"/>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="6"/>
+      <c r="Z25" s="6"/>
+      <c r="AA25" s="6"/>
+      <c r="AB25" s="6"/>
+      <c r="AC25" s="6"/>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -2725,13 +2925,13 @@
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
-      <c r="J26" s="6" t="s">
+      <c r="J26" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="K26" s="6" t="s">
+      <c r="K26" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="L26" s="6" t="s">
+      <c r="L26" s="13" t="s">
         <v>61</v>
       </c>
       <c r="M26" s="6"/>
@@ -2741,13 +2941,18 @@
       <c r="Q26" s="3"/>
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
-      <c r="T26" s="6"/>
-      <c r="U26" s="6"/>
-      <c r="V26" s="6"/>
-      <c r="W26" s="6"/>
-      <c r="X26" s="6"/>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="6"/>
+      <c r="Z26" s="6"/>
+      <c r="AA26" s="6"/>
+      <c r="AB26" s="6"/>
+      <c r="AC26" s="6"/>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -2757,13 +2962,13 @@
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
-      <c r="J27" s="6" t="s">
+      <c r="J27" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="K27" s="6" t="s">
+      <c r="K27" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="L27" s="6" t="s">
+      <c r="L27" s="13" t="s">
         <v>61</v>
       </c>
       <c r="M27" s="6"/>
@@ -2773,13 +2978,18 @@
       <c r="Q27" s="3"/>
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
-      <c r="T27" s="6"/>
-      <c r="U27" s="6"/>
-      <c r="V27" s="6"/>
-      <c r="W27" s="6"/>
-      <c r="X27" s="6"/>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="6"/>
+      <c r="Z27" s="6"/>
+      <c r="AA27" s="6"/>
+      <c r="AB27" s="6"/>
+      <c r="AC27" s="6"/>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -2789,13 +2999,13 @@
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
-      <c r="J28" s="6" t="s">
+      <c r="J28" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="K28" s="6" t="s">
+      <c r="K28" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="L28" s="6" t="s">
+      <c r="L28" s="13" t="s">
         <v>33</v>
       </c>
       <c r="M28" s="6"/>
@@ -2805,13 +3015,18 @@
       <c r="Q28" s="3"/>
       <c r="R28" s="3"/>
       <c r="S28" s="3"/>
-      <c r="T28" s="6"/>
-      <c r="U28" s="6"/>
-      <c r="V28" s="6"/>
-      <c r="W28" s="6"/>
-      <c r="X28" s="6"/>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="6"/>
+      <c r="Z28" s="6"/>
+      <c r="AA28" s="6"/>
+      <c r="AB28" s="6"/>
+      <c r="AC28" s="6"/>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -2821,13 +3036,13 @@
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
-      <c r="J29" s="6" t="s">
+      <c r="J29" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="K29" s="6" t="s">
+      <c r="K29" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="L29" s="6" t="s">
+      <c r="L29" s="13" t="s">
         <v>61</v>
       </c>
       <c r="M29" s="6"/>
@@ -2837,13 +3052,18 @@
       <c r="Q29" s="3"/>
       <c r="R29" s="3"/>
       <c r="S29" s="3"/>
-      <c r="T29" s="6"/>
-      <c r="U29" s="6"/>
-      <c r="V29" s="6"/>
-      <c r="W29" s="6"/>
-      <c r="X29" s="6"/>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="6"/>
+      <c r="Z29" s="6"/>
+      <c r="AA29" s="6"/>
+      <c r="AB29" s="6"/>
+      <c r="AC29" s="6"/>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -2853,13 +3073,13 @@
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
-      <c r="J30" s="6" t="s">
+      <c r="J30" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="K30" s="6" t="s">
+      <c r="K30" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="L30" s="6" t="s">
+      <c r="L30" s="13" t="s">
         <v>61</v>
       </c>
       <c r="M30" s="6"/>
@@ -2869,13 +3089,18 @@
       <c r="Q30" s="3"/>
       <c r="R30" s="3"/>
       <c r="S30" s="3"/>
-      <c r="T30" s="6"/>
-      <c r="U30" s="6"/>
-      <c r="V30" s="6"/>
-      <c r="W30" s="6"/>
-      <c r="X30" s="6"/>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="6"/>
+      <c r="Z30" s="6"/>
+      <c r="AA30" s="6"/>
+      <c r="AB30" s="6"/>
+      <c r="AC30" s="6"/>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -2885,13 +3110,13 @@
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
-      <c r="J31" s="6" t="s">
+      <c r="J31" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="K31" s="6" t="s">
+      <c r="K31" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="L31" s="6" t="s">
+      <c r="L31" s="13" t="s">
         <v>61</v>
       </c>
       <c r="M31" s="6"/>
@@ -2901,13 +3126,18 @@
       <c r="Q31" s="3"/>
       <c r="R31" s="3"/>
       <c r="S31" s="3"/>
-      <c r="T31" s="6"/>
-      <c r="U31" s="6"/>
-      <c r="V31" s="6"/>
-      <c r="W31" s="6"/>
-      <c r="X31" s="6"/>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="6"/>
+      <c r="Z31" s="6"/>
+      <c r="AA31" s="6"/>
+      <c r="AB31" s="6"/>
+      <c r="AC31" s="6"/>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -2917,13 +3147,13 @@
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
-      <c r="J32" s="6" t="s">
+      <c r="J32" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="K32" s="6" t="s">
+      <c r="K32" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="L32" s="6" t="s">
+      <c r="L32" s="13" t="s">
         <v>104</v>
       </c>
       <c r="M32" s="6"/>
@@ -2933,13 +3163,18 @@
       <c r="Q32" s="3"/>
       <c r="R32" s="3"/>
       <c r="S32" s="3"/>
-      <c r="T32" s="6"/>
-      <c r="U32" s="6"/>
-      <c r="V32" s="6"/>
-      <c r="W32" s="6"/>
-      <c r="X32" s="6"/>
-    </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3"/>
+      <c r="W32" s="3"/>
+      <c r="X32" s="3"/>
+      <c r="Y32" s="6"/>
+      <c r="Z32" s="6"/>
+      <c r="AA32" s="6"/>
+      <c r="AB32" s="6"/>
+      <c r="AC32" s="6"/>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -2949,13 +3184,13 @@
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
-      <c r="J33" s="6" t="s">
+      <c r="J33" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="K33" s="6" t="s">
+      <c r="K33" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="L33" s="6" t="s">
+      <c r="L33" s="13" t="s">
         <v>61</v>
       </c>
       <c r="M33" s="6"/>
@@ -2965,13 +3200,18 @@
       <c r="Q33" s="3"/>
       <c r="R33" s="3"/>
       <c r="S33" s="3"/>
-      <c r="T33" s="6"/>
-      <c r="U33" s="6"/>
-      <c r="V33" s="6"/>
-      <c r="W33" s="6"/>
-      <c r="X33" s="6"/>
-    </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="6"/>
+      <c r="Z33" s="6"/>
+      <c r="AA33" s="6"/>
+      <c r="AB33" s="6"/>
+      <c r="AC33" s="6"/>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -2981,13 +3221,13 @@
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
-      <c r="J34" s="6" t="s">
+      <c r="J34" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="K34" s="6" t="s">
+      <c r="K34" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="L34" s="6" t="s">
+      <c r="L34" s="13" t="s">
         <v>61</v>
       </c>
       <c r="M34" s="6"/>
@@ -2997,13 +3237,18 @@
       <c r="Q34" s="3"/>
       <c r="R34" s="3"/>
       <c r="S34" s="3"/>
-      <c r="T34" s="6"/>
-      <c r="U34" s="6"/>
-      <c r="V34" s="6"/>
-      <c r="W34" s="6"/>
-      <c r="X34" s="6"/>
-    </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="6"/>
+      <c r="Z34" s="6"/>
+      <c r="AA34" s="6"/>
+      <c r="AB34" s="6"/>
+      <c r="AC34" s="6"/>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -3013,13 +3258,13 @@
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
-      <c r="J35" s="6" t="s">
+      <c r="J35" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="K35" s="6" t="s">
+      <c r="K35" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="L35" s="6" t="s">
+      <c r="L35" s="13" t="s">
         <v>61</v>
       </c>
       <c r="M35" s="6"/>
@@ -3029,13 +3274,18 @@
       <c r="Q35" s="3"/>
       <c r="R35" s="3"/>
       <c r="S35" s="3"/>
-      <c r="T35" s="6"/>
-      <c r="U35" s="6"/>
-      <c r="V35" s="6"/>
-      <c r="W35" s="6"/>
-      <c r="X35" s="6"/>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
+      <c r="V35" s="3"/>
+      <c r="W35" s="3"/>
+      <c r="X35" s="3"/>
+      <c r="Y35" s="6"/>
+      <c r="Z35" s="6"/>
+      <c r="AA35" s="6"/>
+      <c r="AB35" s="6"/>
+      <c r="AC35" s="6"/>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -3045,13 +3295,13 @@
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
-      <c r="J36" s="6" t="s">
+      <c r="J36" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="K36" s="6" t="s">
+      <c r="K36" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="L36" s="6" t="s">
+      <c r="L36" s="13" t="s">
         <v>104</v>
       </c>
       <c r="M36" s="6"/>
@@ -3061,13 +3311,18 @@
       <c r="Q36" s="3"/>
       <c r="R36" s="3"/>
       <c r="S36" s="3"/>
-      <c r="T36" s="6"/>
-      <c r="U36" s="6"/>
-      <c r="V36" s="6"/>
-      <c r="W36" s="6"/>
-      <c r="X36" s="6"/>
-    </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="3"/>
+      <c r="W36" s="3"/>
+      <c r="X36" s="3"/>
+      <c r="Y36" s="6"/>
+      <c r="Z36" s="6"/>
+      <c r="AA36" s="6"/>
+      <c r="AB36" s="6"/>
+      <c r="AC36" s="6"/>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -3077,13 +3332,13 @@
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
-      <c r="J37" s="6" t="s">
+      <c r="J37" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="K37" s="6" t="s">
+      <c r="K37" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="L37" s="6" t="s">
+      <c r="L37" s="13" t="s">
         <v>61</v>
       </c>
       <c r="M37" s="6"/>
@@ -3093,13 +3348,18 @@
       <c r="Q37" s="3"/>
       <c r="R37" s="3"/>
       <c r="S37" s="3"/>
-      <c r="T37" s="6"/>
-      <c r="U37" s="6"/>
-      <c r="V37" s="6"/>
-      <c r="W37" s="6"/>
-      <c r="X37" s="6"/>
-    </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="T37" s="3"/>
+      <c r="U37" s="3"/>
+      <c r="V37" s="3"/>
+      <c r="W37" s="3"/>
+      <c r="X37" s="3"/>
+      <c r="Y37" s="6"/>
+      <c r="Z37" s="6"/>
+      <c r="AA37" s="6"/>
+      <c r="AB37" s="6"/>
+      <c r="AC37" s="6"/>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
@@ -3109,13 +3369,13 @@
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
-      <c r="J38" s="6" t="s">
+      <c r="J38" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="K38" s="6" t="s">
+      <c r="K38" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="L38" s="6" t="s">
+      <c r="L38" s="13" t="s">
         <v>61</v>
       </c>
       <c r="M38" s="6"/>
@@ -3125,13 +3385,18 @@
       <c r="Q38" s="3"/>
       <c r="R38" s="3"/>
       <c r="S38" s="3"/>
-      <c r="T38" s="6"/>
-      <c r="U38" s="6"/>
-      <c r="V38" s="6"/>
-      <c r="W38" s="6"/>
-      <c r="X38" s="6"/>
-    </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="T38" s="3"/>
+      <c r="U38" s="3"/>
+      <c r="V38" s="3"/>
+      <c r="W38" s="3"/>
+      <c r="X38" s="3"/>
+      <c r="Y38" s="6"/>
+      <c r="Z38" s="6"/>
+      <c r="AA38" s="6"/>
+      <c r="AB38" s="6"/>
+      <c r="AC38" s="6"/>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
@@ -3141,13 +3406,13 @@
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
-      <c r="J39" s="6" t="s">
+      <c r="J39" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="K39" s="6" t="s">
+      <c r="K39" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="L39" s="6" t="s">
+      <c r="L39" s="13" t="s">
         <v>61</v>
       </c>
       <c r="M39" s="6"/>
@@ -3157,13 +3422,18 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-      <c r="T39" s="6"/>
-      <c r="U39" s="6"/>
-      <c r="V39" s="6"/>
-      <c r="W39" s="6"/>
-      <c r="X39" s="6"/>
-    </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+      <c r="Y39" s="6"/>
+      <c r="Z39" s="6"/>
+      <c r="AA39" s="6"/>
+      <c r="AB39" s="6"/>
+      <c r="AC39" s="6"/>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
@@ -3173,13 +3443,13 @@
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
-      <c r="J40" s="6" t="s">
+      <c r="J40" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="K40" s="6" t="s">
+      <c r="K40" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="L40" s="6" t="s">
+      <c r="L40" s="13" t="s">
         <v>105</v>
       </c>
       <c r="M40" s="6"/>
@@ -3189,13 +3459,18 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-      <c r="T40" s="6"/>
-      <c r="U40" s="6"/>
-      <c r="V40" s="6"/>
-      <c r="W40" s="6"/>
-      <c r="X40" s="6"/>
-    </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+      <c r="Y40" s="6"/>
+      <c r="Z40" s="6"/>
+      <c r="AA40" s="6"/>
+      <c r="AB40" s="6"/>
+      <c r="AC40" s="6"/>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
@@ -3205,13 +3480,13 @@
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
-      <c r="J41" s="6" t="s">
+      <c r="J41" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="K41" s="6" t="s">
+      <c r="K41" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="L41" s="6" t="s">
+      <c r="L41" s="13" t="s">
         <v>61</v>
       </c>
       <c r="M41" s="6"/>
@@ -3221,13 +3496,18 @@
       <c r="Q41" s="3"/>
       <c r="R41" s="3"/>
       <c r="S41" s="3"/>
-      <c r="T41" s="6"/>
-      <c r="U41" s="6"/>
-      <c r="V41" s="6"/>
-      <c r="W41" s="6"/>
-      <c r="X41" s="6"/>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="T41" s="3"/>
+      <c r="U41" s="3"/>
+      <c r="V41" s="3"/>
+      <c r="W41" s="3"/>
+      <c r="X41" s="3"/>
+      <c r="Y41" s="6"/>
+      <c r="Z41" s="6"/>
+      <c r="AA41" s="6"/>
+      <c r="AB41" s="6"/>
+      <c r="AC41" s="6"/>
+    </row>
+    <row r="42" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
@@ -3237,13 +3517,13 @@
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
-      <c r="J42" s="6" t="s">
+      <c r="J42" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="K42" s="6" t="s">
+      <c r="K42" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="L42" s="6" t="s">
+      <c r="L42" s="13" t="s">
         <v>61</v>
       </c>
       <c r="M42" s="6"/>
@@ -3253,13 +3533,18 @@
       <c r="Q42" s="3"/>
       <c r="R42" s="3"/>
       <c r="S42" s="3"/>
-      <c r="T42" s="6"/>
-      <c r="U42" s="6"/>
-      <c r="V42" s="6"/>
-      <c r="W42" s="6"/>
-      <c r="X42" s="6"/>
-    </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="T42" s="3"/>
+      <c r="U42" s="3"/>
+      <c r="V42" s="3"/>
+      <c r="W42" s="3"/>
+      <c r="X42" s="3"/>
+      <c r="Y42" s="6"/>
+      <c r="Z42" s="6"/>
+      <c r="AA42" s="6"/>
+      <c r="AB42" s="6"/>
+      <c r="AC42" s="6"/>
+    </row>
+    <row r="43" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
@@ -3269,13 +3554,13 @@
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
-      <c r="J43" s="6" t="s">
+      <c r="J43" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="K43" s="6" t="s">
+      <c r="K43" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="L43" s="6" t="s">
+      <c r="L43" s="13" t="s">
         <v>61</v>
       </c>
       <c r="M43" s="6"/>
@@ -3285,13 +3570,18 @@
       <c r="Q43" s="3"/>
       <c r="R43" s="3"/>
       <c r="S43" s="3"/>
-      <c r="T43" s="6"/>
-      <c r="U43" s="6"/>
-      <c r="V43" s="6"/>
-      <c r="W43" s="6"/>
-      <c r="X43" s="6"/>
-    </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="T43" s="3"/>
+      <c r="U43" s="3"/>
+      <c r="V43" s="3"/>
+      <c r="W43" s="3"/>
+      <c r="X43" s="3"/>
+      <c r="Y43" s="6"/>
+      <c r="Z43" s="6"/>
+      <c r="AA43" s="6"/>
+      <c r="AB43" s="6"/>
+      <c r="AC43" s="6"/>
+    </row>
+    <row r="44" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
@@ -3301,13 +3591,13 @@
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
-      <c r="J44" s="6" t="s">
+      <c r="J44" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="K44" s="6" t="s">
+      <c r="K44" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="L44" s="6" t="s">
+      <c r="L44" s="13" t="s">
         <v>105</v>
       </c>
       <c r="M44" s="6"/>
@@ -3317,13 +3607,18 @@
       <c r="Q44" s="3"/>
       <c r="R44" s="3"/>
       <c r="S44" s="3"/>
-      <c r="T44" s="6"/>
-      <c r="U44" s="6"/>
-      <c r="V44" s="6"/>
-      <c r="W44" s="6"/>
-      <c r="X44" s="6"/>
-    </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="T44" s="3"/>
+      <c r="U44" s="3"/>
+      <c r="V44" s="3"/>
+      <c r="W44" s="3"/>
+      <c r="X44" s="3"/>
+      <c r="Y44" s="6"/>
+      <c r="Z44" s="6"/>
+      <c r="AA44" s="6"/>
+      <c r="AB44" s="6"/>
+      <c r="AC44" s="6"/>
+    </row>
+    <row r="45" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
@@ -3333,13 +3628,13 @@
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
-      <c r="J45" s="6" t="s">
+      <c r="J45" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="K45" s="6" t="s">
+      <c r="K45" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="L45" s="6" t="s">
+      <c r="L45" s="13" t="s">
         <v>61</v>
       </c>
       <c r="M45" s="6"/>
@@ -3349,13 +3644,18 @@
       <c r="Q45" s="3"/>
       <c r="R45" s="3"/>
       <c r="S45" s="3"/>
-      <c r="T45" s="6"/>
-      <c r="U45" s="6"/>
-      <c r="V45" s="6"/>
-      <c r="W45" s="6"/>
-      <c r="X45" s="6"/>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="T45" s="3"/>
+      <c r="U45" s="3"/>
+      <c r="V45" s="3"/>
+      <c r="W45" s="3"/>
+      <c r="X45" s="3"/>
+      <c r="Y45" s="6"/>
+      <c r="Z45" s="6"/>
+      <c r="AA45" s="6"/>
+      <c r="AB45" s="6"/>
+      <c r="AC45" s="6"/>
+    </row>
+    <row r="46" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
@@ -3365,13 +3665,13 @@
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
-      <c r="J46" s="6" t="s">
+      <c r="J46" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="K46" s="6" t="s">
+      <c r="K46" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="L46" s="6" t="s">
+      <c r="L46" s="13" t="s">
         <v>61</v>
       </c>
       <c r="M46" s="6"/>
@@ -3381,13 +3681,18 @@
       <c r="Q46" s="3"/>
       <c r="R46" s="3"/>
       <c r="S46" s="3"/>
-      <c r="T46" s="6"/>
-      <c r="U46" s="6"/>
-      <c r="V46" s="6"/>
-      <c r="W46" s="6"/>
-      <c r="X46" s="6"/>
-    </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="T46" s="3"/>
+      <c r="U46" s="3"/>
+      <c r="V46" s="3"/>
+      <c r="W46" s="3"/>
+      <c r="X46" s="3"/>
+      <c r="Y46" s="6"/>
+      <c r="Z46" s="6"/>
+      <c r="AA46" s="6"/>
+      <c r="AB46" s="6"/>
+      <c r="AC46" s="6"/>
+    </row>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
@@ -3397,13 +3702,13 @@
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
-      <c r="J47" s="6" t="s">
+      <c r="J47" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="K47" s="6" t="s">
+      <c r="K47" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="L47" s="6" t="s">
+      <c r="L47" s="13" t="s">
         <v>61</v>
       </c>
       <c r="M47" s="6"/>
@@ -3413,13 +3718,18 @@
       <c r="Q47" s="3"/>
       <c r="R47" s="3"/>
       <c r="S47" s="3"/>
-      <c r="T47" s="6"/>
-      <c r="U47" s="6"/>
-      <c r="V47" s="6"/>
-      <c r="W47" s="6"/>
-      <c r="X47" s="6"/>
-    </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="T47" s="3"/>
+      <c r="U47" s="3"/>
+      <c r="V47" s="3"/>
+      <c r="W47" s="3"/>
+      <c r="X47" s="3"/>
+      <c r="Y47" s="6"/>
+      <c r="Z47" s="6"/>
+      <c r="AA47" s="6"/>
+      <c r="AB47" s="6"/>
+      <c r="AC47" s="6"/>
+    </row>
+    <row r="48" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
@@ -3429,13 +3739,13 @@
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
-      <c r="J48" s="6" t="s">
+      <c r="J48" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="K48" s="6" t="s">
+      <c r="K48" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="L48" s="6" t="s">
+      <c r="L48" s="13" t="s">
         <v>61</v>
       </c>
       <c r="M48" s="6"/>
@@ -3445,13 +3755,18 @@
       <c r="Q48" s="3"/>
       <c r="R48" s="3"/>
       <c r="S48" s="3"/>
-      <c r="T48" s="6"/>
-      <c r="U48" s="6"/>
-      <c r="V48" s="6"/>
-      <c r="W48" s="6"/>
-      <c r="X48" s="6"/>
-    </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="T48" s="3"/>
+      <c r="U48" s="3"/>
+      <c r="V48" s="3"/>
+      <c r="W48" s="3"/>
+      <c r="X48" s="3"/>
+      <c r="Y48" s="6"/>
+      <c r="Z48" s="6"/>
+      <c r="AA48" s="6"/>
+      <c r="AB48" s="6"/>
+      <c r="AC48" s="6"/>
+    </row>
+    <row r="49" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
@@ -3461,29 +3776,36 @@
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
-      <c r="J49" s="6"/>
-      <c r="K49" s="6"/>
-      <c r="L49" s="6"/>
+      <c r="J49" s="13"/>
+      <c r="K49" s="13"/>
+      <c r="L49" s="13"/>
       <c r="M49" s="6"/>
       <c r="N49" s="6"/>
       <c r="O49" s="3" t="s">
-        <v>38</v>
+        <v>331</v>
       </c>
       <c r="P49" s="3" t="s">
-        <v>40</v>
+        <v>283</v>
       </c>
       <c r="Q49" s="3" t="s">
-        <v>29</v>
+        <v>286</v>
       </c>
       <c r="R49" s="3"/>
-      <c r="S49" s="3"/>
-      <c r="T49" s="6"/>
-      <c r="U49" s="6"/>
-      <c r="V49" s="6"/>
-      <c r="W49" s="6"/>
-      <c r="X49" s="6"/>
-    </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="S49" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="T49" s="3"/>
+      <c r="U49" s="3"/>
+      <c r="V49" s="3"/>
+      <c r="W49" s="3"/>
+      <c r="X49" s="3"/>
+      <c r="Y49" s="6"/>
+      <c r="Z49" s="6"/>
+      <c r="AA49" s="6"/>
+      <c r="AB49" s="6"/>
+      <c r="AC49" s="6"/>
+    </row>
+    <row r="50" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
@@ -3493,29 +3815,36 @@
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
-      <c r="J50" s="6"/>
-      <c r="K50" s="6"/>
-      <c r="L50" s="6"/>
+      <c r="J50" s="13"/>
+      <c r="K50" s="13"/>
+      <c r="L50" s="13"/>
       <c r="M50" s="6"/>
       <c r="N50" s="6"/>
       <c r="O50" s="3" t="s">
-        <v>38</v>
+        <v>331</v>
       </c>
       <c r="P50" s="3" t="s">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="Q50" s="3" t="s">
-        <v>54</v>
+        <v>286</v>
       </c>
       <c r="R50" s="3"/>
-      <c r="S50" s="3"/>
-      <c r="T50" s="6"/>
-      <c r="U50" s="6"/>
-      <c r="V50" s="6"/>
-      <c r="W50" s="6"/>
-      <c r="X50" s="6"/>
-    </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="S50" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="T50" s="3"/>
+      <c r="U50" s="3"/>
+      <c r="V50" s="3"/>
+      <c r="W50" s="3"/>
+      <c r="X50" s="3"/>
+      <c r="Y50" s="6"/>
+      <c r="Z50" s="6"/>
+      <c r="AA50" s="6"/>
+      <c r="AB50" s="6"/>
+      <c r="AC50" s="6"/>
+    </row>
+    <row r="51" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
@@ -3525,29 +3854,36 @@
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
-      <c r="J51" s="6"/>
-      <c r="K51" s="6"/>
-      <c r="L51" s="6"/>
+      <c r="J51" s="13"/>
+      <c r="K51" s="13"/>
+      <c r="L51" s="13"/>
       <c r="M51" s="6"/>
       <c r="N51" s="6"/>
       <c r="O51" s="3" t="s">
-        <v>38</v>
+        <v>331</v>
       </c>
       <c r="P51" s="3" t="s">
-        <v>42</v>
+        <v>285</v>
       </c>
       <c r="Q51" s="3" t="s">
-        <v>31</v>
+        <v>287</v>
       </c>
       <c r="R51" s="3"/>
-      <c r="S51" s="3"/>
-      <c r="T51" s="6"/>
-      <c r="U51" s="6"/>
-      <c r="V51" s="6"/>
-      <c r="W51" s="6"/>
-      <c r="X51" s="6"/>
-    </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="S51" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="T51" s="3"/>
+      <c r="U51" s="3"/>
+      <c r="V51" s="3"/>
+      <c r="W51" s="3"/>
+      <c r="X51" s="3"/>
+      <c r="Y51" s="6"/>
+      <c r="Z51" s="6"/>
+      <c r="AA51" s="6"/>
+      <c r="AB51" s="6"/>
+      <c r="AC51" s="6"/>
+    </row>
+    <row r="52" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
@@ -3562,24 +3898,29 @@
       <c r="L52" s="6"/>
       <c r="M52" s="6"/>
       <c r="N52" s="6"/>
-      <c r="O52" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="P52" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q52" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="O52" s="3"/>
+      <c r="P52" s="3"/>
+      <c r="Q52" s="3"/>
       <c r="R52" s="3"/>
       <c r="S52" s="3"/>
-      <c r="T52" s="6"/>
-      <c r="U52" s="6"/>
-      <c r="V52" s="6"/>
-      <c r="W52" s="6"/>
-      <c r="X52" s="6"/>
-    </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="T52" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="U52" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="V52" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="W52" s="28"/>
+      <c r="X52" s="28"/>
+      <c r="Y52" s="6"/>
+      <c r="Z52" s="6"/>
+      <c r="AA52" s="6"/>
+      <c r="AB52" s="6"/>
+      <c r="AC52" s="6"/>
+    </row>
+    <row r="53" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
@@ -3594,24 +3935,29 @@
       <c r="L53" s="6"/>
       <c r="M53" s="6"/>
       <c r="N53" s="6"/>
-      <c r="O53" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="P53" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q53" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="O53" s="3"/>
+      <c r="P53" s="3"/>
+      <c r="Q53" s="3"/>
       <c r="R53" s="3"/>
       <c r="S53" s="3"/>
-      <c r="T53" s="6"/>
-      <c r="U53" s="6"/>
-      <c r="V53" s="6"/>
-      <c r="W53" s="6"/>
-      <c r="X53" s="6"/>
-    </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="T53" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="U53" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="V53" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="W53" s="28"/>
+      <c r="X53" s="28"/>
+      <c r="Y53" s="6"/>
+      <c r="Z53" s="6"/>
+      <c r="AA53" s="6"/>
+      <c r="AB53" s="6"/>
+      <c r="AC53" s="6"/>
+    </row>
+    <row r="54" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
@@ -3626,24 +3972,29 @@
       <c r="L54" s="6"/>
       <c r="M54" s="6"/>
       <c r="N54" s="6"/>
-      <c r="O54" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="P54" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q54" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="O54" s="3"/>
+      <c r="P54" s="3"/>
+      <c r="Q54" s="3"/>
       <c r="R54" s="3"/>
       <c r="S54" s="3"/>
-      <c r="T54" s="6"/>
-      <c r="U54" s="6"/>
-      <c r="V54" s="6"/>
-      <c r="W54" s="6"/>
-      <c r="X54" s="6"/>
-    </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="T54" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="U54" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="V54" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="W54" s="28"/>
+      <c r="X54" s="28"/>
+      <c r="Y54" s="6"/>
+      <c r="Z54" s="6"/>
+      <c r="AA54" s="6"/>
+      <c r="AB54" s="6"/>
+      <c r="AC54" s="6"/>
+    </row>
+    <row r="55" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
@@ -3658,24 +4009,29 @@
       <c r="L55" s="6"/>
       <c r="M55" s="6"/>
       <c r="N55" s="6"/>
-      <c r="O55" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="P55" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q55" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-      <c r="T55" s="6"/>
-      <c r="U55" s="6"/>
-      <c r="V55" s="6"/>
-      <c r="W55" s="6"/>
-      <c r="X55" s="6"/>
-    </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="T55" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="U55" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="V55" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="W55" s="28"/>
+      <c r="X55" s="28"/>
+      <c r="Y55" s="6"/>
+      <c r="Z55" s="6"/>
+      <c r="AA55" s="6"/>
+      <c r="AB55" s="6"/>
+      <c r="AC55" s="6"/>
+    </row>
+    <row r="56" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
@@ -3690,24 +4046,29 @@
       <c r="L56" s="6"/>
       <c r="M56" s="6"/>
       <c r="N56" s="6"/>
-      <c r="O56" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="P56" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q56" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-      <c r="T56" s="6"/>
-      <c r="U56" s="6"/>
-      <c r="V56" s="6"/>
-      <c r="W56" s="6"/>
-      <c r="X56" s="6"/>
-    </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="T56" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="U56" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="V56" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="W56" s="28"/>
+      <c r="X56" s="28"/>
+      <c r="Y56" s="6"/>
+      <c r="Z56" s="6"/>
+      <c r="AA56" s="6"/>
+      <c r="AB56" s="6"/>
+      <c r="AC56" s="6"/>
+    </row>
+    <row r="57" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
@@ -3722,24 +4083,29 @@
       <c r="L57" s="6"/>
       <c r="M57" s="6"/>
       <c r="N57" s="6"/>
-      <c r="O57" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="P57" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q57" s="3" t="s">
-        <v>55</v>
-      </c>
+      <c r="O57" s="3"/>
+      <c r="P57" s="3"/>
+      <c r="Q57" s="3"/>
       <c r="R57" s="3"/>
       <c r="S57" s="3"/>
-      <c r="T57" s="6"/>
-      <c r="U57" s="6"/>
-      <c r="V57" s="6"/>
-      <c r="W57" s="6"/>
-      <c r="X57" s="6"/>
-    </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="T57" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="U57" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="V57" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="W57" s="28"/>
+      <c r="X57" s="28"/>
+      <c r="Y57" s="6"/>
+      <c r="Z57" s="6"/>
+      <c r="AA57" s="6"/>
+      <c r="AB57" s="6"/>
+      <c r="AC57" s="6"/>
+    </row>
+    <row r="58" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
@@ -3754,24 +4120,29 @@
       <c r="L58" s="6"/>
       <c r="M58" s="6"/>
       <c r="N58" s="6"/>
-      <c r="O58" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q58" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="O58" s="3"/>
+      <c r="P58" s="3"/>
+      <c r="Q58" s="3"/>
       <c r="R58" s="3"/>
       <c r="S58" s="3"/>
-      <c r="T58" s="6"/>
-      <c r="U58" s="6"/>
-      <c r="V58" s="6"/>
-      <c r="W58" s="6"/>
-      <c r="X58" s="6"/>
-    </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="T58" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="U58" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="V58" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="W58" s="28"/>
+      <c r="X58" s="28"/>
+      <c r="Y58" s="6"/>
+      <c r="Z58" s="6"/>
+      <c r="AA58" s="6"/>
+      <c r="AB58" s="6"/>
+      <c r="AC58" s="6"/>
+    </row>
+    <row r="59" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
@@ -3786,26 +4157,29 @@
       <c r="L59" s="6"/>
       <c r="M59" s="6"/>
       <c r="N59" s="6"/>
-      <c r="O59" s="3" t="s">
+      <c r="O59" s="3"/>
+      <c r="P59" s="3"/>
+      <c r="Q59" s="3"/>
+      <c r="R59" s="3"/>
+      <c r="S59" s="3"/>
+      <c r="T59" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q59" s="3" t="s">
+      <c r="U59" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="V59" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="S59" s="3"/>
-      <c r="T59" s="6"/>
-      <c r="U59" s="6"/>
-      <c r="V59" s="6"/>
-      <c r="W59" s="6"/>
-      <c r="X59" s="6"/>
-    </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="W59" s="28"/>
+      <c r="X59" s="28"/>
+      <c r="Y59" s="6"/>
+      <c r="Z59" s="6"/>
+      <c r="AA59" s="6"/>
+      <c r="AB59" s="6"/>
+      <c r="AC59" s="6"/>
+    </row>
+    <row r="60" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
@@ -3820,24 +4194,29 @@
       <c r="L60" s="6"/>
       <c r="M60" s="6"/>
       <c r="N60" s="6"/>
-      <c r="O60" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="P60" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q60" s="3" t="s">
-        <v>55</v>
-      </c>
+      <c r="O60" s="3"/>
+      <c r="P60" s="3"/>
+      <c r="Q60" s="3"/>
       <c r="R60" s="3"/>
       <c r="S60" s="3"/>
-      <c r="T60" s="6"/>
-      <c r="U60" s="6"/>
-      <c r="V60" s="6"/>
-      <c r="W60" s="6"/>
-      <c r="X60" s="6"/>
-    </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="T60" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="U60" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="V60" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="W60" s="28"/>
+      <c r="X60" s="28"/>
+      <c r="Y60" s="6"/>
+      <c r="Z60" s="6"/>
+      <c r="AA60" s="6"/>
+      <c r="AB60" s="6"/>
+      <c r="AC60" s="6"/>
+    </row>
+    <row r="61" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
@@ -3852,24 +4231,29 @@
       <c r="L61" s="6"/>
       <c r="M61" s="6"/>
       <c r="N61" s="6"/>
-      <c r="O61" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="P61" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q61" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="O61" s="3"/>
+      <c r="P61" s="3"/>
+      <c r="Q61" s="3"/>
       <c r="R61" s="3"/>
       <c r="S61" s="3"/>
-      <c r="T61" s="6"/>
-      <c r="U61" s="6"/>
-      <c r="V61" s="6"/>
-      <c r="W61" s="6"/>
-      <c r="X61" s="6"/>
-    </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="T61" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="U61" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="V61" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="W61" s="28"/>
+      <c r="X61" s="28"/>
+      <c r="Y61" s="6"/>
+      <c r="Z61" s="6"/>
+      <c r="AA61" s="6"/>
+      <c r="AB61" s="6"/>
+      <c r="AC61" s="6"/>
+    </row>
+    <row r="62" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
@@ -3884,31 +4268,150 @@
       <c r="L62" s="6"/>
       <c r="M62" s="6"/>
       <c r="N62" s="6"/>
-      <c r="O62" s="3" t="s">
+      <c r="O62" s="3"/>
+      <c r="P62" s="3"/>
+      <c r="Q62" s="3"/>
+      <c r="R62" s="3"/>
+      <c r="S62" s="3"/>
+      <c r="T62" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="P62" s="3" t="s">
+      <c r="U62" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="V62" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="W62" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="X62" s="3"/>
+      <c r="Y62" s="6"/>
+      <c r="Z62" s="6"/>
+      <c r="AA62" s="6"/>
+      <c r="AB62" s="6"/>
+      <c r="AC62" s="6"/>
+    </row>
+    <row r="63" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A63" s="6"/>
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="6"/>
+      <c r="K63" s="6"/>
+      <c r="L63" s="6"/>
+      <c r="M63" s="6"/>
+      <c r="N63" s="6"/>
+      <c r="O63" s="3"/>
+      <c r="P63" s="3"/>
+      <c r="Q63" s="3"/>
+      <c r="R63" s="3"/>
+      <c r="S63" s="3"/>
+      <c r="T63" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="U63" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="V63" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="W63" s="28"/>
+      <c r="X63" s="28"/>
+      <c r="Y63" s="6"/>
+      <c r="Z63" s="6"/>
+      <c r="AA63" s="6"/>
+      <c r="AB63" s="6"/>
+      <c r="AC63" s="6"/>
+    </row>
+    <row r="64" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A64" s="6"/>
+      <c r="B64" s="6"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="3"/>
+      <c r="J64" s="6"/>
+      <c r="K64" s="6"/>
+      <c r="L64" s="6"/>
+      <c r="M64" s="6"/>
+      <c r="N64" s="6"/>
+      <c r="O64" s="3"/>
+      <c r="P64" s="3"/>
+      <c r="Q64" s="3"/>
+      <c r="R64" s="3"/>
+      <c r="S64" s="3"/>
+      <c r="T64" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="U64" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="V64" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="W64" s="28"/>
+      <c r="X64" s="28"/>
+      <c r="Y64" s="6"/>
+      <c r="Z64" s="6"/>
+      <c r="AA64" s="6"/>
+      <c r="AB64" s="6"/>
+      <c r="AC64" s="6"/>
+    </row>
+    <row r="65" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A65" s="6"/>
+      <c r="B65" s="6"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="3"/>
+      <c r="J65" s="6"/>
+      <c r="K65" s="6"/>
+      <c r="L65" s="6"/>
+      <c r="M65" s="6"/>
+      <c r="N65" s="6"/>
+      <c r="O65" s="3"/>
+      <c r="P65" s="3"/>
+      <c r="Q65" s="3"/>
+      <c r="R65" s="3"/>
+      <c r="S65" s="3"/>
+      <c r="T65" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="U65" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="Q62" s="3" t="s">
+      <c r="V65" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="R62" s="3" t="s">
+      <c r="W65" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="S62" s="3"/>
-      <c r="T62" s="6"/>
-      <c r="U62" s="6"/>
-      <c r="V62" s="6"/>
-      <c r="W62" s="6"/>
-      <c r="X62" s="6"/>
+      <c r="X65" s="3"/>
+      <c r="Y65" s="6"/>
+      <c r="Z65" s="6"/>
+      <c r="AA65" s="6"/>
+      <c r="AB65" s="6"/>
+      <c r="AC65" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="T1:X1"/>
+  <mergeCells count="6">
+    <mergeCell ref="Y1:AC1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:I1"/>
     <mergeCell ref="J1:N1"/>
+    <mergeCell ref="T1:X1"/>
     <mergeCell ref="O1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6145,9 +6648,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A737B06D-3CA5-4C46-8E57-2C9FAE17A6AF}">
   <dimension ref="A1:AC61"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:D1"/>
+      <selection pane="bottomLeft" activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8788,7 +9291,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A4499F-EBCA-4E9B-AE48-94E9136B2D31}">
   <dimension ref="A1:AC58"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="S1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="AB7" sqref="AB7"/>
     </sheetView>
@@ -11269,7 +11772,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE506E6D-FDB6-42A6-8384-1E788212D2E3}">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>

--- a/Docs/Source to target mapping.xlsx
+++ b/Docs/Source to target mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zinyk\source\repos\Northwind_BI_Solution\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C424971-0E45-4279-9678-6FDBF52881B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E45071-0A75-4307-84B7-D79610DD4092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="558" xr2:uid="{4088A55A-653F-450D-AAB8-4D657457B3B6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="558" activeTab="4" xr2:uid="{4088A55A-653F-450D-AAB8-4D657457B3B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Customer" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1551" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="336">
   <si>
     <t>Source</t>
   </si>
@@ -402,9 +402,6 @@
     <t>DateKey</t>
   </si>
   <si>
-    <t>AlterDateKey</t>
-  </si>
-  <si>
     <t>DayOfMonth</t>
   </si>
   <si>
@@ -960,15 +957,6 @@
     <t>exists in Integration.Lineage</t>
   </si>
   <si>
-    <t>YEAR ( OrderDate ) * 10000 + MONTH ( OrderDate ) * 100 + DAY ( OrderDate )</t>
-  </si>
-  <si>
-    <t>YEAR ( RequiredDate ) * 10000 + MONTH ( RequiredDate ) * 100 + DAY ( RequiredDate )</t>
-  </si>
-  <si>
-    <t>YEAR ( ShippedDate ) * 10000 + MONTH ( ShippedDate ) * 100 + DAY ( ShippedDate )</t>
-  </si>
-  <si>
     <t>JOIN OrderID in Order Details</t>
   </si>
   <si>
@@ -991,12 +979,6 @@
   </si>
   <si>
     <t>ISNULL -1 &amp; exists in Dimension.Employee</t>
-  </si>
-  <si>
-    <t>ISNULL 19951231 &amp; exists in Dimension.Date</t>
-  </si>
-  <si>
-    <t>ISNULL 19951231&amp; exists in Dimension.Date</t>
   </si>
   <si>
     <t>JOIN OrderID in Order Details &amp; UnitPrice * Discount</t>
@@ -1071,6 +1053,9 @@
     <t>IF DayType_Code = 1 THEN 0
 IF DayType_Code = 2 THEN 7
 IF DayType_Code = 3 THEN 8</t>
+  </si>
+  <si>
+    <t>ISNULL 1995-12-31 &amp; exists in Dimension.Date</t>
   </si>
 </sst>
 </file>
@@ -1278,44 +1263,17 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1333,6 +1291,33 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1653,7 +1638,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{438DCF2F-B5A9-4CE2-9803-6BD6F67BD7E5}">
   <dimension ref="A1:AC65"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="T1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="T1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="Y1" sqref="Y1:AC1"/>
     </sheetView>
@@ -1692,47 +1677,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="16" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="15" t="s">
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="16" t="s">
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="15" t="s">
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
-      <c r="X1" s="15"/>
-      <c r="Y1" s="17" t="s">
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="Z1" s="17"/>
-      <c r="AA1" s="17"/>
-      <c r="AB1" s="17"/>
-      <c r="AC1" s="17"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="26"/>
     </row>
     <row r="2" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
@@ -1900,7 +1885,7 @@
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
       <c r="O4" s="3" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="P4" s="3" t="s">
         <v>37</v>
@@ -1973,7 +1958,7 @@
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
       <c r="O5" s="3" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="P5" s="3" t="s">
         <v>13</v>
@@ -2048,7 +2033,7 @@
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="3" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="P6" s="3" t="s">
         <v>24</v>
@@ -2119,7 +2104,7 @@
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
       <c r="O7" s="3" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="P7" s="3" t="s">
         <v>25</v>
@@ -2190,7 +2175,7 @@
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
       <c r="O8" s="3" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>14</v>
@@ -2261,7 +2246,7 @@
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
       <c r="O9" s="3" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>15</v>
@@ -2332,7 +2317,7 @@
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
       <c r="O10" s="3" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>16</v>
@@ -2403,7 +2388,7 @@
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
       <c r="O11" s="3" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="P11" s="3" t="s">
         <v>26</v>
@@ -3835,17 +3820,17 @@
       <c r="M49" s="5"/>
       <c r="N49" s="5"/>
       <c r="O49" s="3" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="P49" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Q49" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="R49" s="3"/>
       <c r="S49" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="T49" s="5"/>
       <c r="U49" s="5"/>
@@ -3874,17 +3859,17 @@
       <c r="M50" s="5"/>
       <c r="N50" s="5"/>
       <c r="O50" s="3" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="P50" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="Q50" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="R50" s="3"/>
       <c r="S50" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="T50" s="5"/>
       <c r="U50" s="5"/>
@@ -3913,17 +3898,17 @@
       <c r="M51" s="5"/>
       <c r="N51" s="5"/>
       <c r="O51" s="3" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="P51" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Q51" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="R51" s="3"/>
       <c r="S51" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="T51" s="5"/>
       <c r="U51" s="5"/>
@@ -4474,2304 +4459,2304 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B97E252-2820-4653-A176-D819DD464AFE}">
-  <dimension ref="A1:AC71"/>
+  <dimension ref="A1:AC70"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="V1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y1" sqref="Y1:AC1"/>
+      <selection pane="bottomLeft" activeCell="Z11" sqref="Z11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.88671875" style="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.88671875" style="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" style="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.44140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.77734375" style="25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.21875" style="25" customWidth="1"/>
-    <col min="10" max="10" width="7.88671875" style="25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.5546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.21875" style="25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.77734375" style="25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="36.33203125" style="25" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.44140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.44140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.77734375" style="25" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="36.33203125" style="25" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.77734375" style="25" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="20.21875" style="25" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.33203125" style="25" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.77734375" style="25" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="25.88671875" style="25" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.5546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.21875" style="25" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.44140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="28.6640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="65.44140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="8.88671875" style="25"/>
+    <col min="1" max="1" width="11.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.88671875" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.88671875" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.77734375" style="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.21875" style="18" customWidth="1"/>
+    <col min="10" max="10" width="7.88671875" style="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.21875" style="18" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.77734375" style="18" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="36.33203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.44140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.44140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.77734375" style="18" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="36.33203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.77734375" style="18" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.21875" style="18" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.33203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.77734375" style="18" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="25.88671875" style="18" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.21875" style="18" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.44140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="28.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="65.44140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="8.88671875" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="23" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="22" t="s">
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="23" t="s">
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="22" t="s">
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="24" t="s">
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29"/>
+      <c r="X1" s="29"/>
+      <c r="Y1" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Z1" s="24"/>
-      <c r="AA1" s="24"/>
-      <c r="AB1" s="24"/>
-      <c r="AC1" s="24"/>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="31"/>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="H2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="I2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="J2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="26" t="s">
+      <c r="K2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="26" t="s">
+      <c r="L2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="26" t="s">
+      <c r="M2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="26" t="s">
+      <c r="N2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="27" t="s">
+      <c r="O2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="27" t="s">
+      <c r="P2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="27" t="s">
+      <c r="Q2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="R2" s="27" t="s">
+      <c r="R2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="S2" s="27" t="s">
+      <c r="S2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="T2" s="26" t="s">
+      <c r="T2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="U2" s="26" t="s">
+      <c r="U2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="V2" s="26" t="s">
+      <c r="V2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="W2" s="26" t="s">
+      <c r="W2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="X2" s="26" t="s">
+      <c r="X2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="Y2" s="28" t="s">
+      <c r="Y2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="Z2" s="28" t="s">
+      <c r="Z2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="AA2" s="28" t="s">
+      <c r="AA2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="AB2" s="28" t="s">
+      <c r="AB2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="AC2" s="28" t="s">
+      <c r="AC2" s="17" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="29"/>
-      <c r="U3" s="29"/>
-      <c r="V3" s="29"/>
-      <c r="W3" s="29"/>
-      <c r="X3" s="29"/>
-      <c r="Y3" s="31" t="s">
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="20"/>
+      <c r="W3" s="20"/>
+      <c r="X3" s="20"/>
+      <c r="Y3" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="Z3" s="31" t="s">
+      <c r="Z3" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="AA3" s="31" t="s">
+      <c r="AA3" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="AB3" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC3" s="22"/>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="20"/>
+      <c r="W4" s="20"/>
+      <c r="X4" s="20"/>
+      <c r="Y4" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z4" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA4" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="AB4" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC4" s="22"/>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="20"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="20"/>
+      <c r="W5" s="20"/>
+      <c r="X5" s="20"/>
+      <c r="Y5" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z5" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA5" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB5" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC5" s="22"/>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="20"/>
+      <c r="V6" s="20"/>
+      <c r="W6" s="20"/>
+      <c r="X6" s="20"/>
+      <c r="Y6" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z6" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA6" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="AB6" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC6" s="22"/>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="20"/>
+      <c r="V7" s="20"/>
+      <c r="W7" s="20"/>
+      <c r="X7" s="20"/>
+      <c r="Y7" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z7" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA7" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="AB7" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC7" s="22"/>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="20"/>
+      <c r="X8" s="20"/>
+      <c r="Y8" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z8" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA8" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="AB8" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC8" s="22"/>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="20"/>
+      <c r="W9" s="20"/>
+      <c r="X9" s="20"/>
+      <c r="Y9" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z9" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA9" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="AB9" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC9" s="22"/>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="20"/>
+      <c r="W10" s="20"/>
+      <c r="X10" s="20"/>
+      <c r="Y10" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z10" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA10" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="AB10" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC10" s="22"/>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="20"/>
+      <c r="V11" s="20"/>
+      <c r="W11" s="20"/>
+      <c r="X11" s="20"/>
+      <c r="Y11" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z11" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA11" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="AB11" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC11" s="22"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A12" s="20"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="20"/>
+      <c r="W12" s="20"/>
+      <c r="X12" s="20"/>
+      <c r="Y12" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z12" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="AA12" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB12" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC12" s="22"/>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A13" s="20"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="20"/>
+      <c r="W13" s="20"/>
+      <c r="X13" s="20"/>
+      <c r="Y13" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z13" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA13" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB13" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC13" s="22"/>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A14" s="20"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="20"/>
+      <c r="V14" s="20"/>
+      <c r="W14" s="20"/>
+      <c r="X14" s="20"/>
+      <c r="Y14" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z14" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA14" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="AB3" s="31" t="s">
+      <c r="AB14" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="AC3" s="31"/>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="30"/>
-      <c r="S4" s="30"/>
-      <c r="T4" s="29"/>
-      <c r="U4" s="29"/>
-      <c r="V4" s="29"/>
-      <c r="W4" s="29"/>
-      <c r="X4" s="29"/>
-      <c r="Y4" s="31" t="s">
+      <c r="AC14" s="22"/>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A15" s="20"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="20"/>
+      <c r="U15" s="20"/>
+      <c r="V15" s="20"/>
+      <c r="W15" s="20"/>
+      <c r="X15" s="20"/>
+      <c r="Y15" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="Z4" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="AA4" s="31" t="s">
+      <c r="Z15" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA15" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="AB15" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC15" s="22"/>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="20"/>
+      <c r="U16" s="20"/>
+      <c r="V16" s="20"/>
+      <c r="W16" s="20"/>
+      <c r="X16" s="20"/>
+      <c r="Y16" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z16" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA16" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="AB16" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC16" s="22"/>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A17" s="20"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
+      <c r="S17" s="21"/>
+      <c r="T17" s="20"/>
+      <c r="U17" s="20"/>
+      <c r="V17" s="20"/>
+      <c r="W17" s="20"/>
+      <c r="X17" s="20"/>
+      <c r="Y17" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z17" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="AA17" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB17" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC17" s="22"/>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A18" s="20"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="21"/>
+      <c r="R18" s="21"/>
+      <c r="S18" s="21"/>
+      <c r="T18" s="20"/>
+      <c r="U18" s="20"/>
+      <c r="V18" s="20"/>
+      <c r="W18" s="20"/>
+      <c r="X18" s="20"/>
+      <c r="Y18" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z18" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA18" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB18" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC18" s="22"/>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A19" s="20"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="21"/>
+      <c r="R19" s="21"/>
+      <c r="S19" s="21"/>
+      <c r="T19" s="20"/>
+      <c r="U19" s="20"/>
+      <c r="V19" s="20"/>
+      <c r="W19" s="20"/>
+      <c r="X19" s="20"/>
+      <c r="Y19" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z19" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA19" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="AB4" s="31" t="s">
+      <c r="AB19" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="AC4" s="31"/>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A5" s="29"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="30"/>
-      <c r="P5" s="30"/>
-      <c r="Q5" s="30"/>
-      <c r="R5" s="30"/>
-      <c r="S5" s="30"/>
-      <c r="T5" s="29"/>
-      <c r="U5" s="29"/>
-      <c r="V5" s="29"/>
-      <c r="W5" s="29"/>
-      <c r="X5" s="29"/>
-      <c r="Y5" s="31" t="s">
+      <c r="AC19" s="22"/>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A20" s="20"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="21"/>
+      <c r="R20" s="21"/>
+      <c r="S20" s="21"/>
+      <c r="T20" s="20"/>
+      <c r="U20" s="20"/>
+      <c r="V20" s="20"/>
+      <c r="W20" s="20"/>
+      <c r="X20" s="20"/>
+      <c r="Y20" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="Z5" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA5" s="31" t="s">
-        <v>148</v>
-      </c>
-      <c r="AB5" s="31" t="s">
+      <c r="Z20" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA20" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="AB20" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="AC5" s="31"/>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A6" s="29"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="30"/>
-      <c r="S6" s="30"/>
-      <c r="T6" s="29"/>
-      <c r="U6" s="29"/>
-      <c r="V6" s="29"/>
-      <c r="W6" s="29"/>
-      <c r="X6" s="29"/>
-      <c r="Y6" s="31" t="s">
+      <c r="AC20" s="22"/>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A21" s="20"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="21"/>
+      <c r="S21" s="21"/>
+      <c r="T21" s="20"/>
+      <c r="U21" s="20"/>
+      <c r="V21" s="20"/>
+      <c r="W21" s="20"/>
+      <c r="X21" s="20"/>
+      <c r="Y21" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="Z6" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="AA6" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB6" s="31" t="s">
+      <c r="Z21" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA21" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="AB21" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="AC6" s="31"/>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="30"/>
-      <c r="S7" s="30"/>
-      <c r="T7" s="29"/>
-      <c r="U7" s="29"/>
-      <c r="V7" s="29"/>
-      <c r="W7" s="29"/>
-      <c r="X7" s="29"/>
-      <c r="Y7" s="31" t="s">
+      <c r="AC21" s="22"/>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A22" s="20"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="21"/>
+      <c r="R22" s="21"/>
+      <c r="S22" s="21"/>
+      <c r="T22" s="20"/>
+      <c r="U22" s="20"/>
+      <c r="V22" s="20"/>
+      <c r="W22" s="20"/>
+      <c r="X22" s="20"/>
+      <c r="Y22" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="Z7" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="AA7" s="31" t="s">
-        <v>148</v>
-      </c>
-      <c r="AB7" s="31" t="s">
+      <c r="Z22" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="AA22" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="AB22" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="AC7" s="31"/>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="30"/>
-      <c r="R8" s="30"/>
-      <c r="S8" s="30"/>
-      <c r="T8" s="29"/>
-      <c r="U8" s="29"/>
-      <c r="V8" s="29"/>
-      <c r="W8" s="29"/>
-      <c r="X8" s="29"/>
-      <c r="Y8" s="31" t="s">
+      <c r="AC22" s="22"/>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A23" s="20"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="21"/>
+      <c r="R23" s="21"/>
+      <c r="S23" s="21"/>
+      <c r="T23" s="20"/>
+      <c r="U23" s="20"/>
+      <c r="V23" s="20"/>
+      <c r="W23" s="20"/>
+      <c r="X23" s="20"/>
+      <c r="Y23" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="Z8" s="31" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA8" s="31" t="s">
-        <v>148</v>
-      </c>
-      <c r="AB8" s="31" t="s">
+      <c r="Z23" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA23" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB23" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="AC8" s="31"/>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A9" s="29"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="30"/>
-      <c r="S9" s="30"/>
-      <c r="T9" s="29"/>
-      <c r="U9" s="29"/>
-      <c r="V9" s="29"/>
-      <c r="W9" s="29"/>
-      <c r="X9" s="29"/>
-      <c r="Y9" s="31" t="s">
+      <c r="AC23" s="22"/>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A24" s="20"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="21"/>
+      <c r="Q24" s="21"/>
+      <c r="R24" s="21"/>
+      <c r="S24" s="21"/>
+      <c r="T24" s="20"/>
+      <c r="U24" s="20"/>
+      <c r="V24" s="20"/>
+      <c r="W24" s="20"/>
+      <c r="X24" s="20"/>
+      <c r="Y24" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="Z9" s="31" t="s">
-        <v>125</v>
-      </c>
-      <c r="AA9" s="31" t="s">
-        <v>149</v>
-      </c>
-      <c r="AB9" s="31" t="s">
+      <c r="Z24" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="AA24" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="AB24" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="AC9" s="31"/>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="30"/>
-      <c r="R10" s="30"/>
-      <c r="S10" s="30"/>
-      <c r="T10" s="29"/>
-      <c r="U10" s="29"/>
-      <c r="V10" s="29"/>
-      <c r="W10" s="29"/>
-      <c r="X10" s="29"/>
-      <c r="Y10" s="31" t="s">
+      <c r="AC24" s="22"/>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A25" s="20"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="21"/>
+      <c r="R25" s="21"/>
+      <c r="S25" s="21"/>
+      <c r="T25" s="20"/>
+      <c r="U25" s="20"/>
+      <c r="V25" s="20"/>
+      <c r="W25" s="20"/>
+      <c r="X25" s="20"/>
+      <c r="Y25" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="Z10" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="AA10" s="31" t="s">
-        <v>149</v>
-      </c>
-      <c r="AB10" s="31" t="s">
+      <c r="Z25" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA25" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="AB25" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="AC10" s="31"/>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="30"/>
-      <c r="R11" s="30"/>
-      <c r="S11" s="30"/>
-      <c r="T11" s="29"/>
-      <c r="U11" s="29"/>
-      <c r="V11" s="29"/>
-      <c r="W11" s="29"/>
-      <c r="X11" s="29"/>
-      <c r="Y11" s="31" t="s">
+      <c r="AC25" s="22"/>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="20"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="21"/>
+      <c r="R26" s="21"/>
+      <c r="S26" s="21"/>
+      <c r="T26" s="20"/>
+      <c r="U26" s="20"/>
+      <c r="V26" s="20"/>
+      <c r="W26" s="20"/>
+      <c r="X26" s="20"/>
+      <c r="Y26" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="Z11" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="AA11" s="31" t="s">
+      <c r="Z26" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA26" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="AB26" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC26" s="22"/>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A27" s="20"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="20"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="21"/>
+      <c r="Q27" s="21"/>
+      <c r="R27" s="21"/>
+      <c r="S27" s="21"/>
+      <c r="T27" s="20"/>
+      <c r="U27" s="20"/>
+      <c r="V27" s="20"/>
+      <c r="W27" s="20"/>
+      <c r="X27" s="20"/>
+      <c r="Y27" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z27" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA27" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB27" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="AC27" s="22" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="20"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="20"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="21"/>
+      <c r="Q28" s="21"/>
+      <c r="R28" s="21"/>
+      <c r="S28" s="21"/>
+      <c r="T28" s="20"/>
+      <c r="U28" s="20"/>
+      <c r="V28" s="20"/>
+      <c r="W28" s="20"/>
+      <c r="X28" s="20"/>
+      <c r="Y28" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z28" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA28" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB28" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="AC28" s="23" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="20"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="20"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="21"/>
+      <c r="Q29" s="21"/>
+      <c r="R29" s="21"/>
+      <c r="S29" s="21"/>
+      <c r="T29" s="20"/>
+      <c r="U29" s="20"/>
+      <c r="V29" s="20"/>
+      <c r="W29" s="20"/>
+      <c r="X29" s="20"/>
+      <c r="Y29" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z29" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="AA29" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="AB11" s="31" t="s">
+      <c r="AB29" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="AC29" s="23" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A30" s="20" t="s">
+        <v>323</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>324</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="20"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="21"/>
+      <c r="Q30" s="21"/>
+      <c r="R30" s="21"/>
+      <c r="S30" s="21"/>
+      <c r="T30" s="20"/>
+      <c r="U30" s="20"/>
+      <c r="V30" s="20"/>
+      <c r="W30" s="20"/>
+      <c r="X30" s="20"/>
+      <c r="Y30" s="22"/>
+      <c r="Z30" s="22"/>
+      <c r="AA30" s="22"/>
+      <c r="AB30" s="22"/>
+      <c r="AC30" s="22"/>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A31" s="20" t="s">
+        <v>323</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="E31" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="F31" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="G31" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="K31" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="L31" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="M31" s="20"/>
+      <c r="N31" s="20"/>
+      <c r="O31" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="P31" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R31" s="21"/>
+      <c r="S31" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="T31" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="U31" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="V31" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="W31" s="20"/>
+      <c r="X31" s="20"/>
+      <c r="Y31" s="22"/>
+      <c r="Z31" s="22"/>
+      <c r="AA31" s="22"/>
+      <c r="AB31" s="22"/>
+      <c r="AC31" s="22"/>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A32" s="20" t="s">
+        <v>323</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="20"/>
+      <c r="N32" s="20"/>
+      <c r="O32" s="21"/>
+      <c r="P32" s="21"/>
+      <c r="Q32" s="21"/>
+      <c r="R32" s="21"/>
+      <c r="S32" s="21"/>
+      <c r="T32" s="20"/>
+      <c r="U32" s="20"/>
+      <c r="V32" s="20"/>
+      <c r="W32" s="20"/>
+      <c r="X32" s="20"/>
+      <c r="Y32" s="22"/>
+      <c r="Z32" s="22"/>
+      <c r="AA32" s="22"/>
+      <c r="AB32" s="22"/>
+      <c r="AC32" s="22"/>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A33" s="20" t="s">
+        <v>323</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="E33" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="F33" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="G33" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="H33" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="AC11" s="31"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A12" s="29"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="30"/>
-      <c r="S12" s="30"/>
-      <c r="T12" s="29"/>
-      <c r="U12" s="29"/>
-      <c r="V12" s="29"/>
-      <c r="W12" s="29"/>
-      <c r="X12" s="29"/>
-      <c r="Y12" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="Z12" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="AA12" s="31" t="s">
+      <c r="I33" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="J33" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="K33" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="L33" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="M33" s="20"/>
+      <c r="N33" s="20"/>
+      <c r="O33" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="P33" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R33" s="21"/>
+      <c r="S33" s="21" t="s">
+        <v>331</v>
+      </c>
+      <c r="T33" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="U33" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="V33" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="W33" s="20"/>
+      <c r="X33" s="20"/>
+      <c r="Y33" s="22"/>
+      <c r="Z33" s="22"/>
+      <c r="AA33" s="22"/>
+      <c r="AB33" s="22"/>
+      <c r="AC33" s="22"/>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A34" s="20" t="s">
+        <v>323</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="E34" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="F34" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="G34" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="AB12" s="31" t="s">
+      <c r="H34" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="AC12" s="31"/>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A13" s="29"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="30"/>
-      <c r="R13" s="30"/>
-      <c r="S13" s="30"/>
-      <c r="T13" s="29"/>
-      <c r="U13" s="29"/>
-      <c r="V13" s="29"/>
-      <c r="W13" s="29"/>
-      <c r="X13" s="29"/>
-      <c r="Y13" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="Z13" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA13" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB13" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC13" s="31"/>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A14" s="29"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="30"/>
-      <c r="R14" s="30"/>
-      <c r="S14" s="30"/>
-      <c r="T14" s="29"/>
-      <c r="U14" s="29"/>
-      <c r="V14" s="29"/>
-      <c r="W14" s="29"/>
-      <c r="X14" s="29"/>
-      <c r="Y14" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="Z14" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="AA14" s="31" t="s">
-        <v>150</v>
-      </c>
-      <c r="AB14" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC14" s="31"/>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="30"/>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="30"/>
-      <c r="R15" s="30"/>
-      <c r="S15" s="30"/>
-      <c r="T15" s="29"/>
-      <c r="U15" s="29"/>
-      <c r="V15" s="29"/>
-      <c r="W15" s="29"/>
-      <c r="X15" s="29"/>
-      <c r="Y15" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="Z15" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="AA15" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB15" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC15" s="31"/>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A16" s="29"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="30"/>
-      <c r="R16" s="30"/>
-      <c r="S16" s="30"/>
-      <c r="T16" s="29"/>
-      <c r="U16" s="29"/>
-      <c r="V16" s="29"/>
-      <c r="W16" s="29"/>
-      <c r="X16" s="29"/>
-      <c r="Y16" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="Z16" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="AA16" s="31" t="s">
+      <c r="I34" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="J34" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="K34" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="L34" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="AB16" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC16" s="31"/>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A17" s="29"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="30"/>
-      <c r="R17" s="30"/>
-      <c r="S17" s="30"/>
-      <c r="T17" s="29"/>
-      <c r="U17" s="29"/>
-      <c r="V17" s="29"/>
-      <c r="W17" s="29"/>
-      <c r="X17" s="29"/>
-      <c r="Y17" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="Z17" s="31" t="s">
-        <v>133</v>
-      </c>
-      <c r="AA17" s="31" t="s">
-        <v>147</v>
-      </c>
-      <c r="AB17" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC17" s="31"/>
-    </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A18" s="29"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="30"/>
-      <c r="R18" s="30"/>
-      <c r="S18" s="30"/>
-      <c r="T18" s="29"/>
-      <c r="U18" s="29"/>
-      <c r="V18" s="29"/>
-      <c r="W18" s="29"/>
-      <c r="X18" s="29"/>
-      <c r="Y18" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="Z18" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="AA18" s="31" t="s">
-        <v>150</v>
-      </c>
-      <c r="AB18" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC18" s="31"/>
-    </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A19" s="29"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="30"/>
-      <c r="R19" s="30"/>
-      <c r="S19" s="30"/>
-      <c r="T19" s="29"/>
-      <c r="U19" s="29"/>
-      <c r="V19" s="29"/>
-      <c r="W19" s="29"/>
-      <c r="X19" s="29"/>
-      <c r="Y19" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="Z19" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="AA19" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB19" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC19" s="31"/>
-    </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A20" s="29"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="30"/>
-      <c r="R20" s="30"/>
-      <c r="S20" s="30"/>
-      <c r="T20" s="29"/>
-      <c r="U20" s="29"/>
-      <c r="V20" s="29"/>
-      <c r="W20" s="29"/>
-      <c r="X20" s="29"/>
-      <c r="Y20" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="Z20" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="AA20" s="31" t="s">
-        <v>148</v>
-      </c>
-      <c r="AB20" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC20" s="31"/>
-    </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A21" s="29"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="30"/>
-      <c r="P21" s="30"/>
-      <c r="Q21" s="30"/>
-      <c r="R21" s="30"/>
-      <c r="S21" s="30"/>
-      <c r="T21" s="29"/>
-      <c r="U21" s="29"/>
-      <c r="V21" s="29"/>
-      <c r="W21" s="29"/>
-      <c r="X21" s="29"/>
-      <c r="Y21" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="Z21" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="AA21" s="31" t="s">
-        <v>150</v>
-      </c>
-      <c r="AB21" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC21" s="31"/>
-    </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A22" s="29"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="30"/>
-      <c r="P22" s="30"/>
-      <c r="Q22" s="30"/>
-      <c r="R22" s="30"/>
-      <c r="S22" s="30"/>
-      <c r="T22" s="29"/>
-      <c r="U22" s="29"/>
-      <c r="V22" s="29"/>
-      <c r="W22" s="29"/>
-      <c r="X22" s="29"/>
-      <c r="Y22" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="Z22" s="31" t="s">
-        <v>138</v>
-      </c>
-      <c r="AA22" s="31" t="s">
-        <v>147</v>
-      </c>
-      <c r="AB22" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC22" s="31"/>
-    </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="30"/>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="30"/>
-      <c r="R23" s="30"/>
-      <c r="S23" s="30"/>
-      <c r="T23" s="29"/>
-      <c r="U23" s="29"/>
-      <c r="V23" s="29"/>
-      <c r="W23" s="29"/>
-      <c r="X23" s="29"/>
-      <c r="Y23" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="Z23" s="31" t="s">
-        <v>139</v>
-      </c>
-      <c r="AA23" s="31" t="s">
-        <v>147</v>
-      </c>
-      <c r="AB23" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC23" s="31"/>
-    </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A24" s="29"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="30"/>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="30"/>
-      <c r="R24" s="30"/>
-      <c r="S24" s="30"/>
-      <c r="T24" s="29"/>
-      <c r="U24" s="29"/>
-      <c r="V24" s="29"/>
-      <c r="W24" s="29"/>
-      <c r="X24" s="29"/>
-      <c r="Y24" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="Z24" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="AA24" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB24" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC24" s="31"/>
-    </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A25" s="29"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29"/>
-      <c r="N25" s="29"/>
-      <c r="O25" s="30"/>
-      <c r="P25" s="30"/>
-      <c r="Q25" s="30"/>
-      <c r="R25" s="30"/>
-      <c r="S25" s="30"/>
-      <c r="T25" s="29"/>
-      <c r="U25" s="29"/>
-      <c r="V25" s="29"/>
-      <c r="W25" s="29"/>
-      <c r="X25" s="29"/>
-      <c r="Y25" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="Z25" s="31" t="s">
-        <v>141</v>
-      </c>
-      <c r="AA25" s="31" t="s">
-        <v>148</v>
-      </c>
-      <c r="AB25" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC25" s="31"/>
-    </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A26" s="29"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="30"/>
-      <c r="P26" s="30"/>
-      <c r="Q26" s="30"/>
-      <c r="R26" s="30"/>
-      <c r="S26" s="30"/>
-      <c r="T26" s="29"/>
-      <c r="U26" s="29"/>
-      <c r="V26" s="29"/>
-      <c r="W26" s="29"/>
-      <c r="X26" s="29"/>
-      <c r="Y26" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="Z26" s="31" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA26" s="31" t="s">
-        <v>147</v>
-      </c>
-      <c r="AB26" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC26" s="31"/>
-    </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A27" s="29"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="29"/>
-      <c r="O27" s="30"/>
-      <c r="P27" s="30"/>
-      <c r="Q27" s="30"/>
-      <c r="R27" s="30"/>
-      <c r="S27" s="30"/>
-      <c r="T27" s="29"/>
-      <c r="U27" s="29"/>
-      <c r="V27" s="29"/>
-      <c r="W27" s="29"/>
-      <c r="X27" s="29"/>
-      <c r="Y27" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="Z27" s="31" t="s">
-        <v>143</v>
-      </c>
-      <c r="AA27" s="31" t="s">
-        <v>147</v>
-      </c>
-      <c r="AB27" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC27" s="31"/>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A28" s="29"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29"/>
-      <c r="N28" s="29"/>
-      <c r="O28" s="30"/>
-      <c r="P28" s="30"/>
-      <c r="Q28" s="30"/>
-      <c r="R28" s="30"/>
-      <c r="S28" s="30"/>
-      <c r="T28" s="29"/>
-      <c r="U28" s="29"/>
-      <c r="V28" s="29"/>
-      <c r="W28" s="29"/>
-      <c r="X28" s="29"/>
-      <c r="Y28" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="Z28" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="AA28" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB28" s="31" t="s">
-        <v>154</v>
-      </c>
-      <c r="AC28" s="31" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="29" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="29"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
-      <c r="O29" s="30"/>
-      <c r="P29" s="30"/>
-      <c r="Q29" s="30"/>
-      <c r="R29" s="30"/>
-      <c r="S29" s="30"/>
-      <c r="T29" s="29"/>
-      <c r="U29" s="29"/>
-      <c r="V29" s="29"/>
-      <c r="W29" s="29"/>
-      <c r="X29" s="29"/>
-      <c r="Y29" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="Z29" s="31" t="s">
-        <v>145</v>
-      </c>
-      <c r="AA29" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB29" s="31" t="s">
-        <v>154</v>
-      </c>
-      <c r="AC29" s="32" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="30" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="29"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="29"/>
-      <c r="N30" s="29"/>
-      <c r="O30" s="30"/>
-      <c r="P30" s="30"/>
-      <c r="Q30" s="30"/>
-      <c r="R30" s="30"/>
-      <c r="S30" s="30"/>
-      <c r="T30" s="29"/>
-      <c r="U30" s="29"/>
-      <c r="V30" s="29"/>
-      <c r="W30" s="29"/>
-      <c r="X30" s="29"/>
-      <c r="Y30" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="Z30" s="31" t="s">
-        <v>146</v>
-      </c>
-      <c r="AA30" s="31" t="s">
-        <v>148</v>
-      </c>
-      <c r="AB30" s="31" t="s">
-        <v>154</v>
-      </c>
-      <c r="AC30" s="32" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A31" s="29" t="s">
-        <v>329</v>
-      </c>
-      <c r="B31" s="29" t="s">
-        <v>176</v>
-      </c>
-      <c r="C31" s="29" t="s">
-        <v>330</v>
-      </c>
-      <c r="D31" s="29" t="s">
-        <v>177</v>
-      </c>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="30" t="s">
-        <v>335</v>
-      </c>
-      <c r="J31" s="29"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="29"/>
-      <c r="N31" s="29"/>
-      <c r="O31" s="30"/>
-      <c r="P31" s="30"/>
-      <c r="Q31" s="30"/>
-      <c r="R31" s="30"/>
-      <c r="S31" s="30"/>
-      <c r="T31" s="29"/>
-      <c r="U31" s="29"/>
-      <c r="V31" s="29"/>
-      <c r="W31" s="29"/>
-      <c r="X31" s="29"/>
-      <c r="Y31" s="31"/>
-      <c r="Z31" s="31"/>
-      <c r="AA31" s="31"/>
-      <c r="AB31" s="31"/>
-      <c r="AC31" s="31"/>
-    </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A32" s="29" t="s">
-        <v>329</v>
-      </c>
-      <c r="B32" s="29" t="s">
-        <v>176</v>
-      </c>
-      <c r="C32" s="29" t="s">
-        <v>179</v>
-      </c>
-      <c r="D32" s="29" t="s">
-        <v>177</v>
-      </c>
-      <c r="E32" s="30" t="s">
-        <v>155</v>
-      </c>
-      <c r="F32" s="30" t="s">
+      <c r="M34" s="20"/>
+      <c r="N34" s="20"/>
+      <c r="O34" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="P34" s="21" t="s">
         <v>174</v>
-      </c>
-      <c r="G32" s="30" t="s">
-        <v>171</v>
-      </c>
-      <c r="H32" s="30"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="K32" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="L32" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="M32" s="29"/>
-      <c r="N32" s="29"/>
-      <c r="O32" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="P32" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q32" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="R32" s="30"/>
-      <c r="S32" s="30" t="s">
-        <v>173</v>
-      </c>
-      <c r="T32" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="U32" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="V32" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="W32" s="29"/>
-      <c r="X32" s="29"/>
-      <c r="Y32" s="31"/>
-      <c r="Z32" s="31"/>
-      <c r="AA32" s="31"/>
-      <c r="AB32" s="31"/>
-      <c r="AC32" s="31"/>
-    </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A33" s="29" t="s">
-        <v>329</v>
-      </c>
-      <c r="B33" s="29" t="s">
-        <v>176</v>
-      </c>
-      <c r="C33" s="29" t="s">
-        <v>331</v>
-      </c>
-      <c r="D33" s="29" t="s">
-        <v>177</v>
-      </c>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="29"/>
-      <c r="K33" s="29"/>
-      <c r="L33" s="29"/>
-      <c r="M33" s="29"/>
-      <c r="N33" s="29"/>
-      <c r="O33" s="30"/>
-      <c r="P33" s="30"/>
-      <c r="Q33" s="30"/>
-      <c r="R33" s="30"/>
-      <c r="S33" s="30"/>
-      <c r="T33" s="29"/>
-      <c r="U33" s="29"/>
-      <c r="V33" s="29"/>
-      <c r="W33" s="29"/>
-      <c r="X33" s="29"/>
-      <c r="Y33" s="31"/>
-      <c r="Z33" s="31"/>
-      <c r="AA33" s="31"/>
-      <c r="AB33" s="31"/>
-      <c r="AC33" s="31"/>
-    </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A34" s="29" t="s">
-        <v>329</v>
-      </c>
-      <c r="B34" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="C34" s="29" t="s">
-        <v>181</v>
-      </c>
-      <c r="D34" s="29" t="s">
-        <v>177</v>
-      </c>
-      <c r="E34" s="30" t="s">
-        <v>155</v>
-      </c>
-      <c r="F34" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="G34" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="H34" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="I34" s="30" t="s">
-        <v>183</v>
-      </c>
-      <c r="J34" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="K34" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="L34" s="29" t="s">
-        <v>147</v>
-      </c>
-      <c r="M34" s="29"/>
-      <c r="N34" s="29"/>
-      <c r="O34" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="P34" s="30" t="s">
-        <v>37</v>
       </c>
       <c r="Q34" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="R34" s="30"/>
-      <c r="S34" s="30" t="s">
-        <v>337</v>
-      </c>
-      <c r="T34" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="U34" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="V34" s="29" t="s">
+      <c r="R34" s="21"/>
+      <c r="S34" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="T34" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="U34" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="V34" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="W34" s="29"/>
-      <c r="X34" s="29"/>
-      <c r="Y34" s="31"/>
-      <c r="Z34" s="31"/>
-      <c r="AA34" s="31"/>
-      <c r="AB34" s="31"/>
-      <c r="AC34" s="31"/>
+      <c r="W34" s="20"/>
+      <c r="X34" s="20"/>
+      <c r="Y34" s="22"/>
+      <c r="Z34" s="22"/>
+      <c r="AA34" s="22"/>
+      <c r="AB34" s="22"/>
+      <c r="AC34" s="22"/>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A35" s="29" t="s">
-        <v>329</v>
-      </c>
-      <c r="B35" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="C35" s="29" t="s">
-        <v>180</v>
-      </c>
-      <c r="D35" s="29" t="s">
+      <c r="A35" s="20"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="20"/>
+      <c r="N35" s="20"/>
+      <c r="O35" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="P35" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q35" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="R35" s="21"/>
+      <c r="S35" s="21" t="s">
+        <v>332</v>
+      </c>
+      <c r="T35" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="U35" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="V35" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="W35" s="20"/>
+      <c r="X35" s="20"/>
+      <c r="Y35" s="22"/>
+      <c r="Z35" s="22"/>
+      <c r="AA35" s="22"/>
+      <c r="AB35" s="22"/>
+      <c r="AC35" s="22"/>
+    </row>
+    <row r="36" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A36" s="20"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="20"/>
+      <c r="L36" s="20"/>
+      <c r="M36" s="20"/>
+      <c r="N36" s="20"/>
+      <c r="O36" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="P36" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q36" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="R36" s="21"/>
+      <c r="S36" s="21"/>
+      <c r="T36" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="U36" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="V36" s="20" t="s">
+        <v>333</v>
+      </c>
+      <c r="W36" s="20"/>
+      <c r="X36" s="25" t="s">
+        <v>334</v>
+      </c>
+      <c r="Y36" s="22"/>
+      <c r="Z36" s="22"/>
+      <c r="AA36" s="22"/>
+      <c r="AB36" s="22"/>
+      <c r="AC36" s="22"/>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A37" s="20" t="s">
+        <v>323</v>
+      </c>
+      <c r="B37" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="E35" s="30" t="s">
+      <c r="C37" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="D37" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21" t="s">
+        <v>330</v>
+      </c>
+      <c r="J37" s="20"/>
+      <c r="K37" s="20"/>
+      <c r="L37" s="20"/>
+      <c r="M37" s="20"/>
+      <c r="N37" s="20"/>
+      <c r="O37" s="21"/>
+      <c r="P37" s="21"/>
+      <c r="Q37" s="21"/>
+      <c r="R37" s="21"/>
+      <c r="S37" s="21"/>
+      <c r="T37" s="20"/>
+      <c r="U37" s="20"/>
+      <c r="V37" s="20"/>
+      <c r="W37" s="20"/>
+      <c r="X37" s="20"/>
+      <c r="Y37" s="22"/>
+      <c r="Z37" s="22"/>
+      <c r="AA37" s="22"/>
+      <c r="AB37" s="22"/>
+      <c r="AC37" s="22"/>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A38" s="20" t="s">
+        <v>323</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>327</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="20"/>
+      <c r="N38" s="20"/>
+      <c r="O38" s="24"/>
+      <c r="P38" s="21"/>
+      <c r="Q38" s="21"/>
+      <c r="R38" s="21"/>
+      <c r="S38" s="21"/>
+      <c r="T38" s="20"/>
+      <c r="U38" s="20"/>
+      <c r="V38" s="20"/>
+      <c r="W38" s="20"/>
+      <c r="X38" s="20"/>
+      <c r="Y38" s="22"/>
+      <c r="Z38" s="22"/>
+      <c r="AA38" s="22"/>
+      <c r="AB38" s="22"/>
+      <c r="AC38" s="22"/>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A39" s="20" t="s">
+        <v>323</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>328</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="20"/>
+      <c r="M39" s="20"/>
+      <c r="N39" s="20"/>
+      <c r="O39" s="21"/>
+      <c r="P39" s="21"/>
+      <c r="Q39" s="21"/>
+      <c r="R39" s="21"/>
+      <c r="S39" s="21"/>
+      <c r="T39" s="20"/>
+      <c r="U39" s="20"/>
+      <c r="V39" s="20"/>
+      <c r="W39" s="20"/>
+      <c r="X39" s="20"/>
+      <c r="Y39" s="22"/>
+      <c r="Z39" s="22"/>
+      <c r="AA39" s="22"/>
+      <c r="AB39" s="22"/>
+      <c r="AC39" s="22"/>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A40" s="20"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="K40" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="F35" s="30" t="s">
-        <v>175</v>
-      </c>
-      <c r="G35" s="30" t="s">
-        <v>148</v>
-      </c>
-      <c r="H35" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="I35" s="30" t="s">
-        <v>182</v>
-      </c>
-      <c r="J35" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="K35" s="29" t="s">
+      <c r="L40" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="M40" s="20"/>
+      <c r="N40" s="20"/>
+      <c r="O40" s="21"/>
+      <c r="P40" s="21"/>
+      <c r="Q40" s="21"/>
+      <c r="R40" s="21"/>
+      <c r="S40" s="21"/>
+      <c r="T40" s="20"/>
+      <c r="U40" s="20"/>
+      <c r="V40" s="20"/>
+      <c r="W40" s="20"/>
+      <c r="X40" s="20"/>
+      <c r="Y40" s="22"/>
+      <c r="Z40" s="22"/>
+      <c r="AA40" s="22"/>
+      <c r="AB40" s="22"/>
+      <c r="AC40" s="22"/>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A41" s="20"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="K41" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="L41" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="M41" s="20"/>
+      <c r="N41" s="20"/>
+      <c r="O41" s="21"/>
+      <c r="P41" s="21"/>
+      <c r="Q41" s="21"/>
+      <c r="R41" s="21"/>
+      <c r="S41" s="21"/>
+      <c r="T41" s="20"/>
+      <c r="U41" s="20"/>
+      <c r="V41" s="20"/>
+      <c r="W41" s="20"/>
+      <c r="X41" s="20"/>
+      <c r="Y41" s="22"/>
+      <c r="Z41" s="22"/>
+      <c r="AA41" s="22"/>
+      <c r="AB41" s="22"/>
+      <c r="AC41" s="22"/>
+    </row>
+    <row r="42" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A42" s="20"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="21"/>
+      <c r="J42" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="K42" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="L42" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="M42" s="20"/>
+      <c r="N42" s="20"/>
+      <c r="O42" s="21"/>
+      <c r="P42" s="21"/>
+      <c r="Q42" s="21"/>
+      <c r="R42" s="21"/>
+      <c r="S42" s="21"/>
+      <c r="T42" s="20"/>
+      <c r="U42" s="20"/>
+      <c r="V42" s="20"/>
+      <c r="W42" s="20"/>
+      <c r="X42" s="20"/>
+      <c r="Y42" s="22"/>
+      <c r="Z42" s="22"/>
+      <c r="AA42" s="22"/>
+      <c r="AB42" s="22"/>
+      <c r="AC42" s="22"/>
+    </row>
+    <row r="43" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A43" s="20"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="K43" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="L43" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="M43" s="20"/>
+      <c r="N43" s="20"/>
+      <c r="O43" s="21"/>
+      <c r="P43" s="21"/>
+      <c r="Q43" s="21"/>
+      <c r="R43" s="21"/>
+      <c r="S43" s="21"/>
+      <c r="T43" s="20"/>
+      <c r="U43" s="20"/>
+      <c r="V43" s="20"/>
+      <c r="W43" s="20"/>
+      <c r="X43" s="20"/>
+      <c r="Y43" s="22"/>
+      <c r="Z43" s="22"/>
+      <c r="AA43" s="22"/>
+      <c r="AB43" s="22"/>
+      <c r="AC43" s="22"/>
+    </row>
+    <row r="44" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A44" s="20"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="21"/>
+      <c r="J44" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="K44" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="L44" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="M44" s="20"/>
+      <c r="N44" s="20"/>
+      <c r="O44" s="21"/>
+      <c r="P44" s="21"/>
+      <c r="Q44" s="21"/>
+      <c r="R44" s="21"/>
+      <c r="S44" s="21"/>
+      <c r="T44" s="20"/>
+      <c r="U44" s="20"/>
+      <c r="V44" s="20"/>
+      <c r="W44" s="20"/>
+      <c r="X44" s="20"/>
+      <c r="Y44" s="22"/>
+      <c r="Z44" s="22"/>
+      <c r="AA44" s="22"/>
+      <c r="AB44" s="22"/>
+      <c r="AC44" s="22"/>
+    </row>
+    <row r="45" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A45" s="20"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="K45" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="L35" s="29" t="s">
-        <v>148</v>
-      </c>
-      <c r="M35" s="29"/>
-      <c r="N35" s="29"/>
-      <c r="O35" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="P35" s="30" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q35" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="R35" s="30"/>
-      <c r="S35" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="T35" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="U35" s="29" t="s">
-        <v>153</v>
-      </c>
-      <c r="V35" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="W35" s="29"/>
-      <c r="X35" s="29"/>
-      <c r="Y35" s="31"/>
-      <c r="Z35" s="31"/>
-      <c r="AA35" s="31"/>
-      <c r="AB35" s="31"/>
-      <c r="AC35" s="31"/>
-    </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A36" s="29"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="29"/>
-      <c r="K36" s="29"/>
-      <c r="L36" s="29"/>
-      <c r="M36" s="29"/>
-      <c r="N36" s="29"/>
-      <c r="O36" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="P36" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q36" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="R36" s="30"/>
-      <c r="S36" s="30" t="s">
-        <v>338</v>
-      </c>
-      <c r="T36" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="U36" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="V36" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="W36" s="29"/>
-      <c r="X36" s="29"/>
-      <c r="Y36" s="31"/>
-      <c r="Z36" s="31"/>
-      <c r="AA36" s="31"/>
-      <c r="AB36" s="31"/>
-      <c r="AC36" s="31"/>
-    </row>
-    <row r="37" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A37" s="29"/>
-      <c r="B37" s="29"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="29"/>
-      <c r="K37" s="29"/>
-      <c r="L37" s="29"/>
-      <c r="M37" s="29"/>
-      <c r="N37" s="29"/>
-      <c r="O37" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="P37" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q37" s="30" t="s">
-        <v>339</v>
-      </c>
-      <c r="R37" s="30"/>
-      <c r="S37" s="30"/>
-      <c r="T37" s="29" t="s">
-        <v>151</v>
-      </c>
-      <c r="U37" s="29" t="s">
-        <v>146</v>
-      </c>
-      <c r="V37" s="29" t="s">
-        <v>339</v>
-      </c>
-      <c r="W37" s="29"/>
-      <c r="X37" s="34" t="s">
-        <v>340</v>
-      </c>
-      <c r="Y37" s="31"/>
-      <c r="Z37" s="31"/>
-      <c r="AA37" s="31"/>
-      <c r="AB37" s="31"/>
-      <c r="AC37" s="31"/>
-    </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A38" s="29" t="s">
-        <v>329</v>
-      </c>
-      <c r="B38" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="C38" s="29" t="s">
-        <v>332</v>
-      </c>
-      <c r="D38" s="29" t="s">
-        <v>177</v>
-      </c>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30" t="s">
-        <v>336</v>
-      </c>
-      <c r="J38" s="29"/>
-      <c r="K38" s="29"/>
-      <c r="L38" s="29"/>
-      <c r="M38" s="29"/>
-      <c r="N38" s="29"/>
-      <c r="O38" s="30"/>
-      <c r="P38" s="30"/>
-      <c r="Q38" s="30"/>
-      <c r="R38" s="30"/>
-      <c r="S38" s="30"/>
-      <c r="T38" s="29"/>
-      <c r="U38" s="29"/>
-      <c r="V38" s="29"/>
-      <c r="W38" s="29"/>
-      <c r="X38" s="29"/>
-      <c r="Y38" s="31"/>
-      <c r="Z38" s="31"/>
-      <c r="AA38" s="31"/>
-      <c r="AB38" s="31"/>
-      <c r="AC38" s="31"/>
-    </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A39" s="29" t="s">
-        <v>329</v>
-      </c>
-      <c r="B39" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="C39" s="29" t="s">
-        <v>333</v>
-      </c>
-      <c r="D39" s="29" t="s">
-        <v>177</v>
-      </c>
-      <c r="E39" s="30"/>
-      <c r="F39" s="30"/>
-      <c r="G39" s="30"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="30"/>
-      <c r="J39" s="29"/>
-      <c r="K39" s="29"/>
-      <c r="L39" s="29"/>
-      <c r="M39" s="29"/>
-      <c r="N39" s="29"/>
-      <c r="O39" s="33"/>
-      <c r="P39" s="30"/>
-      <c r="Q39" s="30"/>
-      <c r="R39" s="30"/>
-      <c r="S39" s="30"/>
-      <c r="T39" s="29"/>
-      <c r="U39" s="29"/>
-      <c r="V39" s="29"/>
-      <c r="W39" s="29"/>
-      <c r="X39" s="29"/>
-      <c r="Y39" s="31"/>
-      <c r="Z39" s="31"/>
-      <c r="AA39" s="31"/>
-      <c r="AB39" s="31"/>
-      <c r="AC39" s="31"/>
-    </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A40" s="29" t="s">
-        <v>329</v>
-      </c>
-      <c r="B40" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="C40" s="29" t="s">
-        <v>334</v>
-      </c>
-      <c r="D40" s="29" t="s">
-        <v>177</v>
-      </c>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="30"/>
-      <c r="J40" s="29"/>
-      <c r="K40" s="29"/>
-      <c r="L40" s="29"/>
-      <c r="M40" s="29"/>
-      <c r="N40" s="29"/>
-      <c r="O40" s="30"/>
-      <c r="P40" s="30"/>
-      <c r="Q40" s="30"/>
-      <c r="R40" s="30"/>
-      <c r="S40" s="30"/>
-      <c r="T40" s="29"/>
-      <c r="U40" s="29"/>
-      <c r="V40" s="29"/>
-      <c r="W40" s="29"/>
-      <c r="X40" s="29"/>
-      <c r="Y40" s="31"/>
-      <c r="Z40" s="31"/>
-      <c r="AA40" s="31"/>
-      <c r="AB40" s="31"/>
-      <c r="AC40" s="31"/>
-    </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A41" s="29"/>
-      <c r="B41" s="29"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="30"/>
-      <c r="I41" s="30"/>
-      <c r="J41" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="K41" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="L41" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="M41" s="29"/>
-      <c r="N41" s="29"/>
-      <c r="O41" s="30"/>
-      <c r="P41" s="30"/>
-      <c r="Q41" s="30"/>
-      <c r="R41" s="30"/>
-      <c r="S41" s="30"/>
-      <c r="T41" s="29"/>
-      <c r="U41" s="29"/>
-      <c r="V41" s="29"/>
-      <c r="W41" s="29"/>
-      <c r="X41" s="29"/>
-      <c r="Y41" s="31"/>
-      <c r="Z41" s="31"/>
-      <c r="AA41" s="31"/>
-      <c r="AB41" s="31"/>
-      <c r="AC41" s="31"/>
-    </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A42" s="29"/>
-      <c r="B42" s="29"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="30"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="30"/>
-      <c r="J42" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="K42" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="L42" s="21" t="s">
+      <c r="L45" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="M42" s="29"/>
-      <c r="N42" s="29"/>
-      <c r="O42" s="30"/>
-      <c r="P42" s="30"/>
-      <c r="Q42" s="30"/>
-      <c r="R42" s="30"/>
-      <c r="S42" s="30"/>
-      <c r="T42" s="29"/>
-      <c r="U42" s="29"/>
-      <c r="V42" s="29"/>
-      <c r="W42" s="29"/>
-      <c r="X42" s="29"/>
-      <c r="Y42" s="31"/>
-      <c r="Z42" s="31"/>
-      <c r="AA42" s="31"/>
-      <c r="AB42" s="31"/>
-      <c r="AC42" s="31"/>
-    </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A43" s="29"/>
-      <c r="B43" s="29"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="30"/>
-      <c r="J43" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="K43" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="L43" s="21" t="s">
+      <c r="M45" s="20"/>
+      <c r="N45" s="20"/>
+      <c r="O45" s="21"/>
+      <c r="P45" s="21"/>
+      <c r="Q45" s="21"/>
+      <c r="R45" s="21"/>
+      <c r="S45" s="21"/>
+      <c r="T45" s="20"/>
+      <c r="U45" s="20"/>
+      <c r="V45" s="20"/>
+      <c r="W45" s="20"/>
+      <c r="X45" s="20"/>
+      <c r="Y45" s="22"/>
+      <c r="Z45" s="22"/>
+      <c r="AA45" s="22"/>
+      <c r="AB45" s="22"/>
+      <c r="AC45" s="22"/>
+    </row>
+    <row r="46" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A46" s="20"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="21"/>
+      <c r="J46" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="K46" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="L46" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="M43" s="29"/>
-      <c r="N43" s="29"/>
-      <c r="O43" s="30"/>
-      <c r="P43" s="30"/>
-      <c r="Q43" s="30"/>
-      <c r="R43" s="30"/>
-      <c r="S43" s="30"/>
-      <c r="T43" s="29"/>
-      <c r="U43" s="29"/>
-      <c r="V43" s="29"/>
-      <c r="W43" s="29"/>
-      <c r="X43" s="29"/>
-      <c r="Y43" s="31"/>
-      <c r="Z43" s="31"/>
-      <c r="AA43" s="31"/>
-      <c r="AB43" s="31"/>
-      <c r="AC43" s="31"/>
-    </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A44" s="29"/>
-      <c r="B44" s="29"/>
-      <c r="C44" s="29"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="30"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="30"/>
-      <c r="I44" s="30"/>
-      <c r="J44" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="K44" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="L44" s="21" t="s">
+      <c r="M46" s="20"/>
+      <c r="N46" s="20"/>
+      <c r="O46" s="21"/>
+      <c r="P46" s="21"/>
+      <c r="Q46" s="21"/>
+      <c r="R46" s="21"/>
+      <c r="S46" s="21"/>
+      <c r="T46" s="20"/>
+      <c r="U46" s="20"/>
+      <c r="V46" s="20"/>
+      <c r="W46" s="20"/>
+      <c r="X46" s="20"/>
+      <c r="Y46" s="22"/>
+      <c r="Z46" s="22"/>
+      <c r="AA46" s="22"/>
+      <c r="AB46" s="22"/>
+      <c r="AC46" s="22"/>
+    </row>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A47" s="20"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="21"/>
+      <c r="J47" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="K47" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="L47" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="M44" s="29"/>
-      <c r="N44" s="29"/>
-      <c r="O44" s="30"/>
-      <c r="P44" s="30"/>
-      <c r="Q44" s="30"/>
-      <c r="R44" s="30"/>
-      <c r="S44" s="30"/>
-      <c r="T44" s="29"/>
-      <c r="U44" s="29"/>
-      <c r="V44" s="29"/>
-      <c r="W44" s="29"/>
-      <c r="X44" s="29"/>
-      <c r="Y44" s="31"/>
-      <c r="Z44" s="31"/>
-      <c r="AA44" s="31"/>
-      <c r="AB44" s="31"/>
-      <c r="AC44" s="31"/>
-    </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A45" s="29"/>
-      <c r="B45" s="29"/>
-      <c r="C45" s="29"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="30"/>
-      <c r="F45" s="30"/>
-      <c r="G45" s="30"/>
-      <c r="H45" s="30"/>
-      <c r="I45" s="30"/>
-      <c r="J45" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="K45" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="L45" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="M45" s="29"/>
-      <c r="N45" s="29"/>
-      <c r="O45" s="30"/>
-      <c r="P45" s="30"/>
-      <c r="Q45" s="30"/>
-      <c r="R45" s="30"/>
-      <c r="S45" s="30"/>
-      <c r="T45" s="29"/>
-      <c r="U45" s="29"/>
-      <c r="V45" s="29"/>
-      <c r="W45" s="29"/>
-      <c r="X45" s="29"/>
-      <c r="Y45" s="31"/>
-      <c r="Z45" s="31"/>
-      <c r="AA45" s="31"/>
-      <c r="AB45" s="31"/>
-      <c r="AC45" s="31"/>
-    </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A46" s="29"/>
-      <c r="B46" s="29"/>
-      <c r="C46" s="29"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="30"/>
-      <c r="F46" s="30"/>
-      <c r="G46" s="30"/>
-      <c r="H46" s="30"/>
-      <c r="I46" s="30"/>
-      <c r="J46" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="K46" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="L46" s="21" t="s">
+      <c r="M47" s="20"/>
+      <c r="N47" s="20"/>
+      <c r="O47" s="21"/>
+      <c r="P47" s="21"/>
+      <c r="Q47" s="21"/>
+      <c r="R47" s="21"/>
+      <c r="S47" s="21"/>
+      <c r="T47" s="20"/>
+      <c r="U47" s="20"/>
+      <c r="V47" s="20"/>
+      <c r="W47" s="20"/>
+      <c r="X47" s="20"/>
+      <c r="Y47" s="22"/>
+      <c r="Z47" s="22"/>
+      <c r="AA47" s="22"/>
+      <c r="AB47" s="22"/>
+      <c r="AC47" s="22"/>
+    </row>
+    <row r="48" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A48" s="20"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="21"/>
+      <c r="I48" s="21"/>
+      <c r="J48" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="K48" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="L48" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="M48" s="20"/>
+      <c r="N48" s="20"/>
+      <c r="O48" s="21"/>
+      <c r="P48" s="21"/>
+      <c r="Q48" s="21"/>
+      <c r="R48" s="21"/>
+      <c r="S48" s="21"/>
+      <c r="T48" s="20"/>
+      <c r="U48" s="20"/>
+      <c r="V48" s="20"/>
+      <c r="W48" s="20"/>
+      <c r="X48" s="20"/>
+      <c r="Y48" s="22"/>
+      <c r="Z48" s="22"/>
+      <c r="AA48" s="22"/>
+      <c r="AB48" s="22"/>
+      <c r="AC48" s="22"/>
+    </row>
+    <row r="49" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A49" s="20"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="21"/>
+      <c r="J49" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="K49" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="L49" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="M46" s="29"/>
-      <c r="N46" s="29"/>
-      <c r="O46" s="30"/>
-      <c r="P46" s="30"/>
-      <c r="Q46" s="30"/>
-      <c r="R46" s="30"/>
-      <c r="S46" s="30"/>
-      <c r="T46" s="29"/>
-      <c r="U46" s="29"/>
-      <c r="V46" s="29"/>
-      <c r="W46" s="29"/>
-      <c r="X46" s="29"/>
-      <c r="Y46" s="31"/>
-      <c r="Z46" s="31"/>
-      <c r="AA46" s="31"/>
-      <c r="AB46" s="31"/>
-      <c r="AC46" s="31"/>
-    </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A47" s="29"/>
-      <c r="B47" s="29"/>
-      <c r="C47" s="29"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="30"/>
-      <c r="F47" s="30"/>
-      <c r="G47" s="30"/>
-      <c r="H47" s="30"/>
-      <c r="I47" s="30"/>
-      <c r="J47" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="K47" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="L47" s="21" t="s">
+      <c r="M49" s="20"/>
+      <c r="N49" s="20"/>
+      <c r="O49" s="21"/>
+      <c r="P49" s="21"/>
+      <c r="Q49" s="21"/>
+      <c r="R49" s="21"/>
+      <c r="S49" s="21"/>
+      <c r="T49" s="20"/>
+      <c r="U49" s="20"/>
+      <c r="V49" s="20"/>
+      <c r="W49" s="20"/>
+      <c r="X49" s="20"/>
+      <c r="Y49" s="22"/>
+      <c r="Z49" s="22"/>
+      <c r="AA49" s="22"/>
+      <c r="AB49" s="22"/>
+      <c r="AC49" s="22"/>
+    </row>
+    <row r="50" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A50" s="20"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="21"/>
+      <c r="I50" s="21"/>
+      <c r="J50" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="K50" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="L50" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="M47" s="29"/>
-      <c r="N47" s="29"/>
-      <c r="O47" s="30"/>
-      <c r="P47" s="30"/>
-      <c r="Q47" s="30"/>
-      <c r="R47" s="30"/>
-      <c r="S47" s="30"/>
-      <c r="T47" s="29"/>
-      <c r="U47" s="29"/>
-      <c r="V47" s="29"/>
-      <c r="W47" s="29"/>
-      <c r="X47" s="29"/>
-      <c r="Y47" s="31"/>
-      <c r="Z47" s="31"/>
-      <c r="AA47" s="31"/>
-      <c r="AB47" s="31"/>
-      <c r="AC47" s="31"/>
-    </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A48" s="29"/>
-      <c r="B48" s="29"/>
-      <c r="C48" s="29"/>
-      <c r="D48" s="29"/>
-      <c r="E48" s="30"/>
-      <c r="F48" s="30"/>
-      <c r="G48" s="30"/>
-      <c r="H48" s="30"/>
-      <c r="I48" s="30"/>
-      <c r="J48" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="K48" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="L48" s="21" t="s">
+      <c r="M50" s="20"/>
+      <c r="N50" s="20"/>
+      <c r="O50" s="21"/>
+      <c r="P50" s="21"/>
+      <c r="Q50" s="21"/>
+      <c r="R50" s="21"/>
+      <c r="S50" s="21"/>
+      <c r="T50" s="20"/>
+      <c r="U50" s="20"/>
+      <c r="V50" s="20"/>
+      <c r="W50" s="20"/>
+      <c r="X50" s="20"/>
+      <c r="Y50" s="22"/>
+      <c r="Z50" s="22"/>
+      <c r="AA50" s="22"/>
+      <c r="AB50" s="22"/>
+      <c r="AC50" s="22"/>
+    </row>
+    <row r="51" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A51" s="20"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="21"/>
+      <c r="I51" s="21"/>
+      <c r="J51" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="K51" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="L51" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="M48" s="29"/>
-      <c r="N48" s="29"/>
-      <c r="O48" s="30"/>
-      <c r="P48" s="30"/>
-      <c r="Q48" s="30"/>
-      <c r="R48" s="30"/>
-      <c r="S48" s="30"/>
-      <c r="T48" s="29"/>
-      <c r="U48" s="29"/>
-      <c r="V48" s="29"/>
-      <c r="W48" s="29"/>
-      <c r="X48" s="29"/>
-      <c r="Y48" s="31"/>
-      <c r="Z48" s="31"/>
-      <c r="AA48" s="31"/>
-      <c r="AB48" s="31"/>
-      <c r="AC48" s="31"/>
-    </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A49" s="29"/>
-      <c r="B49" s="29"/>
-      <c r="C49" s="29"/>
-      <c r="D49" s="29"/>
-      <c r="E49" s="30"/>
-      <c r="F49" s="30"/>
-      <c r="G49" s="30"/>
-      <c r="H49" s="30"/>
-      <c r="I49" s="30"/>
-      <c r="J49" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="K49" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="L49" s="21" t="s">
-        <v>171</v>
-      </c>
-      <c r="M49" s="29"/>
-      <c r="N49" s="29"/>
-      <c r="O49" s="30"/>
-      <c r="P49" s="30"/>
-      <c r="Q49" s="30"/>
-      <c r="R49" s="30"/>
-      <c r="S49" s="30"/>
-      <c r="T49" s="29"/>
-      <c r="U49" s="29"/>
-      <c r="V49" s="29"/>
-      <c r="W49" s="29"/>
-      <c r="X49" s="29"/>
-      <c r="Y49" s="31"/>
-      <c r="Z49" s="31"/>
-      <c r="AA49" s="31"/>
-      <c r="AB49" s="31"/>
-      <c r="AC49" s="31"/>
-    </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A50" s="29"/>
-      <c r="B50" s="29"/>
-      <c r="C50" s="29"/>
-      <c r="D50" s="29"/>
-      <c r="E50" s="30"/>
-      <c r="F50" s="30"/>
-      <c r="G50" s="30"/>
-      <c r="H50" s="30"/>
-      <c r="I50" s="30"/>
-      <c r="J50" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="K50" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="L50" s="21" t="s">
+      <c r="M51" s="20"/>
+      <c r="N51" s="20"/>
+      <c r="O51" s="21"/>
+      <c r="P51" s="21"/>
+      <c r="Q51" s="21"/>
+      <c r="R51" s="21"/>
+      <c r="S51" s="21"/>
+      <c r="T51" s="20"/>
+      <c r="U51" s="20"/>
+      <c r="V51" s="20"/>
+      <c r="W51" s="20"/>
+      <c r="X51" s="20"/>
+      <c r="Y51" s="22"/>
+      <c r="Z51" s="22"/>
+      <c r="AA51" s="22"/>
+      <c r="AB51" s="22"/>
+      <c r="AC51" s="22"/>
+    </row>
+    <row r="52" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A52" s="20"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="21"/>
+      <c r="I52" s="21"/>
+      <c r="J52" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="K52" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="L52" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="M50" s="29"/>
-      <c r="N50" s="29"/>
-      <c r="O50" s="30"/>
-      <c r="P50" s="30"/>
-      <c r="Q50" s="30"/>
-      <c r="R50" s="30"/>
-      <c r="S50" s="30"/>
-      <c r="T50" s="29"/>
-      <c r="U50" s="29"/>
-      <c r="V50" s="29"/>
-      <c r="W50" s="29"/>
-      <c r="X50" s="29"/>
-      <c r="Y50" s="31"/>
-      <c r="Z50" s="31"/>
-      <c r="AA50" s="31"/>
-      <c r="AB50" s="31"/>
-      <c r="AC50" s="31"/>
-    </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A51" s="29"/>
-      <c r="B51" s="29"/>
-      <c r="C51" s="29"/>
-      <c r="D51" s="29"/>
-      <c r="E51" s="30"/>
-      <c r="F51" s="30"/>
-      <c r="G51" s="30"/>
-      <c r="H51" s="30"/>
-      <c r="I51" s="30"/>
-      <c r="J51" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="K51" s="21" t="s">
-        <v>169</v>
-      </c>
-      <c r="L51" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="M51" s="29"/>
-      <c r="N51" s="29"/>
-      <c r="O51" s="30"/>
-      <c r="P51" s="30"/>
-      <c r="Q51" s="30"/>
-      <c r="R51" s="30"/>
-      <c r="S51" s="30"/>
-      <c r="T51" s="29"/>
-      <c r="U51" s="29"/>
-      <c r="V51" s="29"/>
-      <c r="W51" s="29"/>
-      <c r="X51" s="29"/>
-      <c r="Y51" s="31"/>
-      <c r="Z51" s="31"/>
-      <c r="AA51" s="31"/>
-      <c r="AB51" s="31"/>
-      <c r="AC51" s="31"/>
-    </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A52" s="29"/>
-      <c r="B52" s="29"/>
-      <c r="C52" s="29"/>
-      <c r="D52" s="29"/>
-      <c r="E52" s="30"/>
-      <c r="F52" s="30"/>
-      <c r="G52" s="30"/>
-      <c r="H52" s="30"/>
-      <c r="I52" s="30"/>
-      <c r="J52" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="K52" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="L52" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="M52" s="29"/>
-      <c r="N52" s="29"/>
-      <c r="O52" s="30"/>
-      <c r="P52" s="30"/>
-      <c r="Q52" s="30"/>
-      <c r="R52" s="30"/>
-      <c r="S52" s="30"/>
-      <c r="T52" s="29"/>
-      <c r="U52" s="29"/>
-      <c r="V52" s="29"/>
-      <c r="W52" s="29"/>
-      <c r="X52" s="29"/>
-      <c r="Y52" s="31"/>
-      <c r="Z52" s="31"/>
-      <c r="AA52" s="31"/>
-      <c r="AB52" s="31"/>
-      <c r="AC52" s="31"/>
+      <c r="M52" s="20"/>
+      <c r="N52" s="20"/>
+      <c r="O52" s="21"/>
+      <c r="P52" s="21"/>
+      <c r="Q52" s="21"/>
+      <c r="R52" s="21"/>
+      <c r="S52" s="21"/>
+      <c r="T52" s="20"/>
+      <c r="U52" s="20"/>
+      <c r="V52" s="20"/>
+      <c r="W52" s="20"/>
+      <c r="X52" s="20"/>
+      <c r="Y52" s="22"/>
+      <c r="Z52" s="22"/>
+      <c r="AA52" s="22"/>
+      <c r="AB52" s="22"/>
+      <c r="AC52" s="22"/>
     </row>
     <row r="53" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A53" s="29"/>
-      <c r="B53" s="29"/>
-      <c r="C53" s="29"/>
-      <c r="D53" s="29"/>
-      <c r="E53" s="30"/>
-      <c r="F53" s="30"/>
-      <c r="G53" s="30"/>
-      <c r="H53" s="30"/>
-      <c r="I53" s="30"/>
-      <c r="J53" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="K53" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="L53" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="M53" s="29"/>
-      <c r="N53" s="29"/>
-      <c r="O53" s="30"/>
-      <c r="P53" s="30"/>
-      <c r="Q53" s="30"/>
-      <c r="R53" s="30"/>
-      <c r="S53" s="30"/>
-      <c r="T53" s="29"/>
-      <c r="U53" s="29"/>
-      <c r="V53" s="29"/>
-      <c r="W53" s="29"/>
-      <c r="X53" s="29"/>
-      <c r="Y53" s="31"/>
-      <c r="Z53" s="31"/>
-      <c r="AA53" s="31"/>
-      <c r="AB53" s="31"/>
-      <c r="AC53" s="31"/>
+      <c r="A53" s="20"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="21"/>
+      <c r="H53" s="21"/>
+      <c r="I53" s="21"/>
+      <c r="J53" s="20"/>
+      <c r="K53" s="20"/>
+      <c r="L53" s="20"/>
+      <c r="M53" s="20"/>
+      <c r="N53" s="20"/>
+      <c r="O53" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="P53" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q53" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="R53" s="3"/>
+      <c r="S53" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="T53" s="20"/>
+      <c r="U53" s="20"/>
+      <c r="V53" s="20"/>
+      <c r="W53" s="20"/>
+      <c r="X53" s="20"/>
+      <c r="Y53" s="22"/>
+      <c r="Z53" s="22"/>
+      <c r="AA53" s="22"/>
+      <c r="AB53" s="22"/>
+      <c r="AC53" s="22"/>
     </row>
     <row r="54" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A54" s="29"/>
-      <c r="B54" s="29"/>
-      <c r="C54" s="29"/>
-      <c r="D54" s="29"/>
-      <c r="E54" s="30"/>
-      <c r="F54" s="30"/>
-      <c r="G54" s="30"/>
-      <c r="H54" s="30"/>
-      <c r="I54" s="30"/>
-      <c r="J54" s="29"/>
-      <c r="K54" s="29"/>
-      <c r="L54" s="29"/>
-      <c r="M54" s="29"/>
-      <c r="N54" s="29"/>
+      <c r="A54" s="20"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="21"/>
+      <c r="H54" s="21"/>
+      <c r="I54" s="21"/>
+      <c r="J54" s="20"/>
+      <c r="K54" s="20"/>
+      <c r="L54" s="20"/>
+      <c r="M54" s="20"/>
+      <c r="N54" s="20"/>
       <c r="O54" s="3" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="P54" s="3" t="s">
         <v>276</v>
       </c>
       <c r="Q54" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="R54" s="3"/>
       <c r="S54" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="T54" s="29"/>
-      <c r="U54" s="29"/>
-      <c r="V54" s="29"/>
-      <c r="W54" s="29"/>
-      <c r="X54" s="29"/>
-      <c r="Y54" s="31"/>
-      <c r="Z54" s="31"/>
-      <c r="AA54" s="31"/>
-      <c r="AB54" s="31"/>
-      <c r="AC54" s="31"/>
+        <v>280</v>
+      </c>
+      <c r="T54" s="20"/>
+      <c r="U54" s="20"/>
+      <c r="V54" s="20"/>
+      <c r="W54" s="20"/>
+      <c r="X54" s="20"/>
+      <c r="Y54" s="22"/>
+      <c r="Z54" s="22"/>
+      <c r="AA54" s="22"/>
+      <c r="AB54" s="22"/>
+      <c r="AC54" s="22"/>
     </row>
     <row r="55" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A55" s="29"/>
-      <c r="B55" s="29"/>
-      <c r="C55" s="29"/>
-      <c r="D55" s="29"/>
-      <c r="E55" s="30"/>
-      <c r="F55" s="30"/>
-      <c r="G55" s="30"/>
-      <c r="H55" s="30"/>
-      <c r="I55" s="30"/>
-      <c r="J55" s="29"/>
-      <c r="K55" s="29"/>
-      <c r="L55" s="29"/>
-      <c r="M55" s="29"/>
-      <c r="N55" s="29"/>
+      <c r="A55" s="20"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="21"/>
+      <c r="H55" s="21"/>
+      <c r="I55" s="21"/>
+      <c r="J55" s="20"/>
+      <c r="K55" s="20"/>
+      <c r="L55" s="20"/>
+      <c r="M55" s="20"/>
+      <c r="N55" s="20"/>
       <c r="O55" s="3" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="P55" s="3" t="s">
         <v>277</v>
@@ -6783,610 +6768,571 @@
       <c r="S55" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="T55" s="29"/>
-      <c r="U55" s="29"/>
-      <c r="V55" s="29"/>
-      <c r="W55" s="29"/>
-      <c r="X55" s="29"/>
-      <c r="Y55" s="31"/>
-      <c r="Z55" s="31"/>
-      <c r="AA55" s="31"/>
-      <c r="AB55" s="31"/>
-      <c r="AC55" s="31"/>
+      <c r="T55" s="20"/>
+      <c r="U55" s="20"/>
+      <c r="V55" s="20"/>
+      <c r="W55" s="20"/>
+      <c r="X55" s="20"/>
+      <c r="Y55" s="22"/>
+      <c r="Z55" s="22"/>
+      <c r="AA55" s="22"/>
+      <c r="AB55" s="22"/>
+      <c r="AC55" s="22"/>
     </row>
     <row r="56" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A56" s="29"/>
-      <c r="B56" s="29"/>
-      <c r="C56" s="29"/>
-      <c r="D56" s="29"/>
-      <c r="E56" s="30"/>
-      <c r="F56" s="30"/>
-      <c r="G56" s="30"/>
-      <c r="H56" s="30"/>
-      <c r="I56" s="30"/>
-      <c r="J56" s="29"/>
-      <c r="K56" s="29"/>
-      <c r="L56" s="29"/>
-      <c r="M56" s="29"/>
-      <c r="N56" s="29"/>
-      <c r="O56" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="P56" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q56" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="R56" s="3"/>
-      <c r="S56" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="T56" s="29"/>
-      <c r="U56" s="29"/>
-      <c r="V56" s="29"/>
-      <c r="W56" s="29"/>
-      <c r="X56" s="29"/>
-      <c r="Y56" s="31"/>
-      <c r="Z56" s="31"/>
-      <c r="AA56" s="31"/>
-      <c r="AB56" s="31"/>
-      <c r="AC56" s="31"/>
+      <c r="A56" s="20"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="21"/>
+      <c r="H56" s="21"/>
+      <c r="I56" s="21"/>
+      <c r="J56" s="20"/>
+      <c r="K56" s="20"/>
+      <c r="L56" s="20"/>
+      <c r="M56" s="20"/>
+      <c r="N56" s="20"/>
+      <c r="O56" s="21"/>
+      <c r="P56" s="21"/>
+      <c r="Q56" s="21"/>
+      <c r="R56" s="21"/>
+      <c r="S56" s="21"/>
+      <c r="T56" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="U56" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="V56" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="W56" s="20"/>
+      <c r="X56" s="20"/>
+      <c r="Y56" s="22"/>
+      <c r="Z56" s="22"/>
+      <c r="AA56" s="22"/>
+      <c r="AB56" s="22"/>
+      <c r="AC56" s="22"/>
     </row>
     <row r="57" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A57" s="29"/>
-      <c r="B57" s="29"/>
-      <c r="C57" s="29"/>
-      <c r="D57" s="29"/>
-      <c r="E57" s="30"/>
-      <c r="F57" s="30"/>
-      <c r="G57" s="30"/>
-      <c r="H57" s="30"/>
-      <c r="I57" s="30"/>
-      <c r="J57" s="29"/>
-      <c r="K57" s="29"/>
-      <c r="L57" s="29"/>
-      <c r="M57" s="29"/>
-      <c r="N57" s="29"/>
-      <c r="O57" s="30"/>
-      <c r="P57" s="30"/>
-      <c r="Q57" s="30"/>
-      <c r="R57" s="30"/>
-      <c r="S57" s="30"/>
-      <c r="T57" s="21" t="s">
+      <c r="A57" s="20"/>
+      <c r="B57" s="20"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="21"/>
+      <c r="H57" s="21"/>
+      <c r="I57" s="21"/>
+      <c r="J57" s="20"/>
+      <c r="K57" s="20"/>
+      <c r="L57" s="20"/>
+      <c r="M57" s="20"/>
+      <c r="N57" s="20"/>
+      <c r="O57" s="21"/>
+      <c r="P57" s="21"/>
+      <c r="Q57" s="21"/>
+      <c r="R57" s="21"/>
+      <c r="S57" s="21"/>
+      <c r="T57" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="U57" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="V57" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="W57" s="20"/>
+      <c r="X57" s="20"/>
+      <c r="Y57" s="22"/>
+      <c r="Z57" s="22"/>
+      <c r="AA57" s="22"/>
+      <c r="AB57" s="22"/>
+      <c r="AC57" s="22"/>
+    </row>
+    <row r="58" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A58" s="20"/>
+      <c r="B58" s="20"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="21"/>
+      <c r="H58" s="21"/>
+      <c r="I58" s="21"/>
+      <c r="J58" s="20"/>
+      <c r="K58" s="20"/>
+      <c r="L58" s="20"/>
+      <c r="M58" s="20"/>
+      <c r="N58" s="20"/>
+      <c r="O58" s="21"/>
+      <c r="P58" s="21"/>
+      <c r="Q58" s="21"/>
+      <c r="R58" s="21"/>
+      <c r="S58" s="21"/>
+      <c r="T58" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="U58" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="V58" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="W58" s="20"/>
+      <c r="X58" s="20"/>
+      <c r="Y58" s="22"/>
+      <c r="Z58" s="22"/>
+      <c r="AA58" s="22"/>
+      <c r="AB58" s="22"/>
+      <c r="AC58" s="22"/>
+    </row>
+    <row r="59" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A59" s="20"/>
+      <c r="B59" s="20"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="21"/>
+      <c r="H59" s="21"/>
+      <c r="I59" s="21"/>
+      <c r="J59" s="20"/>
+      <c r="K59" s="20"/>
+      <c r="L59" s="20"/>
+      <c r="M59" s="20"/>
+      <c r="N59" s="20"/>
+      <c r="O59" s="21"/>
+      <c r="P59" s="21"/>
+      <c r="Q59" s="21"/>
+      <c r="R59" s="21"/>
+      <c r="S59" s="21"/>
+      <c r="T59" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="U59" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="V59" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="W59" s="20"/>
+      <c r="X59" s="20"/>
+      <c r="Y59" s="22"/>
+      <c r="Z59" s="22"/>
+      <c r="AA59" s="22"/>
+      <c r="AB59" s="22"/>
+      <c r="AC59" s="22"/>
+    </row>
+    <row r="60" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A60" s="20"/>
+      <c r="B60" s="20"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="21"/>
+      <c r="H60" s="21"/>
+      <c r="I60" s="21"/>
+      <c r="J60" s="20"/>
+      <c r="K60" s="20"/>
+      <c r="L60" s="20"/>
+      <c r="M60" s="20"/>
+      <c r="N60" s="20"/>
+      <c r="O60" s="21"/>
+      <c r="P60" s="21"/>
+      <c r="Q60" s="21"/>
+      <c r="R60" s="21"/>
+      <c r="S60" s="21"/>
+      <c r="T60" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="U60" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="V60" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="W60" s="20"/>
+      <c r="X60" s="20"/>
+      <c r="Y60" s="22"/>
+      <c r="Z60" s="22"/>
+      <c r="AA60" s="22"/>
+      <c r="AB60" s="22"/>
+      <c r="AC60" s="22"/>
+    </row>
+    <row r="61" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A61" s="20"/>
+      <c r="B61" s="20"/>
+      <c r="C61" s="20"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="21"/>
+      <c r="H61" s="21"/>
+      <c r="I61" s="21"/>
+      <c r="J61" s="20"/>
+      <c r="K61" s="20"/>
+      <c r="L61" s="20"/>
+      <c r="M61" s="20"/>
+      <c r="N61" s="20"/>
+      <c r="O61" s="21"/>
+      <c r="P61" s="21"/>
+      <c r="Q61" s="21"/>
+      <c r="R61" s="21"/>
+      <c r="S61" s="21"/>
+      <c r="T61" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="U61" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="V61" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="W61" s="20"/>
+      <c r="X61" s="20"/>
+      <c r="Y61" s="22"/>
+      <c r="Z61" s="22"/>
+      <c r="AA61" s="22"/>
+      <c r="AB61" s="22"/>
+      <c r="AC61" s="22"/>
+    </row>
+    <row r="62" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A62" s="20"/>
+      <c r="B62" s="20"/>
+      <c r="C62" s="20"/>
+      <c r="D62" s="20"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="21"/>
+      <c r="G62" s="21"/>
+      <c r="H62" s="21"/>
+      <c r="I62" s="21"/>
+      <c r="J62" s="20"/>
+      <c r="K62" s="20"/>
+      <c r="L62" s="20"/>
+      <c r="M62" s="20"/>
+      <c r="N62" s="20"/>
+      <c r="O62" s="21"/>
+      <c r="P62" s="21"/>
+      <c r="Q62" s="21"/>
+      <c r="R62" s="21"/>
+      <c r="S62" s="21"/>
+      <c r="T62" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="U62" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="U57" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="V57" s="21" t="s">
+      <c r="V62" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="W62" s="20"/>
+      <c r="X62" s="20"/>
+      <c r="Y62" s="22"/>
+      <c r="Z62" s="22"/>
+      <c r="AA62" s="22"/>
+      <c r="AB62" s="22"/>
+      <c r="AC62" s="22"/>
+    </row>
+    <row r="63" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A63" s="20"/>
+      <c r="B63" s="20"/>
+      <c r="C63" s="20"/>
+      <c r="D63" s="20"/>
+      <c r="E63" s="21"/>
+      <c r="F63" s="21"/>
+      <c r="G63" s="21"/>
+      <c r="H63" s="21"/>
+      <c r="I63" s="21"/>
+      <c r="J63" s="20"/>
+      <c r="K63" s="20"/>
+      <c r="L63" s="20"/>
+      <c r="M63" s="20"/>
+      <c r="N63" s="20"/>
+      <c r="O63" s="21"/>
+      <c r="P63" s="21"/>
+      <c r="Q63" s="21"/>
+      <c r="R63" s="21"/>
+      <c r="S63" s="21"/>
+      <c r="T63" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="U63" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="V63" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="W57" s="29"/>
-      <c r="X57" s="29"/>
-      <c r="Y57" s="31"/>
-      <c r="Z57" s="31"/>
-      <c r="AA57" s="31"/>
-      <c r="AB57" s="31"/>
-      <c r="AC57" s="31"/>
-    </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A58" s="29"/>
-      <c r="B58" s="29"/>
-      <c r="C58" s="29"/>
-      <c r="D58" s="29"/>
-      <c r="E58" s="30"/>
-      <c r="F58" s="30"/>
-      <c r="G58" s="30"/>
-      <c r="H58" s="30"/>
-      <c r="I58" s="30"/>
-      <c r="J58" s="29"/>
-      <c r="K58" s="29"/>
-      <c r="L58" s="29"/>
-      <c r="M58" s="29"/>
-      <c r="N58" s="29"/>
-      <c r="O58" s="30"/>
-      <c r="P58" s="30"/>
-      <c r="Q58" s="30"/>
-      <c r="R58" s="30"/>
-      <c r="S58" s="30"/>
-      <c r="T58" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="U58" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="V58" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="W58" s="29"/>
-      <c r="X58" s="29"/>
-      <c r="Y58" s="31"/>
-      <c r="Z58" s="31"/>
-      <c r="AA58" s="31"/>
-      <c r="AB58" s="31"/>
-      <c r="AC58" s="31"/>
-    </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A59" s="29"/>
-      <c r="B59" s="29"/>
-      <c r="C59" s="29"/>
-      <c r="D59" s="29"/>
-      <c r="E59" s="30"/>
-      <c r="F59" s="30"/>
-      <c r="G59" s="30"/>
-      <c r="H59" s="30"/>
-      <c r="I59" s="30"/>
-      <c r="J59" s="29"/>
-      <c r="K59" s="29"/>
-      <c r="L59" s="29"/>
-      <c r="M59" s="29"/>
-      <c r="N59" s="29"/>
-      <c r="O59" s="30"/>
-      <c r="P59" s="30"/>
-      <c r="Q59" s="30"/>
-      <c r="R59" s="30"/>
-      <c r="S59" s="30"/>
-      <c r="T59" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="U59" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="V59" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="W59" s="29"/>
-      <c r="X59" s="29"/>
-      <c r="Y59" s="31"/>
-      <c r="Z59" s="31"/>
-      <c r="AA59" s="31"/>
-      <c r="AB59" s="31"/>
-      <c r="AC59" s="31"/>
-    </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A60" s="29"/>
-      <c r="B60" s="29"/>
-      <c r="C60" s="29"/>
-      <c r="D60" s="29"/>
-      <c r="E60" s="30"/>
-      <c r="F60" s="30"/>
-      <c r="G60" s="30"/>
-      <c r="H60" s="30"/>
-      <c r="I60" s="30"/>
-      <c r="J60" s="29"/>
-      <c r="K60" s="29"/>
-      <c r="L60" s="29"/>
-      <c r="M60" s="29"/>
-      <c r="N60" s="29"/>
-      <c r="O60" s="30"/>
-      <c r="P60" s="30"/>
-      <c r="Q60" s="30"/>
-      <c r="R60" s="30"/>
-      <c r="S60" s="30"/>
-      <c r="T60" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="U60" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="V60" s="21" t="s">
+      <c r="W63" s="20"/>
+      <c r="X63" s="20"/>
+      <c r="Y63" s="22"/>
+      <c r="Z63" s="22"/>
+      <c r="AA63" s="22"/>
+      <c r="AB63" s="22"/>
+      <c r="AC63" s="22"/>
+    </row>
+    <row r="64" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A64" s="20"/>
+      <c r="B64" s="20"/>
+      <c r="C64" s="20"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="21"/>
+      <c r="F64" s="21"/>
+      <c r="G64" s="21"/>
+      <c r="H64" s="21"/>
+      <c r="I64" s="21"/>
+      <c r="J64" s="20"/>
+      <c r="K64" s="20"/>
+      <c r="L64" s="20"/>
+      <c r="M64" s="20"/>
+      <c r="N64" s="20"/>
+      <c r="O64" s="21"/>
+      <c r="P64" s="21"/>
+      <c r="Q64" s="21"/>
+      <c r="R64" s="21"/>
+      <c r="S64" s="21"/>
+      <c r="T64" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="U64" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="V64" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="W64" s="20"/>
+      <c r="X64" s="20"/>
+      <c r="Y64" s="22"/>
+      <c r="Z64" s="22"/>
+      <c r="AA64" s="22"/>
+      <c r="AB64" s="22"/>
+      <c r="AC64" s="22"/>
+    </row>
+    <row r="65" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A65" s="20"/>
+      <c r="B65" s="20"/>
+      <c r="C65" s="20"/>
+      <c r="D65" s="20"/>
+      <c r="E65" s="21"/>
+      <c r="F65" s="21"/>
+      <c r="G65" s="21"/>
+      <c r="H65" s="21"/>
+      <c r="I65" s="21"/>
+      <c r="J65" s="20"/>
+      <c r="K65" s="20"/>
+      <c r="L65" s="20"/>
+      <c r="M65" s="20"/>
+      <c r="N65" s="20"/>
+      <c r="O65" s="21"/>
+      <c r="P65" s="21"/>
+      <c r="Q65" s="21"/>
+      <c r="R65" s="21"/>
+      <c r="S65" s="21"/>
+      <c r="T65" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="U65" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="V65" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="W65" s="20"/>
+      <c r="X65" s="20"/>
+      <c r="Y65" s="22"/>
+      <c r="Z65" s="22"/>
+      <c r="AA65" s="22"/>
+      <c r="AB65" s="22"/>
+      <c r="AC65" s="22"/>
+    </row>
+    <row r="66" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A66" s="20"/>
+      <c r="B66" s="20"/>
+      <c r="C66" s="20"/>
+      <c r="D66" s="20"/>
+      <c r="E66" s="21"/>
+      <c r="F66" s="21"/>
+      <c r="G66" s="21"/>
+      <c r="H66" s="21"/>
+      <c r="I66" s="21"/>
+      <c r="J66" s="20"/>
+      <c r="K66" s="20"/>
+      <c r="L66" s="20"/>
+      <c r="M66" s="20"/>
+      <c r="N66" s="20"/>
+      <c r="O66" s="21"/>
+      <c r="P66" s="21"/>
+      <c r="Q66" s="21"/>
+      <c r="R66" s="21"/>
+      <c r="S66" s="21"/>
+      <c r="T66" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="U66" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="V66" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="W60" s="29"/>
-      <c r="X60" s="29"/>
-      <c r="Y60" s="31"/>
-      <c r="Z60" s="31"/>
-      <c r="AA60" s="31"/>
-      <c r="AB60" s="31"/>
-      <c r="AC60" s="31"/>
-    </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A61" s="29"/>
-      <c r="B61" s="29"/>
-      <c r="C61" s="29"/>
-      <c r="D61" s="29"/>
-      <c r="E61" s="30"/>
-      <c r="F61" s="30"/>
-      <c r="G61" s="30"/>
-      <c r="H61" s="30"/>
-      <c r="I61" s="30"/>
-      <c r="J61" s="29"/>
-      <c r="K61" s="29"/>
-      <c r="L61" s="29"/>
-      <c r="M61" s="29"/>
-      <c r="N61" s="29"/>
-      <c r="O61" s="30"/>
-      <c r="P61" s="30"/>
-      <c r="Q61" s="30"/>
-      <c r="R61" s="30"/>
-      <c r="S61" s="30"/>
-      <c r="T61" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="U61" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="V61" s="21" t="s">
+      <c r="W66" s="20"/>
+      <c r="X66" s="20"/>
+      <c r="Y66" s="22"/>
+      <c r="Z66" s="22"/>
+      <c r="AA66" s="22"/>
+      <c r="AB66" s="22"/>
+      <c r="AC66" s="22"/>
+    </row>
+    <row r="67" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A67" s="20"/>
+      <c r="B67" s="20"/>
+      <c r="C67" s="20"/>
+      <c r="D67" s="20"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="21"/>
+      <c r="G67" s="21"/>
+      <c r="H67" s="21"/>
+      <c r="I67" s="21"/>
+      <c r="J67" s="20"/>
+      <c r="K67" s="20"/>
+      <c r="L67" s="20"/>
+      <c r="M67" s="20"/>
+      <c r="N67" s="20"/>
+      <c r="O67" s="21"/>
+      <c r="P67" s="21"/>
+      <c r="Q67" s="21"/>
+      <c r="R67" s="21"/>
+      <c r="S67" s="21"/>
+      <c r="T67" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="U67" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="V67" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="W67" s="20"/>
+      <c r="X67" s="20"/>
+      <c r="Y67" s="22"/>
+      <c r="Z67" s="22"/>
+      <c r="AA67" s="22"/>
+      <c r="AB67" s="22"/>
+      <c r="AC67" s="22"/>
+    </row>
+    <row r="68" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A68" s="20"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="20"/>
+      <c r="E68" s="21"/>
+      <c r="F68" s="21"/>
+      <c r="G68" s="21"/>
+      <c r="H68" s="21"/>
+      <c r="I68" s="21"/>
+      <c r="J68" s="20"/>
+      <c r="K68" s="20"/>
+      <c r="L68" s="20"/>
+      <c r="M68" s="20"/>
+      <c r="N68" s="20"/>
+      <c r="O68" s="21"/>
+      <c r="P68" s="21"/>
+      <c r="Q68" s="21"/>
+      <c r="R68" s="21"/>
+      <c r="S68" s="21"/>
+      <c r="T68" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="U68" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="V68" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="W68" s="20"/>
+      <c r="X68" s="20"/>
+      <c r="Y68" s="22"/>
+      <c r="Z68" s="22"/>
+      <c r="AA68" s="22"/>
+      <c r="AB68" s="22"/>
+      <c r="AC68" s="22"/>
+    </row>
+    <row r="69" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A69" s="20"/>
+      <c r="B69" s="20"/>
+      <c r="C69" s="20"/>
+      <c r="D69" s="20"/>
+      <c r="E69" s="21"/>
+      <c r="F69" s="21"/>
+      <c r="G69" s="21"/>
+      <c r="H69" s="21"/>
+      <c r="I69" s="21"/>
+      <c r="J69" s="20"/>
+      <c r="K69" s="20"/>
+      <c r="L69" s="20"/>
+      <c r="M69" s="20"/>
+      <c r="N69" s="20"/>
+      <c r="O69" s="21"/>
+      <c r="P69" s="21"/>
+      <c r="Q69" s="21"/>
+      <c r="R69" s="21"/>
+      <c r="S69" s="21"/>
+      <c r="T69" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="U69" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="V69" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="W61" s="29"/>
-      <c r="X61" s="29"/>
-      <c r="Y61" s="31"/>
-      <c r="Z61" s="31"/>
-      <c r="AA61" s="31"/>
-      <c r="AB61" s="31"/>
-      <c r="AC61" s="31"/>
-    </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A62" s="29"/>
-      <c r="B62" s="29"/>
-      <c r="C62" s="29"/>
-      <c r="D62" s="29"/>
-      <c r="E62" s="30"/>
-      <c r="F62" s="30"/>
-      <c r="G62" s="30"/>
-      <c r="H62" s="30"/>
-      <c r="I62" s="30"/>
-      <c r="J62" s="29"/>
-      <c r="K62" s="29"/>
-      <c r="L62" s="29"/>
-      <c r="M62" s="29"/>
-      <c r="N62" s="29"/>
-      <c r="O62" s="30"/>
-      <c r="P62" s="30"/>
-      <c r="Q62" s="30"/>
-      <c r="R62" s="30"/>
-      <c r="S62" s="30"/>
-      <c r="T62" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="U62" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="V62" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="W62" s="29"/>
-      <c r="X62" s="29"/>
-      <c r="Y62" s="31"/>
-      <c r="Z62" s="31"/>
-      <c r="AA62" s="31"/>
-      <c r="AB62" s="31"/>
-      <c r="AC62" s="31"/>
-    </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A63" s="29"/>
-      <c r="B63" s="29"/>
-      <c r="C63" s="29"/>
-      <c r="D63" s="29"/>
-      <c r="E63" s="30"/>
-      <c r="F63" s="30"/>
-      <c r="G63" s="30"/>
-      <c r="H63" s="30"/>
-      <c r="I63" s="30"/>
-      <c r="J63" s="29"/>
-      <c r="K63" s="29"/>
-      <c r="L63" s="29"/>
-      <c r="M63" s="29"/>
-      <c r="N63" s="29"/>
-      <c r="O63" s="30"/>
-      <c r="P63" s="30"/>
-      <c r="Q63" s="30"/>
-      <c r="R63" s="30"/>
-      <c r="S63" s="30"/>
-      <c r="T63" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="U63" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="V63" s="21" t="s">
+      <c r="W69" s="20"/>
+      <c r="X69" s="20"/>
+      <c r="Y69" s="22"/>
+      <c r="Z69" s="22"/>
+      <c r="AA69" s="22"/>
+      <c r="AB69" s="22"/>
+      <c r="AC69" s="22"/>
+    </row>
+    <row r="70" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A70" s="20"/>
+      <c r="B70" s="20"/>
+      <c r="C70" s="20"/>
+      <c r="D70" s="20"/>
+      <c r="E70" s="21"/>
+      <c r="F70" s="21"/>
+      <c r="G70" s="21"/>
+      <c r="H70" s="21"/>
+      <c r="I70" s="21"/>
+      <c r="J70" s="20"/>
+      <c r="K70" s="20"/>
+      <c r="L70" s="20"/>
+      <c r="M70" s="20"/>
+      <c r="N70" s="20"/>
+      <c r="O70" s="21"/>
+      <c r="P70" s="21"/>
+      <c r="Q70" s="21"/>
+      <c r="R70" s="21"/>
+      <c r="S70" s="21"/>
+      <c r="T70" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="U70" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="V70" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="W63" s="29"/>
-      <c r="X63" s="29"/>
-      <c r="Y63" s="31"/>
-      <c r="Z63" s="31"/>
-      <c r="AA63" s="31"/>
-      <c r="AB63" s="31"/>
-      <c r="AC63" s="31"/>
-    </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A64" s="29"/>
-      <c r="B64" s="29"/>
-      <c r="C64" s="29"/>
-      <c r="D64" s="29"/>
-      <c r="E64" s="30"/>
-      <c r="F64" s="30"/>
-      <c r="G64" s="30"/>
-      <c r="H64" s="30"/>
-      <c r="I64" s="30"/>
-      <c r="J64" s="29"/>
-      <c r="K64" s="29"/>
-      <c r="L64" s="29"/>
-      <c r="M64" s="29"/>
-      <c r="N64" s="29"/>
-      <c r="O64" s="30"/>
-      <c r="P64" s="30"/>
-      <c r="Q64" s="30"/>
-      <c r="R64" s="30"/>
-      <c r="S64" s="30"/>
-      <c r="T64" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="U64" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="V64" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="W64" s="29"/>
-      <c r="X64" s="29"/>
-      <c r="Y64" s="31"/>
-      <c r="Z64" s="31"/>
-      <c r="AA64" s="31"/>
-      <c r="AB64" s="31"/>
-      <c r="AC64" s="31"/>
-    </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A65" s="29"/>
-      <c r="B65" s="29"/>
-      <c r="C65" s="29"/>
-      <c r="D65" s="29"/>
-      <c r="E65" s="30"/>
-      <c r="F65" s="30"/>
-      <c r="G65" s="30"/>
-      <c r="H65" s="30"/>
-      <c r="I65" s="30"/>
-      <c r="J65" s="29"/>
-      <c r="K65" s="29"/>
-      <c r="L65" s="29"/>
-      <c r="M65" s="29"/>
-      <c r="N65" s="29"/>
-      <c r="O65" s="30"/>
-      <c r="P65" s="30"/>
-      <c r="Q65" s="30"/>
-      <c r="R65" s="30"/>
-      <c r="S65" s="30"/>
-      <c r="T65" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="U65" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="V65" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="W65" s="29"/>
-      <c r="X65" s="29"/>
-      <c r="Y65" s="31"/>
-      <c r="Z65" s="31"/>
-      <c r="AA65" s="31"/>
-      <c r="AB65" s="31"/>
-      <c r="AC65" s="31"/>
-    </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A66" s="29"/>
-      <c r="B66" s="29"/>
-      <c r="C66" s="29"/>
-      <c r="D66" s="29"/>
-      <c r="E66" s="30"/>
-      <c r="F66" s="30"/>
-      <c r="G66" s="30"/>
-      <c r="H66" s="30"/>
-      <c r="I66" s="30"/>
-      <c r="J66" s="29"/>
-      <c r="K66" s="29"/>
-      <c r="L66" s="29"/>
-      <c r="M66" s="29"/>
-      <c r="N66" s="29"/>
-      <c r="O66" s="30"/>
-      <c r="P66" s="30"/>
-      <c r="Q66" s="30"/>
-      <c r="R66" s="30"/>
-      <c r="S66" s="30"/>
-      <c r="T66" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="U66" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="V66" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="W66" s="29"/>
-      <c r="X66" s="29"/>
-      <c r="Y66" s="31"/>
-      <c r="Z66" s="31"/>
-      <c r="AA66" s="31"/>
-      <c r="AB66" s="31"/>
-      <c r="AC66" s="31"/>
-    </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A67" s="29"/>
-      <c r="B67" s="29"/>
-      <c r="C67" s="29"/>
-      <c r="D67" s="29"/>
-      <c r="E67" s="30"/>
-      <c r="F67" s="30"/>
-      <c r="G67" s="30"/>
-      <c r="H67" s="30"/>
-      <c r="I67" s="30"/>
-      <c r="J67" s="29"/>
-      <c r="K67" s="29"/>
-      <c r="L67" s="29"/>
-      <c r="M67" s="29"/>
-      <c r="N67" s="29"/>
-      <c r="O67" s="30"/>
-      <c r="P67" s="30"/>
-      <c r="Q67" s="30"/>
-      <c r="R67" s="30"/>
-      <c r="S67" s="30"/>
-      <c r="T67" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="U67" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="V67" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="W67" s="29"/>
-      <c r="X67" s="29"/>
-      <c r="Y67" s="31"/>
-      <c r="Z67" s="31"/>
-      <c r="AA67" s="31"/>
-      <c r="AB67" s="31"/>
-      <c r="AC67" s="31"/>
-    </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A68" s="29"/>
-      <c r="B68" s="29"/>
-      <c r="C68" s="29"/>
-      <c r="D68" s="29"/>
-      <c r="E68" s="30"/>
-      <c r="F68" s="30"/>
-      <c r="G68" s="30"/>
-      <c r="H68" s="30"/>
-      <c r="I68" s="30"/>
-      <c r="J68" s="29"/>
-      <c r="K68" s="29"/>
-      <c r="L68" s="29"/>
-      <c r="M68" s="29"/>
-      <c r="N68" s="29"/>
-      <c r="O68" s="30"/>
-      <c r="P68" s="30"/>
-      <c r="Q68" s="30"/>
-      <c r="R68" s="30"/>
-      <c r="S68" s="30"/>
-      <c r="T68" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="U68" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="V68" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="W68" s="29"/>
-      <c r="X68" s="29"/>
-      <c r="Y68" s="31"/>
-      <c r="Z68" s="31"/>
-      <c r="AA68" s="31"/>
-      <c r="AB68" s="31"/>
-      <c r="AC68" s="31"/>
-    </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A69" s="29"/>
-      <c r="B69" s="29"/>
-      <c r="C69" s="29"/>
-      <c r="D69" s="29"/>
-      <c r="E69" s="30"/>
-      <c r="F69" s="30"/>
-      <c r="G69" s="30"/>
-      <c r="H69" s="30"/>
-      <c r="I69" s="30"/>
-      <c r="J69" s="29"/>
-      <c r="K69" s="29"/>
-      <c r="L69" s="29"/>
-      <c r="M69" s="29"/>
-      <c r="N69" s="29"/>
-      <c r="O69" s="30"/>
-      <c r="P69" s="30"/>
-      <c r="Q69" s="30"/>
-      <c r="R69" s="30"/>
-      <c r="S69" s="30"/>
-      <c r="T69" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="U69" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="V69" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="W69" s="29"/>
-      <c r="X69" s="29"/>
-      <c r="Y69" s="31"/>
-      <c r="Z69" s="31"/>
-      <c r="AA69" s="31"/>
-      <c r="AB69" s="31"/>
-      <c r="AC69" s="31"/>
-    </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A70" s="29"/>
-      <c r="B70" s="29"/>
-      <c r="C70" s="29"/>
-      <c r="D70" s="29"/>
-      <c r="E70" s="30"/>
-      <c r="F70" s="30"/>
-      <c r="G70" s="30"/>
-      <c r="H70" s="30"/>
-      <c r="I70" s="30"/>
-      <c r="J70" s="29"/>
-      <c r="K70" s="29"/>
-      <c r="L70" s="29"/>
-      <c r="M70" s="29"/>
-      <c r="N70" s="29"/>
-      <c r="O70" s="30"/>
-      <c r="P70" s="30"/>
-      <c r="Q70" s="30"/>
-      <c r="R70" s="30"/>
-      <c r="S70" s="30"/>
-      <c r="T70" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="U70" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="V70" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="W70" s="29"/>
-      <c r="X70" s="29"/>
-      <c r="Y70" s="31"/>
-      <c r="Z70" s="31"/>
-      <c r="AA70" s="31"/>
-      <c r="AB70" s="31"/>
-      <c r="AC70" s="31"/>
-    </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A71" s="29"/>
-      <c r="B71" s="29"/>
-      <c r="C71" s="29"/>
-      <c r="D71" s="29"/>
-      <c r="E71" s="30"/>
-      <c r="F71" s="30"/>
-      <c r="G71" s="30"/>
-      <c r="H71" s="30"/>
-      <c r="I71" s="30"/>
-      <c r="J71" s="29"/>
-      <c r="K71" s="29"/>
-      <c r="L71" s="29"/>
-      <c r="M71" s="29"/>
-      <c r="N71" s="29"/>
-      <c r="O71" s="30"/>
-      <c r="P71" s="30"/>
-      <c r="Q71" s="30"/>
-      <c r="R71" s="30"/>
-      <c r="S71" s="30"/>
-      <c r="T71" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="U71" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="V71" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="W71" s="29"/>
-      <c r="X71" s="29"/>
-      <c r="Y71" s="31"/>
-      <c r="Z71" s="31"/>
-      <c r="AA71" s="31"/>
-      <c r="AB71" s="31"/>
-      <c r="AC71" s="31"/>
+      <c r="W70" s="20"/>
+      <c r="X70" s="20"/>
+      <c r="Y70" s="22"/>
+      <c r="Z70" s="22"/>
+      <c r="AA70" s="22"/>
+      <c r="AB70" s="22"/>
+      <c r="AC70" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -7445,47 +7391,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="16" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="15" t="s">
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="18" t="s">
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="15" t="s">
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
-      <c r="X1" s="15"/>
-      <c r="Y1" s="17" t="s">
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="Z1" s="17"/>
-      <c r="AA1" s="17"/>
-      <c r="AB1" s="17"/>
-      <c r="AC1" s="17"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="26"/>
     </row>
     <row r="2" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
@@ -7602,10 +7548,10 @@
       <c r="W3" s="5"/>
       <c r="X3" s="5"/>
       <c r="Y3" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Z3" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AA3" s="10" t="s">
         <v>29</v>
@@ -7622,19 +7568,19 @@
         <v>117</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>220</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>221</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>29</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>220</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>221</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>29</v>
@@ -7644,20 +7590,20 @@
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>29</v>
       </c>
       <c r="M4" s="5"/>
       <c r="N4" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P4" s="3" t="s">
         <v>37</v>
@@ -7668,7 +7614,7 @@
       <c r="R4" s="10"/>
       <c r="S4" s="10"/>
       <c r="T4" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="U4" s="5" t="s">
         <v>37</v>
@@ -7679,10 +7625,10 @@
       <c r="W4" s="5"/>
       <c r="X4" s="5"/>
       <c r="Y4" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Z4" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AA4" s="10" t="s">
         <v>29</v>
@@ -7713,7 +7659,7 @@
       <c r="R5" s="13"/>
       <c r="S5" s="10"/>
       <c r="T5" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="U5" s="5" t="s">
         <v>13</v>
@@ -7725,16 +7671,16 @@
         <v>57</v>
       </c>
       <c r="X5" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Y5" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Z5" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AA5" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AB5" s="10" t="s">
         <v>12</v>
@@ -7746,19 +7692,19 @@
         <v>117</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>33</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>33</v>
@@ -7766,23 +7712,23 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L6" s="5" t="s">
         <v>61</v>
       </c>
       <c r="M6" s="5"/>
       <c r="N6" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q6" s="3" t="s">
         <v>33</v>
@@ -7790,10 +7736,10 @@
       <c r="R6" s="10"/>
       <c r="S6" s="10"/>
       <c r="T6" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="U6" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="V6" s="5" t="s">
         <v>33</v>
@@ -7801,10 +7747,10 @@
       <c r="W6" s="5"/>
       <c r="X6" s="5"/>
       <c r="Y6" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="Z6" s="10" t="s">
         <v>186</v>
-      </c>
-      <c r="Z6" s="10" t="s">
-        <v>187</v>
       </c>
       <c r="AA6" s="10" t="s">
         <v>33</v>
@@ -7817,68 +7763,68 @@
         <v>117</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>32</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L7" s="5" t="s">
         <v>61</v>
       </c>
       <c r="M7" s="5"/>
       <c r="N7" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="R7" s="10"/>
       <c r="S7" s="10"/>
       <c r="T7" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="U7" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="V7" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="W7" s="5"/>
       <c r="X7" s="5"/>
       <c r="Y7" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Z7" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AA7" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AB7" s="10"/>
       <c r="AC7" s="10"/>
@@ -7888,7 +7834,7 @@
         <v>117</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>14</v>
@@ -7897,7 +7843,7 @@
         <v>104</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>14</v>
@@ -7908,7 +7854,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>65</v>
@@ -7921,7 +7867,7 @@
         <v>111</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>14</v>
@@ -7932,7 +7878,7 @@
       <c r="R8" s="10"/>
       <c r="S8" s="10"/>
       <c r="T8" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="U8" s="5" t="s">
         <v>14</v>
@@ -7943,7 +7889,7 @@
       <c r="W8" s="5"/>
       <c r="X8" s="5"/>
       <c r="Y8" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Z8" s="10" t="s">
         <v>14</v>
@@ -7959,7 +7905,7 @@
         <v>117</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>15</v>
@@ -7968,7 +7914,7 @@
         <v>104</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>15</v>
@@ -7979,7 +7925,7 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K9" s="5" t="s">
         <v>66</v>
@@ -7992,7 +7938,7 @@
         <v>110</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>15</v>
@@ -8003,7 +7949,7 @@
       <c r="R9" s="10"/>
       <c r="S9" s="10"/>
       <c r="T9" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="U9" s="5" t="s">
         <v>15</v>
@@ -8014,7 +7960,7 @@
       <c r="W9" s="5"/>
       <c r="X9" s="5"/>
       <c r="Y9" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Z9" s="10" t="s">
         <v>15</v>
@@ -8051,7 +7997,7 @@
       <c r="W10" s="5"/>
       <c r="X10" s="5"/>
       <c r="Y10" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Z10" s="10" t="s">
         <v>18</v>
@@ -8092,7 +8038,7 @@
       <c r="W11" s="5"/>
       <c r="X11" s="5"/>
       <c r="Y11" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Z11" s="10" t="s">
         <v>19</v>
@@ -8131,7 +8077,7 @@
       <c r="W12" s="5"/>
       <c r="X12" s="5"/>
       <c r="Y12" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Z12" s="10" t="s">
         <v>27</v>
@@ -8172,7 +8118,7 @@
       <c r="W13" s="5"/>
       <c r="X13" s="5"/>
       <c r="Y13" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Z13" s="10" t="s">
         <v>28</v>
@@ -8190,59 +8136,59 @@
         <v>117</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>12</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L14" s="5" t="s">
         <v>61</v>
       </c>
       <c r="M14" s="5"/>
       <c r="N14" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="R14" s="10"/>
       <c r="S14" s="10"/>
       <c r="T14" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="U14" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="V14" s="5" t="s">
         <v>192</v>
-      </c>
-      <c r="U14" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="V14" s="5" t="s">
-        <v>193</v>
       </c>
       <c r="W14" s="5"/>
       <c r="X14" s="5"/>
@@ -8257,59 +8203,59 @@
         <v>117</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>12</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L15" s="5" t="s">
         <v>61</v>
       </c>
       <c r="M15" s="5"/>
       <c r="N15" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="R15" s="10"/>
       <c r="S15" s="10"/>
       <c r="T15" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="U15" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="V15" s="5" t="s">
         <v>192</v>
-      </c>
-      <c r="U15" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="V15" s="5" t="s">
-        <v>193</v>
       </c>
       <c r="W15" s="5"/>
       <c r="X15" s="5"/>
@@ -8330,10 +8276,10 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="K16" s="8" t="s">
         <v>194</v>
-      </c>
-      <c r="K16" s="8" t="s">
-        <v>195</v>
       </c>
       <c r="L16" s="8" t="s">
         <v>29</v>
@@ -8367,10 +8313,10 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L17" s="8" t="s">
         <v>61</v>
@@ -8404,10 +8350,10 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L18" s="8" t="s">
         <v>61</v>
@@ -8441,10 +8387,10 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L19" s="8" t="s">
         <v>61</v>
@@ -8478,13 +8424,13 @@
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
@@ -8515,10 +8461,10 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L21" s="8" t="s">
         <v>61</v>
@@ -8552,10 +8498,10 @@
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L22" s="8" t="s">
         <v>61</v>
@@ -8589,10 +8535,10 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L23" s="8" t="s">
         <v>61</v>
@@ -8626,13 +8572,13 @@
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L24" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
@@ -8663,10 +8609,10 @@
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L25" s="8" t="s">
         <v>61</v>
@@ -8700,10 +8646,10 @@
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L26" s="8" t="s">
         <v>61</v>
@@ -8737,10 +8683,10 @@
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L27" s="8" t="s">
         <v>61</v>
@@ -8774,10 +8720,10 @@
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L28" s="8" t="s">
         <v>33</v>
@@ -8811,10 +8757,10 @@
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
       <c r="J29" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K29" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L29" s="8" t="s">
         <v>61</v>
@@ -8848,10 +8794,10 @@
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
       <c r="J30" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K30" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L30" s="8" t="s">
         <v>61</v>
@@ -8885,10 +8831,10 @@
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
       <c r="J31" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K31" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L31" s="8" t="s">
         <v>61</v>
@@ -8922,13 +8868,13 @@
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
       <c r="J32" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K32" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L32" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
@@ -8959,10 +8905,10 @@
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
       <c r="J33" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L33" s="8" t="s">
         <v>61</v>
@@ -8996,10 +8942,10 @@
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K34" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L34" s="8" t="s">
         <v>61</v>
@@ -9033,10 +8979,10 @@
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
       <c r="J35" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K35" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L35" s="8" t="s">
         <v>61</v>
@@ -9070,7 +9016,7 @@
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
       <c r="J36" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K36" s="8" t="s">
         <v>85</v>
@@ -9107,7 +9053,7 @@
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
       <c r="J37" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K37" s="8" t="s">
         <v>86</v>
@@ -9144,7 +9090,7 @@
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
       <c r="J38" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K38" s="8" t="s">
         <v>87</v>
@@ -9181,7 +9127,7 @@
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
       <c r="J39" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K39" s="8" t="s">
         <v>88</v>
@@ -9218,7 +9164,7 @@
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
       <c r="J40" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K40" s="8" t="s">
         <v>89</v>
@@ -9255,7 +9201,7 @@
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
       <c r="J41" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K41" s="8" t="s">
         <v>90</v>
@@ -9292,7 +9238,7 @@
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
       <c r="J42" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K42" s="8" t="s">
         <v>91</v>
@@ -9329,7 +9275,7 @@
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
       <c r="J43" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K43" s="8" t="s">
         <v>92</v>
@@ -9366,7 +9312,7 @@
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
       <c r="J44" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K44" s="8" t="s">
         <v>101</v>
@@ -9408,17 +9354,17 @@
       <c r="M45" s="5"/>
       <c r="N45" s="5"/>
       <c r="O45" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="P45" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>276</v>
-      </c>
       <c r="Q45" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="R45" s="10"/>
       <c r="S45" s="14" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="T45" s="5"/>
       <c r="U45" s="5"/>
@@ -9447,17 +9393,17 @@
       <c r="M46" s="5"/>
       <c r="N46" s="5"/>
       <c r="O46" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P46" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="Q46" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="R46" s="10"/>
       <c r="S46" s="14" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="T46" s="5"/>
       <c r="U46" s="5"/>
@@ -9486,17 +9432,17 @@
       <c r="M47" s="5"/>
       <c r="N47" s="5"/>
       <c r="O47" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P47" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Q47" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="R47" s="10"/>
       <c r="S47" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="T47" s="5"/>
       <c r="U47" s="5"/>
@@ -9530,7 +9476,7 @@
       <c r="R48" s="10"/>
       <c r="S48" s="10"/>
       <c r="T48" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="U48" s="8" t="s">
         <v>40</v>
@@ -9567,7 +9513,7 @@
       <c r="R49" s="10"/>
       <c r="S49" s="10"/>
       <c r="T49" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="U49" s="8" t="s">
         <v>41</v>
@@ -9604,7 +9550,7 @@
       <c r="R50" s="10"/>
       <c r="S50" s="10"/>
       <c r="T50" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="U50" s="8" t="s">
         <v>42</v>
@@ -9641,7 +9587,7 @@
       <c r="R51" s="10"/>
       <c r="S51" s="10"/>
       <c r="T51" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="U51" s="8" t="s">
         <v>43</v>
@@ -9678,7 +9624,7 @@
       <c r="R52" s="10"/>
       <c r="S52" s="10"/>
       <c r="T52" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="U52" s="8" t="s">
         <v>44</v>
@@ -9715,7 +9661,7 @@
       <c r="R53" s="10"/>
       <c r="S53" s="10"/>
       <c r="T53" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="U53" s="8" t="s">
         <v>45</v>
@@ -9752,7 +9698,7 @@
       <c r="R54" s="10"/>
       <c r="S54" s="10"/>
       <c r="T54" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="U54" s="8" t="s">
         <v>46</v>
@@ -9789,7 +9735,7 @@
       <c r="R55" s="10"/>
       <c r="S55" s="10"/>
       <c r="T55" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="U55" s="8" t="s">
         <v>47</v>
@@ -9826,7 +9772,7 @@
       <c r="R56" s="10"/>
       <c r="S56" s="10"/>
       <c r="T56" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="U56" s="8" t="s">
         <v>48</v>
@@ -9863,7 +9809,7 @@
       <c r="R57" s="10"/>
       <c r="S57" s="10"/>
       <c r="T57" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="U57" s="8" t="s">
         <v>49</v>
@@ -9900,7 +9846,7 @@
       <c r="R58" s="10"/>
       <c r="S58" s="10"/>
       <c r="T58" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="U58" s="5" t="s">
         <v>50</v>
@@ -9939,7 +9885,7 @@
       <c r="R59" s="10"/>
       <c r="S59" s="10"/>
       <c r="T59" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="U59" s="8" t="s">
         <v>51</v>
@@ -9976,7 +9922,7 @@
       <c r="R60" s="10"/>
       <c r="S60" s="10"/>
       <c r="T60" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="U60" s="8" t="s">
         <v>52</v>
@@ -10013,7 +9959,7 @@
       <c r="R61" s="10"/>
       <c r="S61" s="10"/>
       <c r="T61" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="U61" s="5" t="s">
         <v>53</v>
@@ -10089,47 +10035,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="16" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="15" t="s">
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="18" t="s">
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="15" t="s">
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
-      <c r="X1" s="15"/>
-      <c r="Y1" s="17" t="s">
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="Z1" s="17"/>
-      <c r="AA1" s="17"/>
-      <c r="AB1" s="17"/>
-      <c r="AC1" s="17"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="26"/>
     </row>
     <row r="2" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
@@ -10246,10 +10192,10 @@
       <c r="W3" s="5"/>
       <c r="X3" s="5"/>
       <c r="Y3" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="Z3" s="10" t="s">
         <v>222</v>
-      </c>
-      <c r="Z3" s="10" t="s">
-        <v>223</v>
       </c>
       <c r="AA3" s="10" t="s">
         <v>29</v>
@@ -10266,19 +10212,19 @@
         <v>117</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>257</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>258</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>29</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>257</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>258</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>29</v>
@@ -10288,20 +10234,20 @@
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>29</v>
       </c>
       <c r="M4" s="5"/>
       <c r="N4" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="P4" s="3" t="s">
         <v>37</v>
@@ -10312,7 +10258,7 @@
       <c r="R4" s="10"/>
       <c r="S4" s="10"/>
       <c r="T4" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="U4" s="5" t="s">
         <v>37</v>
@@ -10323,10 +10269,10 @@
       <c r="W4" s="5"/>
       <c r="X4" s="5"/>
       <c r="Y4" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="Z4" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AA4" s="10" t="s">
         <v>29</v>
@@ -10341,19 +10287,19 @@
         <v>117</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>103</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>103</v>
@@ -10363,20 +10309,20 @@
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>61</v>
       </c>
       <c r="M5" s="5"/>
       <c r="N5" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="P5" s="3" t="s">
         <v>13</v>
@@ -10387,7 +10333,7 @@
       <c r="R5" s="13"/>
       <c r="S5" s="10"/>
       <c r="T5" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="U5" s="5" t="s">
         <v>13</v>
@@ -10400,10 +10346,10 @@
       </c>
       <c r="X5" s="5"/>
       <c r="Y5" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="Z5" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AA5" s="10" t="s">
         <v>31</v>
@@ -10434,10 +10380,10 @@
       <c r="R6" s="10"/>
       <c r="S6" s="10"/>
       <c r="T6" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="U6" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="V6" s="5" t="s">
         <v>39</v>
@@ -10446,13 +10392,13 @@
         <v>57</v>
       </c>
       <c r="X6" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Y6" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="Z6" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AA6" s="10" t="s">
         <v>31</v>
@@ -10488,7 +10434,7 @@
       <c r="W7" s="5"/>
       <c r="X7" s="5"/>
       <c r="Y7" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="Z7" s="10" t="s">
         <v>28</v>
@@ -10506,19 +10452,19 @@
         <v>117</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>29</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>29</v>
@@ -10526,10 +10472,10 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L8" s="8" t="s">
         <v>29</v>
@@ -10557,19 +10503,19 @@
         <v>117</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>29</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>29</v>
@@ -10577,23 +10523,23 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L9" s="11" t="s">
         <v>29</v>
       </c>
       <c r="M9" s="11"/>
       <c r="N9" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="O9" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>274</v>
-      </c>
       <c r="P9" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="Q9" s="3" t="s">
         <v>39</v>
@@ -10601,17 +10547,17 @@
       <c r="R9" s="10"/>
       <c r="S9" s="10"/>
       <c r="T9" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="U9" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="V9" s="5" t="s">
         <v>39</v>
       </c>
       <c r="W9" s="5"/>
       <c r="X9" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Y9" s="10"/>
       <c r="Z9" s="10"/>
@@ -10624,33 +10570,33 @@
         <v>117</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
@@ -10712,10 +10658,10 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L12" s="8" t="s">
         <v>29</v>
@@ -10749,10 +10695,10 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L13" s="8" t="s">
         <v>61</v>
@@ -10786,10 +10732,10 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L14" s="8" t="s">
         <v>61</v>
@@ -10823,10 +10769,10 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L15" s="8" t="s">
         <v>61</v>
@@ -10860,10 +10806,10 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L16" s="8" t="s">
         <v>103</v>
@@ -10897,10 +10843,10 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L17" s="8" t="s">
         <v>61</v>
@@ -10934,10 +10880,10 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L18" s="8" t="s">
         <v>61</v>
@@ -10971,10 +10917,10 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L19" s="8" t="s">
         <v>61</v>
@@ -11008,10 +10954,10 @@
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L20" s="8" t="s">
         <v>29</v>
@@ -11045,10 +10991,10 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L21" s="8" t="s">
         <v>61</v>
@@ -11082,10 +11028,10 @@
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="L22" s="8" t="s">
         <v>61</v>
@@ -11119,10 +11065,10 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L23" s="8" t="s">
         <v>61</v>
@@ -11156,7 +11102,7 @@
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="K24" s="8" t="s">
         <v>101</v>
@@ -11218,19 +11164,19 @@
         <v>117</v>
       </c>
       <c r="B26" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>261</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>262</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>29</v>
       </c>
       <c r="E26" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>261</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>262</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>29</v>
@@ -11240,20 +11186,20 @@
       </c>
       <c r="I26" s="3"/>
       <c r="J26" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L26" s="5" t="s">
         <v>29</v>
       </c>
       <c r="M26" s="5"/>
       <c r="N26" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P26" s="3" t="s">
         <v>37</v>
@@ -11279,19 +11225,19 @@
         <v>117</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>104</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>104</v>
@@ -11301,20 +11247,20 @@
       </c>
       <c r="I27" s="3"/>
       <c r="J27" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L27" s="5" t="s">
         <v>61</v>
       </c>
       <c r="M27" s="5"/>
       <c r="N27" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P27" s="3" t="s">
         <v>13</v>
@@ -11340,30 +11286,30 @@
         <v>117</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D28" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="F28" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="E28" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>266</v>
-      </c>
       <c r="G28" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L28" s="5" t="s">
         <v>61</v>
@@ -11397,10 +11343,10 @@
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
       <c r="J29" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K29" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L29" s="8" t="s">
         <v>29</v>
@@ -11434,10 +11380,10 @@
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
       <c r="J30" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K30" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L30" s="8" t="s">
         <v>61</v>
@@ -11471,10 +11417,10 @@
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
       <c r="J31" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K31" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="L31" s="8" t="s">
         <v>61</v>
@@ -11508,10 +11454,10 @@
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
       <c r="J32" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K32" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L32" s="8" t="s">
         <v>61</v>
@@ -11545,10 +11491,10 @@
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
       <c r="J33" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L33" s="8" t="s">
         <v>104</v>
@@ -11582,10 +11528,10 @@
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K34" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L34" s="8" t="s">
         <v>61</v>
@@ -11619,10 +11565,10 @@
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
       <c r="J35" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K35" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L35" s="8" t="s">
         <v>61</v>
@@ -11656,10 +11602,10 @@
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
       <c r="J36" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K36" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L36" s="8" t="s">
         <v>61</v>
@@ -11693,7 +11639,7 @@
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
       <c r="J37" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K37" s="8" t="s">
         <v>101</v>
@@ -11735,17 +11681,17 @@
       <c r="M38" s="5"/>
       <c r="N38" s="5"/>
       <c r="O38" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P38" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Q38" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="R38" s="10"/>
       <c r="S38" s="14" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="T38" s="5"/>
       <c r="U38" s="5"/>
@@ -11774,17 +11720,17 @@
       <c r="M39" s="5"/>
       <c r="N39" s="5"/>
       <c r="O39" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P39" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="Q39" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="R39" s="10"/>
       <c r="S39" s="14" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="T39" s="5"/>
       <c r="U39" s="5"/>
@@ -11813,17 +11759,17 @@
       <c r="M40" s="5"/>
       <c r="N40" s="5"/>
       <c r="O40" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P40" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Q40" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="R40" s="10"/>
       <c r="S40" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="T40" s="5"/>
       <c r="U40" s="5"/>
@@ -11852,17 +11798,17 @@
       <c r="M41" s="5"/>
       <c r="N41" s="5"/>
       <c r="O41" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="P41" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Q41" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="R41" s="10"/>
       <c r="S41" s="14" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="T41" s="5"/>
       <c r="U41" s="5"/>
@@ -11891,17 +11837,17 @@
       <c r="M42" s="5"/>
       <c r="N42" s="5"/>
       <c r="O42" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="P42" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="Q42" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="R42" s="10"/>
       <c r="S42" s="14" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="T42" s="5"/>
       <c r="U42" s="5"/>
@@ -11930,17 +11876,17 @@
       <c r="M43" s="5"/>
       <c r="N43" s="5"/>
       <c r="O43" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="P43" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Q43" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="R43" s="10"/>
       <c r="S43" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="T43" s="5"/>
       <c r="U43" s="5"/>
@@ -11974,7 +11920,7 @@
       <c r="R44" s="10"/>
       <c r="S44" s="10"/>
       <c r="T44" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="U44" s="8" t="s">
         <v>40</v>
@@ -12011,7 +11957,7 @@
       <c r="R45" s="10"/>
       <c r="S45" s="10"/>
       <c r="T45" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="U45" s="8" t="s">
         <v>41</v>
@@ -12048,7 +11994,7 @@
       <c r="R46" s="10"/>
       <c r="S46" s="10"/>
       <c r="T46" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="U46" s="8" t="s">
         <v>42</v>
@@ -12085,7 +12031,7 @@
       <c r="R47" s="10"/>
       <c r="S47" s="10"/>
       <c r="T47" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="U47" s="8" t="s">
         <v>43</v>
@@ -12122,7 +12068,7 @@
       <c r="R48" s="10"/>
       <c r="S48" s="10"/>
       <c r="T48" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="U48" s="8" t="s">
         <v>44</v>
@@ -12159,7 +12105,7 @@
       <c r="R49" s="10"/>
       <c r="S49" s="10"/>
       <c r="T49" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="U49" s="8" t="s">
         <v>45</v>
@@ -12196,7 +12142,7 @@
       <c r="R50" s="10"/>
       <c r="S50" s="10"/>
       <c r="T50" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="U50" s="8" t="s">
         <v>46</v>
@@ -12233,10 +12179,10 @@
       <c r="R51" s="10"/>
       <c r="S51" s="10"/>
       <c r="T51" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="U51" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="V51" s="8" t="s">
         <v>29</v>
@@ -12270,7 +12216,7 @@
       <c r="R52" s="10"/>
       <c r="S52" s="10"/>
       <c r="T52" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="U52" s="8" t="s">
         <v>47</v>
@@ -12307,7 +12253,7 @@
       <c r="R53" s="10"/>
       <c r="S53" s="10"/>
       <c r="T53" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="U53" s="8" t="s">
         <v>48</v>
@@ -12344,7 +12290,7 @@
       <c r="R54" s="10"/>
       <c r="S54" s="10"/>
       <c r="T54" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="U54" s="8" t="s">
         <v>49</v>
@@ -12381,7 +12327,7 @@
       <c r="R55" s="10"/>
       <c r="S55" s="10"/>
       <c r="T55" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="U55" s="5" t="s">
         <v>50</v>
@@ -12420,7 +12366,7 @@
       <c r="R56" s="10"/>
       <c r="S56" s="10"/>
       <c r="T56" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="U56" s="8" t="s">
         <v>51</v>
@@ -12457,7 +12403,7 @@
       <c r="R57" s="10"/>
       <c r="S57" s="10"/>
       <c r="T57" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="U57" s="8" t="s">
         <v>52</v>
@@ -12494,7 +12440,7 @@
       <c r="R58" s="10"/>
       <c r="S58" s="10"/>
       <c r="T58" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="U58" s="5" t="s">
         <v>53</v>
@@ -12530,8 +12476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE506E6D-FDB6-42A6-8384-1E788212D2E3}">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:N1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12548,31 +12494,31 @@
     <col min="10" max="10" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22.88671875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="38.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="39.5546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="73" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="16" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="15" t="s">
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
@@ -12623,19 +12569,19 @@
         <v>117</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>29</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>29</v>
@@ -12645,10 +12591,10 @@
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="K3" s="5" t="s">
         <v>288</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>289</v>
       </c>
       <c r="L3" s="5" t="s">
         <v>29</v>
@@ -12669,19 +12615,19 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>29</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -12689,7 +12635,7 @@
         <v>117</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>11</v>
@@ -12698,7 +12644,7 @@
         <v>102</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>11</v>
@@ -12709,7 +12655,7 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>8</v>
@@ -12718,10 +12664,10 @@
         <v>29</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -12729,19 +12675,19 @@
         <v>117</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>29</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>29</v>
@@ -12749,19 +12695,19 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L6" s="5" t="s">
         <v>29</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
@@ -12769,120 +12715,114 @@
         <v>117</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>29</v>
+        <v>146</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>306</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="N7" s="5"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>117</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>29</v>
+        <v>146</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>307</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="N8" s="5"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>117</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>29</v>
+        <v>146</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="N9" s="5" t="s">
-        <v>308</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="N9" s="5"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
@@ -12895,19 +12835,19 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -12921,19 +12861,19 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L11" s="5" t="s">
         <v>29</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
@@ -12947,19 +12887,19 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="M12" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="N12" s="5" t="s">
         <v>313</v>
-      </c>
-      <c r="N12" s="5" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
@@ -12973,19 +12913,19 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -12999,19 +12939,19 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
@@ -13025,7 +12965,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K15" s="5" t="s">
         <v>28</v>
@@ -13034,7 +12974,7 @@
         <v>29</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="N15" s="5"/>
     </row>
@@ -13043,19 +12983,19 @@
         <v>117</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>104</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>104</v>
@@ -13073,19 +13013,19 @@
         <v>117</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>104</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>104</v>
@@ -13103,19 +13043,19 @@
         <v>117</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>29</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>29</v>
@@ -13135,19 +13075,19 @@
         <v>117</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>29</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>29</v>
@@ -13167,22 +13107,22 @@
         <v>117</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>12</v>
@@ -13199,22 +13139,22 @@
         <v>117</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>12</v>
@@ -13231,22 +13171,22 @@
         <v>117</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>12</v>

--- a/Docs/Source to target mapping.xlsx
+++ b/Docs/Source to target mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zinyk\source\repos\Northwind_BI_Solution\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E45071-0A75-4307-84B7-D79610DD4092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BADB19E-B31D-4FE4-B17D-C9C3D0D6AD57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="558" activeTab="4" xr2:uid="{4088A55A-653F-450D-AAB8-4D657457B3B6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="558" activeTab="3" xr2:uid="{4088A55A-653F-450D-AAB8-4D657457B3B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Customer" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1546" uniqueCount="338">
   <si>
     <t>Source</t>
   </si>
@@ -799,9 +799,6 @@
   </si>
   <si>
     <t>CategoryName_Status</t>
-  </si>
-  <si>
-    <t>Description_Output</t>
   </si>
   <si>
     <t>MONEY</t>
@@ -1056,6 +1053,15 @@
   </si>
   <si>
     <t>ISNULL 1995-12-31 &amp; exists in Dimension.Date</t>
+  </si>
+  <si>
+    <t>CheckSum</t>
+  </si>
+  <si>
+    <t>CHECKSUM ( * )</t>
+  </si>
+  <si>
+    <t>NOT LOOKUP HASH TABLE</t>
   </si>
 </sst>
 </file>
@@ -1636,11 +1642,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{438DCF2F-B5A9-4CE2-9803-6BD6F67BD7E5}">
-  <dimension ref="A1:AC65"/>
+  <dimension ref="A1:AC66"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="T1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y1" sqref="Y1:AC1"/>
+      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1652,7 +1658,7 @@
     <col min="5" max="5" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.77734375" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.109375" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.109375" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="24.109375" style="4" bestFit="1" customWidth="1"/>
@@ -1885,7 +1891,7 @@
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
       <c r="O4" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="P4" s="3" t="s">
         <v>37</v>
@@ -1958,7 +1964,7 @@
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
       <c r="O5" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="P5" s="3" t="s">
         <v>13</v>
@@ -2033,7 +2039,7 @@
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="P6" s="3" t="s">
         <v>24</v>
@@ -2104,7 +2110,7 @@
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
       <c r="O7" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="P7" s="3" t="s">
         <v>25</v>
@@ -2175,7 +2181,7 @@
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
       <c r="O8" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>14</v>
@@ -2246,7 +2252,7 @@
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
       <c r="O9" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>15</v>
@@ -2317,7 +2323,7 @@
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
       <c r="O10" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>16</v>
@@ -2388,7 +2394,7 @@
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
       <c r="O11" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="P11" s="3" t="s">
         <v>26</v>
@@ -2588,20 +2594,24 @@
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="K16" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="L16" s="8" t="s">
-        <v>102</v>
-      </c>
+      <c r="E16" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
       <c r="O16" s="3"/>
@@ -2634,10 +2644,10 @@
         <v>59</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
@@ -2671,7 +2681,7 @@
         <v>59</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L18" s="8" t="s">
         <v>61</v>
@@ -2708,7 +2718,7 @@
         <v>59</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L19" s="8" t="s">
         <v>61</v>
@@ -2745,10 +2755,10 @@
         <v>59</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>103</v>
+        <v>61</v>
       </c>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
@@ -2782,10 +2792,10 @@
         <v>59</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
@@ -2819,7 +2829,7 @@
         <v>59</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L22" s="8" t="s">
         <v>61</v>
@@ -2856,7 +2866,7 @@
         <v>59</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L23" s="8" t="s">
         <v>61</v>
@@ -2893,10 +2903,10 @@
         <v>59</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L24" s="8" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
@@ -2930,10 +2940,10 @@
         <v>59</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
@@ -2967,7 +2977,7 @@
         <v>59</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L26" s="8" t="s">
         <v>61</v>
@@ -3004,7 +3014,7 @@
         <v>59</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L27" s="8" t="s">
         <v>61</v>
@@ -3041,10 +3051,10 @@
         <v>59</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L28" s="8" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
@@ -3078,10 +3088,10 @@
         <v>59</v>
       </c>
       <c r="K29" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
@@ -3115,7 +3125,7 @@
         <v>59</v>
       </c>
       <c r="K30" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L30" s="8" t="s">
         <v>61</v>
@@ -3152,7 +3162,7 @@
         <v>59</v>
       </c>
       <c r="K31" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L31" s="8" t="s">
         <v>61</v>
@@ -3189,10 +3199,10 @@
         <v>59</v>
       </c>
       <c r="K32" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L32" s="8" t="s">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
@@ -3226,10 +3236,10 @@
         <v>59</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L33" s="8" t="s">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>
@@ -3263,7 +3273,7 @@
         <v>59</v>
       </c>
       <c r="K34" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L34" s="8" t="s">
         <v>61</v>
@@ -3300,7 +3310,7 @@
         <v>59</v>
       </c>
       <c r="K35" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L35" s="8" t="s">
         <v>61</v>
@@ -3337,10 +3347,10 @@
         <v>59</v>
       </c>
       <c r="K36" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L36" s="8" t="s">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="M36" s="5"/>
       <c r="N36" s="5"/>
@@ -3374,10 +3384,10 @@
         <v>59</v>
       </c>
       <c r="K37" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L37" s="8" t="s">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="M37" s="5"/>
       <c r="N37" s="5"/>
@@ -3411,7 +3421,7 @@
         <v>59</v>
       </c>
       <c r="K38" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L38" s="8" t="s">
         <v>61</v>
@@ -3448,7 +3458,7 @@
         <v>59</v>
       </c>
       <c r="K39" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L39" s="8" t="s">
         <v>61</v>
@@ -3485,10 +3495,10 @@
         <v>59</v>
       </c>
       <c r="K40" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L40" s="8" t="s">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="M40" s="5"/>
       <c r="N40" s="5"/>
@@ -3522,10 +3532,10 @@
         <v>59</v>
       </c>
       <c r="K41" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L41" s="8" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="M41" s="5"/>
       <c r="N41" s="5"/>
@@ -3559,7 +3569,7 @@
         <v>59</v>
       </c>
       <c r="K42" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L42" s="8" t="s">
         <v>61</v>
@@ -3596,7 +3606,7 @@
         <v>59</v>
       </c>
       <c r="K43" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L43" s="8" t="s">
         <v>61</v>
@@ -3633,10 +3643,10 @@
         <v>59</v>
       </c>
       <c r="K44" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L44" s="8" t="s">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="M44" s="5"/>
       <c r="N44" s="5"/>
@@ -3670,10 +3680,10 @@
         <v>59</v>
       </c>
       <c r="K45" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L45" s="8" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="M45" s="5"/>
       <c r="N45" s="5"/>
@@ -3707,7 +3717,7 @@
         <v>59</v>
       </c>
       <c r="K46" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L46" s="8" t="s">
         <v>61</v>
@@ -3744,7 +3754,7 @@
         <v>59</v>
       </c>
       <c r="K47" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L47" s="8" t="s">
         <v>61</v>
@@ -3781,7 +3791,7 @@
         <v>59</v>
       </c>
       <c r="K48" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L48" s="8" t="s">
         <v>61</v>
@@ -3814,24 +3824,22 @@
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="8"/>
-      <c r="L49" s="8"/>
+      <c r="J49" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K49" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="L49" s="8" t="s">
+        <v>61</v>
+      </c>
       <c r="M49" s="5"/>
       <c r="N49" s="5"/>
-      <c r="O49" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="P49" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q49" s="3" t="s">
-        <v>278</v>
-      </c>
+      <c r="O49" s="3"/>
+      <c r="P49" s="3"/>
+      <c r="Q49" s="3"/>
       <c r="R49" s="3"/>
-      <c r="S49" s="3" t="s">
-        <v>280</v>
-      </c>
+      <c r="S49" s="3"/>
       <c r="T49" s="5"/>
       <c r="U49" s="5"/>
       <c r="V49" s="5"/>
@@ -3859,17 +3867,17 @@
       <c r="M50" s="5"/>
       <c r="N50" s="5"/>
       <c r="O50" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="P50" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="Q50" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="R50" s="3"/>
       <c r="S50" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="T50" s="5"/>
       <c r="U50" s="5"/>
@@ -3898,17 +3906,17 @@
       <c r="M51" s="5"/>
       <c r="N51" s="5"/>
       <c r="O51" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="P51" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q51" s="3" t="s">
         <v>277</v>
-      </c>
-      <c r="Q51" s="3" t="s">
-        <v>279</v>
       </c>
       <c r="R51" s="3"/>
       <c r="S51" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="T51" s="5"/>
       <c r="U51" s="5"/>
@@ -3931,25 +3939,27 @@
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
-      <c r="J52" s="5"/>
-      <c r="K52" s="5"/>
-      <c r="L52" s="5"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="8"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
-      <c r="O52" s="3"/>
-      <c r="P52" s="3"/>
-      <c r="Q52" s="3"/>
+      <c r="O52" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>278</v>
+      </c>
       <c r="R52" s="3"/>
-      <c r="S52" s="3"/>
-      <c r="T52" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="U52" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="V52" s="5" t="s">
-        <v>29</v>
-      </c>
+      <c r="S52" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="T52" s="5"/>
+      <c r="U52" s="5"/>
+      <c r="V52" s="5"/>
       <c r="W52" s="5"/>
       <c r="X52" s="5"/>
       <c r="Y52" s="10"/>
@@ -3982,10 +3992,10 @@
         <v>38</v>
       </c>
       <c r="U53" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V53" s="5" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="W53" s="5"/>
       <c r="X53" s="5"/>
@@ -4019,10 +4029,10 @@
         <v>38</v>
       </c>
       <c r="U54" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V54" s="5" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="W54" s="5"/>
       <c r="X54" s="5"/>
@@ -4056,10 +4066,10 @@
         <v>38</v>
       </c>
       <c r="U55" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V55" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="W55" s="5"/>
       <c r="X55" s="5"/>
@@ -4093,7 +4103,7 @@
         <v>38</v>
       </c>
       <c r="U56" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="V56" s="5" t="s">
         <v>29</v>
@@ -4130,10 +4140,10 @@
         <v>38</v>
       </c>
       <c r="U57" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="V57" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="W57" s="5"/>
       <c r="X57" s="5"/>
@@ -4167,10 +4177,10 @@
         <v>38</v>
       </c>
       <c r="U58" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V58" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="W58" s="5"/>
       <c r="X58" s="5"/>
@@ -4204,10 +4214,10 @@
         <v>38</v>
       </c>
       <c r="U59" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="V59" s="5" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="W59" s="5"/>
       <c r="X59" s="5"/>
@@ -4241,10 +4251,10 @@
         <v>38</v>
       </c>
       <c r="U60" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="V60" s="5" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="W60" s="5"/>
       <c r="X60" s="5"/>
@@ -4278,10 +4288,10 @@
         <v>38</v>
       </c>
       <c r="U61" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="V61" s="5" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="W61" s="5"/>
       <c r="X61" s="5"/>
@@ -4315,14 +4325,12 @@
         <v>38</v>
       </c>
       <c r="U62" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V62" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="W62" s="5" t="s">
-        <v>56</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="W62" s="5"/>
       <c r="X62" s="5"/>
       <c r="Y62" s="10"/>
       <c r="Z62" s="10"/>
@@ -4354,12 +4362,14 @@
         <v>38</v>
       </c>
       <c r="U63" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="V63" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="W63" s="5"/>
+        <v>34</v>
+      </c>
+      <c r="W63" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="X63" s="5"/>
       <c r="Y63" s="10"/>
       <c r="Z63" s="10"/>
@@ -4391,10 +4401,10 @@
         <v>38</v>
       </c>
       <c r="U64" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="V64" s="5" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="W64" s="5"/>
       <c r="X64" s="5"/>
@@ -4428,20 +4438,57 @@
         <v>38</v>
       </c>
       <c r="U65" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V65" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="W65" s="5" t="s">
-        <v>58</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="W65" s="5"/>
       <c r="X65" s="5"/>
       <c r="Y65" s="10"/>
       <c r="Z65" s="10"/>
       <c r="AA65" s="10"/>
       <c r="AB65" s="10"/>
       <c r="AC65" s="10"/>
+    </row>
+    <row r="66" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A66" s="5"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="5"/>
+      <c r="K66" s="5"/>
+      <c r="L66" s="5"/>
+      <c r="M66" s="5"/>
+      <c r="N66" s="5"/>
+      <c r="O66" s="3"/>
+      <c r="P66" s="3"/>
+      <c r="Q66" s="3"/>
+      <c r="R66" s="3"/>
+      <c r="S66" s="3"/>
+      <c r="T66" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="U66" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="V66" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="W66" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="X66" s="5"/>
+      <c r="Y66" s="10"/>
+      <c r="Z66" s="10"/>
+      <c r="AA66" s="10"/>
+      <c r="AB66" s="10"/>
+      <c r="AC66" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5604,7 +5651,7 @@
         <v>153</v>
       </c>
       <c r="AC27" s="22" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="28" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
@@ -5645,7 +5692,7 @@
         <v>153</v>
       </c>
       <c r="AC28" s="23" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="29" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
@@ -5686,18 +5733,18 @@
         <v>153</v>
       </c>
       <c r="AC29" s="23" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A30" s="20" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B30" s="20" t="s">
         <v>175</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D30" s="20" t="s">
         <v>176</v>
@@ -5707,7 +5754,7 @@
       <c r="G30" s="21"/>
       <c r="H30" s="21"/>
       <c r="I30" s="21" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J30" s="20"/>
       <c r="K30" s="20"/>
@@ -5732,7 +5779,7 @@
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A31" s="20" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B31" s="20" t="s">
         <v>175</v>
@@ -5766,7 +5813,7 @@
       <c r="M31" s="20"/>
       <c r="N31" s="20"/>
       <c r="O31" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="P31" s="21" t="s">
         <v>13</v>
@@ -5797,13 +5844,13 @@
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A32" s="20" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B32" s="20" t="s">
         <v>175</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D32" s="20" t="s">
         <v>176</v>
@@ -5836,7 +5883,7 @@
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A33" s="20" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B33" s="20" t="s">
         <v>177</v>
@@ -5874,7 +5921,7 @@
       <c r="M33" s="20"/>
       <c r="N33" s="20"/>
       <c r="O33" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="P33" s="21" t="s">
         <v>37</v>
@@ -5884,7 +5931,7 @@
       </c>
       <c r="R33" s="21"/>
       <c r="S33" s="21" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="T33" s="20" t="s">
         <v>150</v>
@@ -5905,7 +5952,7 @@
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A34" s="20" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B34" s="20" t="s">
         <v>177</v>
@@ -5943,7 +5990,7 @@
       <c r="M34" s="20"/>
       <c r="N34" s="20"/>
       <c r="O34" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="P34" s="21" t="s">
         <v>174</v>
@@ -5988,7 +6035,7 @@
       <c r="M35" s="20"/>
       <c r="N35" s="20"/>
       <c r="O35" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="P35" s="21" t="s">
         <v>118</v>
@@ -5998,7 +6045,7 @@
       </c>
       <c r="R35" s="21"/>
       <c r="S35" s="21" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="T35" s="20" t="s">
         <v>150</v>
@@ -6033,13 +6080,13 @@
       <c r="M36" s="20"/>
       <c r="N36" s="20"/>
       <c r="O36" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="P36" s="21" t="s">
         <v>145</v>
       </c>
       <c r="Q36" s="21" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="R36" s="21"/>
       <c r="S36" s="21"/>
@@ -6050,11 +6097,11 @@
         <v>145</v>
       </c>
       <c r="V36" s="20" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="W36" s="20"/>
       <c r="X36" s="25" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="Y36" s="22"/>
       <c r="Z36" s="22"/>
@@ -6064,13 +6111,13 @@
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A37" s="20" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B37" s="20" t="s">
         <v>177</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D37" s="20" t="s">
         <v>176</v>
@@ -6080,7 +6127,7 @@
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
       <c r="I37" s="21" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J37" s="20"/>
       <c r="K37" s="20"/>
@@ -6105,13 +6152,13 @@
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A38" s="20" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B38" s="20" t="s">
         <v>177</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D38" s="20" t="s">
         <v>176</v>
@@ -6144,13 +6191,13 @@
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A39" s="20" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B39" s="20" t="s">
         <v>177</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D39" s="20" t="s">
         <v>176</v>
@@ -6678,17 +6725,17 @@
       <c r="M53" s="20"/>
       <c r="N53" s="20"/>
       <c r="O53" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="P53" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q53" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="R53" s="3"/>
       <c r="S53" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="T53" s="20"/>
       <c r="U53" s="20"/>
@@ -6717,17 +6764,17 @@
       <c r="M54" s="20"/>
       <c r="N54" s="20"/>
       <c r="O54" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="P54" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Q54" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="R54" s="3"/>
       <c r="S54" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="T54" s="20"/>
       <c r="U54" s="20"/>
@@ -6756,17 +6803,17 @@
       <c r="M55" s="20"/>
       <c r="N55" s="20"/>
       <c r="O55" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="P55" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="Q55" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="R55" s="3"/>
       <c r="S55" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="T55" s="20"/>
       <c r="U55" s="20"/>
@@ -7600,10 +7647,10 @@
       </c>
       <c r="M4" s="5"/>
       <c r="N4" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="P4" s="3" t="s">
         <v>37</v>
@@ -7671,7 +7718,7 @@
         <v>57</v>
       </c>
       <c r="X5" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="Y5" s="10" t="s">
         <v>185</v>
@@ -7722,10 +7769,10 @@
       </c>
       <c r="M6" s="5"/>
       <c r="N6" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="P6" s="3" t="s">
         <v>186</v>
@@ -7793,10 +7840,10 @@
       </c>
       <c r="M7" s="5"/>
       <c r="N7" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="P7" s="3" t="s">
         <v>187</v>
@@ -7867,7 +7914,7 @@
         <v>111</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>14</v>
@@ -7938,7 +7985,7 @@
         <v>110</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>15</v>
@@ -8168,10 +8215,10 @@
       </c>
       <c r="M14" s="5"/>
       <c r="N14" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>190</v>
@@ -8235,10 +8282,10 @@
       </c>
       <c r="M15" s="5"/>
       <c r="N15" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>189</v>
@@ -9354,17 +9401,17 @@
       <c r="M45" s="5"/>
       <c r="N45" s="5"/>
       <c r="O45" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="P45" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>275</v>
-      </c>
       <c r="Q45" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="R45" s="10"/>
       <c r="S45" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="T45" s="5"/>
       <c r="U45" s="5"/>
@@ -9393,17 +9440,17 @@
       <c r="M46" s="5"/>
       <c r="N46" s="5"/>
       <c r="O46" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="P46" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Q46" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="R46" s="10"/>
       <c r="S46" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="T46" s="5"/>
       <c r="U46" s="5"/>
@@ -9432,17 +9479,17 @@
       <c r="M47" s="5"/>
       <c r="N47" s="5"/>
       <c r="O47" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="P47" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="Q47" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="R47" s="10"/>
       <c r="S47" s="10" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="T47" s="5"/>
       <c r="U47" s="5"/>
@@ -9995,9 +10042,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A4499F-EBCA-4E9B-AE48-94E9136B2D31}">
   <dimension ref="A1:AC58"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="T1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y1" sqref="Y1:AC1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10212,19 +10259,19 @@
         <v>117</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>256</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>257</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>29</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>256</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>257</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>29</v>
@@ -10244,10 +10291,10 @@
       </c>
       <c r="M4" s="5"/>
       <c r="N4" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P4" s="3" t="s">
         <v>37</v>
@@ -10287,19 +10334,19 @@
         <v>117</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>103</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>103</v>
@@ -10319,10 +10366,10 @@
       </c>
       <c r="M5" s="5"/>
       <c r="N5" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P5" s="3" t="s">
         <v>13</v>
@@ -10392,7 +10439,7 @@
         <v>57</v>
       </c>
       <c r="X6" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Y6" s="10" t="s">
         <v>221</v>
@@ -10452,19 +10499,19 @@
         <v>117</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>29</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>29</v>
@@ -10503,19 +10550,19 @@
         <v>117</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>29</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>29</v>
@@ -10533,10 +10580,10 @@
       </c>
       <c r="M9" s="11"/>
       <c r="N9" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="O9" s="3" t="s">
         <v>272</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>273</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>224</v>
@@ -10557,7 +10604,7 @@
       </c>
       <c r="W9" s="5"/>
       <c r="X9" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Y9" s="10"/>
       <c r="Z9" s="10"/>
@@ -10570,22 +10617,22 @@
         <v>117</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -10596,7 +10643,7 @@
         <v>247</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
@@ -11164,19 +11211,19 @@
         <v>117</v>
       </c>
       <c r="B26" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>260</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>261</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>29</v>
       </c>
       <c r="E26" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>260</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>261</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>29</v>
@@ -11196,10 +11243,10 @@
       </c>
       <c r="M26" s="5"/>
       <c r="N26" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="P26" s="3" t="s">
         <v>37</v>
@@ -11225,19 +11272,19 @@
         <v>117</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>104</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>104</v>
@@ -11257,10 +11304,10 @@
       </c>
       <c r="M27" s="5"/>
       <c r="N27" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="P27" s="3" t="s">
         <v>13</v>
@@ -11286,34 +11333,28 @@
         <v>117</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D28" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="F28" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="E28" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>265</v>
-      </c>
       <c r="G28" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
-      <c r="J28" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="K28" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="L28" s="5" t="s">
-        <v>61</v>
-      </c>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
       <c r="O28" s="3"/>
@@ -11681,17 +11722,17 @@
       <c r="M38" s="5"/>
       <c r="N38" s="5"/>
       <c r="O38" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="P38" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q38" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="R38" s="10"/>
       <c r="S38" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="T38" s="5"/>
       <c r="U38" s="5"/>
@@ -11720,17 +11761,17 @@
       <c r="M39" s="5"/>
       <c r="N39" s="5"/>
       <c r="O39" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="P39" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Q39" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="R39" s="10"/>
       <c r="S39" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="T39" s="5"/>
       <c r="U39" s="5"/>
@@ -11759,17 +11800,17 @@
       <c r="M40" s="5"/>
       <c r="N40" s="5"/>
       <c r="O40" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="P40" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="Q40" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="R40" s="10"/>
       <c r="S40" s="10" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="T40" s="5"/>
       <c r="U40" s="5"/>
@@ -11798,17 +11839,17 @@
       <c r="M41" s="5"/>
       <c r="N41" s="5"/>
       <c r="O41" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P41" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q41" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="R41" s="10"/>
       <c r="S41" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="T41" s="5"/>
       <c r="U41" s="5"/>
@@ -11837,17 +11878,17 @@
       <c r="M42" s="5"/>
       <c r="N42" s="5"/>
       <c r="O42" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P42" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Q42" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="R42" s="10"/>
       <c r="S42" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="T42" s="5"/>
       <c r="U42" s="5"/>
@@ -11876,17 +11917,17 @@
       <c r="M43" s="5"/>
       <c r="N43" s="5"/>
       <c r="O43" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P43" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="Q43" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="R43" s="10"/>
       <c r="S43" s="10" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="T43" s="5"/>
       <c r="U43" s="5"/>
@@ -12476,7 +12517,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE506E6D-FDB6-42A6-8384-1E788212D2E3}">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
@@ -12569,19 +12610,19 @@
         <v>117</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>29</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>29</v>
@@ -12591,10 +12632,10 @@
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="K3" s="5" t="s">
         <v>287</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>288</v>
       </c>
       <c r="L3" s="5" t="s">
         <v>29</v>
@@ -12615,7 +12656,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>222</v>
@@ -12624,10 +12665,10 @@
         <v>29</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -12635,7 +12676,7 @@
         <v>117</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>11</v>
@@ -12644,7 +12685,7 @@
         <v>102</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>11</v>
@@ -12655,7 +12696,7 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>8</v>
@@ -12664,10 +12705,10 @@
         <v>29</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -12675,7 +12716,7 @@
         <v>117</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>220</v>
@@ -12684,7 +12725,7 @@
         <v>29</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>220</v>
@@ -12695,7 +12736,7 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>183</v>
@@ -12704,10 +12745,10 @@
         <v>29</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
@@ -12715,36 +12756,36 @@
         <v>117</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L7" s="5" t="s">
         <v>146</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N7" s="5"/>
     </row>
@@ -12753,36 +12794,36 @@
         <v>117</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L8" s="5" t="s">
         <v>146</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N8" s="5"/>
     </row>
@@ -12791,36 +12832,36 @@
         <v>117</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L9" s="5" t="s">
         <v>146</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N9" s="5"/>
     </row>
@@ -12835,19 +12876,19 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -12861,19 +12902,19 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L11" s="5" t="s">
         <v>29</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
@@ -12887,19 +12928,19 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
@@ -12913,19 +12954,19 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -12939,19 +12980,19 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
@@ -12965,7 +13006,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="K15" s="5" t="s">
         <v>28</v>
@@ -12974,7 +13015,7 @@
         <v>29</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="N15" s="5"/>
     </row>
@@ -12983,19 +13024,19 @@
         <v>117</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>104</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>104</v>
@@ -13013,19 +13054,19 @@
         <v>117</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>104</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>104</v>
@@ -13043,19 +13084,19 @@
         <v>117</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>29</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>29</v>
@@ -13075,19 +13116,19 @@
         <v>117</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>29</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>29</v>
@@ -13107,22 +13148,22 @@
         <v>117</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>12</v>
@@ -13139,19 +13180,19 @@
         <v>117</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>148</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>148</v>
@@ -13171,22 +13212,22 @@
         <v>117</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>12</v>

--- a/Docs/Source to target mapping.xlsx
+++ b/Docs/Source to target mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zinyk\source\repos\Northwind_BI_Solution\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BADB19E-B31D-4FE4-B17D-C9C3D0D6AD57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E69233B6-D1B8-4A01-A545-C375917376DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="558" activeTab="3" xr2:uid="{4088A55A-653F-450D-AAB8-4D657457B3B6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="558" activeTab="4" xr2:uid="{4088A55A-653F-450D-AAB8-4D657457B3B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Customer" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1546" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1576" uniqueCount="344">
   <si>
     <t>Source</t>
   </si>
@@ -1058,10 +1058,28 @@
     <t>CheckSum</t>
   </si>
   <si>
-    <t>CHECKSUM ( * )</t>
-  </si>
-  <si>
     <t>NOT LOOKUP HASH TABLE</t>
+  </si>
+  <si>
+    <t>CHECKSUM ( [CompanyName], [ContactName], [ContactTitle], [City], [Country], [Phone], [Fax] )</t>
+  </si>
+  <si>
+    <t>CHECKSUM ( [Date], [DateType], [HolidayName] )</t>
+  </si>
+  <si>
+    <t>CHECKSUM ( [LastName], [FirstName], [Title], [TitleOfCourtesy], [City], [Country] )</t>
+  </si>
+  <si>
+    <t>CHECKSUM ( [ProductName], [CategoryID] )</t>
+  </si>
+  <si>
+    <t>CHECKSUM ( [CategoryName] )</t>
+  </si>
+  <si>
+    <t>CHECKSUM ( [CustomerID], [EmployeeID], [OrderDate], [RequiredDate], [ShippedDate] )</t>
+  </si>
+  <si>
+    <t>CHECKSUM ( [UnitPrice], [Quantity], [Discount] )</t>
   </si>
 </sst>
 </file>
@@ -1644,9 +1662,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{438DCF2F-B5A9-4CE2-9803-6BD6F67BD7E5}">
   <dimension ref="A1:AC66"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
+      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1659,7 +1677,7 @@
     <col min="6" max="6" width="13.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.44140625" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.77734375" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="80.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.109375" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="24.109375" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.21875" style="4" bestFit="1" customWidth="1"/>
@@ -2604,10 +2622,10 @@
         <v>29</v>
       </c>
       <c r="H16" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="I16" s="3" t="s">
         <v>337</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>336</v>
       </c>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
@@ -4506,11 +4524,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B97E252-2820-4653-A176-D819DD464AFE}">
-  <dimension ref="A1:AC70"/>
+  <dimension ref="A1:AC71"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="V1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z11" sqref="Z11"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4522,8 +4540,8 @@
     <col min="5" max="5" width="7.88671875" style="18" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" style="18" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.44140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.77734375" style="18" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.21875" style="18" customWidth="1"/>
+    <col min="8" max="8" width="22.77734375" style="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="90.5546875" style="18" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.88671875" style="18" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22.5546875" style="18" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.21875" style="18" bestFit="1" customWidth="1"/>
@@ -6228,42 +6246,46 @@
       <c r="AB39" s="22"/>
       <c r="AC39" s="22"/>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A40" s="20"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="21"/>
-      <c r="J40" s="15" t="s">
+    <row r="40" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="K40" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="L40" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="M40" s="20"/>
-      <c r="N40" s="20"/>
-      <c r="O40" s="21"/>
-      <c r="P40" s="21"/>
-      <c r="Q40" s="21"/>
-      <c r="R40" s="21"/>
-      <c r="S40" s="21"/>
-      <c r="T40" s="20"/>
-      <c r="U40" s="20"/>
-      <c r="V40" s="20"/>
-      <c r="W40" s="20"/>
-      <c r="X40" s="20"/>
-      <c r="Y40" s="22"/>
-      <c r="Z40" s="22"/>
-      <c r="AA40" s="22"/>
-      <c r="AB40" s="22"/>
-      <c r="AC40" s="22"/>
+      <c r="F40" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="5"/>
+      <c r="U40" s="5"/>
+      <c r="V40" s="5"/>
+      <c r="W40" s="5"/>
+      <c r="X40" s="5"/>
+      <c r="Y40" s="10"/>
+      <c r="Z40" s="10"/>
+      <c r="AA40" s="10"/>
+      <c r="AB40" s="10"/>
+      <c r="AC40" s="10"/>
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A41" s="20"/>
@@ -6279,10 +6301,10 @@
         <v>154</v>
       </c>
       <c r="K41" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L41" s="15" t="s">
-        <v>61</v>
+        <v>146</v>
       </c>
       <c r="M41" s="20"/>
       <c r="N41" s="20"/>
@@ -6316,7 +6338,7 @@
         <v>154</v>
       </c>
       <c r="K42" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L42" s="15" t="s">
         <v>61</v>
@@ -6353,7 +6375,7 @@
         <v>154</v>
       </c>
       <c r="K43" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L43" s="15" t="s">
         <v>61</v>
@@ -6390,10 +6412,10 @@
         <v>154</v>
       </c>
       <c r="K44" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L44" s="15" t="s">
-        <v>147</v>
+        <v>61</v>
       </c>
       <c r="M44" s="20"/>
       <c r="N44" s="20"/>
@@ -6427,10 +6449,10 @@
         <v>154</v>
       </c>
       <c r="K45" s="15" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L45" s="15" t="s">
-        <v>61</v>
+        <v>147</v>
       </c>
       <c r="M45" s="20"/>
       <c r="N45" s="20"/>
@@ -6464,7 +6486,7 @@
         <v>154</v>
       </c>
       <c r="K46" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L46" s="15" t="s">
         <v>61</v>
@@ -6501,7 +6523,7 @@
         <v>154</v>
       </c>
       <c r="K47" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L47" s="15" t="s">
         <v>61</v>
@@ -6538,10 +6560,10 @@
         <v>154</v>
       </c>
       <c r="K48" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L48" s="15" t="s">
-        <v>170</v>
+        <v>61</v>
       </c>
       <c r="M48" s="20"/>
       <c r="N48" s="20"/>
@@ -6575,10 +6597,10 @@
         <v>154</v>
       </c>
       <c r="K49" s="15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="L49" s="15" t="s">
-        <v>61</v>
+        <v>170</v>
       </c>
       <c r="M49" s="20"/>
       <c r="N49" s="20"/>
@@ -6612,7 +6634,7 @@
         <v>154</v>
       </c>
       <c r="K50" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L50" s="15" t="s">
         <v>61</v>
@@ -6649,7 +6671,7 @@
         <v>154</v>
       </c>
       <c r="K51" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L51" s="15" t="s">
         <v>61</v>
@@ -6686,7 +6708,7 @@
         <v>154</v>
       </c>
       <c r="K52" s="15" t="s">
-        <v>101</v>
+        <v>169</v>
       </c>
       <c r="L52" s="15" t="s">
         <v>61</v>
@@ -6719,24 +6741,22 @@
       <c r="G53" s="21"/>
       <c r="H53" s="21"/>
       <c r="I53" s="21"/>
-      <c r="J53" s="20"/>
-      <c r="K53" s="20"/>
-      <c r="L53" s="20"/>
+      <c r="J53" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="K53" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="L53" s="15" t="s">
+        <v>61</v>
+      </c>
       <c r="M53" s="20"/>
       <c r="N53" s="20"/>
-      <c r="O53" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="P53" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q53" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="R53" s="3"/>
-      <c r="S53" s="3" t="s">
-        <v>279</v>
-      </c>
+      <c r="O53" s="21"/>
+      <c r="P53" s="21"/>
+      <c r="Q53" s="21"/>
+      <c r="R53" s="21"/>
+      <c r="S53" s="21"/>
       <c r="T53" s="20"/>
       <c r="U53" s="20"/>
       <c r="V53" s="20"/>
@@ -6767,7 +6787,7 @@
         <v>318</v>
       </c>
       <c r="P54" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q54" s="3" t="s">
         <v>277</v>
@@ -6806,14 +6826,14 @@
         <v>318</v>
       </c>
       <c r="P55" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Q55" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="R55" s="3"/>
       <c r="S55" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="T55" s="20"/>
       <c r="U55" s="20"/>
@@ -6841,20 +6861,22 @@
       <c r="L56" s="20"/>
       <c r="M56" s="20"/>
       <c r="N56" s="20"/>
-      <c r="O56" s="21"/>
-      <c r="P56" s="21"/>
-      <c r="Q56" s="21"/>
-      <c r="R56" s="21"/>
-      <c r="S56" s="21"/>
-      <c r="T56" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="U56" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="V56" s="15" t="s">
-        <v>29</v>
-      </c>
+      <c r="O56" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="P56" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q56" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="R56" s="3"/>
+      <c r="S56" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="T56" s="20"/>
+      <c r="U56" s="20"/>
+      <c r="V56" s="20"/>
       <c r="W56" s="20"/>
       <c r="X56" s="20"/>
       <c r="Y56" s="22"/>
@@ -6887,10 +6909,10 @@
         <v>150</v>
       </c>
       <c r="U57" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V57" s="15" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="W57" s="20"/>
       <c r="X57" s="20"/>
@@ -6924,10 +6946,10 @@
         <v>150</v>
       </c>
       <c r="U58" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V58" s="15" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="W58" s="20"/>
       <c r="X58" s="20"/>
@@ -6961,10 +6983,10 @@
         <v>150</v>
       </c>
       <c r="U59" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V59" s="15" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="W59" s="20"/>
       <c r="X59" s="20"/>
@@ -6998,7 +7020,7 @@
         <v>150</v>
       </c>
       <c r="U60" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="V60" s="15" t="s">
         <v>29</v>
@@ -7035,10 +7057,10 @@
         <v>150</v>
       </c>
       <c r="U61" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="V61" s="15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="W61" s="20"/>
       <c r="X61" s="20"/>
@@ -7072,10 +7094,10 @@
         <v>150</v>
       </c>
       <c r="U62" s="15" t="s">
-        <v>151</v>
+        <v>45</v>
       </c>
       <c r="V62" s="15" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="W62" s="20"/>
       <c r="X62" s="20"/>
@@ -7109,10 +7131,10 @@
         <v>150</v>
       </c>
       <c r="U63" s="15" t="s">
-        <v>46</v>
+        <v>151</v>
       </c>
       <c r="V63" s="15" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="W63" s="20"/>
       <c r="X63" s="20"/>
@@ -7146,10 +7168,10 @@
         <v>150</v>
       </c>
       <c r="U64" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="V64" s="15" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="W64" s="20"/>
       <c r="X64" s="20"/>
@@ -7183,10 +7205,10 @@
         <v>150</v>
       </c>
       <c r="U65" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="V65" s="15" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="W65" s="20"/>
       <c r="X65" s="20"/>
@@ -7220,10 +7242,10 @@
         <v>150</v>
       </c>
       <c r="U66" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="V66" s="15" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="W66" s="20"/>
       <c r="X66" s="20"/>
@@ -7257,10 +7279,10 @@
         <v>150</v>
       </c>
       <c r="U67" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V67" s="15" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="W67" s="20"/>
       <c r="X67" s="20"/>
@@ -7294,10 +7316,10 @@
         <v>150</v>
       </c>
       <c r="U68" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="V68" s="15" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="W68" s="20"/>
       <c r="X68" s="20"/>
@@ -7331,10 +7353,10 @@
         <v>150</v>
       </c>
       <c r="U69" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="V69" s="15" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="W69" s="20"/>
       <c r="X69" s="20"/>
@@ -7368,10 +7390,10 @@
         <v>150</v>
       </c>
       <c r="U70" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V70" s="15" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="W70" s="20"/>
       <c r="X70" s="20"/>
@@ -7380,6 +7402,43 @@
       <c r="AA70" s="22"/>
       <c r="AB70" s="22"/>
       <c r="AC70" s="22"/>
+    </row>
+    <row r="71" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A71" s="20"/>
+      <c r="B71" s="20"/>
+      <c r="C71" s="20"/>
+      <c r="D71" s="20"/>
+      <c r="E71" s="21"/>
+      <c r="F71" s="21"/>
+      <c r="G71" s="21"/>
+      <c r="H71" s="21"/>
+      <c r="I71" s="21"/>
+      <c r="J71" s="20"/>
+      <c r="K71" s="20"/>
+      <c r="L71" s="20"/>
+      <c r="M71" s="20"/>
+      <c r="N71" s="20"/>
+      <c r="O71" s="21"/>
+      <c r="P71" s="21"/>
+      <c r="Q71" s="21"/>
+      <c r="R71" s="21"/>
+      <c r="S71" s="21"/>
+      <c r="T71" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="U71" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="V71" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="W71" s="20"/>
+      <c r="X71" s="20"/>
+      <c r="Y71" s="22"/>
+      <c r="Z71" s="22"/>
+      <c r="AA71" s="22"/>
+      <c r="AB71" s="22"/>
+      <c r="AC71" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -7397,11 +7456,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A737B06D-3CA5-4C46-8E57-2C9FAE17A6AF}">
-  <dimension ref="A1:AC61"/>
+  <dimension ref="A1:AC62"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="U1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y1" sqref="Y1:AC1"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7413,8 +7472,8 @@
     <col min="5" max="5" width="9.77734375" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.88671875" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.77734375" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="69.21875" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.21875" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="24.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.21875" style="4" bestFit="1" customWidth="1"/>
@@ -8317,27 +8376,31 @@
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="K16" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="L16" s="8" t="s">
+      <c r="E16" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>29</v>
       </c>
+      <c r="H16" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="10"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
       <c r="T16" s="5"/>
       <c r="U16" s="5"/>
       <c r="V16" s="5"/>
@@ -8363,10 +8426,10 @@
         <v>193</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
@@ -8400,7 +8463,7 @@
         <v>193</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L18" s="8" t="s">
         <v>61</v>
@@ -8437,7 +8500,7 @@
         <v>193</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L19" s="8" t="s">
         <v>61</v>
@@ -8474,10 +8537,10 @@
         <v>193</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>192</v>
+        <v>61</v>
       </c>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
@@ -8511,10 +8574,10 @@
         <v>193</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>61</v>
+        <v>192</v>
       </c>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
@@ -8548,7 +8611,7 @@
         <v>193</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L22" s="8" t="s">
         <v>61</v>
@@ -8585,7 +8648,7 @@
         <v>193</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L23" s="8" t="s">
         <v>61</v>
@@ -8622,10 +8685,10 @@
         <v>193</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L24" s="8" t="s">
-        <v>192</v>
+        <v>61</v>
       </c>
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
@@ -8659,10 +8722,10 @@
         <v>193</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>61</v>
+        <v>192</v>
       </c>
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
@@ -8696,7 +8759,7 @@
         <v>193</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L26" s="8" t="s">
         <v>61</v>
@@ -8733,7 +8796,7 @@
         <v>193</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L27" s="8" t="s">
         <v>61</v>
@@ -8770,10 +8833,10 @@
         <v>193</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L28" s="8" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
@@ -8807,10 +8870,10 @@
         <v>193</v>
       </c>
       <c r="K29" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
@@ -8844,7 +8907,7 @@
         <v>193</v>
       </c>
       <c r="K30" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L30" s="8" t="s">
         <v>61</v>
@@ -8881,7 +8944,7 @@
         <v>193</v>
       </c>
       <c r="K31" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L31" s="8" t="s">
         <v>61</v>
@@ -8918,10 +8981,10 @@
         <v>193</v>
       </c>
       <c r="K32" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L32" s="8" t="s">
-        <v>149</v>
+        <v>61</v>
       </c>
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
@@ -8955,10 +9018,10 @@
         <v>193</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="L33" s="8" t="s">
-        <v>61</v>
+        <v>149</v>
       </c>
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>
@@ -8992,7 +9055,7 @@
         <v>193</v>
       </c>
       <c r="K34" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L34" s="8" t="s">
         <v>61</v>
@@ -9029,7 +9092,7 @@
         <v>193</v>
       </c>
       <c r="K35" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L35" s="8" t="s">
         <v>61</v>
@@ -9066,10 +9129,10 @@
         <v>193</v>
       </c>
       <c r="K36" s="8" t="s">
-        <v>85</v>
+        <v>218</v>
       </c>
       <c r="L36" s="8" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="M36" s="5"/>
       <c r="N36" s="5"/>
@@ -9103,10 +9166,10 @@
         <v>193</v>
       </c>
       <c r="K37" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L37" s="8" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="M37" s="5"/>
       <c r="N37" s="5"/>
@@ -9140,7 +9203,7 @@
         <v>193</v>
       </c>
       <c r="K38" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L38" s="8" t="s">
         <v>61</v>
@@ -9177,7 +9240,7 @@
         <v>193</v>
       </c>
       <c r="K39" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L39" s="8" t="s">
         <v>61</v>
@@ -9214,10 +9277,10 @@
         <v>193</v>
       </c>
       <c r="K40" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L40" s="8" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="M40" s="5"/>
       <c r="N40" s="5"/>
@@ -9251,10 +9314,10 @@
         <v>193</v>
       </c>
       <c r="K41" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L41" s="8" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="M41" s="5"/>
       <c r="N41" s="5"/>
@@ -9288,7 +9351,7 @@
         <v>193</v>
       </c>
       <c r="K42" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L42" s="8" t="s">
         <v>61</v>
@@ -9325,7 +9388,7 @@
         <v>193</v>
       </c>
       <c r="K43" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L43" s="8" t="s">
         <v>61</v>
@@ -9362,7 +9425,7 @@
         <v>193</v>
       </c>
       <c r="K44" s="8" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="L44" s="8" t="s">
         <v>61</v>
@@ -9395,24 +9458,22 @@
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="8"/>
+      <c r="J45" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="K45" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="L45" s="8" t="s">
+        <v>61</v>
+      </c>
       <c r="M45" s="5"/>
       <c r="N45" s="5"/>
-      <c r="O45" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="P45" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q45" s="3" t="s">
-        <v>277</v>
-      </c>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3"/>
       <c r="R45" s="10"/>
-      <c r="S45" s="14" t="s">
-        <v>279</v>
-      </c>
+      <c r="S45" s="10"/>
       <c r="T45" s="5"/>
       <c r="U45" s="5"/>
       <c r="V45" s="5"/>
@@ -9443,7 +9504,7 @@
         <v>273</v>
       </c>
       <c r="P46" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="Q46" s="3" t="s">
         <v>277</v>
@@ -9482,14 +9543,14 @@
         <v>273</v>
       </c>
       <c r="P47" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Q47" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="R47" s="10"/>
-      <c r="S47" s="10" t="s">
-        <v>280</v>
+      <c r="S47" s="14" t="s">
+        <v>279</v>
       </c>
       <c r="T47" s="5"/>
       <c r="U47" s="5"/>
@@ -9512,25 +9573,27 @@
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
-      <c r="J48" s="5"/>
-      <c r="K48" s="5"/>
-      <c r="L48" s="5"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
       <c r="M48" s="5"/>
       <c r="N48" s="5"/>
-      <c r="O48" s="3"/>
-      <c r="P48" s="3"/>
-      <c r="Q48" s="3"/>
+      <c r="O48" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>278</v>
+      </c>
       <c r="R48" s="10"/>
-      <c r="S48" s="10"/>
-      <c r="T48" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="U48" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="V48" s="8" t="s">
-        <v>29</v>
-      </c>
+      <c r="S48" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="T48" s="5"/>
+      <c r="U48" s="5"/>
+      <c r="V48" s="5"/>
       <c r="W48" s="5"/>
       <c r="X48" s="5"/>
       <c r="Y48" s="10"/>
@@ -9563,10 +9626,10 @@
         <v>191</v>
       </c>
       <c r="U49" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V49" s="8" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="W49" s="5"/>
       <c r="X49" s="5"/>
@@ -9600,10 +9663,10 @@
         <v>191</v>
       </c>
       <c r="U50" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V50" s="8" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="W50" s="5"/>
       <c r="X50" s="5"/>
@@ -9637,10 +9700,10 @@
         <v>191</v>
       </c>
       <c r="U51" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V51" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="W51" s="5"/>
       <c r="X51" s="5"/>
@@ -9674,7 +9737,7 @@
         <v>191</v>
       </c>
       <c r="U52" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="V52" s="8" t="s">
         <v>29</v>
@@ -9711,10 +9774,10 @@
         <v>191</v>
       </c>
       <c r="U53" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="V53" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="W53" s="5"/>
       <c r="X53" s="5"/>
@@ -9748,10 +9811,10 @@
         <v>191</v>
       </c>
       <c r="U54" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V54" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="W54" s="5"/>
       <c r="X54" s="5"/>
@@ -9785,10 +9848,10 @@
         <v>191</v>
       </c>
       <c r="U55" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="V55" s="8" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="W55" s="5"/>
       <c r="X55" s="5"/>
@@ -9822,10 +9885,10 @@
         <v>191</v>
       </c>
       <c r="U56" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="V56" s="8" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="W56" s="5"/>
       <c r="X56" s="5"/>
@@ -9859,10 +9922,10 @@
         <v>191</v>
       </c>
       <c r="U57" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="V57" s="8" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="W57" s="5"/>
       <c r="X57" s="5"/>
@@ -9892,18 +9955,16 @@
       <c r="Q58" s="3"/>
       <c r="R58" s="10"/>
       <c r="S58" s="10"/>
-      <c r="T58" s="5" t="s">
+      <c r="T58" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="U58" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="V58" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="W58" s="5" t="s">
-        <v>56</v>
-      </c>
+      <c r="U58" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="V58" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="W58" s="5"/>
       <c r="X58" s="5"/>
       <c r="Y58" s="10"/>
       <c r="Z58" s="10"/>
@@ -9931,16 +9992,18 @@
       <c r="Q59" s="3"/>
       <c r="R59" s="10"/>
       <c r="S59" s="10"/>
-      <c r="T59" s="8" t="s">
+      <c r="T59" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="U59" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="V59" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="W59" s="5"/>
+      <c r="U59" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="V59" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="W59" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="X59" s="5"/>
       <c r="Y59" s="10"/>
       <c r="Z59" s="10"/>
@@ -9972,10 +10035,10 @@
         <v>191</v>
       </c>
       <c r="U60" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="V60" s="8" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="W60" s="5"/>
       <c r="X60" s="5"/>
@@ -10005,24 +10068,61 @@
       <c r="Q61" s="3"/>
       <c r="R61" s="10"/>
       <c r="S61" s="10"/>
-      <c r="T61" s="5" t="s">
+      <c r="T61" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="U61" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="V61" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="W61" s="5" t="s">
-        <v>58</v>
-      </c>
+      <c r="U61" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="V61" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="W61" s="5"/>
       <c r="X61" s="5"/>
       <c r="Y61" s="10"/>
       <c r="Z61" s="10"/>
       <c r="AA61" s="10"/>
       <c r="AB61" s="10"/>
       <c r="AC61" s="10"/>
+    </row>
+    <row r="62" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A62" s="5"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="5"/>
+      <c r="K62" s="5"/>
+      <c r="L62" s="5"/>
+      <c r="M62" s="5"/>
+      <c r="N62" s="5"/>
+      <c r="O62" s="3"/>
+      <c r="P62" s="3"/>
+      <c r="Q62" s="3"/>
+      <c r="R62" s="10"/>
+      <c r="S62" s="10"/>
+      <c r="T62" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="U62" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="V62" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="W62" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="X62" s="5"/>
+      <c r="Y62" s="10"/>
+      <c r="Z62" s="10"/>
+      <c r="AA62" s="10"/>
+      <c r="AB62" s="10"/>
+      <c r="AC62" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -10040,11 +10140,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A4499F-EBCA-4E9B-AE48-94E9136B2D31}">
-  <dimension ref="A1:AC58"/>
+  <dimension ref="A1:AC60"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M28" sqref="M28"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10056,8 +10156,8 @@
     <col min="5" max="5" width="10.21875" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.77734375" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="37.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.77734375" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="24.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
@@ -10668,11 +10768,21 @@
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>340</v>
+      </c>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
@@ -10681,8 +10791,8 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
       <c r="T11" s="5"/>
       <c r="U11" s="5"/>
       <c r="V11" s="5"/>
@@ -10704,15 +10814,9 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
-      <c r="J12" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="L12" s="8" t="s">
-        <v>29</v>
-      </c>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
       <c r="O12" s="3"/>
@@ -10745,10 +10849,10 @@
         <v>229</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
@@ -10782,7 +10886,7 @@
         <v>229</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L14" s="8" t="s">
         <v>61</v>
@@ -10819,7 +10923,7 @@
         <v>229</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L15" s="8" t="s">
         <v>61</v>
@@ -10856,10 +10960,10 @@
         <v>229</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>103</v>
+        <v>61</v>
       </c>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
@@ -10893,10 +10997,10 @@
         <v>229</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
@@ -10930,7 +11034,7 @@
         <v>229</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L18" s="8" t="s">
         <v>61</v>
@@ -10967,7 +11071,7 @@
         <v>229</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L19" s="8" t="s">
         <v>61</v>
@@ -11004,10 +11108,10 @@
         <v>229</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
@@ -11041,10 +11145,10 @@
         <v>229</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
@@ -11078,7 +11182,7 @@
         <v>229</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L22" s="8" t="s">
         <v>61</v>
@@ -11115,7 +11219,7 @@
         <v>229</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="L23" s="8" t="s">
         <v>61</v>
@@ -11152,7 +11256,7 @@
         <v>229</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>101</v>
+        <v>246</v>
       </c>
       <c r="L24" s="8" t="s">
         <v>61</v>
@@ -11185,9 +11289,15 @@
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
+      <c r="J25" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="K25" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="L25" s="8" t="s">
+        <v>61</v>
+      </c>
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
       <c r="O25" s="3"/>
@@ -11207,53 +11317,23 @@
       <c r="AC25" s="10"/>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
       <c r="I26" s="3"/>
-      <c r="J26" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="K26" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="L26" s="5" t="s">
-        <v>29</v>
-      </c>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
       <c r="M26" s="5"/>
-      <c r="N26" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="O26" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="P26" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q26" s="3" t="s">
-        <v>39</v>
-      </c>
+      <c r="N26" s="5"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
       <c r="R26" s="10"/>
       <c r="S26" s="10"/>
       <c r="T26" s="5"/>
@@ -11275,19 +11355,19 @@
         <v>259</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>104</v>
+        <v>29</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>259</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>104</v>
+        <v>29</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>12</v>
@@ -11297,20 +11377,20 @@
         <v>230</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="M27" s="5"/>
       <c r="N27" s="5" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O27" s="3" t="s">
         <v>270</v>
       </c>
       <c r="P27" s="3" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="Q27" s="3" t="s">
         <v>39</v>
@@ -11336,30 +11416,46 @@
         <v>259</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>263</v>
+        <v>104</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>259</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="H28" s="3"/>
+        <v>104</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="I28" s="3"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
+      <c r="J28" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="L28" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
+      <c r="N28" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="P28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q28" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="R28" s="10"/>
       <c r="S28" s="10"/>
       <c r="T28" s="5"/>
@@ -11374,24 +11470,32 @@
       <c r="AC28" s="10"/>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
+      <c r="A29" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>263</v>
+      </c>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
-      <c r="J29" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="K29" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="L29" s="8" t="s">
-        <v>29</v>
-      </c>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
       <c r="O29" s="3"/>
@@ -11415,27 +11519,31 @@
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="K30" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="L30" s="8" t="s">
-        <v>61</v>
-      </c>
+      <c r="E30" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
-      <c r="R30" s="10"/>
-      <c r="S30" s="10"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
       <c r="T30" s="5"/>
       <c r="U30" s="5"/>
       <c r="V30" s="5"/>
@@ -11461,10 +11569,10 @@
         <v>230</v>
       </c>
       <c r="K31" s="8" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="L31" s="8" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
@@ -11498,7 +11606,7 @@
         <v>230</v>
       </c>
       <c r="K32" s="8" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="L32" s="8" t="s">
         <v>61</v>
@@ -11535,10 +11643,10 @@
         <v>230</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="L33" s="8" t="s">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>
@@ -11572,7 +11680,7 @@
         <v>230</v>
       </c>
       <c r="K34" s="8" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="L34" s="8" t="s">
         <v>61</v>
@@ -11609,10 +11717,10 @@
         <v>230</v>
       </c>
       <c r="K35" s="8" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="L35" s="8" t="s">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="M35" s="5"/>
       <c r="N35" s="5"/>
@@ -11646,7 +11754,7 @@
         <v>230</v>
       </c>
       <c r="K36" s="8" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="L36" s="8" t="s">
         <v>61</v>
@@ -11683,7 +11791,7 @@
         <v>230</v>
       </c>
       <c r="K37" s="8" t="s">
-        <v>101</v>
+        <v>251</v>
       </c>
       <c r="L37" s="8" t="s">
         <v>61</v>
@@ -11716,24 +11824,22 @@
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
+      <c r="J38" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="K38" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="L38" s="8" t="s">
+        <v>61</v>
+      </c>
       <c r="M38" s="5"/>
       <c r="N38" s="5"/>
-      <c r="O38" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="P38" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q38" s="3" t="s">
-        <v>277</v>
-      </c>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
       <c r="R38" s="10"/>
-      <c r="S38" s="14" t="s">
-        <v>279</v>
-      </c>
+      <c r="S38" s="10"/>
       <c r="T38" s="5"/>
       <c r="U38" s="5"/>
       <c r="V38" s="5"/>
@@ -11755,24 +11861,22 @@
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
+      <c r="J39" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="K39" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="L39" s="8" t="s">
+        <v>61</v>
+      </c>
       <c r="M39" s="5"/>
       <c r="N39" s="5"/>
-      <c r="O39" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="P39" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q39" s="3" t="s">
-        <v>277</v>
-      </c>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
       <c r="R39" s="10"/>
-      <c r="S39" s="14" t="s">
-        <v>279</v>
-      </c>
+      <c r="S39" s="10"/>
       <c r="T39" s="5"/>
       <c r="U39" s="5"/>
       <c r="V39" s="5"/>
@@ -11803,14 +11907,14 @@
         <v>270</v>
       </c>
       <c r="P40" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="Q40" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="R40" s="10"/>
-      <c r="S40" s="10" t="s">
-        <v>280</v>
+      <c r="S40" s="14" t="s">
+        <v>279</v>
       </c>
       <c r="T40" s="5"/>
       <c r="U40" s="5"/>
@@ -11839,10 +11943,10 @@
       <c r="M41" s="5"/>
       <c r="N41" s="5"/>
       <c r="O41" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="P41" s="3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q41" s="3" t="s">
         <v>277</v>
@@ -11878,17 +11982,17 @@
       <c r="M42" s="5"/>
       <c r="N42" s="5"/>
       <c r="O42" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="P42" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q42" s="3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="R42" s="10"/>
-      <c r="S42" s="14" t="s">
-        <v>279</v>
+      <c r="S42" s="10" t="s">
+        <v>280</v>
       </c>
       <c r="T42" s="5"/>
       <c r="U42" s="5"/>
@@ -11920,14 +12024,14 @@
         <v>272</v>
       </c>
       <c r="P43" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="Q43" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="R43" s="10"/>
-      <c r="S43" s="10" t="s">
-        <v>280</v>
+      <c r="S43" s="14" t="s">
+        <v>279</v>
       </c>
       <c r="T43" s="5"/>
       <c r="U43" s="5"/>
@@ -11950,27 +12054,29 @@
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="5"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
       <c r="M44" s="5"/>
       <c r="N44" s="5"/>
-      <c r="O44" s="3"/>
-      <c r="P44" s="3"/>
-      <c r="Q44" s="3"/>
+      <c r="O44" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q44" s="3" t="s">
+        <v>277</v>
+      </c>
       <c r="R44" s="10"/>
-      <c r="S44" s="10"/>
-      <c r="T44" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="U44" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="V44" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="W44" s="8"/>
-      <c r="X44" s="8"/>
+      <c r="S44" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="T44" s="5"/>
+      <c r="U44" s="5"/>
+      <c r="V44" s="5"/>
+      <c r="W44" s="5"/>
+      <c r="X44" s="5"/>
       <c r="Y44" s="10"/>
       <c r="Z44" s="10"/>
       <c r="AA44" s="10"/>
@@ -11987,27 +12093,29 @@
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
-      <c r="J45" s="5"/>
-      <c r="K45" s="5"/>
-      <c r="L45" s="5"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
       <c r="M45" s="5"/>
       <c r="N45" s="5"/>
-      <c r="O45" s="3"/>
-      <c r="P45" s="3"/>
-      <c r="Q45" s="3"/>
+      <c r="O45" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>278</v>
+      </c>
       <c r="R45" s="10"/>
-      <c r="S45" s="10"/>
-      <c r="T45" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="U45" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="V45" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="W45" s="8"/>
-      <c r="X45" s="8"/>
+      <c r="S45" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="T45" s="5"/>
+      <c r="U45" s="5"/>
+      <c r="V45" s="5"/>
+      <c r="W45" s="5"/>
+      <c r="X45" s="5"/>
       <c r="Y45" s="10"/>
       <c r="Z45" s="10"/>
       <c r="AA45" s="10"/>
@@ -12038,10 +12146,10 @@
         <v>228</v>
       </c>
       <c r="U46" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="V46" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="W46" s="8"/>
       <c r="X46" s="8"/>
@@ -12075,10 +12183,10 @@
         <v>228</v>
       </c>
       <c r="U47" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="V47" s="8" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="W47" s="8"/>
       <c r="X47" s="8"/>
@@ -12112,10 +12220,10 @@
         <v>228</v>
       </c>
       <c r="U48" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="V48" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="W48" s="8"/>
       <c r="X48" s="8"/>
@@ -12149,10 +12257,10 @@
         <v>228</v>
       </c>
       <c r="U49" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="V49" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="W49" s="8"/>
       <c r="X49" s="8"/>
@@ -12186,7 +12294,7 @@
         <v>228</v>
       </c>
       <c r="U50" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="V50" s="8" t="s">
         <v>29</v>
@@ -12223,10 +12331,10 @@
         <v>228</v>
       </c>
       <c r="U51" s="8" t="s">
-        <v>227</v>
+        <v>45</v>
       </c>
       <c r="V51" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="W51" s="8"/>
       <c r="X51" s="8"/>
@@ -12260,10 +12368,10 @@
         <v>228</v>
       </c>
       <c r="U52" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="V52" s="8" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="W52" s="8"/>
       <c r="X52" s="8"/>
@@ -12297,10 +12405,10 @@
         <v>228</v>
       </c>
       <c r="U53" s="8" t="s">
-        <v>48</v>
+        <v>227</v>
       </c>
       <c r="V53" s="8" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="W53" s="8"/>
       <c r="X53" s="8"/>
@@ -12334,10 +12442,10 @@
         <v>228</v>
       </c>
       <c r="U54" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="V54" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="W54" s="8"/>
       <c r="X54" s="8"/>
@@ -12367,19 +12475,17 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="10"/>
       <c r="S55" s="10"/>
-      <c r="T55" s="5" t="s">
+      <c r="T55" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="U55" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="V55" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="W55" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="X55" s="5"/>
+      <c r="U55" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="V55" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="W55" s="8"/>
+      <c r="X55" s="8"/>
       <c r="Y55" s="10"/>
       <c r="Z55" s="10"/>
       <c r="AA55" s="10"/>
@@ -12410,10 +12516,10 @@
         <v>228</v>
       </c>
       <c r="U56" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="V56" s="8" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="W56" s="8"/>
       <c r="X56" s="8"/>
@@ -12443,17 +12549,19 @@
       <c r="Q57" s="3"/>
       <c r="R57" s="10"/>
       <c r="S57" s="10"/>
-      <c r="T57" s="8" t="s">
+      <c r="T57" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="U57" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="V57" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="W57" s="8"/>
-      <c r="X57" s="8"/>
+      <c r="U57" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="V57" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="W57" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="X57" s="5"/>
       <c r="Y57" s="10"/>
       <c r="Z57" s="10"/>
       <c r="AA57" s="10"/>
@@ -12480,24 +12588,98 @@
       <c r="Q58" s="3"/>
       <c r="R58" s="10"/>
       <c r="S58" s="10"/>
-      <c r="T58" s="5" t="s">
+      <c r="T58" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="U58" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="V58" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="W58" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="X58" s="5"/>
+      <c r="U58" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="V58" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="W58" s="8"/>
+      <c r="X58" s="8"/>
       <c r="Y58" s="10"/>
       <c r="Z58" s="10"/>
       <c r="AA58" s="10"/>
       <c r="AB58" s="10"/>
       <c r="AC58" s="10"/>
+    </row>
+    <row r="59" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A59" s="5"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="5"/>
+      <c r="L59" s="5"/>
+      <c r="M59" s="5"/>
+      <c r="N59" s="5"/>
+      <c r="O59" s="3"/>
+      <c r="P59" s="3"/>
+      <c r="Q59" s="3"/>
+      <c r="R59" s="10"/>
+      <c r="S59" s="10"/>
+      <c r="T59" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="U59" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="V59" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="W59" s="8"/>
+      <c r="X59" s="8"/>
+      <c r="Y59" s="10"/>
+      <c r="Z59" s="10"/>
+      <c r="AA59" s="10"/>
+      <c r="AB59" s="10"/>
+      <c r="AC59" s="10"/>
+    </row>
+    <row r="60" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A60" s="5"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="5"/>
+      <c r="L60" s="5"/>
+      <c r="M60" s="5"/>
+      <c r="N60" s="5"/>
+      <c r="O60" s="3"/>
+      <c r="P60" s="3"/>
+      <c r="Q60" s="3"/>
+      <c r="R60" s="10"/>
+      <c r="S60" s="10"/>
+      <c r="T60" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="U60" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="V60" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="W60" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="X60" s="5"/>
+      <c r="Y60" s="10"/>
+      <c r="Z60" s="10"/>
+      <c r="AA60" s="10"/>
+      <c r="AB60" s="10"/>
+      <c r="AC60" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -12515,10 +12697,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE506E6D-FDB6-42A6-8384-1E788212D2E3}">
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12530,8 +12712,8 @@
     <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="74" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22.88671875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.44140625" bestFit="1" customWidth="1"/>
@@ -13080,31 +13262,25 @@
       <c r="N17" s="5"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>29</v>
-      </c>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
       <c r="E18" s="3" t="s">
-        <v>302</v>
+        <v>255</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>295</v>
+        <v>335</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>29</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I18" s="3"/>
+        <v>336</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>342</v>
+      </c>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
@@ -13119,7 +13295,7 @@
         <v>302</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>256</v>
+        <v>295</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>29</v>
@@ -13128,7 +13304,7 @@
         <v>302</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>256</v>
+        <v>295</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>29</v>
@@ -13151,19 +13327,19 @@
         <v>302</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>253</v>
+        <v>29</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>302</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>253</v>
+        <v>29</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>12</v>
@@ -13183,19 +13359,19 @@
         <v>302</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>291</v>
+        <v>262</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>148</v>
+        <v>253</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>302</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>291</v>
+        <v>262</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>148</v>
+        <v>253</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>12</v>
@@ -13215,19 +13391,19 @@
         <v>302</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>316</v>
+        <v>148</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>302</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>316</v>
+        <v>148</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>12</v>
@@ -13238,6 +13414,64 @@
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I23" s="3"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Docs/Source to target mapping.xlsx
+++ b/Docs/Source to target mapping.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zinyk\source\repos\Northwind_BI_Solution\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E69233B6-D1B8-4A01-A545-C375917376DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB72C66-F8FC-4407-8ED3-48373B099390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="558" activeTab="4" xr2:uid="{4088A55A-653F-450D-AAB8-4D657457B3B6}"/>
   </bookViews>
@@ -954,18 +954,6 @@
     <t>exists in Integration.Lineage</t>
   </si>
   <si>
-    <t>JOIN OrderID in Order Details</t>
-  </si>
-  <si>
-    <t>JOIN OrderID in Order Details &amp; JOIN ProductKey in Dimension.Product</t>
-  </si>
-  <si>
-    <t>JOIN CustomerKey in Dimension.Customer</t>
-  </si>
-  <si>
-    <t>JOIN EmployeeKey in Dimension.Employee</t>
-  </si>
-  <si>
     <t>ISNULL 0  &amp; OrderID in Order Details</t>
   </si>
   <si>
@@ -976,15 +964,6 @@
   </si>
   <si>
     <t>ISNULL -1 &amp; exists in Dimension.Employee</t>
-  </si>
-  <si>
-    <t>JOIN OrderID in Order Details &amp; UnitPrice * Discount</t>
-  </si>
-  <si>
-    <t>JOIN OrderID in Order Details &amp; UnitPrice * Quantity</t>
-  </si>
-  <si>
-    <t>JOIN OrderID in Order Details &amp; UnitPrice * ( Quantity - Discount )</t>
   </si>
   <si>
     <t>DATETIME</t>
@@ -1080,6 +1059,27 @@
   </si>
   <si>
     <t>CHECKSUM ( [UnitPrice], [Quantity], [Discount] )</t>
+  </si>
+  <si>
+    <t>Lookup OrderID in Order Details &amp; Lookup ProductKey in Dimension.Product</t>
+  </si>
+  <si>
+    <t>Lookup CustomerKey in Dimension.Customer</t>
+  </si>
+  <si>
+    <t>Lookup EmployeeKey in Dimension.Employee</t>
+  </si>
+  <si>
+    <t>Lookup OrderID in Order Details</t>
+  </si>
+  <si>
+    <t>Lookup OrderID in Order Details &amp; UnitPrice * Discount</t>
+  </si>
+  <si>
+    <t>Lookup OrderID in Order Details &amp; UnitPrice * Quantity</t>
+  </si>
+  <si>
+    <t>Lookup OrderID in Order Details &amp; Quantity * UnitPrice * (1 - Discount)</t>
   </si>
 </sst>
 </file>
@@ -1909,7 +1909,7 @@
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
       <c r="O4" s="3" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="P4" s="3" t="s">
         <v>37</v>
@@ -1982,7 +1982,7 @@
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
       <c r="O5" s="3" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="P5" s="3" t="s">
         <v>13</v>
@@ -2057,7 +2057,7 @@
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="3" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="P6" s="3" t="s">
         <v>24</v>
@@ -2128,7 +2128,7 @@
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
       <c r="O7" s="3" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="P7" s="3" t="s">
         <v>25</v>
@@ -2199,7 +2199,7 @@
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
       <c r="O8" s="3" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>14</v>
@@ -2270,7 +2270,7 @@
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
       <c r="O9" s="3" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>15</v>
@@ -2341,7 +2341,7 @@
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
       <c r="O10" s="3" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>16</v>
@@ -2412,7 +2412,7 @@
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
       <c r="O11" s="3" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="P11" s="3" t="s">
         <v>26</v>
@@ -2616,16 +2616,16 @@
         <v>116</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>29</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
@@ -3885,7 +3885,7 @@
       <c r="M50" s="5"/>
       <c r="N50" s="5"/>
       <c r="O50" s="3" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="P50" s="3" t="s">
         <v>274</v>
@@ -3924,7 +3924,7 @@
       <c r="M51" s="5"/>
       <c r="N51" s="5"/>
       <c r="O51" s="3" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="P51" s="3" t="s">
         <v>275</v>
@@ -3963,7 +3963,7 @@
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="3" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="P52" s="3" t="s">
         <v>276</v>
@@ -5669,7 +5669,7 @@
         <v>153</v>
       </c>
       <c r="AC27" s="22" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
     </row>
     <row r="28" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
@@ -5710,7 +5710,7 @@
         <v>153</v>
       </c>
       <c r="AC28" s="23" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
     </row>
     <row r="29" spans="1:29" ht="57.6" x14ac:dyDescent="0.3">
@@ -5751,18 +5751,18 @@
         <v>153</v>
       </c>
       <c r="AC29" s="23" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A30" s="20" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="B30" s="20" t="s">
         <v>175</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="D30" s="20" t="s">
         <v>176</v>
@@ -5772,7 +5772,7 @@
       <c r="G30" s="21"/>
       <c r="H30" s="21"/>
       <c r="I30" s="21" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="J30" s="20"/>
       <c r="K30" s="20"/>
@@ -5797,7 +5797,7 @@
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A31" s="20" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="B31" s="20" t="s">
         <v>175</v>
@@ -5831,7 +5831,7 @@
       <c r="M31" s="20"/>
       <c r="N31" s="20"/>
       <c r="O31" s="3" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="P31" s="21" t="s">
         <v>13</v>
@@ -5862,13 +5862,13 @@
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A32" s="20" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="B32" s="20" t="s">
         <v>175</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="D32" s="20" t="s">
         <v>176</v>
@@ -5901,7 +5901,7 @@
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A33" s="20" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="B33" s="20" t="s">
         <v>177</v>
@@ -5939,7 +5939,7 @@
       <c r="M33" s="20"/>
       <c r="N33" s="20"/>
       <c r="O33" s="3" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="P33" s="21" t="s">
         <v>37</v>
@@ -5949,7 +5949,7 @@
       </c>
       <c r="R33" s="21"/>
       <c r="S33" s="21" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="T33" s="20" t="s">
         <v>150</v>
@@ -5970,7 +5970,7 @@
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A34" s="20" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="B34" s="20" t="s">
         <v>177</v>
@@ -6008,7 +6008,7 @@
       <c r="M34" s="20"/>
       <c r="N34" s="20"/>
       <c r="O34" s="3" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="P34" s="21" t="s">
         <v>174</v>
@@ -6053,7 +6053,7 @@
       <c r="M35" s="20"/>
       <c r="N35" s="20"/>
       <c r="O35" s="3" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="P35" s="21" t="s">
         <v>118</v>
@@ -6063,7 +6063,7 @@
       </c>
       <c r="R35" s="21"/>
       <c r="S35" s="21" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="T35" s="20" t="s">
         <v>150</v>
@@ -6098,13 +6098,13 @@
       <c r="M36" s="20"/>
       <c r="N36" s="20"/>
       <c r="O36" s="3" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="P36" s="21" t="s">
         <v>145</v>
       </c>
       <c r="Q36" s="21" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="R36" s="21"/>
       <c r="S36" s="21"/>
@@ -6115,11 +6115,11 @@
         <v>145</v>
       </c>
       <c r="V36" s="20" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="W36" s="20"/>
       <c r="X36" s="25" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="Y36" s="22"/>
       <c r="Z36" s="22"/>
@@ -6129,13 +6129,13 @@
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A37" s="20" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="B37" s="20" t="s">
         <v>177</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="D37" s="20" t="s">
         <v>176</v>
@@ -6145,7 +6145,7 @@
       <c r="G37" s="21"/>
       <c r="H37" s="21"/>
       <c r="I37" s="21" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="J37" s="20"/>
       <c r="K37" s="20"/>
@@ -6170,13 +6170,13 @@
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A38" s="20" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="B38" s="20" t="s">
         <v>177</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="D38" s="20" t="s">
         <v>176</v>
@@ -6209,13 +6209,13 @@
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A39" s="20" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="B39" s="20" t="s">
         <v>177</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="D39" s="20" t="s">
         <v>176</v>
@@ -6255,16 +6255,16 @@
         <v>154</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>29</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
@@ -6784,7 +6784,7 @@
       <c r="M54" s="20"/>
       <c r="N54" s="20"/>
       <c r="O54" s="3" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="P54" s="3" t="s">
         <v>274</v>
@@ -6823,7 +6823,7 @@
       <c r="M55" s="20"/>
       <c r="N55" s="20"/>
       <c r="O55" s="3" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="P55" s="3" t="s">
         <v>275</v>
@@ -6862,7 +6862,7 @@
       <c r="M56" s="20"/>
       <c r="N56" s="20"/>
       <c r="O56" s="3" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="P56" s="3" t="s">
         <v>276</v>
@@ -8380,16 +8380,16 @@
         <v>219</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>29</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
@@ -10772,16 +10772,16 @@
         <v>255</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>29</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
@@ -11523,16 +11523,16 @@
         <v>259</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>29</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
@@ -12699,8 +12699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE506E6D-FDB6-42A6-8384-1E788212D2E3}">
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12847,10 +12847,10 @@
         <v>29</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>305</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -12887,10 +12887,10 @@
         <v>29</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>306</v>
+        <v>338</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -12927,10 +12927,10 @@
         <v>29</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>307</v>
+        <v>339</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
@@ -12944,7 +12944,7 @@
         <v>296</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>301</v>
@@ -12953,7 +12953,7 @@
         <v>296</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -12967,7 +12967,7 @@
         <v>146</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="N7" s="5"/>
     </row>
@@ -12982,7 +12982,7 @@
         <v>297</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>301</v>
@@ -12991,7 +12991,7 @@
         <v>297</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -13005,7 +13005,7 @@
         <v>146</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="N8" s="5"/>
     </row>
@@ -13020,7 +13020,7 @@
         <v>298</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>301</v>
@@ -13029,7 +13029,7 @@
         <v>298</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -13043,7 +13043,7 @@
         <v>146</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="N9" s="5"/>
     </row>
@@ -13067,10 +13067,10 @@
         <v>253</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>304</v>
+        <v>340</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -13093,10 +13093,10 @@
         <v>29</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>304</v>
+        <v>340</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
@@ -13119,10 +13119,10 @@
         <v>253</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>312</v>
+        <v>341</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
@@ -13145,10 +13145,10 @@
         <v>253</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>313</v>
+        <v>342</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -13171,10 +13171,10 @@
         <v>253</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>314</v>
+        <v>343</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
@@ -13270,16 +13270,16 @@
         <v>255</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>29</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
@@ -13426,7 +13426,7 @@
         <v>292</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>302</v>
@@ -13435,7 +13435,7 @@
         <v>292</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>12</v>
@@ -13456,16 +13456,16 @@
         <v>255</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>29</v>
       </c>
       <c r="H24" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="I24" s="3" t="s">
         <v>336</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>343</v>
       </c>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>

--- a/Docs/Source to target mapping.xlsx
+++ b/Docs/Source to target mapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20384"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZinukovD\source\repos\Northwind_BI_Solution\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zinyk\source\repos\Northwind_BI_Solution\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8190B268-8F1A-4207-BE55-AD4F45154171}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{783E6AA2-0426-4EF9-BB13-F3A5B11D5450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="558" activeTab="4" xr2:uid="{4088A55A-653F-450D-AAB8-4D657457B3B6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="558" activeTab="4" xr2:uid="{4088A55A-653F-450D-AAB8-4D657457B3B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Customer" sheetId="2" r:id="rId1"/>
@@ -1057,16 +1057,16 @@
     <t>Lookup OrderID in Order Details</t>
   </si>
   <si>
-    <t>Lookup OrderID in Order Details &amp; UnitPrice * Discount</t>
-  </si>
-  <si>
-    <t>Lookup OrderID in Order Details &amp; UnitPrice * Quantity</t>
-  </si>
-  <si>
-    <t>Lookup OrderID in Order Details &amp; Quantity * UnitPrice * (1 - Discount)</t>
-  </si>
-  <si>
     <t>Lookup Name in Category</t>
+  </si>
+  <si>
+    <t>Lookup OrderID in Order Details &amp; [UnitPrice] * [Quantity] * [Discount]</t>
+  </si>
+  <si>
+    <t>Lookup OrderID in Order Details &amp; [UnitPrice] * [Quantity]</t>
+  </si>
+  <si>
+    <t>Lookup OrderID in Order Details &amp; [Quantity] * [UnitPrice] * (1 - [Discount])</t>
   </si>
 </sst>
 </file>
@@ -1258,7 +1258,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
@@ -1275,41 +1275,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1345,11 +1317,38 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="20% - Accent1" xfId="3" builtinId="30"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="20% — акцент1" xfId="3" builtinId="30"/>
     <cellStyle name="Акцент3 2" xfId="2" xr:uid="{72B9F317-F5C0-45A7-AA7C-0F44C45D1FF6}"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{A125878E-94C1-497A-B7A1-BCB52D1AE9BA}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1366,9 +1365,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1406,7 +1405,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1512,7 +1511,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1703,47 +1702,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="18" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="17" t="s">
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="18" t="s">
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="17" t="s">
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="16" t="s">
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="Z1" s="16"/>
-      <c r="AA1" s="16"/>
-      <c r="AB1" s="16"/>
-      <c r="AC1" s="16"/>
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="32"/>
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="32"/>
     </row>
     <row r="2" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -4568,2755 +4567,2755 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="24" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="23" t="s">
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="24" t="s">
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="23" t="s">
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="25" t="s">
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="35"/>
+      <c r="Y1" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="Z1" s="25"/>
-      <c r="AA1" s="25"/>
-      <c r="AB1" s="25"/>
-      <c r="AC1" s="25"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37"/>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="H2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="I2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="J2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="26" t="s">
+      <c r="K2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="26" t="s">
+      <c r="L2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="26" t="s">
+      <c r="M2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="26" t="s">
+      <c r="N2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="27" t="s">
+      <c r="O2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="27" t="s">
+      <c r="P2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="27" t="s">
+      <c r="Q2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="R2" s="27" t="s">
+      <c r="R2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="S2" s="27" t="s">
+      <c r="S2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="T2" s="26" t="s">
+      <c r="T2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="U2" s="26" t="s">
+      <c r="U2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="V2" s="26" t="s">
+      <c r="V2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="W2" s="26" t="s">
+      <c r="W2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="X2" s="26" t="s">
+      <c r="X2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="Y2" s="28" t="s">
+      <c r="Y2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="Z2" s="28" t="s">
+      <c r="Z2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="AA2" s="28" t="s">
+      <c r="AA2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="AB2" s="28" t="s">
+      <c r="AB2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="AC2" s="28" t="s">
+      <c r="AC2" s="17" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="29"/>
-      <c r="U3" s="29"/>
-      <c r="V3" s="29"/>
-      <c r="W3" s="29"/>
-      <c r="X3" s="29"/>
-      <c r="Y3" s="31" t="s">
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="19"/>
+      <c r="W3" s="19"/>
+      <c r="X3" s="19"/>
+      <c r="Y3" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="Z3" s="31" t="s">
+      <c r="Z3" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="AA3" s="31" t="s">
+      <c r="AA3" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="AB3" s="31" t="s">
+      <c r="AB3" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="AC3" s="31"/>
+      <c r="AC3" s="21"/>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="30"/>
-      <c r="S4" s="30"/>
-      <c r="T4" s="29"/>
-      <c r="U4" s="29"/>
-      <c r="V4" s="29"/>
-      <c r="W4" s="29"/>
-      <c r="X4" s="29"/>
-      <c r="Y4" s="31" t="s">
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="19"/>
+      <c r="X4" s="19"/>
+      <c r="Y4" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="Z4" s="31" t="s">
+      <c r="Z4" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="AA4" s="31" t="s">
+      <c r="AA4" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="AB4" s="31" t="s">
+      <c r="AB4" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="AC4" s="31"/>
+      <c r="AC4" s="21"/>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A5" s="29"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="30"/>
-      <c r="P5" s="30"/>
-      <c r="Q5" s="30"/>
-      <c r="R5" s="30"/>
-      <c r="S5" s="30"/>
-      <c r="T5" s="29"/>
-      <c r="U5" s="29"/>
-      <c r="V5" s="29"/>
-      <c r="W5" s="29"/>
-      <c r="X5" s="29"/>
-      <c r="Y5" s="31" t="s">
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="19"/>
+      <c r="X5" s="19"/>
+      <c r="Y5" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="Z5" s="31" t="s">
+      <c r="Z5" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="AA5" s="31" t="s">
+      <c r="AA5" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="AB5" s="31" t="s">
+      <c r="AB5" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="AC5" s="31"/>
+      <c r="AC5" s="21"/>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="30"/>
-      <c r="S6" s="30"/>
-      <c r="T6" s="29"/>
-      <c r="U6" s="29"/>
-      <c r="V6" s="29"/>
-      <c r="W6" s="29"/>
-      <c r="X6" s="29"/>
-      <c r="Y6" s="31" t="s">
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="19"/>
+      <c r="W6" s="19"/>
+      <c r="X6" s="19"/>
+      <c r="Y6" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="Z6" s="31" t="s">
+      <c r="Z6" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="AA6" s="31" t="s">
+      <c r="AA6" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="AB6" s="31" t="s">
+      <c r="AB6" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="AC6" s="31"/>
+      <c r="AC6" s="21"/>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="30"/>
-      <c r="S7" s="30"/>
-      <c r="T7" s="29"/>
-      <c r="U7" s="29"/>
-      <c r="V7" s="29"/>
-      <c r="W7" s="29"/>
-      <c r="X7" s="29"/>
-      <c r="Y7" s="31" t="s">
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19"/>
+      <c r="X7" s="19"/>
+      <c r="Y7" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="Z7" s="31" t="s">
+      <c r="Z7" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="AA7" s="31" t="s">
+      <c r="AA7" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="AB7" s="31" t="s">
+      <c r="AB7" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="AC7" s="31"/>
+      <c r="AC7" s="21"/>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="30"/>
-      <c r="R8" s="30"/>
-      <c r="S8" s="30"/>
-      <c r="T8" s="29"/>
-      <c r="U8" s="29"/>
-      <c r="V8" s="29"/>
-      <c r="W8" s="29"/>
-      <c r="X8" s="29"/>
-      <c r="Y8" s="31" t="s">
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="19"/>
+      <c r="V8" s="19"/>
+      <c r="W8" s="19"/>
+      <c r="X8" s="19"/>
+      <c r="Y8" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="Z8" s="31" t="s">
+      <c r="Z8" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="AA8" s="31" t="s">
+      <c r="AA8" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="AB8" s="31" t="s">
+      <c r="AB8" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="AC8" s="31"/>
+      <c r="AC8" s="21"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="30"/>
-      <c r="S9" s="30"/>
-      <c r="T9" s="29"/>
-      <c r="U9" s="29"/>
-      <c r="V9" s="29"/>
-      <c r="W9" s="29"/>
-      <c r="X9" s="29"/>
-      <c r="Y9" s="31" t="s">
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="19"/>
+      <c r="W9" s="19"/>
+      <c r="X9" s="19"/>
+      <c r="Y9" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="Z9" s="31" t="s">
+      <c r="Z9" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="AA9" s="31" t="s">
+      <c r="AA9" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="AB9" s="31" t="s">
+      <c r="AB9" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="AC9" s="31"/>
+      <c r="AC9" s="21"/>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="30"/>
-      <c r="R10" s="30"/>
-      <c r="S10" s="30"/>
-      <c r="T10" s="29"/>
-      <c r="U10" s="29"/>
-      <c r="V10" s="29"/>
-      <c r="W10" s="29"/>
-      <c r="X10" s="29"/>
-      <c r="Y10" s="31" t="s">
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="19"/>
+      <c r="V10" s="19"/>
+      <c r="W10" s="19"/>
+      <c r="X10" s="19"/>
+      <c r="Y10" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="Z10" s="31" t="s">
+      <c r="Z10" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="AA10" s="31" t="s">
+      <c r="AA10" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="AB10" s="31" t="s">
+      <c r="AB10" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="AC10" s="31"/>
+      <c r="AC10" s="21"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="30"/>
-      <c r="R11" s="30"/>
-      <c r="S11" s="30"/>
-      <c r="T11" s="29"/>
-      <c r="U11" s="29"/>
-      <c r="V11" s="29"/>
-      <c r="W11" s="29"/>
-      <c r="X11" s="29"/>
-      <c r="Y11" s="31" t="s">
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19"/>
+      <c r="W11" s="19"/>
+      <c r="X11" s="19"/>
+      <c r="Y11" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="Z11" s="31" t="s">
+      <c r="Z11" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="AA11" s="31" t="s">
+      <c r="AA11" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="AB11" s="31" t="s">
+      <c r="AB11" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="AC11" s="31"/>
+      <c r="AC11" s="21"/>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="30"/>
-      <c r="S12" s="30"/>
-      <c r="T12" s="29"/>
-      <c r="U12" s="29"/>
-      <c r="V12" s="29"/>
-      <c r="W12" s="29"/>
-      <c r="X12" s="29"/>
-      <c r="Y12" s="31" t="s">
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="19"/>
+      <c r="W12" s="19"/>
+      <c r="X12" s="19"/>
+      <c r="Y12" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="Z12" s="31" t="s">
+      <c r="Z12" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="AA12" s="31" t="s">
+      <c r="AA12" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="AB12" s="31" t="s">
+      <c r="AB12" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="AC12" s="31"/>
+      <c r="AC12" s="21"/>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A13" s="29"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="30"/>
-      <c r="R13" s="30"/>
-      <c r="S13" s="30"/>
-      <c r="T13" s="29"/>
-      <c r="U13" s="29"/>
-      <c r="V13" s="29"/>
-      <c r="W13" s="29"/>
-      <c r="X13" s="29"/>
-      <c r="Y13" s="31" t="s">
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="19"/>
+      <c r="V13" s="19"/>
+      <c r="W13" s="19"/>
+      <c r="X13" s="19"/>
+      <c r="Y13" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="Z13" s="31" t="s">
+      <c r="Z13" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="AA13" s="31" t="s">
+      <c r="AA13" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="AB13" s="31" t="s">
+      <c r="AB13" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="AC13" s="31"/>
+      <c r="AC13" s="21"/>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A14" s="29"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="30"/>
-      <c r="R14" s="30"/>
-      <c r="S14" s="30"/>
-      <c r="T14" s="29"/>
-      <c r="U14" s="29"/>
-      <c r="V14" s="29"/>
-      <c r="W14" s="29"/>
-      <c r="X14" s="29"/>
-      <c r="Y14" s="31" t="s">
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="19"/>
+      <c r="V14" s="19"/>
+      <c r="W14" s="19"/>
+      <c r="X14" s="19"/>
+      <c r="Y14" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="Z14" s="31" t="s">
+      <c r="Z14" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="AA14" s="31" t="s">
+      <c r="AA14" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="AB14" s="31" t="s">
+      <c r="AB14" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="AC14" s="31"/>
+      <c r="AC14" s="21"/>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="30"/>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="30"/>
-      <c r="R15" s="30"/>
-      <c r="S15" s="30"/>
-      <c r="T15" s="29"/>
-      <c r="U15" s="29"/>
-      <c r="V15" s="29"/>
-      <c r="W15" s="29"/>
-      <c r="X15" s="29"/>
-      <c r="Y15" s="31" t="s">
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="19"/>
+      <c r="U15" s="19"/>
+      <c r="V15" s="19"/>
+      <c r="W15" s="19"/>
+      <c r="X15" s="19"/>
+      <c r="Y15" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="Z15" s="31" t="s">
+      <c r="Z15" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="AA15" s="31" t="s">
+      <c r="AA15" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="AB15" s="31" t="s">
+      <c r="AB15" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="AC15" s="31"/>
+      <c r="AC15" s="21"/>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="30"/>
-      <c r="R16" s="30"/>
-      <c r="S16" s="30"/>
-      <c r="T16" s="29"/>
-      <c r="U16" s="29"/>
-      <c r="V16" s="29"/>
-      <c r="W16" s="29"/>
-      <c r="X16" s="29"/>
-      <c r="Y16" s="31" t="s">
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="20"/>
+      <c r="S16" s="20"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="19"/>
+      <c r="V16" s="19"/>
+      <c r="W16" s="19"/>
+      <c r="X16" s="19"/>
+      <c r="Y16" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="Z16" s="31" t="s">
+      <c r="Z16" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="AA16" s="31" t="s">
+      <c r="AA16" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="AB16" s="31" t="s">
+      <c r="AB16" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="AC16" s="31"/>
+      <c r="AC16" s="21"/>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A17" s="29"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="30"/>
-      <c r="R17" s="30"/>
-      <c r="S17" s="30"/>
-      <c r="T17" s="29"/>
-      <c r="U17" s="29"/>
-      <c r="V17" s="29"/>
-      <c r="W17" s="29"/>
-      <c r="X17" s="29"/>
-      <c r="Y17" s="31" t="s">
+      <c r="A17" s="19"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="20"/>
+      <c r="T17" s="19"/>
+      <c r="U17" s="19"/>
+      <c r="V17" s="19"/>
+      <c r="W17" s="19"/>
+      <c r="X17" s="19"/>
+      <c r="Y17" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="Z17" s="31" t="s">
+      <c r="Z17" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="AA17" s="31" t="s">
+      <c r="AA17" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="AB17" s="31" t="s">
+      <c r="AB17" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="AC17" s="31"/>
+      <c r="AC17" s="21"/>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A18" s="29"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="30"/>
-      <c r="Q18" s="30"/>
-      <c r="R18" s="30"/>
-      <c r="S18" s="30"/>
-      <c r="T18" s="29"/>
-      <c r="U18" s="29"/>
-      <c r="V18" s="29"/>
-      <c r="W18" s="29"/>
-      <c r="X18" s="29"/>
-      <c r="Y18" s="31" t="s">
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="20"/>
+      <c r="T18" s="19"/>
+      <c r="U18" s="19"/>
+      <c r="V18" s="19"/>
+      <c r="W18" s="19"/>
+      <c r="X18" s="19"/>
+      <c r="Y18" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="Z18" s="31" t="s">
+      <c r="Z18" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="AA18" s="31" t="s">
+      <c r="AA18" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="AB18" s="31" t="s">
+      <c r="AB18" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="AC18" s="31"/>
+      <c r="AC18" s="21"/>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A19" s="29"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="30"/>
-      <c r="R19" s="30"/>
-      <c r="S19" s="30"/>
-      <c r="T19" s="29"/>
-      <c r="U19" s="29"/>
-      <c r="V19" s="29"/>
-      <c r="W19" s="29"/>
-      <c r="X19" s="29"/>
-      <c r="Y19" s="31" t="s">
+      <c r="A19" s="19"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="20"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="19"/>
+      <c r="V19" s="19"/>
+      <c r="W19" s="19"/>
+      <c r="X19" s="19"/>
+      <c r="Y19" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="Z19" s="31" t="s">
+      <c r="Z19" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="AA19" s="31" t="s">
+      <c r="AA19" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="AB19" s="31" t="s">
+      <c r="AB19" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="AC19" s="31"/>
+      <c r="AC19" s="21"/>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A20" s="29"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="30"/>
-      <c r="R20" s="30"/>
-      <c r="S20" s="30"/>
-      <c r="T20" s="29"/>
-      <c r="U20" s="29"/>
-      <c r="V20" s="29"/>
-      <c r="W20" s="29"/>
-      <c r="X20" s="29"/>
-      <c r="Y20" s="31" t="s">
+      <c r="A20" s="19"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="20"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="20"/>
+      <c r="T20" s="19"/>
+      <c r="U20" s="19"/>
+      <c r="V20" s="19"/>
+      <c r="W20" s="19"/>
+      <c r="X20" s="19"/>
+      <c r="Y20" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="Z20" s="31" t="s">
+      <c r="Z20" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="AA20" s="31" t="s">
+      <c r="AA20" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="AB20" s="31" t="s">
+      <c r="AB20" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="AC20" s="31"/>
+      <c r="AC20" s="21"/>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A21" s="29"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="29"/>
-      <c r="O21" s="30"/>
-      <c r="P21" s="30"/>
-      <c r="Q21" s="30"/>
-      <c r="R21" s="30"/>
-      <c r="S21" s="30"/>
-      <c r="T21" s="29"/>
-      <c r="U21" s="29"/>
-      <c r="V21" s="29"/>
-      <c r="W21" s="29"/>
-      <c r="X21" s="29"/>
-      <c r="Y21" s="31" t="s">
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="20"/>
+      <c r="R21" s="20"/>
+      <c r="S21" s="20"/>
+      <c r="T21" s="19"/>
+      <c r="U21" s="19"/>
+      <c r="V21" s="19"/>
+      <c r="W21" s="19"/>
+      <c r="X21" s="19"/>
+      <c r="Y21" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="Z21" s="31" t="s">
+      <c r="Z21" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="AA21" s="31" t="s">
+      <c r="AA21" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="AB21" s="31" t="s">
+      <c r="AB21" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="AC21" s="31"/>
+      <c r="AC21" s="21"/>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A22" s="29"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="29"/>
-      <c r="O22" s="30"/>
-      <c r="P22" s="30"/>
-      <c r="Q22" s="30"/>
-      <c r="R22" s="30"/>
-      <c r="S22" s="30"/>
-      <c r="T22" s="29"/>
-      <c r="U22" s="29"/>
-      <c r="V22" s="29"/>
-      <c r="W22" s="29"/>
-      <c r="X22" s="29"/>
-      <c r="Y22" s="31" t="s">
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="20"/>
+      <c r="S22" s="20"/>
+      <c r="T22" s="19"/>
+      <c r="U22" s="19"/>
+      <c r="V22" s="19"/>
+      <c r="W22" s="19"/>
+      <c r="X22" s="19"/>
+      <c r="Y22" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="Z22" s="31" t="s">
+      <c r="Z22" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="AA22" s="31" t="s">
+      <c r="AA22" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="AB22" s="31" t="s">
+      <c r="AB22" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="AC22" s="31"/>
+      <c r="AC22" s="21"/>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="30"/>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="30"/>
-      <c r="R23" s="30"/>
-      <c r="S23" s="30"/>
-      <c r="T23" s="29"/>
-      <c r="U23" s="29"/>
-      <c r="V23" s="29"/>
-      <c r="W23" s="29"/>
-      <c r="X23" s="29"/>
-      <c r="Y23" s="31" t="s">
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="20"/>
+      <c r="R23" s="20"/>
+      <c r="S23" s="20"/>
+      <c r="T23" s="19"/>
+      <c r="U23" s="19"/>
+      <c r="V23" s="19"/>
+      <c r="W23" s="19"/>
+      <c r="X23" s="19"/>
+      <c r="Y23" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="Z23" s="31" t="s">
+      <c r="Z23" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="AA23" s="31" t="s">
+      <c r="AA23" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="AB23" s="31" t="s">
+      <c r="AB23" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="AC23" s="31"/>
+      <c r="AC23" s="21"/>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A24" s="29"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="30"/>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="30"/>
-      <c r="R24" s="30"/>
-      <c r="S24" s="30"/>
-      <c r="T24" s="29"/>
-      <c r="U24" s="29"/>
-      <c r="V24" s="29"/>
-      <c r="W24" s="29"/>
-      <c r="X24" s="29"/>
-      <c r="Y24" s="31" t="s">
+      <c r="A24" s="19"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="20"/>
+      <c r="Q24" s="20"/>
+      <c r="R24" s="20"/>
+      <c r="S24" s="20"/>
+      <c r="T24" s="19"/>
+      <c r="U24" s="19"/>
+      <c r="V24" s="19"/>
+      <c r="W24" s="19"/>
+      <c r="X24" s="19"/>
+      <c r="Y24" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="Z24" s="31" t="s">
+      <c r="Z24" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="AA24" s="31" t="s">
+      <c r="AA24" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="AB24" s="31" t="s">
+      <c r="AB24" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="AC24" s="31"/>
+      <c r="AC24" s="21"/>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A25" s="29"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29"/>
-      <c r="N25" s="29"/>
-      <c r="O25" s="30"/>
-      <c r="P25" s="30"/>
-      <c r="Q25" s="30"/>
-      <c r="R25" s="30"/>
-      <c r="S25" s="30"/>
-      <c r="T25" s="29"/>
-      <c r="U25" s="29"/>
-      <c r="V25" s="29"/>
-      <c r="W25" s="29"/>
-      <c r="X25" s="29"/>
-      <c r="Y25" s="31" t="s">
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="20"/>
+      <c r="S25" s="20"/>
+      <c r="T25" s="19"/>
+      <c r="U25" s="19"/>
+      <c r="V25" s="19"/>
+      <c r="W25" s="19"/>
+      <c r="X25" s="19"/>
+      <c r="Y25" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="Z25" s="31" t="s">
+      <c r="Z25" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="AA25" s="31" t="s">
+      <c r="AA25" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="AB25" s="31" t="s">
+      <c r="AB25" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="AC25" s="31"/>
+      <c r="AC25" s="21"/>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A26" s="29"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="30"/>
-      <c r="P26" s="30"/>
-      <c r="Q26" s="30"/>
-      <c r="R26" s="30"/>
-      <c r="S26" s="30"/>
-      <c r="T26" s="29"/>
-      <c r="U26" s="29"/>
-      <c r="V26" s="29"/>
-      <c r="W26" s="29"/>
-      <c r="X26" s="29"/>
-      <c r="Y26" s="31" t="s">
+      <c r="A26" s="19"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="20"/>
+      <c r="P26" s="20"/>
+      <c r="Q26" s="20"/>
+      <c r="R26" s="20"/>
+      <c r="S26" s="20"/>
+      <c r="T26" s="19"/>
+      <c r="U26" s="19"/>
+      <c r="V26" s="19"/>
+      <c r="W26" s="19"/>
+      <c r="X26" s="19"/>
+      <c r="Y26" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="Z26" s="31" t="s">
+      <c r="Z26" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="AA26" s="31" t="s">
+      <c r="AA26" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="AB26" s="31" t="s">
+      <c r="AB26" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="AC26" s="31"/>
+      <c r="AC26" s="21"/>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A27" s="29"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="29"/>
-      <c r="O27" s="30"/>
-      <c r="P27" s="30"/>
-      <c r="Q27" s="30"/>
-      <c r="R27" s="30"/>
-      <c r="S27" s="30"/>
-      <c r="T27" s="29"/>
-      <c r="U27" s="29"/>
-      <c r="V27" s="29"/>
-      <c r="W27" s="29"/>
-      <c r="X27" s="29"/>
-      <c r="Y27" s="31" t="s">
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="20"/>
+      <c r="P27" s="20"/>
+      <c r="Q27" s="20"/>
+      <c r="R27" s="20"/>
+      <c r="S27" s="20"/>
+      <c r="T27" s="19"/>
+      <c r="U27" s="19"/>
+      <c r="V27" s="19"/>
+      <c r="W27" s="19"/>
+      <c r="X27" s="19"/>
+      <c r="Y27" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="Z27" s="31" t="s">
+      <c r="Z27" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="AA27" s="31" t="s">
+      <c r="AA27" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="AB27" s="31" t="s">
+      <c r="AB27" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="AC27" s="31" t="s">
+      <c r="AC27" s="21" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="28" spans="1:29" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="29"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29"/>
-      <c r="N28" s="29"/>
-      <c r="O28" s="30"/>
-      <c r="P28" s="30"/>
-      <c r="Q28" s="30"/>
-      <c r="R28" s="30"/>
-      <c r="S28" s="30"/>
-      <c r="T28" s="29"/>
-      <c r="U28" s="29"/>
-      <c r="V28" s="29"/>
-      <c r="W28" s="29"/>
-      <c r="X28" s="29"/>
-      <c r="Y28" s="31" t="s">
+      <c r="A28" s="19"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="20"/>
+      <c r="P28" s="20"/>
+      <c r="Q28" s="20"/>
+      <c r="R28" s="20"/>
+      <c r="S28" s="20"/>
+      <c r="T28" s="19"/>
+      <c r="U28" s="19"/>
+      <c r="V28" s="19"/>
+      <c r="W28" s="19"/>
+      <c r="X28" s="19"/>
+      <c r="Y28" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="Z28" s="31" t="s">
+      <c r="Z28" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="AA28" s="31" t="s">
+      <c r="AA28" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="AB28" s="31" t="s">
+      <c r="AB28" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="AC28" s="33" t="s">
+      <c r="AC28" s="23" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="29" spans="1:29" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="29"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
-      <c r="O29" s="30"/>
-      <c r="P29" s="30"/>
-      <c r="Q29" s="30"/>
-      <c r="R29" s="30"/>
-      <c r="S29" s="30"/>
-      <c r="T29" s="29"/>
-      <c r="U29" s="29"/>
-      <c r="V29" s="29"/>
-      <c r="W29" s="29"/>
-      <c r="X29" s="29"/>
-      <c r="Y29" s="31" t="s">
+      <c r="A29" s="19"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="20"/>
+      <c r="Q29" s="20"/>
+      <c r="R29" s="20"/>
+      <c r="S29" s="20"/>
+      <c r="T29" s="19"/>
+      <c r="U29" s="19"/>
+      <c r="V29" s="19"/>
+      <c r="W29" s="19"/>
+      <c r="X29" s="19"/>
+      <c r="Y29" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="Z29" s="31" t="s">
+      <c r="Z29" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="AA29" s="31" t="s">
+      <c r="AA29" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="AB29" s="31" t="s">
+      <c r="AB29" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="AC29" s="33" t="s">
+      <c r="AC29" s="23" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A30" s="29" t="s">
+      <c r="A30" s="19" t="s">
         <v>311</v>
       </c>
-      <c r="B30" s="29" t="s">
+      <c r="B30" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="C30" s="29" t="s">
+      <c r="C30" s="19" t="s">
         <v>312</v>
       </c>
-      <c r="D30" s="29" t="s">
+      <c r="D30" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30" t="s">
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20" t="s">
         <v>317</v>
       </c>
-      <c r="J30" s="29"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="29"/>
-      <c r="N30" s="29"/>
-      <c r="O30" s="30"/>
-      <c r="P30" s="30"/>
-      <c r="Q30" s="30"/>
-      <c r="R30" s="30"/>
-      <c r="S30" s="30"/>
-      <c r="T30" s="29"/>
-      <c r="U30" s="29"/>
-      <c r="V30" s="29"/>
-      <c r="W30" s="29"/>
-      <c r="X30" s="29"/>
-      <c r="Y30" s="31"/>
-      <c r="Z30" s="31"/>
-      <c r="AA30" s="31"/>
-      <c r="AB30" s="31"/>
-      <c r="AC30" s="31"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="20"/>
+      <c r="P30" s="20"/>
+      <c r="Q30" s="20"/>
+      <c r="R30" s="20"/>
+      <c r="S30" s="20"/>
+      <c r="T30" s="19"/>
+      <c r="U30" s="19"/>
+      <c r="V30" s="19"/>
+      <c r="W30" s="19"/>
+      <c r="X30" s="19"/>
+      <c r="Y30" s="21"/>
+      <c r="Z30" s="21"/>
+      <c r="AA30" s="21"/>
+      <c r="AB30" s="21"/>
+      <c r="AC30" s="21"/>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A31" s="29" t="s">
+      <c r="A31" s="19" t="s">
         <v>311</v>
       </c>
-      <c r="B31" s="29" t="s">
+      <c r="B31" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="C31" s="29" t="s">
+      <c r="C31" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="D31" s="29" t="s">
+      <c r="D31" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="E31" s="30" t="s">
+      <c r="E31" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="F31" s="30" t="s">
+      <c r="F31" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="G31" s="30" t="s">
+      <c r="G31" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="H31" s="30"/>
-      <c r="I31" s="30"/>
-      <c r="J31" s="29" t="s">
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="K31" s="29" t="s">
+      <c r="K31" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="L31" s="29" t="s">
+      <c r="L31" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="M31" s="29"/>
-      <c r="N31" s="29"/>
-      <c r="O31" s="34" t="s">
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="24" t="s">
         <v>307</v>
       </c>
-      <c r="P31" s="30" t="s">
+      <c r="P31" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="Q31" s="34" t="s">
+      <c r="Q31" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="R31" s="30"/>
-      <c r="S31" s="30" t="s">
+      <c r="R31" s="20"/>
+      <c r="S31" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="T31" s="29" t="s">
+      <c r="T31" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="U31" s="29" t="s">
+      <c r="U31" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="V31" s="29" t="s">
+      <c r="V31" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="W31" s="29"/>
-      <c r="X31" s="29"/>
-      <c r="Y31" s="31"/>
-      <c r="Z31" s="31"/>
-      <c r="AA31" s="31"/>
-      <c r="AB31" s="31"/>
-      <c r="AC31" s="31"/>
+      <c r="W31" s="19"/>
+      <c r="X31" s="19"/>
+      <c r="Y31" s="21"/>
+      <c r="Z31" s="21"/>
+      <c r="AA31" s="21"/>
+      <c r="AB31" s="21"/>
+      <c r="AC31" s="21"/>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A32" s="29" t="s">
+      <c r="A32" s="19" t="s">
         <v>311</v>
       </c>
-      <c r="B32" s="29" t="s">
+      <c r="B32" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="C32" s="29" t="s">
+      <c r="C32" s="19" t="s">
         <v>313</v>
       </c>
-      <c r="D32" s="29" t="s">
+      <c r="D32" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="29"/>
-      <c r="N32" s="29"/>
-      <c r="O32" s="30"/>
-      <c r="P32" s="30"/>
-      <c r="Q32" s="30"/>
-      <c r="R32" s="30"/>
-      <c r="S32" s="30"/>
-      <c r="T32" s="29"/>
-      <c r="U32" s="29"/>
-      <c r="V32" s="29"/>
-      <c r="W32" s="29"/>
-      <c r="X32" s="29"/>
-      <c r="Y32" s="31"/>
-      <c r="Z32" s="31"/>
-      <c r="AA32" s="31"/>
-      <c r="AB32" s="31"/>
-      <c r="AC32" s="31"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="19"/>
+      <c r="O32" s="20"/>
+      <c r="P32" s="20"/>
+      <c r="Q32" s="20"/>
+      <c r="R32" s="20"/>
+      <c r="S32" s="20"/>
+      <c r="T32" s="19"/>
+      <c r="U32" s="19"/>
+      <c r="V32" s="19"/>
+      <c r="W32" s="19"/>
+      <c r="X32" s="19"/>
+      <c r="Y32" s="21"/>
+      <c r="Z32" s="21"/>
+      <c r="AA32" s="21"/>
+      <c r="AB32" s="21"/>
+      <c r="AC32" s="21"/>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A33" s="29" t="s">
+      <c r="A33" s="19" t="s">
         <v>311</v>
       </c>
-      <c r="B33" s="29" t="s">
+      <c r="B33" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="C33" s="29" t="s">
+      <c r="C33" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="D33" s="29" t="s">
+      <c r="D33" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="E33" s="30" t="s">
+      <c r="E33" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="F33" s="30" t="s">
+      <c r="F33" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="G33" s="30" t="s">
+      <c r="G33" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="H33" s="30" t="s">
+      <c r="H33" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="I33" s="30" t="s">
+      <c r="I33" s="20" t="s">
         <v>182</v>
       </c>
-      <c r="J33" s="29" t="s">
+      <c r="J33" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="K33" s="29" t="s">
+      <c r="K33" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="L33" s="29" t="s">
+      <c r="L33" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="M33" s="29"/>
-      <c r="N33" s="29"/>
-      <c r="O33" s="34" t="s">
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="24" t="s">
         <v>307</v>
       </c>
-      <c r="P33" s="30" t="s">
+      <c r="P33" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="Q33" s="34" t="s">
+      <c r="Q33" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="R33" s="30"/>
-      <c r="S33" s="30" t="s">
+      <c r="R33" s="20"/>
+      <c r="S33" s="20" t="s">
         <v>319</v>
       </c>
-      <c r="T33" s="29" t="s">
+      <c r="T33" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="U33" s="29" t="s">
+      <c r="U33" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="V33" s="29" t="s">
+      <c r="V33" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="W33" s="29"/>
-      <c r="X33" s="29"/>
-      <c r="Y33" s="31"/>
-      <c r="Z33" s="31"/>
-      <c r="AA33" s="31"/>
-      <c r="AB33" s="31"/>
-      <c r="AC33" s="31"/>
+      <c r="W33" s="19"/>
+      <c r="X33" s="19"/>
+      <c r="Y33" s="21"/>
+      <c r="Z33" s="21"/>
+      <c r="AA33" s="21"/>
+      <c r="AB33" s="21"/>
+      <c r="AC33" s="21"/>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A34" s="29" t="s">
+      <c r="A34" s="19" t="s">
         <v>311</v>
       </c>
-      <c r="B34" s="29" t="s">
+      <c r="B34" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="C34" s="29" t="s">
+      <c r="C34" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="D34" s="29" t="s">
+      <c r="D34" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="E34" s="30" t="s">
+      <c r="E34" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="F34" s="30" t="s">
+      <c r="F34" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="G34" s="30" t="s">
+      <c r="G34" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="H34" s="30" t="s">
+      <c r="H34" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="I34" s="30" t="s">
+      <c r="I34" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="J34" s="29" t="s">
+      <c r="J34" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="K34" s="29" t="s">
+      <c r="K34" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="L34" s="29" t="s">
+      <c r="L34" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="M34" s="29"/>
-      <c r="N34" s="29"/>
-      <c r="O34" s="34" t="s">
+      <c r="M34" s="19"/>
+      <c r="N34" s="19"/>
+      <c r="O34" s="24" t="s">
         <v>307</v>
       </c>
-      <c r="P34" s="30" t="s">
+      <c r="P34" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="Q34" s="34" t="s">
+      <c r="Q34" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="R34" s="30"/>
-      <c r="S34" s="30" t="s">
+      <c r="R34" s="20"/>
+      <c r="S34" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="T34" s="29" t="s">
+      <c r="T34" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="U34" s="29" t="s">
+      <c r="U34" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="V34" s="29" t="s">
+      <c r="V34" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="W34" s="29"/>
-      <c r="X34" s="29"/>
-      <c r="Y34" s="31"/>
-      <c r="Z34" s="31"/>
-      <c r="AA34" s="31"/>
-      <c r="AB34" s="31"/>
-      <c r="AC34" s="31"/>
+      <c r="W34" s="19"/>
+      <c r="X34" s="19"/>
+      <c r="Y34" s="21"/>
+      <c r="Z34" s="21"/>
+      <c r="AA34" s="21"/>
+      <c r="AB34" s="21"/>
+      <c r="AC34" s="21"/>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A35" s="29"/>
-      <c r="B35" s="29"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="29"/>
-      <c r="K35" s="29"/>
-      <c r="L35" s="29"/>
-      <c r="M35" s="29"/>
-      <c r="N35" s="29"/>
-      <c r="O35" s="34" t="s">
+      <c r="A35" s="19"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="19"/>
+      <c r="O35" s="24" t="s">
         <v>307</v>
       </c>
-      <c r="P35" s="30" t="s">
+      <c r="P35" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="Q35" s="30" t="s">
+      <c r="Q35" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="R35" s="30"/>
-      <c r="S35" s="30" t="s">
+      <c r="R35" s="20"/>
+      <c r="S35" s="20" t="s">
         <v>320</v>
       </c>
-      <c r="T35" s="29" t="s">
+      <c r="T35" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="U35" s="29" t="s">
+      <c r="U35" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="V35" s="29" t="s">
+      <c r="V35" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="W35" s="29"/>
-      <c r="X35" s="29"/>
-      <c r="Y35" s="31"/>
-      <c r="Z35" s="31"/>
-      <c r="AA35" s="31"/>
-      <c r="AB35" s="31"/>
-      <c r="AC35" s="31"/>
-    </row>
-    <row r="36" spans="1:29" s="22" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="29"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="29"/>
-      <c r="K36" s="29"/>
-      <c r="L36" s="29"/>
-      <c r="M36" s="29"/>
-      <c r="N36" s="29"/>
-      <c r="O36" s="34" t="s">
+      <c r="W35" s="19"/>
+      <c r="X35" s="19"/>
+      <c r="Y35" s="21"/>
+      <c r="Z35" s="21"/>
+      <c r="AA35" s="21"/>
+      <c r="AB35" s="21"/>
+      <c r="AC35" s="21"/>
+    </row>
+    <row r="36" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="19"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="19"/>
+      <c r="O36" s="24" t="s">
         <v>307</v>
       </c>
-      <c r="P36" s="30" t="s">
+      <c r="P36" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="Q36" s="30" t="s">
+      <c r="Q36" s="20" t="s">
         <v>321</v>
       </c>
-      <c r="R36" s="30"/>
-      <c r="S36" s="30"/>
-      <c r="T36" s="29" t="s">
+      <c r="R36" s="20"/>
+      <c r="S36" s="20"/>
+      <c r="T36" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="U36" s="29" t="s">
+      <c r="U36" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="V36" s="29" t="s">
+      <c r="V36" s="19" t="s">
         <v>321</v>
       </c>
-      <c r="W36" s="29"/>
-      <c r="X36" s="35" t="s">
+      <c r="W36" s="19"/>
+      <c r="X36" s="25" t="s">
         <v>322</v>
       </c>
-      <c r="Y36" s="31"/>
-      <c r="Z36" s="31"/>
-      <c r="AA36" s="31"/>
-      <c r="AB36" s="31"/>
-      <c r="AC36" s="31"/>
+      <c r="Y36" s="21"/>
+      <c r="Z36" s="21"/>
+      <c r="AA36" s="21"/>
+      <c r="AB36" s="21"/>
+      <c r="AC36" s="21"/>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A37" s="29" t="s">
+      <c r="A37" s="19" t="s">
         <v>311</v>
       </c>
-      <c r="B37" s="29" t="s">
+      <c r="B37" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="C37" s="29" t="s">
+      <c r="C37" s="19" t="s">
         <v>314</v>
       </c>
-      <c r="D37" s="29" t="s">
+      <c r="D37" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30" t="s">
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20" t="s">
         <v>318</v>
       </c>
-      <c r="J37" s="29"/>
-      <c r="K37" s="29"/>
-      <c r="L37" s="29"/>
-      <c r="M37" s="29"/>
-      <c r="N37" s="29"/>
-      <c r="O37" s="30"/>
-      <c r="P37" s="30"/>
-      <c r="Q37" s="30"/>
-      <c r="R37" s="30"/>
-      <c r="S37" s="30"/>
-      <c r="T37" s="29"/>
-      <c r="U37" s="29"/>
-      <c r="V37" s="29"/>
-      <c r="W37" s="29"/>
-      <c r="X37" s="29"/>
-      <c r="Y37" s="31"/>
-      <c r="Z37" s="31"/>
-      <c r="AA37" s="31"/>
-      <c r="AB37" s="31"/>
-      <c r="AC37" s="31"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="20"/>
+      <c r="P37" s="20"/>
+      <c r="Q37" s="20"/>
+      <c r="R37" s="20"/>
+      <c r="S37" s="20"/>
+      <c r="T37" s="19"/>
+      <c r="U37" s="19"/>
+      <c r="V37" s="19"/>
+      <c r="W37" s="19"/>
+      <c r="X37" s="19"/>
+      <c r="Y37" s="21"/>
+      <c r="Z37" s="21"/>
+      <c r="AA37" s="21"/>
+      <c r="AB37" s="21"/>
+      <c r="AC37" s="21"/>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A38" s="29" t="s">
+      <c r="A38" s="19" t="s">
         <v>311</v>
       </c>
-      <c r="B38" s="29" t="s">
+      <c r="B38" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="C38" s="29" t="s">
+      <c r="C38" s="19" t="s">
         <v>315</v>
       </c>
-      <c r="D38" s="29" t="s">
+      <c r="D38" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="29"/>
-      <c r="K38" s="29"/>
-      <c r="L38" s="29"/>
-      <c r="M38" s="29"/>
-      <c r="N38" s="29"/>
-      <c r="O38" s="30"/>
-      <c r="P38" s="30"/>
-      <c r="Q38" s="30"/>
-      <c r="R38" s="30"/>
-      <c r="S38" s="30"/>
-      <c r="T38" s="29"/>
-      <c r="U38" s="29"/>
-      <c r="V38" s="29"/>
-      <c r="W38" s="29"/>
-      <c r="X38" s="29"/>
-      <c r="Y38" s="31"/>
-      <c r="Z38" s="31"/>
-      <c r="AA38" s="31"/>
-      <c r="AB38" s="31"/>
-      <c r="AC38" s="31"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="19"/>
+      <c r="O38" s="20"/>
+      <c r="P38" s="20"/>
+      <c r="Q38" s="20"/>
+      <c r="R38" s="20"/>
+      <c r="S38" s="20"/>
+      <c r="T38" s="19"/>
+      <c r="U38" s="19"/>
+      <c r="V38" s="19"/>
+      <c r="W38" s="19"/>
+      <c r="X38" s="19"/>
+      <c r="Y38" s="21"/>
+      <c r="Z38" s="21"/>
+      <c r="AA38" s="21"/>
+      <c r="AB38" s="21"/>
+      <c r="AC38" s="21"/>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A39" s="29" t="s">
+      <c r="A39" s="19" t="s">
         <v>311</v>
       </c>
-      <c r="B39" s="29" t="s">
+      <c r="B39" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="C39" s="29" t="s">
+      <c r="C39" s="19" t="s">
         <v>316</v>
       </c>
-      <c r="D39" s="29" t="s">
+      <c r="D39" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="E39" s="30"/>
-      <c r="F39" s="30"/>
-      <c r="G39" s="30"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="30"/>
-      <c r="J39" s="29"/>
-      <c r="K39" s="29"/>
-      <c r="L39" s="29"/>
-      <c r="M39" s="29"/>
-      <c r="N39" s="29"/>
-      <c r="O39" s="30"/>
-      <c r="P39" s="30"/>
-      <c r="Q39" s="30"/>
-      <c r="R39" s="30"/>
-      <c r="S39" s="30"/>
-      <c r="T39" s="29"/>
-      <c r="U39" s="29"/>
-      <c r="V39" s="29"/>
-      <c r="W39" s="29"/>
-      <c r="X39" s="29"/>
-      <c r="Y39" s="31"/>
-      <c r="Z39" s="31"/>
-      <c r="AA39" s="31"/>
-      <c r="AB39" s="31"/>
-      <c r="AC39" s="31"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="19"/>
+      <c r="M39" s="19"/>
+      <c r="N39" s="19"/>
+      <c r="O39" s="20"/>
+      <c r="P39" s="20"/>
+      <c r="Q39" s="20"/>
+      <c r="R39" s="20"/>
+      <c r="S39" s="20"/>
+      <c r="T39" s="19"/>
+      <c r="U39" s="19"/>
+      <c r="V39" s="19"/>
+      <c r="W39" s="19"/>
+      <c r="X39" s="19"/>
+      <c r="Y39" s="21"/>
+      <c r="Z39" s="21"/>
+      <c r="AA39" s="21"/>
+      <c r="AB39" s="21"/>
+      <c r="AC39" s="21"/>
     </row>
     <row r="40" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="36"/>
-      <c r="B40" s="36"/>
-      <c r="C40" s="36"/>
-      <c r="D40" s="36"/>
-      <c r="E40" s="30" t="s">
+      <c r="A40" s="26"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="F40" s="34" t="s">
+      <c r="F40" s="24" t="s">
         <v>324</v>
       </c>
-      <c r="G40" s="34" t="s">
+      <c r="G40" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="H40" s="34" t="s">
+      <c r="H40" s="24" t="s">
         <v>325</v>
       </c>
-      <c r="I40" s="34" t="s">
+      <c r="I40" s="24" t="s">
         <v>327</v>
       </c>
-      <c r="J40" s="36"/>
-      <c r="K40" s="36"/>
-      <c r="L40" s="36"/>
-      <c r="M40" s="36"/>
-      <c r="N40" s="36"/>
-      <c r="O40" s="34"/>
-      <c r="P40" s="34"/>
-      <c r="Q40" s="34"/>
-      <c r="R40" s="34"/>
-      <c r="S40" s="34"/>
-      <c r="T40" s="36"/>
-      <c r="U40" s="36"/>
-      <c r="V40" s="36"/>
-      <c r="W40" s="36"/>
-      <c r="X40" s="36"/>
-      <c r="Y40" s="37"/>
-      <c r="Z40" s="37"/>
-      <c r="AA40" s="37"/>
-      <c r="AB40" s="37"/>
-      <c r="AC40" s="37"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="26"/>
+      <c r="L40" s="26"/>
+      <c r="M40" s="26"/>
+      <c r="N40" s="26"/>
+      <c r="O40" s="24"/>
+      <c r="P40" s="24"/>
+      <c r="Q40" s="24"/>
+      <c r="R40" s="24"/>
+      <c r="S40" s="24"/>
+      <c r="T40" s="26"/>
+      <c r="U40" s="26"/>
+      <c r="V40" s="26"/>
+      <c r="W40" s="26"/>
+      <c r="X40" s="26"/>
+      <c r="Y40" s="27"/>
+      <c r="Z40" s="27"/>
+      <c r="AA40" s="27"/>
+      <c r="AB40" s="27"/>
+      <c r="AC40" s="27"/>
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A41" s="29"/>
-      <c r="B41" s="29"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="30"/>
-      <c r="I41" s="30"/>
-      <c r="J41" s="38" t="s">
+      <c r="A41" s="19"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="K41" s="38" t="s">
+      <c r="K41" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="L41" s="38" t="s">
+      <c r="L41" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="M41" s="29"/>
-      <c r="N41" s="29"/>
-      <c r="O41" s="30"/>
-      <c r="P41" s="30"/>
-      <c r="Q41" s="30"/>
-      <c r="R41" s="30"/>
-      <c r="S41" s="30"/>
-      <c r="T41" s="29"/>
-      <c r="U41" s="29"/>
-      <c r="V41" s="29"/>
-      <c r="W41" s="29"/>
-      <c r="X41" s="29"/>
-      <c r="Y41" s="31"/>
-      <c r="Z41" s="31"/>
-      <c r="AA41" s="31"/>
-      <c r="AB41" s="31"/>
-      <c r="AC41" s="31"/>
+      <c r="M41" s="19"/>
+      <c r="N41" s="19"/>
+      <c r="O41" s="20"/>
+      <c r="P41" s="20"/>
+      <c r="Q41" s="20"/>
+      <c r="R41" s="20"/>
+      <c r="S41" s="20"/>
+      <c r="T41" s="19"/>
+      <c r="U41" s="19"/>
+      <c r="V41" s="19"/>
+      <c r="W41" s="19"/>
+      <c r="X41" s="19"/>
+      <c r="Y41" s="21"/>
+      <c r="Z41" s="21"/>
+      <c r="AA41" s="21"/>
+      <c r="AB41" s="21"/>
+      <c r="AC41" s="21"/>
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A42" s="29"/>
-      <c r="B42" s="29"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="30"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="30"/>
-      <c r="J42" s="38" t="s">
+      <c r="A42" s="19"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="K42" s="38" t="s">
+      <c r="K42" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="L42" s="38" t="s">
+      <c r="L42" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="M42" s="29"/>
-      <c r="N42" s="29"/>
-      <c r="O42" s="30"/>
-      <c r="P42" s="30"/>
-      <c r="Q42" s="30"/>
-      <c r="R42" s="30"/>
-      <c r="S42" s="30"/>
-      <c r="T42" s="29"/>
-      <c r="U42" s="29"/>
-      <c r="V42" s="29"/>
-      <c r="W42" s="29"/>
-      <c r="X42" s="29"/>
-      <c r="Y42" s="31"/>
-      <c r="Z42" s="31"/>
-      <c r="AA42" s="31"/>
-      <c r="AB42" s="31"/>
-      <c r="AC42" s="31"/>
+      <c r="M42" s="19"/>
+      <c r="N42" s="19"/>
+      <c r="O42" s="20"/>
+      <c r="P42" s="20"/>
+      <c r="Q42" s="20"/>
+      <c r="R42" s="20"/>
+      <c r="S42" s="20"/>
+      <c r="T42" s="19"/>
+      <c r="U42" s="19"/>
+      <c r="V42" s="19"/>
+      <c r="W42" s="19"/>
+      <c r="X42" s="19"/>
+      <c r="Y42" s="21"/>
+      <c r="Z42" s="21"/>
+      <c r="AA42" s="21"/>
+      <c r="AB42" s="21"/>
+      <c r="AC42" s="21"/>
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A43" s="29"/>
-      <c r="B43" s="29"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="30"/>
-      <c r="J43" s="38" t="s">
+      <c r="A43" s="19"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="K43" s="38" t="s">
+      <c r="K43" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="L43" s="38" t="s">
+      <c r="L43" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="M43" s="29"/>
-      <c r="N43" s="29"/>
-      <c r="O43" s="30"/>
-      <c r="P43" s="30"/>
-      <c r="Q43" s="30"/>
-      <c r="R43" s="30"/>
-      <c r="S43" s="30"/>
-      <c r="T43" s="29"/>
-      <c r="U43" s="29"/>
-      <c r="V43" s="29"/>
-      <c r="W43" s="29"/>
-      <c r="X43" s="29"/>
-      <c r="Y43" s="31"/>
-      <c r="Z43" s="31"/>
-      <c r="AA43" s="31"/>
-      <c r="AB43" s="31"/>
-      <c r="AC43" s="31"/>
+      <c r="M43" s="19"/>
+      <c r="N43" s="19"/>
+      <c r="O43" s="20"/>
+      <c r="P43" s="20"/>
+      <c r="Q43" s="20"/>
+      <c r="R43" s="20"/>
+      <c r="S43" s="20"/>
+      <c r="T43" s="19"/>
+      <c r="U43" s="19"/>
+      <c r="V43" s="19"/>
+      <c r="W43" s="19"/>
+      <c r="X43" s="19"/>
+      <c r="Y43" s="21"/>
+      <c r="Z43" s="21"/>
+      <c r="AA43" s="21"/>
+      <c r="AB43" s="21"/>
+      <c r="AC43" s="21"/>
     </row>
     <row r="44" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A44" s="29"/>
-      <c r="B44" s="29"/>
-      <c r="C44" s="29"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="30"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="30"/>
-      <c r="I44" s="30"/>
-      <c r="J44" s="38" t="s">
+      <c r="A44" s="19"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="K44" s="38" t="s">
+      <c r="K44" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="L44" s="38" t="s">
+      <c r="L44" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="M44" s="29"/>
-      <c r="N44" s="29"/>
-      <c r="O44" s="30"/>
-      <c r="P44" s="30"/>
-      <c r="Q44" s="30"/>
-      <c r="R44" s="30"/>
-      <c r="S44" s="30"/>
-      <c r="T44" s="29"/>
-      <c r="U44" s="29"/>
-      <c r="V44" s="29"/>
-      <c r="W44" s="29"/>
-      <c r="X44" s="29"/>
-      <c r="Y44" s="31"/>
-      <c r="Z44" s="31"/>
-      <c r="AA44" s="31"/>
-      <c r="AB44" s="31"/>
-      <c r="AC44" s="31"/>
+      <c r="M44" s="19"/>
+      <c r="N44" s="19"/>
+      <c r="O44" s="20"/>
+      <c r="P44" s="20"/>
+      <c r="Q44" s="20"/>
+      <c r="R44" s="20"/>
+      <c r="S44" s="20"/>
+      <c r="T44" s="19"/>
+      <c r="U44" s="19"/>
+      <c r="V44" s="19"/>
+      <c r="W44" s="19"/>
+      <c r="X44" s="19"/>
+      <c r="Y44" s="21"/>
+      <c r="Z44" s="21"/>
+      <c r="AA44" s="21"/>
+      <c r="AB44" s="21"/>
+      <c r="AC44" s="21"/>
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A45" s="29"/>
-      <c r="B45" s="29"/>
-      <c r="C45" s="29"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="30"/>
-      <c r="F45" s="30"/>
-      <c r="G45" s="30"/>
-      <c r="H45" s="30"/>
-      <c r="I45" s="30"/>
-      <c r="J45" s="38" t="s">
+      <c r="A45" s="19"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="K45" s="38" t="s">
+      <c r="K45" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="L45" s="38" t="s">
+      <c r="L45" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="M45" s="29"/>
-      <c r="N45" s="29"/>
-      <c r="O45" s="30"/>
-      <c r="P45" s="30"/>
-      <c r="Q45" s="30"/>
-      <c r="R45" s="30"/>
-      <c r="S45" s="30"/>
-      <c r="T45" s="29"/>
-      <c r="U45" s="29"/>
-      <c r="V45" s="29"/>
-      <c r="W45" s="29"/>
-      <c r="X45" s="29"/>
-      <c r="Y45" s="31"/>
-      <c r="Z45" s="31"/>
-      <c r="AA45" s="31"/>
-      <c r="AB45" s="31"/>
-      <c r="AC45" s="31"/>
+      <c r="M45" s="19"/>
+      <c r="N45" s="19"/>
+      <c r="O45" s="20"/>
+      <c r="P45" s="20"/>
+      <c r="Q45" s="20"/>
+      <c r="R45" s="20"/>
+      <c r="S45" s="20"/>
+      <c r="T45" s="19"/>
+      <c r="U45" s="19"/>
+      <c r="V45" s="19"/>
+      <c r="W45" s="19"/>
+      <c r="X45" s="19"/>
+      <c r="Y45" s="21"/>
+      <c r="Z45" s="21"/>
+      <c r="AA45" s="21"/>
+      <c r="AB45" s="21"/>
+      <c r="AC45" s="21"/>
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A46" s="29"/>
-      <c r="B46" s="29"/>
-      <c r="C46" s="29"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="30"/>
-      <c r="F46" s="30"/>
-      <c r="G46" s="30"/>
-      <c r="H46" s="30"/>
-      <c r="I46" s="30"/>
-      <c r="J46" s="38" t="s">
+      <c r="A46" s="19"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="K46" s="38" t="s">
+      <c r="K46" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="L46" s="38" t="s">
+      <c r="L46" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="M46" s="29"/>
-      <c r="N46" s="29"/>
-      <c r="O46" s="30"/>
-      <c r="P46" s="30"/>
-      <c r="Q46" s="30"/>
-      <c r="R46" s="30"/>
-      <c r="S46" s="30"/>
-      <c r="T46" s="29"/>
-      <c r="U46" s="29"/>
-      <c r="V46" s="29"/>
-      <c r="W46" s="29"/>
-      <c r="X46" s="29"/>
-      <c r="Y46" s="31"/>
-      <c r="Z46" s="31"/>
-      <c r="AA46" s="31"/>
-      <c r="AB46" s="31"/>
-      <c r="AC46" s="31"/>
+      <c r="M46" s="19"/>
+      <c r="N46" s="19"/>
+      <c r="O46" s="20"/>
+      <c r="P46" s="20"/>
+      <c r="Q46" s="20"/>
+      <c r="R46" s="20"/>
+      <c r="S46" s="20"/>
+      <c r="T46" s="19"/>
+      <c r="U46" s="19"/>
+      <c r="V46" s="19"/>
+      <c r="W46" s="19"/>
+      <c r="X46" s="19"/>
+      <c r="Y46" s="21"/>
+      <c r="Z46" s="21"/>
+      <c r="AA46" s="21"/>
+      <c r="AB46" s="21"/>
+      <c r="AC46" s="21"/>
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A47" s="29"/>
-      <c r="B47" s="29"/>
-      <c r="C47" s="29"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="30"/>
-      <c r="F47" s="30"/>
-      <c r="G47" s="30"/>
-      <c r="H47" s="30"/>
-      <c r="I47" s="30"/>
-      <c r="J47" s="38" t="s">
+      <c r="A47" s="19"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="K47" s="38" t="s">
+      <c r="K47" s="28" t="s">
         <v>163</v>
       </c>
-      <c r="L47" s="38" t="s">
+      <c r="L47" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="M47" s="29"/>
-      <c r="N47" s="29"/>
-      <c r="O47" s="30"/>
-      <c r="P47" s="30"/>
-      <c r="Q47" s="30"/>
-      <c r="R47" s="30"/>
-      <c r="S47" s="30"/>
-      <c r="T47" s="29"/>
-      <c r="U47" s="29"/>
-      <c r="V47" s="29"/>
-      <c r="W47" s="29"/>
-      <c r="X47" s="29"/>
-      <c r="Y47" s="31"/>
-      <c r="Z47" s="31"/>
-      <c r="AA47" s="31"/>
-      <c r="AB47" s="31"/>
-      <c r="AC47" s="31"/>
+      <c r="M47" s="19"/>
+      <c r="N47" s="19"/>
+      <c r="O47" s="20"/>
+      <c r="P47" s="20"/>
+      <c r="Q47" s="20"/>
+      <c r="R47" s="20"/>
+      <c r="S47" s="20"/>
+      <c r="T47" s="19"/>
+      <c r="U47" s="19"/>
+      <c r="V47" s="19"/>
+      <c r="W47" s="19"/>
+      <c r="X47" s="19"/>
+      <c r="Y47" s="21"/>
+      <c r="Z47" s="21"/>
+      <c r="AA47" s="21"/>
+      <c r="AB47" s="21"/>
+      <c r="AC47" s="21"/>
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A48" s="29"/>
-      <c r="B48" s="29"/>
-      <c r="C48" s="29"/>
-      <c r="D48" s="29"/>
-      <c r="E48" s="30"/>
-      <c r="F48" s="30"/>
-      <c r="G48" s="30"/>
-      <c r="H48" s="30"/>
-      <c r="I48" s="30"/>
-      <c r="J48" s="38" t="s">
+      <c r="A48" s="19"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="K48" s="38" t="s">
+      <c r="K48" s="28" t="s">
         <v>164</v>
       </c>
-      <c r="L48" s="38" t="s">
+      <c r="L48" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="M48" s="29"/>
-      <c r="N48" s="29"/>
-      <c r="O48" s="30"/>
-      <c r="P48" s="30"/>
-      <c r="Q48" s="30"/>
-      <c r="R48" s="30"/>
-      <c r="S48" s="30"/>
-      <c r="T48" s="29"/>
-      <c r="U48" s="29"/>
-      <c r="V48" s="29"/>
-      <c r="W48" s="29"/>
-      <c r="X48" s="29"/>
-      <c r="Y48" s="31"/>
-      <c r="Z48" s="31"/>
-      <c r="AA48" s="31"/>
-      <c r="AB48" s="31"/>
-      <c r="AC48" s="31"/>
+      <c r="M48" s="19"/>
+      <c r="N48" s="19"/>
+      <c r="O48" s="20"/>
+      <c r="P48" s="20"/>
+      <c r="Q48" s="20"/>
+      <c r="R48" s="20"/>
+      <c r="S48" s="20"/>
+      <c r="T48" s="19"/>
+      <c r="U48" s="19"/>
+      <c r="V48" s="19"/>
+      <c r="W48" s="19"/>
+      <c r="X48" s="19"/>
+      <c r="Y48" s="21"/>
+      <c r="Z48" s="21"/>
+      <c r="AA48" s="21"/>
+      <c r="AB48" s="21"/>
+      <c r="AC48" s="21"/>
     </row>
     <row r="49" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A49" s="29"/>
-      <c r="B49" s="29"/>
-      <c r="C49" s="29"/>
-      <c r="D49" s="29"/>
-      <c r="E49" s="30"/>
-      <c r="F49" s="30"/>
-      <c r="G49" s="30"/>
-      <c r="H49" s="30"/>
-      <c r="I49" s="30"/>
-      <c r="J49" s="38" t="s">
+      <c r="A49" s="19"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="K49" s="38" t="s">
+      <c r="K49" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="L49" s="38" t="s">
+      <c r="L49" s="28" t="s">
         <v>170</v>
       </c>
-      <c r="M49" s="29"/>
-      <c r="N49" s="29"/>
-      <c r="O49" s="30"/>
-      <c r="P49" s="30"/>
-      <c r="Q49" s="30"/>
-      <c r="R49" s="30"/>
-      <c r="S49" s="30"/>
-      <c r="T49" s="29"/>
-      <c r="U49" s="29"/>
-      <c r="V49" s="29"/>
-      <c r="W49" s="29"/>
-      <c r="X49" s="29"/>
-      <c r="Y49" s="31"/>
-      <c r="Z49" s="31"/>
-      <c r="AA49" s="31"/>
-      <c r="AB49" s="31"/>
-      <c r="AC49" s="31"/>
+      <c r="M49" s="19"/>
+      <c r="N49" s="19"/>
+      <c r="O49" s="20"/>
+      <c r="P49" s="20"/>
+      <c r="Q49" s="20"/>
+      <c r="R49" s="20"/>
+      <c r="S49" s="20"/>
+      <c r="T49" s="19"/>
+      <c r="U49" s="19"/>
+      <c r="V49" s="19"/>
+      <c r="W49" s="19"/>
+      <c r="X49" s="19"/>
+      <c r="Y49" s="21"/>
+      <c r="Z49" s="21"/>
+      <c r="AA49" s="21"/>
+      <c r="AB49" s="21"/>
+      <c r="AC49" s="21"/>
     </row>
     <row r="50" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A50" s="29"/>
-      <c r="B50" s="29"/>
-      <c r="C50" s="29"/>
-      <c r="D50" s="29"/>
-      <c r="E50" s="30"/>
-      <c r="F50" s="30"/>
-      <c r="G50" s="30"/>
-      <c r="H50" s="30"/>
-      <c r="I50" s="30"/>
-      <c r="J50" s="38" t="s">
+      <c r="A50" s="19"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="K50" s="38" t="s">
+      <c r="K50" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="L50" s="38" t="s">
+      <c r="L50" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="M50" s="29"/>
-      <c r="N50" s="29"/>
-      <c r="O50" s="30"/>
-      <c r="P50" s="30"/>
-      <c r="Q50" s="30"/>
-      <c r="R50" s="30"/>
-      <c r="S50" s="30"/>
-      <c r="T50" s="29"/>
-      <c r="U50" s="29"/>
-      <c r="V50" s="29"/>
-      <c r="W50" s="29"/>
-      <c r="X50" s="29"/>
-      <c r="Y50" s="31"/>
-      <c r="Z50" s="31"/>
-      <c r="AA50" s="31"/>
-      <c r="AB50" s="31"/>
-      <c r="AC50" s="31"/>
+      <c r="M50" s="19"/>
+      <c r="N50" s="19"/>
+      <c r="O50" s="20"/>
+      <c r="P50" s="20"/>
+      <c r="Q50" s="20"/>
+      <c r="R50" s="20"/>
+      <c r="S50" s="20"/>
+      <c r="T50" s="19"/>
+      <c r="U50" s="19"/>
+      <c r="V50" s="19"/>
+      <c r="W50" s="19"/>
+      <c r="X50" s="19"/>
+      <c r="Y50" s="21"/>
+      <c r="Z50" s="21"/>
+      <c r="AA50" s="21"/>
+      <c r="AB50" s="21"/>
+      <c r="AC50" s="21"/>
     </row>
     <row r="51" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A51" s="29"/>
-      <c r="B51" s="29"/>
-      <c r="C51" s="29"/>
-      <c r="D51" s="29"/>
-      <c r="E51" s="30"/>
-      <c r="F51" s="30"/>
-      <c r="G51" s="30"/>
-      <c r="H51" s="30"/>
-      <c r="I51" s="30"/>
-      <c r="J51" s="38" t="s">
+      <c r="A51" s="19"/>
+      <c r="B51" s="19"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="K51" s="38" t="s">
+      <c r="K51" s="28" t="s">
         <v>168</v>
       </c>
-      <c r="L51" s="38" t="s">
+      <c r="L51" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="M51" s="29"/>
-      <c r="N51" s="29"/>
-      <c r="O51" s="30"/>
-      <c r="P51" s="30"/>
-      <c r="Q51" s="30"/>
-      <c r="R51" s="30"/>
-      <c r="S51" s="30"/>
-      <c r="T51" s="29"/>
-      <c r="U51" s="29"/>
-      <c r="V51" s="29"/>
-      <c r="W51" s="29"/>
-      <c r="X51" s="29"/>
-      <c r="Y51" s="31"/>
-      <c r="Z51" s="31"/>
-      <c r="AA51" s="31"/>
-      <c r="AB51" s="31"/>
-      <c r="AC51" s="31"/>
+      <c r="M51" s="19"/>
+      <c r="N51" s="19"/>
+      <c r="O51" s="20"/>
+      <c r="P51" s="20"/>
+      <c r="Q51" s="20"/>
+      <c r="R51" s="20"/>
+      <c r="S51" s="20"/>
+      <c r="T51" s="19"/>
+      <c r="U51" s="19"/>
+      <c r="V51" s="19"/>
+      <c r="W51" s="19"/>
+      <c r="X51" s="19"/>
+      <c r="Y51" s="21"/>
+      <c r="Z51" s="21"/>
+      <c r="AA51" s="21"/>
+      <c r="AB51" s="21"/>
+      <c r="AC51" s="21"/>
     </row>
     <row r="52" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A52" s="29"/>
-      <c r="B52" s="29"/>
-      <c r="C52" s="29"/>
-      <c r="D52" s="29"/>
-      <c r="E52" s="30"/>
-      <c r="F52" s="30"/>
-      <c r="G52" s="30"/>
-      <c r="H52" s="30"/>
-      <c r="I52" s="30"/>
-      <c r="J52" s="38" t="s">
+      <c r="A52" s="19"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="K52" s="38" t="s">
+      <c r="K52" s="28" t="s">
         <v>169</v>
       </c>
-      <c r="L52" s="38" t="s">
+      <c r="L52" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="M52" s="29"/>
-      <c r="N52" s="29"/>
-      <c r="O52" s="30"/>
-      <c r="P52" s="30"/>
-      <c r="Q52" s="30"/>
-      <c r="R52" s="30"/>
-      <c r="S52" s="30"/>
-      <c r="T52" s="29"/>
-      <c r="U52" s="29"/>
-      <c r="V52" s="29"/>
-      <c r="W52" s="29"/>
-      <c r="X52" s="29"/>
-      <c r="Y52" s="31"/>
-      <c r="Z52" s="31"/>
-      <c r="AA52" s="31"/>
-      <c r="AB52" s="31"/>
-      <c r="AC52" s="31"/>
+      <c r="M52" s="19"/>
+      <c r="N52" s="19"/>
+      <c r="O52" s="20"/>
+      <c r="P52" s="20"/>
+      <c r="Q52" s="20"/>
+      <c r="R52" s="20"/>
+      <c r="S52" s="20"/>
+      <c r="T52" s="19"/>
+      <c r="U52" s="19"/>
+      <c r="V52" s="19"/>
+      <c r="W52" s="19"/>
+      <c r="X52" s="19"/>
+      <c r="Y52" s="21"/>
+      <c r="Z52" s="21"/>
+      <c r="AA52" s="21"/>
+      <c r="AB52" s="21"/>
+      <c r="AC52" s="21"/>
     </row>
     <row r="53" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A53" s="29"/>
-      <c r="B53" s="29"/>
-      <c r="C53" s="29"/>
-      <c r="D53" s="29"/>
-      <c r="E53" s="30"/>
-      <c r="F53" s="30"/>
-      <c r="G53" s="30"/>
-      <c r="H53" s="30"/>
-      <c r="I53" s="30"/>
-      <c r="J53" s="38" t="s">
+      <c r="A53" s="19"/>
+      <c r="B53" s="19"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="20"/>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="K53" s="38" t="s">
+      <c r="K53" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="L53" s="38" t="s">
+      <c r="L53" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="M53" s="29"/>
-      <c r="N53" s="29"/>
-      <c r="O53" s="30"/>
-      <c r="P53" s="30"/>
-      <c r="Q53" s="30"/>
-      <c r="R53" s="30"/>
-      <c r="S53" s="30"/>
-      <c r="T53" s="29"/>
-      <c r="U53" s="29"/>
-      <c r="V53" s="29"/>
-      <c r="W53" s="29"/>
-      <c r="X53" s="29"/>
-      <c r="Y53" s="31"/>
-      <c r="Z53" s="31"/>
-      <c r="AA53" s="31"/>
-      <c r="AB53" s="31"/>
-      <c r="AC53" s="31"/>
+      <c r="M53" s="19"/>
+      <c r="N53" s="19"/>
+      <c r="O53" s="20"/>
+      <c r="P53" s="20"/>
+      <c r="Q53" s="20"/>
+      <c r="R53" s="20"/>
+      <c r="S53" s="20"/>
+      <c r="T53" s="19"/>
+      <c r="U53" s="19"/>
+      <c r="V53" s="19"/>
+      <c r="W53" s="19"/>
+      <c r="X53" s="19"/>
+      <c r="Y53" s="21"/>
+      <c r="Z53" s="21"/>
+      <c r="AA53" s="21"/>
+      <c r="AB53" s="21"/>
+      <c r="AC53" s="21"/>
     </row>
     <row r="54" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A54" s="29"/>
-      <c r="B54" s="29"/>
-      <c r="C54" s="29"/>
-      <c r="D54" s="29"/>
-      <c r="E54" s="30"/>
-      <c r="F54" s="30"/>
-      <c r="G54" s="30"/>
-      <c r="H54" s="30"/>
-      <c r="I54" s="30"/>
-      <c r="J54" s="29"/>
-      <c r="K54" s="29"/>
-      <c r="L54" s="29"/>
-      <c r="M54" s="29"/>
-      <c r="N54" s="29"/>
-      <c r="O54" s="34" t="s">
+      <c r="A54" s="19"/>
+      <c r="B54" s="19"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="20"/>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="19"/>
+      <c r="K54" s="19"/>
+      <c r="L54" s="19"/>
+      <c r="M54" s="19"/>
+      <c r="N54" s="19"/>
+      <c r="O54" s="24" t="s">
         <v>307</v>
       </c>
-      <c r="P54" s="34" t="s">
+      <c r="P54" s="24" t="s">
         <v>270</v>
       </c>
-      <c r="Q54" s="34" t="s">
+      <c r="Q54" s="24" t="s">
         <v>273</v>
       </c>
-      <c r="R54" s="34"/>
-      <c r="S54" s="34" t="s">
+      <c r="R54" s="24"/>
+      <c r="S54" s="24" t="s">
         <v>275</v>
       </c>
-      <c r="T54" s="29"/>
-      <c r="U54" s="29"/>
-      <c r="V54" s="29"/>
-      <c r="W54" s="29"/>
-      <c r="X54" s="29"/>
-      <c r="Y54" s="31"/>
-      <c r="Z54" s="31"/>
-      <c r="AA54" s="31"/>
-      <c r="AB54" s="31"/>
-      <c r="AC54" s="31"/>
+      <c r="T54" s="19"/>
+      <c r="U54" s="19"/>
+      <c r="V54" s="19"/>
+      <c r="W54" s="19"/>
+      <c r="X54" s="19"/>
+      <c r="Y54" s="21"/>
+      <c r="Z54" s="21"/>
+      <c r="AA54" s="21"/>
+      <c r="AB54" s="21"/>
+      <c r="AC54" s="21"/>
     </row>
     <row r="55" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A55" s="29"/>
-      <c r="B55" s="29"/>
-      <c r="C55" s="29"/>
-      <c r="D55" s="29"/>
-      <c r="E55" s="30"/>
-      <c r="F55" s="30"/>
-      <c r="G55" s="30"/>
-      <c r="H55" s="30"/>
-      <c r="I55" s="30"/>
-      <c r="J55" s="29"/>
-      <c r="K55" s="29"/>
-      <c r="L55" s="29"/>
-      <c r="M55" s="29"/>
-      <c r="N55" s="29"/>
-      <c r="O55" s="34" t="s">
+      <c r="A55" s="19"/>
+      <c r="B55" s="19"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="20"/>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="19"/>
+      <c r="K55" s="19"/>
+      <c r="L55" s="19"/>
+      <c r="M55" s="19"/>
+      <c r="N55" s="19"/>
+      <c r="O55" s="24" t="s">
         <v>307</v>
       </c>
-      <c r="P55" s="34" t="s">
+      <c r="P55" s="24" t="s">
         <v>271</v>
       </c>
-      <c r="Q55" s="34" t="s">
+      <c r="Q55" s="24" t="s">
         <v>273</v>
       </c>
-      <c r="R55" s="34"/>
-      <c r="S55" s="34" t="s">
+      <c r="R55" s="24"/>
+      <c r="S55" s="24" t="s">
         <v>275</v>
       </c>
-      <c r="T55" s="29"/>
-      <c r="U55" s="29"/>
-      <c r="V55" s="29"/>
-      <c r="W55" s="29"/>
-      <c r="X55" s="29"/>
-      <c r="Y55" s="31"/>
-      <c r="Z55" s="31"/>
-      <c r="AA55" s="31"/>
-      <c r="AB55" s="31"/>
-      <c r="AC55" s="31"/>
+      <c r="T55" s="19"/>
+      <c r="U55" s="19"/>
+      <c r="V55" s="19"/>
+      <c r="W55" s="19"/>
+      <c r="X55" s="19"/>
+      <c r="Y55" s="21"/>
+      <c r="Z55" s="21"/>
+      <c r="AA55" s="21"/>
+      <c r="AB55" s="21"/>
+      <c r="AC55" s="21"/>
     </row>
     <row r="56" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A56" s="29"/>
-      <c r="B56" s="29"/>
-      <c r="C56" s="29"/>
-      <c r="D56" s="29"/>
-      <c r="E56" s="30"/>
-      <c r="F56" s="30"/>
-      <c r="G56" s="30"/>
-      <c r="H56" s="30"/>
-      <c r="I56" s="30"/>
-      <c r="J56" s="29"/>
-      <c r="K56" s="29"/>
-      <c r="L56" s="29"/>
-      <c r="M56" s="29"/>
-      <c r="N56" s="29"/>
-      <c r="O56" s="34" t="s">
+      <c r="A56" s="19"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="20"/>
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="19"/>
+      <c r="K56" s="19"/>
+      <c r="L56" s="19"/>
+      <c r="M56" s="19"/>
+      <c r="N56" s="19"/>
+      <c r="O56" s="24" t="s">
         <v>307</v>
       </c>
-      <c r="P56" s="34" t="s">
+      <c r="P56" s="24" t="s">
         <v>272</v>
       </c>
-      <c r="Q56" s="34" t="s">
+      <c r="Q56" s="24" t="s">
         <v>274</v>
       </c>
-      <c r="R56" s="34"/>
-      <c r="S56" s="34" t="s">
+      <c r="R56" s="24"/>
+      <c r="S56" s="24" t="s">
         <v>276</v>
       </c>
-      <c r="T56" s="29"/>
-      <c r="U56" s="29"/>
-      <c r="V56" s="29"/>
-      <c r="W56" s="29"/>
-      <c r="X56" s="29"/>
-      <c r="Y56" s="31"/>
-      <c r="Z56" s="31"/>
-      <c r="AA56" s="31"/>
-      <c r="AB56" s="31"/>
-      <c r="AC56" s="31"/>
+      <c r="T56" s="19"/>
+      <c r="U56" s="19"/>
+      <c r="V56" s="19"/>
+      <c r="W56" s="19"/>
+      <c r="X56" s="19"/>
+      <c r="Y56" s="21"/>
+      <c r="Z56" s="21"/>
+      <c r="AA56" s="21"/>
+      <c r="AB56" s="21"/>
+      <c r="AC56" s="21"/>
     </row>
     <row r="57" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A57" s="29"/>
-      <c r="B57" s="29"/>
-      <c r="C57" s="29"/>
-      <c r="D57" s="29"/>
-      <c r="E57" s="30"/>
-      <c r="F57" s="30"/>
-      <c r="G57" s="30"/>
-      <c r="H57" s="30"/>
-      <c r="I57" s="30"/>
-      <c r="J57" s="29"/>
-      <c r="K57" s="29"/>
-      <c r="L57" s="29"/>
-      <c r="M57" s="29"/>
-      <c r="N57" s="29"/>
-      <c r="O57" s="30"/>
-      <c r="P57" s="30"/>
-      <c r="Q57" s="30"/>
-      <c r="R57" s="30"/>
-      <c r="S57" s="30"/>
-      <c r="T57" s="38" t="s">
+      <c r="A57" s="19"/>
+      <c r="B57" s="19"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="20"/>
+      <c r="H57" s="20"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="19"/>
+      <c r="K57" s="19"/>
+      <c r="L57" s="19"/>
+      <c r="M57" s="19"/>
+      <c r="N57" s="19"/>
+      <c r="O57" s="20"/>
+      <c r="P57" s="20"/>
+      <c r="Q57" s="20"/>
+      <c r="R57" s="20"/>
+      <c r="S57" s="20"/>
+      <c r="T57" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="U57" s="38" t="s">
+      <c r="U57" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="V57" s="38" t="s">
+      <c r="V57" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="W57" s="29"/>
-      <c r="X57" s="29"/>
-      <c r="Y57" s="31"/>
-      <c r="Z57" s="31"/>
-      <c r="AA57" s="31"/>
-      <c r="AB57" s="31"/>
-      <c r="AC57" s="31"/>
+      <c r="W57" s="19"/>
+      <c r="X57" s="19"/>
+      <c r="Y57" s="21"/>
+      <c r="Z57" s="21"/>
+      <c r="AA57" s="21"/>
+      <c r="AB57" s="21"/>
+      <c r="AC57" s="21"/>
     </row>
     <row r="58" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A58" s="29"/>
-      <c r="B58" s="29"/>
-      <c r="C58" s="29"/>
-      <c r="D58" s="29"/>
-      <c r="E58" s="30"/>
-      <c r="F58" s="30"/>
-      <c r="G58" s="30"/>
-      <c r="H58" s="30"/>
-      <c r="I58" s="30"/>
-      <c r="J58" s="29"/>
-      <c r="K58" s="29"/>
-      <c r="L58" s="29"/>
-      <c r="M58" s="29"/>
-      <c r="N58" s="29"/>
-      <c r="O58" s="30"/>
-      <c r="P58" s="30"/>
-      <c r="Q58" s="30"/>
-      <c r="R58" s="30"/>
-      <c r="S58" s="30"/>
-      <c r="T58" s="38" t="s">
+      <c r="A58" s="19"/>
+      <c r="B58" s="19"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="20"/>
+      <c r="H58" s="20"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="19"/>
+      <c r="K58" s="19"/>
+      <c r="L58" s="19"/>
+      <c r="M58" s="19"/>
+      <c r="N58" s="19"/>
+      <c r="O58" s="20"/>
+      <c r="P58" s="20"/>
+      <c r="Q58" s="20"/>
+      <c r="R58" s="20"/>
+      <c r="S58" s="20"/>
+      <c r="T58" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="U58" s="38" t="s">
+      <c r="U58" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="V58" s="38" t="s">
+      <c r="V58" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="W58" s="29"/>
-      <c r="X58" s="29"/>
-      <c r="Y58" s="31"/>
-      <c r="Z58" s="31"/>
-      <c r="AA58" s="31"/>
-      <c r="AB58" s="31"/>
-      <c r="AC58" s="31"/>
+      <c r="W58" s="19"/>
+      <c r="X58" s="19"/>
+      <c r="Y58" s="21"/>
+      <c r="Z58" s="21"/>
+      <c r="AA58" s="21"/>
+      <c r="AB58" s="21"/>
+      <c r="AC58" s="21"/>
     </row>
     <row r="59" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A59" s="29"/>
-      <c r="B59" s="29"/>
-      <c r="C59" s="29"/>
-      <c r="D59" s="29"/>
-      <c r="E59" s="30"/>
-      <c r="F59" s="30"/>
-      <c r="G59" s="30"/>
-      <c r="H59" s="30"/>
-      <c r="I59" s="30"/>
-      <c r="J59" s="29"/>
-      <c r="K59" s="29"/>
-      <c r="L59" s="29"/>
-      <c r="M59" s="29"/>
-      <c r="N59" s="29"/>
-      <c r="O59" s="30"/>
-      <c r="P59" s="30"/>
-      <c r="Q59" s="30"/>
-      <c r="R59" s="30"/>
-      <c r="S59" s="30"/>
-      <c r="T59" s="38" t="s">
+      <c r="A59" s="19"/>
+      <c r="B59" s="19"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="20"/>
+      <c r="H59" s="20"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="19"/>
+      <c r="K59" s="19"/>
+      <c r="L59" s="19"/>
+      <c r="M59" s="19"/>
+      <c r="N59" s="19"/>
+      <c r="O59" s="20"/>
+      <c r="P59" s="20"/>
+      <c r="Q59" s="20"/>
+      <c r="R59" s="20"/>
+      <c r="S59" s="20"/>
+      <c r="T59" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="U59" s="38" t="s">
+      <c r="U59" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="V59" s="38" t="s">
+      <c r="V59" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="W59" s="29"/>
-      <c r="X59" s="29"/>
-      <c r="Y59" s="31"/>
-      <c r="Z59" s="31"/>
-      <c r="AA59" s="31"/>
-      <c r="AB59" s="31"/>
-      <c r="AC59" s="31"/>
+      <c r="W59" s="19"/>
+      <c r="X59" s="19"/>
+      <c r="Y59" s="21"/>
+      <c r="Z59" s="21"/>
+      <c r="AA59" s="21"/>
+      <c r="AB59" s="21"/>
+      <c r="AC59" s="21"/>
     </row>
     <row r="60" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A60" s="29"/>
-      <c r="B60" s="29"/>
-      <c r="C60" s="29"/>
-      <c r="D60" s="29"/>
-      <c r="E60" s="30"/>
-      <c r="F60" s="30"/>
-      <c r="G60" s="30"/>
-      <c r="H60" s="30"/>
-      <c r="I60" s="30"/>
-      <c r="J60" s="29"/>
-      <c r="K60" s="29"/>
-      <c r="L60" s="29"/>
-      <c r="M60" s="29"/>
-      <c r="N60" s="29"/>
-      <c r="O60" s="30"/>
-      <c r="P60" s="30"/>
-      <c r="Q60" s="30"/>
-      <c r="R60" s="30"/>
-      <c r="S60" s="30"/>
-      <c r="T60" s="38" t="s">
+      <c r="A60" s="19"/>
+      <c r="B60" s="19"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="20"/>
+      <c r="H60" s="20"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="19"/>
+      <c r="K60" s="19"/>
+      <c r="L60" s="19"/>
+      <c r="M60" s="19"/>
+      <c r="N60" s="19"/>
+      <c r="O60" s="20"/>
+      <c r="P60" s="20"/>
+      <c r="Q60" s="20"/>
+      <c r="R60" s="20"/>
+      <c r="S60" s="20"/>
+      <c r="T60" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="U60" s="38" t="s">
+      <c r="U60" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="V60" s="38" t="s">
+      <c r="V60" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="W60" s="29"/>
-      <c r="X60" s="29"/>
-      <c r="Y60" s="31"/>
-      <c r="Z60" s="31"/>
-      <c r="AA60" s="31"/>
-      <c r="AB60" s="31"/>
-      <c r="AC60" s="31"/>
+      <c r="W60" s="19"/>
+      <c r="X60" s="19"/>
+      <c r="Y60" s="21"/>
+      <c r="Z60" s="21"/>
+      <c r="AA60" s="21"/>
+      <c r="AB60" s="21"/>
+      <c r="AC60" s="21"/>
     </row>
     <row r="61" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A61" s="29"/>
-      <c r="B61" s="29"/>
-      <c r="C61" s="29"/>
-      <c r="D61" s="29"/>
-      <c r="E61" s="30"/>
-      <c r="F61" s="30"/>
-      <c r="G61" s="30"/>
-      <c r="H61" s="30"/>
-      <c r="I61" s="30"/>
-      <c r="J61" s="29"/>
-      <c r="K61" s="29"/>
-      <c r="L61" s="29"/>
-      <c r="M61" s="29"/>
-      <c r="N61" s="29"/>
-      <c r="O61" s="30"/>
-      <c r="P61" s="30"/>
-      <c r="Q61" s="30"/>
-      <c r="R61" s="30"/>
-      <c r="S61" s="30"/>
-      <c r="T61" s="38" t="s">
+      <c r="A61" s="19"/>
+      <c r="B61" s="19"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="20"/>
+      <c r="H61" s="20"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="19"/>
+      <c r="K61" s="19"/>
+      <c r="L61" s="19"/>
+      <c r="M61" s="19"/>
+      <c r="N61" s="19"/>
+      <c r="O61" s="20"/>
+      <c r="P61" s="20"/>
+      <c r="Q61" s="20"/>
+      <c r="R61" s="20"/>
+      <c r="S61" s="20"/>
+      <c r="T61" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="U61" s="38" t="s">
+      <c r="U61" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="V61" s="38" t="s">
+      <c r="V61" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="W61" s="29"/>
-      <c r="X61" s="29"/>
-      <c r="Y61" s="31"/>
-      <c r="Z61" s="31"/>
-      <c r="AA61" s="31"/>
-      <c r="AB61" s="31"/>
-      <c r="AC61" s="31"/>
+      <c r="W61" s="19"/>
+      <c r="X61" s="19"/>
+      <c r="Y61" s="21"/>
+      <c r="Z61" s="21"/>
+      <c r="AA61" s="21"/>
+      <c r="AB61" s="21"/>
+      <c r="AC61" s="21"/>
     </row>
     <row r="62" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A62" s="29"/>
-      <c r="B62" s="29"/>
-      <c r="C62" s="29"/>
-      <c r="D62" s="29"/>
-      <c r="E62" s="30"/>
-      <c r="F62" s="30"/>
-      <c r="G62" s="30"/>
-      <c r="H62" s="30"/>
-      <c r="I62" s="30"/>
-      <c r="J62" s="29"/>
-      <c r="K62" s="29"/>
-      <c r="L62" s="29"/>
-      <c r="M62" s="29"/>
-      <c r="N62" s="29"/>
-      <c r="O62" s="30"/>
-      <c r="P62" s="30"/>
-      <c r="Q62" s="30"/>
-      <c r="R62" s="30"/>
-      <c r="S62" s="30"/>
-      <c r="T62" s="38" t="s">
+      <c r="A62" s="19"/>
+      <c r="B62" s="19"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="19"/>
+      <c r="E62" s="20"/>
+      <c r="F62" s="20"/>
+      <c r="G62" s="20"/>
+      <c r="H62" s="20"/>
+      <c r="I62" s="20"/>
+      <c r="J62" s="19"/>
+      <c r="K62" s="19"/>
+      <c r="L62" s="19"/>
+      <c r="M62" s="19"/>
+      <c r="N62" s="19"/>
+      <c r="O62" s="20"/>
+      <c r="P62" s="20"/>
+      <c r="Q62" s="20"/>
+      <c r="R62" s="20"/>
+      <c r="S62" s="20"/>
+      <c r="T62" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="U62" s="38" t="s">
+      <c r="U62" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="V62" s="38" t="s">
+      <c r="V62" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="W62" s="29"/>
-      <c r="X62" s="29"/>
-      <c r="Y62" s="31"/>
-      <c r="Z62" s="31"/>
-      <c r="AA62" s="31"/>
-      <c r="AB62" s="31"/>
-      <c r="AC62" s="31"/>
+      <c r="W62" s="19"/>
+      <c r="X62" s="19"/>
+      <c r="Y62" s="21"/>
+      <c r="Z62" s="21"/>
+      <c r="AA62" s="21"/>
+      <c r="AB62" s="21"/>
+      <c r="AC62" s="21"/>
     </row>
     <row r="63" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A63" s="29"/>
-      <c r="B63" s="29"/>
-      <c r="C63" s="29"/>
-      <c r="D63" s="29"/>
-      <c r="E63" s="30"/>
-      <c r="F63" s="30"/>
-      <c r="G63" s="30"/>
-      <c r="H63" s="30"/>
-      <c r="I63" s="30"/>
-      <c r="J63" s="29"/>
-      <c r="K63" s="29"/>
-      <c r="L63" s="29"/>
-      <c r="M63" s="29"/>
-      <c r="N63" s="29"/>
-      <c r="O63" s="30"/>
-      <c r="P63" s="30"/>
-      <c r="Q63" s="30"/>
-      <c r="R63" s="30"/>
-      <c r="S63" s="30"/>
-      <c r="T63" s="38" t="s">
+      <c r="A63" s="19"/>
+      <c r="B63" s="19"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="20"/>
+      <c r="F63" s="20"/>
+      <c r="G63" s="20"/>
+      <c r="H63" s="20"/>
+      <c r="I63" s="20"/>
+      <c r="J63" s="19"/>
+      <c r="K63" s="19"/>
+      <c r="L63" s="19"/>
+      <c r="M63" s="19"/>
+      <c r="N63" s="19"/>
+      <c r="O63" s="20"/>
+      <c r="P63" s="20"/>
+      <c r="Q63" s="20"/>
+      <c r="R63" s="20"/>
+      <c r="S63" s="20"/>
+      <c r="T63" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="U63" s="38" t="s">
+      <c r="U63" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="V63" s="38" t="s">
+      <c r="V63" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="W63" s="29"/>
-      <c r="X63" s="29"/>
-      <c r="Y63" s="31"/>
-      <c r="Z63" s="31"/>
-      <c r="AA63" s="31"/>
-      <c r="AB63" s="31"/>
-      <c r="AC63" s="31"/>
+      <c r="W63" s="19"/>
+      <c r="X63" s="19"/>
+      <c r="Y63" s="21"/>
+      <c r="Z63" s="21"/>
+      <c r="AA63" s="21"/>
+      <c r="AB63" s="21"/>
+      <c r="AC63" s="21"/>
     </row>
     <row r="64" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A64" s="29"/>
-      <c r="B64" s="29"/>
-      <c r="C64" s="29"/>
-      <c r="D64" s="29"/>
-      <c r="E64" s="30"/>
-      <c r="F64" s="30"/>
-      <c r="G64" s="30"/>
-      <c r="H64" s="30"/>
-      <c r="I64" s="30"/>
-      <c r="J64" s="29"/>
-      <c r="K64" s="29"/>
-      <c r="L64" s="29"/>
-      <c r="M64" s="29"/>
-      <c r="N64" s="29"/>
-      <c r="O64" s="30"/>
-      <c r="P64" s="30"/>
-      <c r="Q64" s="30"/>
-      <c r="R64" s="30"/>
-      <c r="S64" s="30"/>
-      <c r="T64" s="38" t="s">
+      <c r="A64" s="19"/>
+      <c r="B64" s="19"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="19"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="20"/>
+      <c r="H64" s="20"/>
+      <c r="I64" s="20"/>
+      <c r="J64" s="19"/>
+      <c r="K64" s="19"/>
+      <c r="L64" s="19"/>
+      <c r="M64" s="19"/>
+      <c r="N64" s="19"/>
+      <c r="O64" s="20"/>
+      <c r="P64" s="20"/>
+      <c r="Q64" s="20"/>
+      <c r="R64" s="20"/>
+      <c r="S64" s="20"/>
+      <c r="T64" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="U64" s="38" t="s">
+      <c r="U64" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="V64" s="38" t="s">
+      <c r="V64" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="W64" s="29"/>
-      <c r="X64" s="29"/>
-      <c r="Y64" s="31"/>
-      <c r="Z64" s="31"/>
-      <c r="AA64" s="31"/>
-      <c r="AB64" s="31"/>
-      <c r="AC64" s="31"/>
+      <c r="W64" s="19"/>
+      <c r="X64" s="19"/>
+      <c r="Y64" s="21"/>
+      <c r="Z64" s="21"/>
+      <c r="AA64" s="21"/>
+      <c r="AB64" s="21"/>
+      <c r="AC64" s="21"/>
     </row>
     <row r="65" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A65" s="29"/>
-      <c r="B65" s="29"/>
-      <c r="C65" s="29"/>
-      <c r="D65" s="29"/>
-      <c r="E65" s="30"/>
-      <c r="F65" s="30"/>
-      <c r="G65" s="30"/>
-      <c r="H65" s="30"/>
-      <c r="I65" s="30"/>
-      <c r="J65" s="29"/>
-      <c r="K65" s="29"/>
-      <c r="L65" s="29"/>
-      <c r="M65" s="29"/>
-      <c r="N65" s="29"/>
-      <c r="O65" s="30"/>
-      <c r="P65" s="30"/>
-      <c r="Q65" s="30"/>
-      <c r="R65" s="30"/>
-      <c r="S65" s="30"/>
-      <c r="T65" s="38" t="s">
+      <c r="A65" s="19"/>
+      <c r="B65" s="19"/>
+      <c r="C65" s="19"/>
+      <c r="D65" s="19"/>
+      <c r="E65" s="20"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="20"/>
+      <c r="H65" s="20"/>
+      <c r="I65" s="20"/>
+      <c r="J65" s="19"/>
+      <c r="K65" s="19"/>
+      <c r="L65" s="19"/>
+      <c r="M65" s="19"/>
+      <c r="N65" s="19"/>
+      <c r="O65" s="20"/>
+      <c r="P65" s="20"/>
+      <c r="Q65" s="20"/>
+      <c r="R65" s="20"/>
+      <c r="S65" s="20"/>
+      <c r="T65" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="U65" s="38" t="s">
+      <c r="U65" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="V65" s="38" t="s">
+      <c r="V65" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="W65" s="29"/>
-      <c r="X65" s="29"/>
-      <c r="Y65" s="31"/>
-      <c r="Z65" s="31"/>
-      <c r="AA65" s="31"/>
-      <c r="AB65" s="31"/>
-      <c r="AC65" s="31"/>
+      <c r="W65" s="19"/>
+      <c r="X65" s="19"/>
+      <c r="Y65" s="21"/>
+      <c r="Z65" s="21"/>
+      <c r="AA65" s="21"/>
+      <c r="AB65" s="21"/>
+      <c r="AC65" s="21"/>
     </row>
     <row r="66" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A66" s="29"/>
-      <c r="B66" s="29"/>
-      <c r="C66" s="29"/>
-      <c r="D66" s="29"/>
-      <c r="E66" s="30"/>
-      <c r="F66" s="30"/>
-      <c r="G66" s="30"/>
-      <c r="H66" s="30"/>
-      <c r="I66" s="30"/>
-      <c r="J66" s="29"/>
-      <c r="K66" s="29"/>
-      <c r="L66" s="29"/>
-      <c r="M66" s="29"/>
-      <c r="N66" s="29"/>
-      <c r="O66" s="30"/>
-      <c r="P66" s="30"/>
-      <c r="Q66" s="30"/>
-      <c r="R66" s="30"/>
-      <c r="S66" s="30"/>
-      <c r="T66" s="38" t="s">
+      <c r="A66" s="19"/>
+      <c r="B66" s="19"/>
+      <c r="C66" s="19"/>
+      <c r="D66" s="19"/>
+      <c r="E66" s="20"/>
+      <c r="F66" s="20"/>
+      <c r="G66" s="20"/>
+      <c r="H66" s="20"/>
+      <c r="I66" s="20"/>
+      <c r="J66" s="19"/>
+      <c r="K66" s="19"/>
+      <c r="L66" s="19"/>
+      <c r="M66" s="19"/>
+      <c r="N66" s="19"/>
+      <c r="O66" s="20"/>
+      <c r="P66" s="20"/>
+      <c r="Q66" s="20"/>
+      <c r="R66" s="20"/>
+      <c r="S66" s="20"/>
+      <c r="T66" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="U66" s="38" t="s">
+      <c r="U66" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="V66" s="38" t="s">
+      <c r="V66" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="W66" s="29"/>
-      <c r="X66" s="29"/>
-      <c r="Y66" s="31"/>
-      <c r="Z66" s="31"/>
-      <c r="AA66" s="31"/>
-      <c r="AB66" s="31"/>
-      <c r="AC66" s="31"/>
+      <c r="W66" s="19"/>
+      <c r="X66" s="19"/>
+      <c r="Y66" s="21"/>
+      <c r="Z66" s="21"/>
+      <c r="AA66" s="21"/>
+      <c r="AB66" s="21"/>
+      <c r="AC66" s="21"/>
     </row>
     <row r="67" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A67" s="29"/>
-      <c r="B67" s="29"/>
-      <c r="C67" s="29"/>
-      <c r="D67" s="29"/>
-      <c r="E67" s="30"/>
-      <c r="F67" s="30"/>
-      <c r="G67" s="30"/>
-      <c r="H67" s="30"/>
-      <c r="I67" s="30"/>
-      <c r="J67" s="29"/>
-      <c r="K67" s="29"/>
-      <c r="L67" s="29"/>
-      <c r="M67" s="29"/>
-      <c r="N67" s="29"/>
-      <c r="O67" s="30"/>
-      <c r="P67" s="30"/>
-      <c r="Q67" s="30"/>
-      <c r="R67" s="30"/>
-      <c r="S67" s="30"/>
-      <c r="T67" s="38" t="s">
+      <c r="A67" s="19"/>
+      <c r="B67" s="19"/>
+      <c r="C67" s="19"/>
+      <c r="D67" s="19"/>
+      <c r="E67" s="20"/>
+      <c r="F67" s="20"/>
+      <c r="G67" s="20"/>
+      <c r="H67" s="20"/>
+      <c r="I67" s="20"/>
+      <c r="J67" s="19"/>
+      <c r="K67" s="19"/>
+      <c r="L67" s="19"/>
+      <c r="M67" s="19"/>
+      <c r="N67" s="19"/>
+      <c r="O67" s="20"/>
+      <c r="P67" s="20"/>
+      <c r="Q67" s="20"/>
+      <c r="R67" s="20"/>
+      <c r="S67" s="20"/>
+      <c r="T67" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="U67" s="38" t="s">
+      <c r="U67" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="V67" s="38" t="s">
+      <c r="V67" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="W67" s="29"/>
-      <c r="X67" s="29"/>
-      <c r="Y67" s="31"/>
-      <c r="Z67" s="31"/>
-      <c r="AA67" s="31"/>
-      <c r="AB67" s="31"/>
-      <c r="AC67" s="31"/>
+      <c r="W67" s="19"/>
+      <c r="X67" s="19"/>
+      <c r="Y67" s="21"/>
+      <c r="Z67" s="21"/>
+      <c r="AA67" s="21"/>
+      <c r="AB67" s="21"/>
+      <c r="AC67" s="21"/>
     </row>
     <row r="68" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A68" s="29"/>
-      <c r="B68" s="29"/>
-      <c r="C68" s="29"/>
-      <c r="D68" s="29"/>
-      <c r="E68" s="30"/>
-      <c r="F68" s="30"/>
-      <c r="G68" s="30"/>
-      <c r="H68" s="30"/>
-      <c r="I68" s="30"/>
-      <c r="J68" s="29"/>
-      <c r="K68" s="29"/>
-      <c r="L68" s="29"/>
-      <c r="M68" s="29"/>
-      <c r="N68" s="29"/>
-      <c r="O68" s="30"/>
-      <c r="P68" s="30"/>
-      <c r="Q68" s="30"/>
-      <c r="R68" s="30"/>
-      <c r="S68" s="30"/>
-      <c r="T68" s="38" t="s">
+      <c r="A68" s="19"/>
+      <c r="B68" s="19"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="19"/>
+      <c r="E68" s="20"/>
+      <c r="F68" s="20"/>
+      <c r="G68" s="20"/>
+      <c r="H68" s="20"/>
+      <c r="I68" s="20"/>
+      <c r="J68" s="19"/>
+      <c r="K68" s="19"/>
+      <c r="L68" s="19"/>
+      <c r="M68" s="19"/>
+      <c r="N68" s="19"/>
+      <c r="O68" s="20"/>
+      <c r="P68" s="20"/>
+      <c r="Q68" s="20"/>
+      <c r="R68" s="20"/>
+      <c r="S68" s="20"/>
+      <c r="T68" s="28" t="s">
         <v>150</v>
       </c>
       <c r="U68" s="5" t="s">
@@ -7328,34 +7327,34 @@
       <c r="W68" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="X68" s="29"/>
-      <c r="Y68" s="31"/>
-      <c r="Z68" s="31"/>
-      <c r="AA68" s="31"/>
-      <c r="AB68" s="31"/>
-      <c r="AC68" s="31"/>
+      <c r="X68" s="19"/>
+      <c r="Y68" s="21"/>
+      <c r="Z68" s="21"/>
+      <c r="AA68" s="21"/>
+      <c r="AB68" s="21"/>
+      <c r="AC68" s="21"/>
     </row>
     <row r="69" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A69" s="29"/>
-      <c r="B69" s="29"/>
-      <c r="C69" s="29"/>
-      <c r="D69" s="29"/>
-      <c r="E69" s="30"/>
-      <c r="F69" s="30"/>
-      <c r="G69" s="30"/>
-      <c r="H69" s="30"/>
-      <c r="I69" s="30"/>
-      <c r="J69" s="29"/>
-      <c r="K69" s="29"/>
-      <c r="L69" s="29"/>
-      <c r="M69" s="29"/>
-      <c r="N69" s="29"/>
-      <c r="O69" s="30"/>
-      <c r="P69" s="30"/>
-      <c r="Q69" s="30"/>
-      <c r="R69" s="30"/>
-      <c r="S69" s="30"/>
-      <c r="T69" s="38" t="s">
+      <c r="A69" s="19"/>
+      <c r="B69" s="19"/>
+      <c r="C69" s="19"/>
+      <c r="D69" s="19"/>
+      <c r="E69" s="20"/>
+      <c r="F69" s="20"/>
+      <c r="G69" s="20"/>
+      <c r="H69" s="20"/>
+      <c r="I69" s="20"/>
+      <c r="J69" s="19"/>
+      <c r="K69" s="19"/>
+      <c r="L69" s="19"/>
+      <c r="M69" s="19"/>
+      <c r="N69" s="19"/>
+      <c r="O69" s="20"/>
+      <c r="P69" s="20"/>
+      <c r="Q69" s="20"/>
+      <c r="R69" s="20"/>
+      <c r="S69" s="20"/>
+      <c r="T69" s="28" t="s">
         <v>150</v>
       </c>
       <c r="U69" s="8" t="s">
@@ -7365,34 +7364,34 @@
         <v>55</v>
       </c>
       <c r="W69" s="5"/>
-      <c r="X69" s="29"/>
-      <c r="Y69" s="31"/>
-      <c r="Z69" s="31"/>
-      <c r="AA69" s="31"/>
-      <c r="AB69" s="31"/>
-      <c r="AC69" s="31"/>
+      <c r="X69" s="19"/>
+      <c r="Y69" s="21"/>
+      <c r="Z69" s="21"/>
+      <c r="AA69" s="21"/>
+      <c r="AB69" s="21"/>
+      <c r="AC69" s="21"/>
     </row>
     <row r="70" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A70" s="29"/>
-      <c r="B70" s="29"/>
-      <c r="C70" s="29"/>
-      <c r="D70" s="29"/>
-      <c r="E70" s="30"/>
-      <c r="F70" s="30"/>
-      <c r="G70" s="30"/>
-      <c r="H70" s="30"/>
-      <c r="I70" s="30"/>
-      <c r="J70" s="29"/>
-      <c r="K70" s="29"/>
-      <c r="L70" s="29"/>
-      <c r="M70" s="29"/>
-      <c r="N70" s="29"/>
-      <c r="O70" s="30"/>
-      <c r="P70" s="30"/>
-      <c r="Q70" s="30"/>
-      <c r="R70" s="30"/>
-      <c r="S70" s="30"/>
-      <c r="T70" s="38" t="s">
+      <c r="A70" s="19"/>
+      <c r="B70" s="19"/>
+      <c r="C70" s="19"/>
+      <c r="D70" s="19"/>
+      <c r="E70" s="20"/>
+      <c r="F70" s="20"/>
+      <c r="G70" s="20"/>
+      <c r="H70" s="20"/>
+      <c r="I70" s="20"/>
+      <c r="J70" s="19"/>
+      <c r="K70" s="19"/>
+      <c r="L70" s="19"/>
+      <c r="M70" s="19"/>
+      <c r="N70" s="19"/>
+      <c r="O70" s="20"/>
+      <c r="P70" s="20"/>
+      <c r="Q70" s="20"/>
+      <c r="R70" s="20"/>
+      <c r="S70" s="20"/>
+      <c r="T70" s="28" t="s">
         <v>150</v>
       </c>
       <c r="U70" s="8" t="s">
@@ -7402,34 +7401,34 @@
         <v>29</v>
       </c>
       <c r="W70" s="5"/>
-      <c r="X70" s="29"/>
-      <c r="Y70" s="31"/>
-      <c r="Z70" s="31"/>
-      <c r="AA70" s="31"/>
-      <c r="AB70" s="31"/>
-      <c r="AC70" s="31"/>
+      <c r="X70" s="19"/>
+      <c r="Y70" s="21"/>
+      <c r="Z70" s="21"/>
+      <c r="AA70" s="21"/>
+      <c r="AB70" s="21"/>
+      <c r="AC70" s="21"/>
     </row>
     <row r="71" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A71" s="29"/>
-      <c r="B71" s="29"/>
-      <c r="C71" s="29"/>
-      <c r="D71" s="29"/>
-      <c r="E71" s="30"/>
-      <c r="F71" s="30"/>
-      <c r="G71" s="30"/>
-      <c r="H71" s="30"/>
-      <c r="I71" s="30"/>
-      <c r="J71" s="29"/>
-      <c r="K71" s="29"/>
-      <c r="L71" s="29"/>
-      <c r="M71" s="29"/>
-      <c r="N71" s="29"/>
-      <c r="O71" s="30"/>
-      <c r="P71" s="30"/>
-      <c r="Q71" s="30"/>
-      <c r="R71" s="30"/>
-      <c r="S71" s="30"/>
-      <c r="T71" s="38" t="s">
+      <c r="A71" s="19"/>
+      <c r="B71" s="19"/>
+      <c r="C71" s="19"/>
+      <c r="D71" s="19"/>
+      <c r="E71" s="20"/>
+      <c r="F71" s="20"/>
+      <c r="G71" s="20"/>
+      <c r="H71" s="20"/>
+      <c r="I71" s="20"/>
+      <c r="J71" s="19"/>
+      <c r="K71" s="19"/>
+      <c r="L71" s="19"/>
+      <c r="M71" s="19"/>
+      <c r="N71" s="19"/>
+      <c r="O71" s="20"/>
+      <c r="P71" s="20"/>
+      <c r="Q71" s="20"/>
+      <c r="R71" s="20"/>
+      <c r="S71" s="20"/>
+      <c r="T71" s="28" t="s">
         <v>150</v>
       </c>
       <c r="U71" s="5" t="s">
@@ -7441,12 +7440,12 @@
       <c r="W71" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="X71" s="29"/>
-      <c r="Y71" s="31"/>
-      <c r="Z71" s="31"/>
-      <c r="AA71" s="31"/>
-      <c r="AB71" s="31"/>
-      <c r="AC71" s="31"/>
+      <c r="X71" s="19"/>
+      <c r="Y71" s="21"/>
+      <c r="Z71" s="21"/>
+      <c r="AA71" s="21"/>
+      <c r="AB71" s="21"/>
+      <c r="AC71" s="21"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:AC2" xr:uid="{636FC1D2-7353-4EFE-B3FA-868959EEF7C0}"/>
@@ -7507,47 +7506,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="18" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="17" t="s">
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="19" t="s">
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="17" t="s">
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="16" t="s">
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="Z1" s="16"/>
-      <c r="AA1" s="16"/>
-      <c r="AB1" s="16"/>
-      <c r="AC1" s="16"/>
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="32"/>
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="32"/>
     </row>
     <row r="2" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -10193,47 +10192,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="18" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="17" t="s">
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="19" t="s">
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="17" t="s">
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="16" t="s">
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="Z1" s="16"/>
-      <c r="AA1" s="16"/>
-      <c r="AB1" s="16"/>
-      <c r="AC1" s="16"/>
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="32"/>
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="32"/>
     </row>
     <row r="2" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -10577,8 +10576,8 @@
       <c r="W6" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="X6" s="39" t="s">
-        <v>340</v>
+      <c r="X6" s="29" t="s">
+        <v>337</v>
       </c>
       <c r="Y6" s="10" t="s">
         <v>221</v>
@@ -10634,25 +10633,25 @@
       <c r="AC7" s="10"/>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="30" t="s">
         <v>251</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="30" t="s">
         <v>257</v>
       </c>
-      <c r="D8" s="40" t="s">
+      <c r="D8" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="41" t="s">
+      <c r="E8" s="31" t="s">
         <v>251</v>
       </c>
-      <c r="F8" s="41" t="s">
+      <c r="F8" s="31" t="s">
         <v>257</v>
       </c>
-      <c r="G8" s="41" t="s">
+      <c r="G8" s="31" t="s">
         <v>29</v>
       </c>
       <c r="H8" s="3"/>
@@ -10679,25 +10678,25 @@
       <c r="AC8" s="10"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="30" t="s">
         <v>251</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="30" t="s">
         <v>258</v>
       </c>
-      <c r="D9" s="40" t="s">
+      <c r="D9" s="30" t="s">
         <v>250</v>
       </c>
-      <c r="E9" s="41" t="s">
+      <c r="E9" s="31" t="s">
         <v>251</v>
       </c>
-      <c r="F9" s="41" t="s">
+      <c r="F9" s="31" t="s">
         <v>258</v>
       </c>
-      <c r="G9" s="41" t="s">
+      <c r="G9" s="31" t="s">
         <v>250</v>
       </c>
       <c r="H9" s="3"/>
@@ -12629,8 +12628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE506E6D-FDB6-42A6-8384-1E788212D2E3}">
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12652,26 +12651,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="18" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="17" t="s">
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
@@ -13052,7 +13051,7 @@
         <v>300</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -13078,7 +13077,7 @@
         <v>300</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -13104,7 +13103,7 @@
         <v>300</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">

--- a/Docs/Source to target mapping.xlsx
+++ b/Docs/Source to target mapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20384"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zinyk\source\repos\Northwind_BI_Solution\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZinukovD\source\repos\Northwind_BI_Solution\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{783E6AA2-0426-4EF9-BB13-F3A5B11D5450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1886F2E7-3FF5-4AA5-B8B8-AFB8F731415E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="558" activeTab="4" xr2:uid="{4088A55A-653F-450D-AAB8-4D657457B3B6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="558" activeTab="3" xr2:uid="{4088A55A-653F-450D-AAB8-4D657457B3B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Customer" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1568" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1583" uniqueCount="345">
   <si>
     <t>Source</t>
   </si>
@@ -1067,6 +1067,60 @@
   </si>
   <si>
     <t>Lookup OrderID in Order Details &amp; [Quantity] * [UnitPrice] * (1 - [Discount])</t>
+  </si>
+  <si>
+    <t>AllAttributes</t>
+  </si>
+  <si>
+    <t>[MasterCustomerAllAttributes] = (
+			SELECT	*
+			FROM	[mdm].[MasterCustomer] AS subquery
+			WHERE	subquery.[Code] = MC.[Code]
+			FOR JSON PATH, WITHOUT_ARRAY_WRAPPER
+		)
+DQSCustomerAllAttributes = (
+			SELECT	*
+			FROM	[dbo].[NW_Customers] AS subquery
+			WHERE	subquery.[CustomerID_Output] = NWP.[CustomerID_Output]
+			FOR JSON PATH, WITHOUT_ARRAY_WRAPPER
+		)
+(DT_NTEXT)"{\"MDS\":[{\"mdm_masterCustomer\":" + (ISNULL(MasterCustomerAllAttributes) ? (DT_NTEXT)"{}" : MasterCustomerAllAttributes) + (DT_NTEXT)"}],\"DQS\":[{\"dbo_NW_Customers\":" + (ISNULL(DQSCustomerAllAttributes) ? (DT_NTEXT)"{}" : DQSCustomerAllAttributes) + (DT_NTEXT)"}]}"</t>
+  </si>
+  <si>
+    <t>[MasterEmployeeAllAttributes] = (
+			SELECT	*
+			FROM	[mdm].[MasterEmployee] AS subquery
+			WHERE	subquery.[Code] = MC.[Code]
+			FOR JSON PATH, WITHOUT_ARRAY_WRAPPER
+		)
+DQSEmployeeAllAttributes = (
+			SELECT	*
+			FROM	[dbo].[NW_Employees] AS subquery
+			WHERE	subquery.[EmployeeID_Output] = NWP.[EmployeeID_Output]
+			FOR JSON PATH, WITHOUT_ARRAY_WRAPPER
+		)
+(DT_NTEXT)"{\"MDS\":[{\"mdm_masterEmployee\":" + (ISNULL(MasterEmployeeAllAttributes) ? (DT_NTEXT)"{}" : MasterEmployeeAllAttributes) + (DT_NTEXT)"}],\"DQS\":[{\"dbo_NW_Employees\":" + (ISNULL(DQSEmployeeAllAttributes) ? (DT_NTEXT)"{}" : DQSEmployeeAllAttributes) + (DT_NTEXT)"}]}"</t>
+  </si>
+  <si>
+    <t>[MasterProductAllAttributes] = (
+			SELECT	*
+			FROM	[mdm].[MasterProduct] AS subquery
+			WHERE	subquery.[Code] = MP.[Code]
+			FOR JSON PATH, WITHOUT_ARRAY_WRAPPER
+		)
+[DQSProductAllAttributes] = (
+			SELECT	*
+			FROM	[dbo].[NW_Products] AS subquery
+			WHERE	subquery.[ProductID_Output] = NWP.[ProductID_Output]
+			FOR JSON PATH, WITHOUT_ARRAY_WRAPPER
+		)
+[DQSCategoryAllAttributes] = (
+			SELECT	*
+			FROM	[dbo].[NW_Categories] AS subquery
+			WHERE	subquery.[CategoryID_Output] = NWP.[CategoryID_Output]
+			FOR JSON PATH, WITHOUT_ARRAY_WRAPPER
+		)
+(DT_NTEXT)"{\"MDS\":[{\"mdm_masterProduct\":" + (ISNULL(MasterProductAllAttributes) ? (DT_NTEXT)"{}" : MasterProductAllAttributes) + (DT_NTEXT)"}],\"DQS\":[{\"dbo_NW_Products\":" + (ISNULL(DQSProductAllAttributes) ? (DT_NTEXT)"{}" : DQSProductAllAttributes) + (DT_NTEXT)"},{\"dbo_NW_Categories\":" + (ISNULL(DQSCategoryAllAttributes) ? (DT_NTEXT)"{}" : DQSCategoryAllAttributes) + (DT_NTEXT)"}]}"</t>
   </si>
 </sst>
 </file>
@@ -1258,7 +1312,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
@@ -1344,11 +1398,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="20% — акцент1" xfId="3" builtinId="30"/>
+    <cellStyle name="20% - Accent1" xfId="3" builtinId="30"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Акцент3 2" xfId="2" xr:uid="{72B9F317-F5C0-45A7-AA7C-0F44C45D1FF6}"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{A125878E-94C1-497A-B7A1-BCB52D1AE9BA}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1365,9 +1421,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1405,7 +1461,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1511,7 +1567,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1661,11 +1717,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{438DCF2F-B5A9-4CE2-9803-6BD6F67BD7E5}">
-  <dimension ref="A1:AC66"/>
+  <dimension ref="A1:AC67"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="R1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomLeft" activeCell="R12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1695,7 +1751,7 @@
     <col min="24" max="24" width="14.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="9.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="17.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="40.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="18.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="30" max="16384" width="9.140625" style="4"/>
@@ -2476,17 +2532,17 @@
       <c r="Y12" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="Z12" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA12" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB12" s="10" t="s">
+      <c r="Z12" t="s">
+        <v>341</v>
+      </c>
+      <c r="AA12" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB12" t="s">
         <v>12</v>
       </c>
-      <c r="AC12" s="10" t="s">
-        <v>17</v>
+      <c r="AC12" s="42" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
@@ -2518,12 +2574,14 @@
         <v>10</v>
       </c>
       <c r="Z13" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AA13" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="AB13" s="10"/>
+      <c r="AB13" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="AC13" s="10" t="s">
         <v>17</v>
       </c>
@@ -2557,14 +2615,12 @@
         <v>10</v>
       </c>
       <c r="Z14" s="10" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="AA14" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB14" s="10" t="s">
-        <v>12</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="AB14" s="10"/>
       <c r="AC14" s="10" t="s">
         <v>17</v>
       </c>
@@ -2598,36 +2654,28 @@
         <v>10</v>
       </c>
       <c r="Z15" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AA15" s="10" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="AB15" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="AC15" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="AC15" s="10" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>326</v>
-      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
@@ -2643,10 +2691,18 @@
       <c r="V16" s="5"/>
       <c r="W16" s="5"/>
       <c r="X16" s="5"/>
-      <c r="Y16" s="10"/>
-      <c r="Z16" s="10"/>
-      <c r="AA16" s="10"/>
-      <c r="AB16" s="10"/>
+      <c r="Y16" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z16" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA16" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB16" s="10" t="s">
+        <v>114</v>
+      </c>
       <c r="AC16" s="10"/>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.25">
@@ -2654,20 +2710,24 @@
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="K17" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="L17" s="8" t="s">
-        <v>102</v>
-      </c>
+      <c r="E17" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
       <c r="O17" s="3"/>
@@ -2700,10 +2760,10 @@
         <v>59</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
@@ -2737,7 +2797,7 @@
         <v>59</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L19" s="8" t="s">
         <v>61</v>
@@ -2774,7 +2834,7 @@
         <v>59</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L20" s="8" t="s">
         <v>61</v>
@@ -2811,10 +2871,10 @@
         <v>59</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>103</v>
+        <v>61</v>
       </c>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
@@ -2848,10 +2908,10 @@
         <v>59</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
@@ -2885,7 +2945,7 @@
         <v>59</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L23" s="8" t="s">
         <v>61</v>
@@ -2922,7 +2982,7 @@
         <v>59</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L24" s="8" t="s">
         <v>61</v>
@@ -2959,10 +3019,10 @@
         <v>59</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
@@ -2996,10 +3056,10 @@
         <v>59</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L26" s="8" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
@@ -3033,7 +3093,7 @@
         <v>59</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L27" s="8" t="s">
         <v>61</v>
@@ -3070,7 +3130,7 @@
         <v>59</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L28" s="8" t="s">
         <v>61</v>
@@ -3107,10 +3167,10 @@
         <v>59</v>
       </c>
       <c r="K29" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
@@ -3144,10 +3204,10 @@
         <v>59</v>
       </c>
       <c r="K30" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L30" s="8" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
@@ -3181,7 +3241,7 @@
         <v>59</v>
       </c>
       <c r="K31" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L31" s="8" t="s">
         <v>61</v>
@@ -3218,7 +3278,7 @@
         <v>59</v>
       </c>
       <c r="K32" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L32" s="8" t="s">
         <v>61</v>
@@ -3255,10 +3315,10 @@
         <v>59</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L33" s="8" t="s">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>
@@ -3292,10 +3352,10 @@
         <v>59</v>
       </c>
       <c r="K34" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L34" s="8" t="s">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
@@ -3329,7 +3389,7 @@
         <v>59</v>
       </c>
       <c r="K35" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L35" s="8" t="s">
         <v>61</v>
@@ -3366,7 +3426,7 @@
         <v>59</v>
       </c>
       <c r="K36" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L36" s="8" t="s">
         <v>61</v>
@@ -3403,10 +3463,10 @@
         <v>59</v>
       </c>
       <c r="K37" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L37" s="8" t="s">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="M37" s="5"/>
       <c r="N37" s="5"/>
@@ -3440,10 +3500,10 @@
         <v>59</v>
       </c>
       <c r="K38" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L38" s="8" t="s">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="M38" s="5"/>
       <c r="N38" s="5"/>
@@ -3477,7 +3537,7 @@
         <v>59</v>
       </c>
       <c r="K39" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L39" s="8" t="s">
         <v>61</v>
@@ -3514,7 +3574,7 @@
         <v>59</v>
       </c>
       <c r="K40" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L40" s="8" t="s">
         <v>61</v>
@@ -3551,10 +3611,10 @@
         <v>59</v>
       </c>
       <c r="K41" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L41" s="8" t="s">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="M41" s="5"/>
       <c r="N41" s="5"/>
@@ -3588,10 +3648,10 @@
         <v>59</v>
       </c>
       <c r="K42" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L42" s="8" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="M42" s="5"/>
       <c r="N42" s="5"/>
@@ -3625,7 +3685,7 @@
         <v>59</v>
       </c>
       <c r="K43" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L43" s="8" t="s">
         <v>61</v>
@@ -3662,7 +3722,7 @@
         <v>59</v>
       </c>
       <c r="K44" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L44" s="8" t="s">
         <v>61</v>
@@ -3699,10 +3759,10 @@
         <v>59</v>
       </c>
       <c r="K45" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L45" s="8" t="s">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="M45" s="5"/>
       <c r="N45" s="5"/>
@@ -3736,10 +3796,10 @@
         <v>59</v>
       </c>
       <c r="K46" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L46" s="8" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="M46" s="5"/>
       <c r="N46" s="5"/>
@@ -3773,7 +3833,7 @@
         <v>59</v>
       </c>
       <c r="K47" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L47" s="8" t="s">
         <v>61</v>
@@ -3810,7 +3870,7 @@
         <v>59</v>
       </c>
       <c r="K48" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L48" s="8" t="s">
         <v>61</v>
@@ -3847,7 +3907,7 @@
         <v>59</v>
       </c>
       <c r="K49" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L49" s="8" t="s">
         <v>61</v>
@@ -3880,24 +3940,22 @@
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
-      <c r="J50" s="8"/>
-      <c r="K50" s="8"/>
-      <c r="L50" s="8"/>
+      <c r="J50" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K50" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="L50" s="8" t="s">
+        <v>61</v>
+      </c>
       <c r="M50" s="5"/>
       <c r="N50" s="5"/>
-      <c r="O50" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="P50" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q50" s="3" t="s">
-        <v>273</v>
-      </c>
+      <c r="O50" s="3"/>
+      <c r="P50" s="3"/>
+      <c r="Q50" s="3"/>
       <c r="R50" s="3"/>
-      <c r="S50" s="3" t="s">
-        <v>275</v>
-      </c>
+      <c r="S50" s="3"/>
       <c r="T50" s="5"/>
       <c r="U50" s="5"/>
       <c r="V50" s="5"/>
@@ -3928,7 +3986,7 @@
         <v>306</v>
       </c>
       <c r="P51" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Q51" s="3" t="s">
         <v>273</v>
@@ -3967,14 +4025,14 @@
         <v>306</v>
       </c>
       <c r="P52" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q52" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="R52" s="3"/>
       <c r="S52" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="T52" s="5"/>
       <c r="U52" s="5"/>
@@ -3997,25 +4055,27 @@
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
-      <c r="J53" s="5"/>
-      <c r="K53" s="5"/>
-      <c r="L53" s="5"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="8"/>
+      <c r="L53" s="8"/>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
-      <c r="O53" s="3"/>
-      <c r="P53" s="3"/>
-      <c r="Q53" s="3"/>
+      <c r="O53" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="P53" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q53" s="3" t="s">
+        <v>274</v>
+      </c>
       <c r="R53" s="3"/>
-      <c r="S53" s="3"/>
-      <c r="T53" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="U53" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="V53" s="8" t="s">
-        <v>29</v>
-      </c>
+      <c r="S53" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="T53" s="5"/>
+      <c r="U53" s="5"/>
+      <c r="V53" s="5"/>
       <c r="W53" s="5"/>
       <c r="X53" s="5"/>
       <c r="Y53" s="10"/>
@@ -4048,10 +4108,10 @@
         <v>38</v>
       </c>
       <c r="U54" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V54" s="8" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="W54" s="5"/>
       <c r="X54" s="5"/>
@@ -4085,10 +4145,10 @@
         <v>38</v>
       </c>
       <c r="U55" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V55" s="8" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="W55" s="5"/>
       <c r="X55" s="5"/>
@@ -4122,10 +4182,10 @@
         <v>38</v>
       </c>
       <c r="U56" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V56" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="W56" s="5"/>
       <c r="X56" s="5"/>
@@ -4159,7 +4219,7 @@
         <v>38</v>
       </c>
       <c r="U57" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="V57" s="8" t="s">
         <v>29</v>
@@ -4196,10 +4256,10 @@
         <v>38</v>
       </c>
       <c r="U58" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="V58" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="W58" s="5"/>
       <c r="X58" s="5"/>
@@ -4233,10 +4293,10 @@
         <v>38</v>
       </c>
       <c r="U59" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V59" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="W59" s="5"/>
       <c r="X59" s="5"/>
@@ -4270,10 +4330,10 @@
         <v>38</v>
       </c>
       <c r="U60" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="V60" s="8" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="W60" s="5"/>
       <c r="X60" s="5"/>
@@ -4307,10 +4367,10 @@
         <v>38</v>
       </c>
       <c r="U61" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="V61" s="8" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="W61" s="5"/>
       <c r="X61" s="5"/>
@@ -4344,10 +4404,10 @@
         <v>38</v>
       </c>
       <c r="U62" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="V62" s="8" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="W62" s="5"/>
       <c r="X62" s="5"/>
@@ -4377,18 +4437,16 @@
       <c r="Q63" s="3"/>
       <c r="R63" s="3"/>
       <c r="S63" s="3"/>
-      <c r="T63" s="5" t="s">
+      <c r="T63" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="U63" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="V63" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="W63" s="5" t="s">
-        <v>56</v>
-      </c>
+      <c r="U63" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="V63" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="W63" s="5"/>
       <c r="X63" s="5"/>
       <c r="Y63" s="10"/>
       <c r="Z63" s="10"/>
@@ -4416,16 +4474,18 @@
       <c r="Q64" s="3"/>
       <c r="R64" s="3"/>
       <c r="S64" s="3"/>
-      <c r="T64" s="8" t="s">
+      <c r="T64" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="U64" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="V64" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="W64" s="5"/>
+      <c r="U64" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="V64" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="W64" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="X64" s="5"/>
       <c r="Y64" s="10"/>
       <c r="Z64" s="10"/>
@@ -4457,10 +4517,10 @@
         <v>38</v>
       </c>
       <c r="U65" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="V65" s="8" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="W65" s="5"/>
       <c r="X65" s="5"/>
@@ -4490,24 +4550,61 @@
       <c r="Q66" s="3"/>
       <c r="R66" s="3"/>
       <c r="S66" s="3"/>
-      <c r="T66" s="5" t="s">
+      <c r="T66" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="U66" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="V66" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="W66" s="5" t="s">
-        <v>58</v>
-      </c>
+      <c r="U66" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="V66" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="W66" s="5"/>
       <c r="X66" s="5"/>
       <c r="Y66" s="10"/>
       <c r="Z66" s="10"/>
       <c r="AA66" s="10"/>
       <c r="AB66" s="10"/>
       <c r="AC66" s="10"/>
+    </row>
+    <row r="67" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A67" s="5"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="3"/>
+      <c r="J67" s="5"/>
+      <c r="K67" s="5"/>
+      <c r="L67" s="5"/>
+      <c r="M67" s="5"/>
+      <c r="N67" s="5"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+      <c r="T67" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="U67" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="V67" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="W67" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="X67" s="5"/>
+      <c r="Y67" s="10"/>
+      <c r="Z67" s="10"/>
+      <c r="AA67" s="10"/>
+      <c r="AB67" s="10"/>
+      <c r="AC67" s="10"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:AC2" xr:uid="{1F5E2F5F-C2D6-459F-93D3-DF31ABBA7353}"/>
@@ -7464,11 +7561,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A737B06D-3CA5-4C46-8E57-2C9FAE17A6AF}">
-  <dimension ref="A1:AC62"/>
+  <dimension ref="A1:AC63"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="U1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
+      <selection pane="bottomLeft" activeCell="AB10" sqref="AA10:AB10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7499,9 +7596,9 @@
     <col min="24" max="24" width="44" style="4" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="9.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="17.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="40.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="18.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="58.140625" style="4" customWidth="1"/>
     <col min="30" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
@@ -8104,8 +8201,8 @@
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
       <c r="T10" s="5"/>
       <c r="U10" s="5"/>
       <c r="V10" s="5"/>
@@ -8114,17 +8211,17 @@
       <c r="Y10" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="Z10" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA10" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB10" s="10" t="s">
+      <c r="Z10" t="s">
+        <v>341</v>
+      </c>
+      <c r="AA10" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB10" t="s">
         <v>12</v>
       </c>
-      <c r="AC10" s="10" t="s">
-        <v>17</v>
+      <c r="AC10" s="42" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
@@ -8156,12 +8253,14 @@
         <v>185</v>
       </c>
       <c r="Z11" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AA11" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="AB11" s="10"/>
+      <c r="AB11" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="AC11" s="10" t="s">
         <v>17</v>
       </c>
@@ -8195,14 +8294,12 @@
         <v>185</v>
       </c>
       <c r="Z12" s="10" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="AA12" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB12" s="10" t="s">
-        <v>12</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="AB12" s="10"/>
       <c r="AC12" s="10" t="s">
         <v>17</v>
       </c>
@@ -8236,81 +8333,55 @@
         <v>185</v>
       </c>
       <c r="Z13" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AA13" s="10" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="AB13" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="AC13" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="AC13" s="10" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="L14" s="5" t="s">
-        <v>61</v>
-      </c>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
       <c r="M14" s="5"/>
-      <c r="N14" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>192</v>
-      </c>
+      <c r="N14" s="5"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
       <c r="R14" s="10"/>
       <c r="S14" s="10"/>
-      <c r="T14" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="U14" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="V14" s="5" t="s">
-        <v>192</v>
-      </c>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
       <c r="W14" s="5"/>
       <c r="X14" s="5"/>
-      <c r="Y14" s="10"/>
-      <c r="Z14" s="10"/>
-      <c r="AA14" s="10"/>
-      <c r="AB14" s="10"/>
+      <c r="Y14" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="Z14" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA14" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB14" s="10" t="s">
+        <v>114</v>
+      </c>
       <c r="AC14" s="10"/>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
@@ -8321,16 +8392,16 @@
         <v>219</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>149</v>
+        <v>192</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>219</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>192</v>
@@ -8343,20 +8414,20 @@
         <v>193</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="L15" s="5" t="s">
         <v>61</v>
       </c>
       <c r="M15" s="5"/>
       <c r="N15" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>269</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>192</v>
@@ -8367,7 +8438,7 @@
         <v>191</v>
       </c>
       <c r="U15" s="5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="V15" s="5" t="s">
         <v>192</v>
@@ -8381,38 +8452,64 @@
       <c r="AC15" s="10"/>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
+      <c r="A16" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>149</v>
+      </c>
       <c r="E16" s="3" t="s">
         <v>219</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>324</v>
+        <v>189</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>29</v>
+        <v>192</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="I16" s="3"/>
+      <c r="J16" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
+      <c r="N16" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="U16" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="V16" s="5" t="s">
+        <v>192</v>
+      </c>
       <c r="W16" s="5"/>
       <c r="X16" s="5"/>
       <c r="Y16" s="10"/>
@@ -8426,27 +8523,31 @@
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="K17" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="L17" s="8" t="s">
+      <c r="E17" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>29</v>
       </c>
+      <c r="H17" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="10"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
       <c r="T17" s="5"/>
       <c r="U17" s="5"/>
       <c r="V17" s="5"/>
@@ -8472,10 +8573,10 @@
         <v>193</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
@@ -8509,7 +8610,7 @@
         <v>193</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L19" s="8" t="s">
         <v>61</v>
@@ -8546,7 +8647,7 @@
         <v>193</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="L20" s="8" t="s">
         <v>61</v>
@@ -8583,10 +8684,10 @@
         <v>193</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>192</v>
+        <v>61</v>
       </c>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
@@ -8620,10 +8721,10 @@
         <v>193</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>61</v>
+        <v>192</v>
       </c>
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
@@ -8657,7 +8758,7 @@
         <v>193</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L23" s="8" t="s">
         <v>61</v>
@@ -8694,7 +8795,7 @@
         <v>193</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L24" s="8" t="s">
         <v>61</v>
@@ -8731,10 +8832,10 @@
         <v>193</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>192</v>
+        <v>61</v>
       </c>
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
@@ -8768,10 +8869,10 @@
         <v>193</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="L26" s="8" t="s">
-        <v>61</v>
+        <v>192</v>
       </c>
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
@@ -8805,7 +8906,7 @@
         <v>193</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L27" s="8" t="s">
         <v>61</v>
@@ -8842,7 +8943,7 @@
         <v>193</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L28" s="8" t="s">
         <v>61</v>
@@ -8879,10 +8980,10 @@
         <v>193</v>
       </c>
       <c r="K29" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
@@ -8916,10 +9017,10 @@
         <v>193</v>
       </c>
       <c r="K30" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="L30" s="8" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
@@ -8953,7 +9054,7 @@
         <v>193</v>
       </c>
       <c r="K31" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L31" s="8" t="s">
         <v>61</v>
@@ -8990,7 +9091,7 @@
         <v>193</v>
       </c>
       <c r="K32" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L32" s="8" t="s">
         <v>61</v>
@@ -9027,10 +9128,10 @@
         <v>193</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L33" s="8" t="s">
-        <v>149</v>
+        <v>61</v>
       </c>
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>
@@ -9064,10 +9165,10 @@
         <v>193</v>
       </c>
       <c r="K34" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="L34" s="8" t="s">
-        <v>61</v>
+        <v>149</v>
       </c>
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
@@ -9101,7 +9202,7 @@
         <v>193</v>
       </c>
       <c r="K35" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L35" s="8" t="s">
         <v>61</v>
@@ -9138,7 +9239,7 @@
         <v>193</v>
       </c>
       <c r="K36" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L36" s="8" t="s">
         <v>61</v>
@@ -9175,10 +9276,10 @@
         <v>193</v>
       </c>
       <c r="K37" s="8" t="s">
-        <v>85</v>
+        <v>218</v>
       </c>
       <c r="L37" s="8" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="M37" s="5"/>
       <c r="N37" s="5"/>
@@ -9212,10 +9313,10 @@
         <v>193</v>
       </c>
       <c r="K38" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L38" s="8" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="M38" s="5"/>
       <c r="N38" s="5"/>
@@ -9249,7 +9350,7 @@
         <v>193</v>
       </c>
       <c r="K39" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L39" s="8" t="s">
         <v>61</v>
@@ -9286,7 +9387,7 @@
         <v>193</v>
       </c>
       <c r="K40" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L40" s="8" t="s">
         <v>61</v>
@@ -9323,10 +9424,10 @@
         <v>193</v>
       </c>
       <c r="K41" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L41" s="8" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="M41" s="5"/>
       <c r="N41" s="5"/>
@@ -9360,10 +9461,10 @@
         <v>193</v>
       </c>
       <c r="K42" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L42" s="8" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="M42" s="5"/>
       <c r="N42" s="5"/>
@@ -9397,7 +9498,7 @@
         <v>193</v>
       </c>
       <c r="K43" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L43" s="8" t="s">
         <v>61</v>
@@ -9434,7 +9535,7 @@
         <v>193</v>
       </c>
       <c r="K44" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L44" s="8" t="s">
         <v>61</v>
@@ -9471,7 +9572,7 @@
         <v>193</v>
       </c>
       <c r="K45" s="8" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="L45" s="8" t="s">
         <v>61</v>
@@ -9504,24 +9605,22 @@
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="8"/>
-      <c r="L46" s="8"/>
+      <c r="J46" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="K46" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="L46" s="8" t="s">
+        <v>61</v>
+      </c>
       <c r="M46" s="5"/>
       <c r="N46" s="5"/>
-      <c r="O46" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="P46" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q46" s="3" t="s">
-        <v>273</v>
-      </c>
+      <c r="O46" s="3"/>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="3"/>
       <c r="R46" s="10"/>
-      <c r="S46" s="14" t="s">
-        <v>275</v>
-      </c>
+      <c r="S46" s="10"/>
       <c r="T46" s="5"/>
       <c r="U46" s="5"/>
       <c r="V46" s="5"/>
@@ -9552,7 +9651,7 @@
         <v>269</v>
       </c>
       <c r="P47" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Q47" s="3" t="s">
         <v>273</v>
@@ -9591,14 +9690,14 @@
         <v>269</v>
       </c>
       <c r="P48" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q48" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="R48" s="10"/>
-      <c r="S48" s="10" t="s">
-        <v>276</v>
+      <c r="S48" s="14" t="s">
+        <v>275</v>
       </c>
       <c r="T48" s="5"/>
       <c r="U48" s="5"/>
@@ -9621,25 +9720,27 @@
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
-      <c r="J49" s="5"/>
-      <c r="K49" s="5"/>
-      <c r="L49" s="5"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="8"/>
       <c r="M49" s="5"/>
       <c r="N49" s="5"/>
-      <c r="O49" s="3"/>
-      <c r="P49" s="3"/>
-      <c r="Q49" s="3"/>
+      <c r="O49" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>274</v>
+      </c>
       <c r="R49" s="10"/>
-      <c r="S49" s="10"/>
-      <c r="T49" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="U49" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="V49" s="8" t="s">
-        <v>29</v>
-      </c>
+      <c r="S49" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="T49" s="5"/>
+      <c r="U49" s="5"/>
+      <c r="V49" s="5"/>
       <c r="W49" s="5"/>
       <c r="X49" s="5"/>
       <c r="Y49" s="10"/>
@@ -9672,10 +9773,10 @@
         <v>191</v>
       </c>
       <c r="U50" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V50" s="8" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="W50" s="5"/>
       <c r="X50" s="5"/>
@@ -9709,10 +9810,10 @@
         <v>191</v>
       </c>
       <c r="U51" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V51" s="8" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="W51" s="5"/>
       <c r="X51" s="5"/>
@@ -9746,10 +9847,10 @@
         <v>191</v>
       </c>
       <c r="U52" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V52" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="W52" s="5"/>
       <c r="X52" s="5"/>
@@ -9783,7 +9884,7 @@
         <v>191</v>
       </c>
       <c r="U53" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="V53" s="8" t="s">
         <v>29</v>
@@ -9820,10 +9921,10 @@
         <v>191</v>
       </c>
       <c r="U54" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="V54" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="W54" s="5"/>
       <c r="X54" s="5"/>
@@ -9857,10 +9958,10 @@
         <v>191</v>
       </c>
       <c r="U55" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V55" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="W55" s="5"/>
       <c r="X55" s="5"/>
@@ -9894,10 +9995,10 @@
         <v>191</v>
       </c>
       <c r="U56" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="V56" s="8" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="W56" s="5"/>
       <c r="X56" s="5"/>
@@ -9931,10 +10032,10 @@
         <v>191</v>
       </c>
       <c r="U57" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="V57" s="8" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="W57" s="5"/>
       <c r="X57" s="5"/>
@@ -9968,10 +10069,10 @@
         <v>191</v>
       </c>
       <c r="U58" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="V58" s="8" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="W58" s="5"/>
       <c r="X58" s="5"/>
@@ -10001,18 +10102,16 @@
       <c r="Q59" s="3"/>
       <c r="R59" s="10"/>
       <c r="S59" s="10"/>
-      <c r="T59" s="5" t="s">
+      <c r="T59" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="U59" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="V59" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="W59" s="5" t="s">
-        <v>56</v>
-      </c>
+      <c r="U59" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="V59" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="W59" s="5"/>
       <c r="X59" s="5"/>
       <c r="Y59" s="10"/>
       <c r="Z59" s="10"/>
@@ -10040,16 +10139,18 @@
       <c r="Q60" s="3"/>
       <c r="R60" s="10"/>
       <c r="S60" s="10"/>
-      <c r="T60" s="8" t="s">
+      <c r="T60" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="U60" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="V60" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="W60" s="5"/>
+      <c r="U60" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="V60" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="W60" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="X60" s="5"/>
       <c r="Y60" s="10"/>
       <c r="Z60" s="10"/>
@@ -10081,10 +10182,10 @@
         <v>191</v>
       </c>
       <c r="U61" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="V61" s="8" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="W61" s="5"/>
       <c r="X61" s="5"/>
@@ -10114,24 +10215,61 @@
       <c r="Q62" s="3"/>
       <c r="R62" s="10"/>
       <c r="S62" s="10"/>
-      <c r="T62" s="5" t="s">
+      <c r="T62" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="U62" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="V62" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="W62" s="5" t="s">
-        <v>58</v>
-      </c>
+      <c r="U62" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="V62" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="W62" s="5"/>
       <c r="X62" s="5"/>
       <c r="Y62" s="10"/>
       <c r="Z62" s="10"/>
       <c r="AA62" s="10"/>
       <c r="AB62" s="10"/>
       <c r="AC62" s="10"/>
+    </row>
+    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="5"/>
+      <c r="K63" s="5"/>
+      <c r="L63" s="5"/>
+      <c r="M63" s="5"/>
+      <c r="N63" s="5"/>
+      <c r="O63" s="3"/>
+      <c r="P63" s="3"/>
+      <c r="Q63" s="3"/>
+      <c r="R63" s="10"/>
+      <c r="S63" s="10"/>
+      <c r="T63" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="U63" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="V63" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="W63" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="X63" s="5"/>
+      <c r="Y63" s="10"/>
+      <c r="Z63" s="10"/>
+      <c r="AA63" s="10"/>
+      <c r="AB63" s="10"/>
+      <c r="AC63" s="10"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:AC2" xr:uid="{02CC11CA-5403-4028-895D-6209F46F2C79}"/>
@@ -10150,11 +10288,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A4499F-EBCA-4E9B-AE48-94E9136B2D31}">
-  <dimension ref="A1:AC58"/>
+  <dimension ref="A1:AC59"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="U1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:D1"/>
+      <selection pane="bottomLeft" activeCell="AC8" sqref="AC8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10185,9 +10323,9 @@
     <col min="24" max="24" width="29.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="7.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="15.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="40.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="15.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="63.140625" style="4" customWidth="1"/>
     <col min="30" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
@@ -10603,11 +10741,11 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
@@ -10617,48 +10755,36 @@
       <c r="U7" s="5"/>
       <c r="V7" s="5"/>
       <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
+      <c r="X7" s="29"/>
       <c r="Y7" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="Z7" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA7" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB7" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="AC7" s="10"/>
+      <c r="Z7" t="s">
+        <v>341</v>
+      </c>
+      <c r="AA7" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC7" s="42" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>251</v>
-      </c>
-      <c r="C8" s="30" t="s">
-        <v>257</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="31" t="s">
-        <v>251</v>
-      </c>
-      <c r="F8" s="31" t="s">
-        <v>257</v>
-      </c>
-      <c r="G8" s="31" t="s">
-        <v>29</v>
-      </c>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
       <c r="O8" s="3"/>
@@ -10671,10 +10797,18 @@
       <c r="V8" s="5"/>
       <c r="W8" s="5"/>
       <c r="X8" s="5"/>
-      <c r="Y8" s="10"/>
-      <c r="Z8" s="10"/>
-      <c r="AA8" s="10"/>
-      <c r="AB8" s="10"/>
+      <c r="Y8" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="Z8" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA8" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB8" s="10" t="s">
+        <v>114</v>
+      </c>
       <c r="AC8" s="10"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
@@ -10685,19 +10819,19 @@
         <v>251</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>250</v>
+        <v>29</v>
       </c>
       <c r="E9" s="31" t="s">
         <v>251</v>
       </c>
       <c r="F9" s="31" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G9" s="31" t="s">
-        <v>250</v>
+        <v>29</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -10723,35 +10857,39 @@
       <c r="AC9" s="10"/>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="3" t="s">
+      <c r="A10" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="B10" s="30" t="s">
         <v>251</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
+      <c r="C10" s="30" t="s">
+        <v>258</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>250</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>251</v>
+      </c>
+      <c r="F10" s="31" t="s">
+        <v>258</v>
+      </c>
+      <c r="G10" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
       <c r="T10" s="5"/>
       <c r="U10" s="5"/>
       <c r="V10" s="5"/>
@@ -10768,11 +10906,21 @@
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>329</v>
+      </c>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
@@ -10781,8 +10929,8 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
       <c r="T11" s="5"/>
       <c r="U11" s="5"/>
       <c r="V11" s="5"/>
@@ -10804,15 +10952,9 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
-      <c r="J12" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="L12" s="8" t="s">
-        <v>29</v>
-      </c>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
       <c r="O12" s="3"/>
@@ -10845,10 +10987,10 @@
         <v>228</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
@@ -10882,7 +11024,7 @@
         <v>228</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L14" s="8" t="s">
         <v>61</v>
@@ -10919,7 +11061,7 @@
         <v>228</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L15" s="8" t="s">
         <v>61</v>
@@ -10956,10 +11098,10 @@
         <v>228</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>103</v>
+        <v>61</v>
       </c>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
@@ -10993,10 +11135,10 @@
         <v>228</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
@@ -11030,7 +11172,7 @@
         <v>228</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L18" s="8" t="s">
         <v>61</v>
@@ -11067,7 +11209,7 @@
         <v>228</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L19" s="8" t="s">
         <v>61</v>
@@ -11104,10 +11246,10 @@
         <v>228</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
@@ -11141,10 +11283,10 @@
         <v>228</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
@@ -11178,7 +11320,7 @@
         <v>228</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L22" s="8" t="s">
         <v>61</v>
@@ -11215,7 +11357,7 @@
         <v>228</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L23" s="8" t="s">
         <v>61</v>
@@ -11252,7 +11394,7 @@
         <v>228</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>101</v>
+        <v>244</v>
       </c>
       <c r="L24" s="8" t="s">
         <v>61</v>
@@ -11285,24 +11427,22 @@
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
+      <c r="J25" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="K25" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="L25" s="8" t="s">
+        <v>61</v>
+      </c>
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
-      <c r="O25" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="P25" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q25" s="3" t="s">
-        <v>273</v>
-      </c>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
       <c r="R25" s="10"/>
-      <c r="S25" s="14" t="s">
-        <v>275</v>
-      </c>
+      <c r="S25" s="10"/>
       <c r="T25" s="5"/>
       <c r="U25" s="5"/>
       <c r="V25" s="5"/>
@@ -11333,7 +11473,7 @@
         <v>268</v>
       </c>
       <c r="P26" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Q26" s="3" t="s">
         <v>273</v>
@@ -11372,14 +11512,14 @@
         <v>268</v>
       </c>
       <c r="P27" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q27" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="R27" s="10"/>
-      <c r="S27" s="10" t="s">
-        <v>276</v>
+      <c r="S27" s="14" t="s">
+        <v>275</v>
       </c>
       <c r="T27" s="5"/>
       <c r="U27" s="5"/>
@@ -11402,27 +11542,29 @@
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
+      <c r="O28" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="P28" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q28" s="3" t="s">
+        <v>274</v>
+      </c>
       <c r="R28" s="10"/>
-      <c r="S28" s="10"/>
-      <c r="T28" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="U28" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="V28" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="W28" s="8"/>
-      <c r="X28" s="8"/>
+      <c r="S28" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="5"/>
+      <c r="X28" s="5"/>
       <c r="Y28" s="10"/>
       <c r="Z28" s="10"/>
       <c r="AA28" s="10"/>
@@ -11453,10 +11595,10 @@
         <v>227</v>
       </c>
       <c r="U29" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V29" s="8" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="W29" s="8"/>
       <c r="X29" s="8"/>
@@ -11490,10 +11632,10 @@
         <v>227</v>
       </c>
       <c r="U30" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V30" s="8" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="W30" s="8"/>
       <c r="X30" s="8"/>
@@ -11527,10 +11669,10 @@
         <v>227</v>
       </c>
       <c r="U31" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V31" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="W31" s="8"/>
       <c r="X31" s="8"/>
@@ -11564,7 +11706,7 @@
         <v>227</v>
       </c>
       <c r="U32" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="V32" s="8" t="s">
         <v>29</v>
@@ -11601,10 +11743,10 @@
         <v>227</v>
       </c>
       <c r="U33" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="V33" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="W33" s="8"/>
       <c r="X33" s="8"/>
@@ -11638,10 +11780,10 @@
         <v>227</v>
       </c>
       <c r="U34" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V34" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="W34" s="8"/>
       <c r="X34" s="8"/>
@@ -11675,7 +11817,7 @@
         <v>227</v>
       </c>
       <c r="U35" s="8" t="s">
-        <v>226</v>
+        <v>46</v>
       </c>
       <c r="V35" s="8" t="s">
         <v>29</v>
@@ -11712,10 +11854,10 @@
         <v>227</v>
       </c>
       <c r="U36" s="8" t="s">
-        <v>47</v>
+        <v>226</v>
       </c>
       <c r="V36" s="8" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="W36" s="8"/>
       <c r="X36" s="8"/>
@@ -11749,10 +11891,10 @@
         <v>227</v>
       </c>
       <c r="U37" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="V37" s="8" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="W37" s="8"/>
       <c r="X37" s="8"/>
@@ -11786,10 +11928,10 @@
         <v>227</v>
       </c>
       <c r="U38" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="V38" s="8" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="W38" s="8"/>
       <c r="X38" s="8"/>
@@ -11819,19 +11961,17 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="10"/>
       <c r="S39" s="10"/>
-      <c r="T39" s="5" t="s">
+      <c r="T39" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="U39" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="V39" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="W39" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="X39" s="5"/>
+      <c r="U39" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="V39" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="W39" s="8"/>
+      <c r="X39" s="8"/>
       <c r="Y39" s="10"/>
       <c r="Z39" s="10"/>
       <c r="AA39" s="10"/>
@@ -11858,17 +11998,19 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="10"/>
       <c r="S40" s="10"/>
-      <c r="T40" s="8" t="s">
+      <c r="T40" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="U40" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="V40" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="W40" s="8"/>
-      <c r="X40" s="8"/>
+      <c r="U40" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="V40" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="W40" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="X40" s="5"/>
       <c r="Y40" s="10"/>
       <c r="Z40" s="10"/>
       <c r="AA40" s="10"/>
@@ -11899,10 +12041,10 @@
         <v>227</v>
       </c>
       <c r="U41" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="V41" s="8" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="W41" s="8"/>
       <c r="X41" s="8"/>
@@ -11932,19 +12074,17 @@
       <c r="Q42" s="3"/>
       <c r="R42" s="10"/>
       <c r="S42" s="10"/>
-      <c r="T42" s="5" t="s">
+      <c r="T42" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="U42" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="V42" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="W42" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="X42" s="5"/>
+      <c r="U42" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="V42" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="W42" s="8"/>
+      <c r="X42" s="8"/>
       <c r="Y42" s="10"/>
       <c r="Z42" s="10"/>
       <c r="AA42" s="10"/>
@@ -11952,59 +12092,37 @@
       <c r="AC42" s="10"/>
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
       <c r="I43" s="3"/>
-      <c r="J43" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="K43" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="L43" s="5" t="s">
-        <v>29</v>
-      </c>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
       <c r="M43" s="5"/>
-      <c r="N43" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="O43" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="P43" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q43" s="3" t="s">
-        <v>39</v>
-      </c>
+      <c r="N43" s="5"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
       <c r="R43" s="10"/>
       <c r="S43" s="10"/>
-      <c r="T43" s="5"/>
-      <c r="U43" s="5"/>
-      <c r="V43" s="5"/>
-      <c r="W43" s="5"/>
+      <c r="T43" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="U43" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="V43" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="W43" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="X43" s="5"/>
       <c r="Y43" s="10"/>
       <c r="Z43" s="10"/>
@@ -12020,19 +12138,19 @@
         <v>255</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>104</v>
+        <v>29</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>255</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>104</v>
+        <v>29</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>12</v>
@@ -12042,20 +12160,20 @@
         <v>229</v>
       </c>
       <c r="K44" s="5" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="L44" s="5" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="M44" s="5"/>
       <c r="N44" s="5" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O44" s="3" t="s">
         <v>266</v>
       </c>
       <c r="P44" s="3" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="Q44" s="3" t="s">
         <v>39</v>
@@ -12081,30 +12199,46 @@
         <v>255</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>259</v>
+        <v>104</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>255</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="H45" s="3"/>
+        <v>104</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="I45" s="3"/>
-      <c r="J45" s="5"/>
-      <c r="K45" s="5"/>
-      <c r="L45" s="5"/>
+      <c r="J45" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="K45" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="L45" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="M45" s="5"/>
-      <c r="N45" s="5"/>
-      <c r="O45" s="3"/>
-      <c r="P45" s="3"/>
-      <c r="Q45" s="3"/>
+      <c r="N45" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="R45" s="10"/>
       <c r="S45" s="10"/>
       <c r="T45" s="5"/>
@@ -12119,25 +12253,29 @@
       <c r="AC45" s="10"/>
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
+      <c r="A46" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>259</v>
+      </c>
       <c r="E46" s="3" t="s">
         <v>255</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>324</v>
+        <v>260</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>330</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
@@ -12146,8 +12284,8 @@
       <c r="O46" s="3"/>
       <c r="P46" s="3"/>
       <c r="Q46" s="3"/>
-      <c r="R46" s="3"/>
-      <c r="S46" s="3"/>
+      <c r="R46" s="10"/>
+      <c r="S46" s="10"/>
       <c r="T46" s="5"/>
       <c r="U46" s="5"/>
       <c r="V46" s="5"/>
@@ -12164,27 +12302,31 @@
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="K47" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="L47" s="8" t="s">
+      <c r="E47" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="G47" s="3" t="s">
         <v>29</v>
       </c>
+      <c r="H47" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
       <c r="M47" s="5"/>
       <c r="N47" s="5"/>
       <c r="O47" s="3"/>
       <c r="P47" s="3"/>
       <c r="Q47" s="3"/>
-      <c r="R47" s="10"/>
-      <c r="S47" s="10"/>
+      <c r="R47" s="3"/>
+      <c r="S47" s="3"/>
       <c r="T47" s="5"/>
       <c r="U47" s="5"/>
       <c r="V47" s="5"/>
@@ -12210,10 +12352,10 @@
         <v>229</v>
       </c>
       <c r="K48" s="8" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="L48" s="8" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="M48" s="5"/>
       <c r="N48" s="5"/>
@@ -12247,7 +12389,7 @@
         <v>229</v>
       </c>
       <c r="K49" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L49" s="8" t="s">
         <v>61</v>
@@ -12284,7 +12426,7 @@
         <v>229</v>
       </c>
       <c r="K50" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L50" s="8" t="s">
         <v>61</v>
@@ -12321,10 +12463,10 @@
         <v>229</v>
       </c>
       <c r="K51" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L51" s="8" t="s">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="M51" s="5"/>
       <c r="N51" s="5"/>
@@ -12358,10 +12500,10 @@
         <v>229</v>
       </c>
       <c r="K52" s="8" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="L52" s="8" t="s">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
@@ -12395,7 +12537,7 @@
         <v>229</v>
       </c>
       <c r="K53" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="L53" s="8" t="s">
         <v>61</v>
@@ -12432,7 +12574,7 @@
         <v>229</v>
       </c>
       <c r="K54" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="L54" s="8" t="s">
         <v>61</v>
@@ -12469,7 +12611,7 @@
         <v>229</v>
       </c>
       <c r="K55" s="8" t="s">
-        <v>101</v>
+        <v>249</v>
       </c>
       <c r="L55" s="8" t="s">
         <v>61</v>
@@ -12502,24 +12644,22 @@
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
-      <c r="J56" s="8"/>
-      <c r="K56" s="8"/>
-      <c r="L56" s="8"/>
+      <c r="J56" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="K56" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="L56" s="8" t="s">
+        <v>61</v>
+      </c>
       <c r="M56" s="5"/>
       <c r="N56" s="5"/>
-      <c r="O56" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="P56" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q56" s="3" t="s">
-        <v>273</v>
-      </c>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
       <c r="R56" s="10"/>
-      <c r="S56" s="14" t="s">
-        <v>275</v>
-      </c>
+      <c r="S56" s="10"/>
       <c r="T56" s="5"/>
       <c r="U56" s="5"/>
       <c r="V56" s="5"/>
@@ -12550,7 +12690,7 @@
         <v>266</v>
       </c>
       <c r="P57" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Q57" s="3" t="s">
         <v>273</v>
@@ -12589,14 +12729,14 @@
         <v>266</v>
       </c>
       <c r="P58" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Q58" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="R58" s="10"/>
-      <c r="S58" s="10" t="s">
-        <v>276</v>
+      <c r="S58" s="14" t="s">
+        <v>275</v>
       </c>
       <c r="T58" s="5"/>
       <c r="U58" s="5"/>
@@ -12608,6 +12748,45 @@
       <c r="AA58" s="10"/>
       <c r="AB58" s="10"/>
       <c r="AC58" s="10"/>
+    </row>
+    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A59" s="5"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="8"/>
+      <c r="K59" s="8"/>
+      <c r="L59" s="8"/>
+      <c r="M59" s="5"/>
+      <c r="N59" s="5"/>
+      <c r="O59" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="R59" s="10"/>
+      <c r="S59" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="T59" s="5"/>
+      <c r="U59" s="5"/>
+      <c r="V59" s="5"/>
+      <c r="W59" s="5"/>
+      <c r="X59" s="5"/>
+      <c r="Y59" s="10"/>
+      <c r="Z59" s="10"/>
+      <c r="AA59" s="10"/>
+      <c r="AB59" s="10"/>
+      <c r="AC59" s="10"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:AC2" xr:uid="{FB1DEB6E-3C3E-4F8F-BD13-8004FC7B4D37}"/>
@@ -12628,7 +12807,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE506E6D-FDB6-42A6-8384-1E788212D2E3}">
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
